--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EB2DFD-DA15-4E92-B228-AAC52E730445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71947079-B31F-484D-A707-D3FDED100416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1434,21 +1434,21 @@
     <t>com_fr</t>
   </si>
   <si>
+    <t>process</t>
+  </si>
+  <si>
     <t>commodity</t>
   </si>
   <si>
-    <t>process</t>
-  </si>
-  <si>
     <t>S1aH1</t>
   </si>
   <si>
+    <t>IMPNRGZ</t>
+  </si>
+  <si>
     <t>elc_sol-CHE</t>
   </si>
   <si>
-    <t>IMPNRGZ</t>
-  </si>
-  <si>
     <t>S1aH2</t>
   </si>
   <si>
@@ -2661,10 +2661,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S2c0205h15,S3d0312h13,S3d0312h17,S3h0419h17,S3j0422h14,S3k0427h09,S3k0427h11,S3k0427h18,S3m0916h11,S3m0916h12,S3m0916h16,S3m0916h17,S3o1005h09,S4p1110h08,S4p1110h13,S4p1110h17,S2c0205h08,S3d0312h12,S3e0320h18,S3i0421h07,S3i0421h13,S3i0421h15,S3i0421h16,S3j0422h15,S3k0427h15,S3m0916h07,S3m0916h10,S3m0916h18,S3o1005h10,S4aH5,S2c0205h07,S2c0205h14,S3d0312h14,S3f0321h11,S3g0410h13,S3i0421h17,S3j0422h08,S3j0422h18,S3k0427h17,S3l0429h13,S3l0429h18,S3n0918h09,S3n0918h10,S3n0918h11,S3e0320h14,S3f0321h15,S3g0410h09,S3g0410h16,S3g0410h18,S3j0422h07,S3l0429h15,S3o1005h12,S4p1110h07,S1b0130h12,S1b0130h13,S2c0205h12,S3e0320h07,S3f0321h07,S3f0321h13,S3g0410h07,S3g0410h17,S3h0419h11,S3h0419h13,S3h0419h16,S3k0427h12,S3l0429h08,S3n0918h16,S3o1005h08,S3o1005h14,S4p1110h11,S4p1110h18,S1aH5,S1b0130h15,S2aH4,S2aH5,S3e0320h08,S3f0321h10,S3h0419h15,S3j0422h11,S3k0427h07,S3m0916h14,S3m0916h15,S5aH2,S5aH5,S1b0130h18,S3d0312h15,S3g0410h10,S3h0419h08,S3i0421h11,S3l0429h10,S3n0918h17,S5aH4,S1b0130h08,S2c0205h18,S3aH2,S3e0320h09,S3f0321h09,S3f0321h17,S3g0410h15,S3h0419h14,S3i0421h08,S3i0421h14,S3l0429h07,S3l0429h09,S3l0429h11,S3n0918h07,S3n0918h14,S3n0918h18,S1aH6,S1b0130h17,S3d0312h10,S3d0312h18,S3h0419h10,S3i0421h10,S3j0422h10,S3k0427h08,S3l0429h14,S3o1005h18,S1b0130h09,S2c0205h10,S3e0320h16,S3g0410h14,S3j0422h12,S3n0918h12,S3o1005h13,S4p1110h12,S1aH2,S1b0130h07,S2aH3,S3aH6,S3d0312h08,S3e0320h11,S3j0422h09,S3m0916h13,S3o1005h11,S4p1110h14,S5aH6,S1b0130h11,S2c0205h16,S3aH4,S3d0312h07,S3d0312h11,S3g0410h12,S3i0421h09,S3l0429h17,S3o1005h15,S4aH3,S4aH4,S4p1110h10,S1b0130h14,S1b0130h16,S3aH3,S3d0312h09,S3d0312h16,S3e0320h15,S3e0320h17,S3f0321h14,S3h0419h07,S3h0419h12,S3l0429h16,S3o1005h07,S4p1110h15,S1b0130h10,S2aH6,S3aH5,S3e0320h13,S3f0321h12,S3j0422h13,S3j0422h16,S3k0427h10,S3k0427h14,S3n0918h08,S3n0918h13,S4p1110h16,S5aH3,S2c0205h11,S3e0320h12,S3f0321h16,S3h0419h18,S3i0421h18,S3k0427h16,S3l0429h12,S3m0916h08,S3m0916h09,S3n0918h15,S3o1005h16,S4aH2,S4p1110h09,S1aH4,S2aH2,S2c0205h09,S2c0205h13,S2c0205h17,S3e0320h10,S3f0321h08,S3f0321h18,S3g0410h08,S3g0410h11,S3h0419h09,S3i0421h12,S3j0422h17,S3k0427h13,S3o1005h17,S4aH6</t>
-  </si>
-  <si>
-    <t>S1aH7,S2c0205h05,S3d0312h02,S3d0312h06,S3e0320h20,S3f0321h19,S3h0419h22,S3i0421h22,S3j0422h01,S3j0422h23,S3l0429h06,S3m0916h03,S4aH7,S5aH7,S1b0130h21,S3e0320h01,S3f0321h02,S3h0419h06,S3h0419h20,S3i0421h06,S3m0916h24,S3n0918h05,S3o1005h04,S4p1110h19,S4p1110h20,S2aH8,S2c0205h24,S3d0312h24,S3e0320h02,S3e0320h21,S3f0321h24,S3g0410h19,S3g0410h22,S3j0422h02,S3j0422h06,S3k0427h02,S3k0427h03,S3l0429h19,S3l0429h20,S3l0429h24,S3n0918h23,S4p1110h23,S3e0320h22,S3f0321h01,S3f0321h05,S3g0410h01,S3g0410h04,S3h0419h05,S3h0419h24,S3m0916h22,S3n0918h19,S3n0918h20,S3o1005h03,S3o1005h20,S4aH8,S4p1110h21,S1aH1,S2aH7,S2c0205h23,S3f0321h21,S3g0410h23,S3i0421h05,S3j0422h05,S3k0427h04,S4p1110h01,S1b0130h04,S1b0130h19,S2c0205h01,S2c0205h03,S3h0419h01,S3k0427h05,S3m0916h19,S3n0918h22,S3o1005h05,S4p1110h02,S4p1110h04,S3e0320h19,S3g0410h02,S3g0410h05,S3i0421h21,S3i0421h23,S3k0427h19,S3k0427h23,S3l0429h04,S3l0429h21,S3o1005h22,S1b0130h23,S3aH8,S3d0312h03,S3d0312h19,S3e0320h24,S3h0419h02,S3h0419h04,S3i0421h03,S3i0421h04,S3j0422h22,S3m0916h20,S3m0916h23,S3n0918h01,S3o1005h19,S4p1110h24,S1b0130h01,S1b0130h05,S2c0205h21,S3e0320h06,S3f0321h03,S3i0421h01,S3i0421h02,S3j0422h20,S3l0429h01,S3n0918h04,S3o1005h21,S3o1005h24,S4p1110h22,S1b0130h02,S1b0130h06,S2c0205h22,S3aH1,S3h0419h03,S3h0419h23,S3j0422h04,S3k0427h01,S3k0427h20,S3l0429h22,S3m0916h02,S3n0918h03,S4p1110h03,S1b0130h20,S3d0312h23,S3e0320h03,S3f0321h04,S3g0410h06,S3g0410h21,S3j0422h19,S3l0429h02,S3l0429h23,S3m0916h01,S3m0916h05,S3m0916h06,S3n0918h06,S2c0205h04,S2c0205h19,S2c0205h20,S3d0312h21,S3f0321h22,S3h0419h21,S3j0422h24,S3k0427h21,S3o1005h01,S2c0205h06,S3e0320h23,S3g0410h20,S3g0410h24,S3j0422h03,S3k0427h22,S3l0429h05,S3n0918h24,S3o1005h02,S3o1005h06,S1aH8,S1b0130h03,S1b0130h24,S2c0205h02,S3d0312h04,S3f0321h23,S3i0421h20,S3j0422h21,S3k0427h06,S3k0427h24,S3n0918h02,S4p1110h06,S5aH1,S1b0130h22,S2aH1,S3aH7,S3e0320h04,S3e0320h05,S3g0410h03,S3h0419h19,S3i0421h19,S3i0421h24,S3l0429h03,S3m0916h04,S3m0916h21,S3o1005h23,S5aH8,S3d0312h01,S3d0312h05,S3d0312h20,S3d0312h22,S3f0321h06,S3f0321h20,S3n0918h21,S4aH1,S4p1110h05</t>
+    <t>S1b0130h08,S2c0205h18,S3aH2,S3e0320h09,S3f0321h09,S3f0321h17,S3g0410h15,S3h0419h14,S3i0421h08,S3i0421h14,S3l0429h07,S3l0429h09,S3l0429h11,S3n0918h07,S3n0918h14,S3n0918h18,S2c0205h11,S3e0320h12,S3f0321h16,S3h0419h18,S3i0421h18,S3k0427h16,S3l0429h12,S3m0916h08,S3m0916h09,S3n0918h15,S3o1005h16,S4aH2,S4p1110h09,S1b0130h14,S1b0130h16,S3aH3,S3d0312h09,S3d0312h16,S3e0320h15,S3e0320h17,S3f0321h14,S3h0419h07,S3h0419h12,S3l0429h16,S3o1005h07,S4p1110h15,S1aH5,S1b0130h15,S2aH4,S2aH5,S3e0320h08,S3f0321h10,S3h0419h15,S3j0422h11,S3k0427h07,S3m0916h14,S3m0916h15,S5aH2,S5aH5,S1aH3,S2c0205h15,S3d0312h13,S3d0312h17,S3h0419h17,S3j0422h14,S3k0427h09,S3k0427h11,S3k0427h18,S3m0916h11,S3m0916h12,S3m0916h16,S3m0916h17,S3o1005h09,S4p1110h08,S4p1110h13,S4p1110h17,S1aH2,S1b0130h07,S2aH3,S3aH6,S3d0312h08,S3e0320h11,S3j0422h09,S3m0916h13,S3o1005h11,S4p1110h14,S5aH6,S2c0205h08,S3d0312h12,S3e0320h18,S3i0421h07,S3i0421h13,S3i0421h15,S3i0421h16,S3j0422h15,S3k0427h15,S3m0916h07,S3m0916h10,S3m0916h18,S3o1005h10,S4aH5,S1b0130h11,S2c0205h16,S3aH4,S3d0312h07,S3d0312h11,S3g0410h12,S3i0421h09,S3l0429h17,S3o1005h15,S4aH3,S4aH4,S4p1110h10,S1b0130h10,S2aH6,S3aH5,S3e0320h13,S3f0321h12,S3j0422h13,S3j0422h16,S3k0427h10,S3k0427h14,S3n0918h08,S3n0918h13,S4p1110h16,S5aH3,S1b0130h09,S2c0205h10,S3e0320h16,S3g0410h14,S3j0422h12,S3n0918h12,S3o1005h13,S4p1110h12,S3e0320h14,S3f0321h15,S3g0410h09,S3g0410h16,S3g0410h18,S3j0422h07,S3l0429h15,S3o1005h12,S4p1110h07,S2c0205h07,S2c0205h14,S3d0312h14,S3f0321h11,S3g0410h13,S3i0421h17,S3j0422h08,S3j0422h18,S3k0427h17,S3l0429h13,S3l0429h18,S3n0918h09,S3n0918h10,S3n0918h11,S1aH6,S1b0130h17,S3d0312h10,S3d0312h18,S3h0419h10,S3i0421h10,S3j0422h10,S3k0427h08,S3l0429h14,S3o1005h18,S1b0130h12,S1b0130h13,S2c0205h12,S3e0320h07,S3f0321h07,S3f0321h13,S3g0410h07,S3g0410h17,S3h0419h11,S3h0419h13,S3h0419h16,S3k0427h12,S3l0429h08,S3n0918h16,S3o1005h08,S3o1005h14,S4p1110h11,S4p1110h18,S1aH4,S2aH2,S2c0205h09,S2c0205h13,S2c0205h17,S3e0320h10,S3f0321h08,S3f0321h18,S3g0410h08,S3g0410h11,S3h0419h09,S3i0421h12,S3j0422h17,S3k0427h13,S3o1005h17,S4aH6,S1b0130h18,S3d0312h15,S3g0410h10,S3h0419h08,S3i0421h11,S3l0429h10,S3n0918h17,S5aH4</t>
+  </si>
+  <si>
+    <t>S1b0130h23,S3aH8,S3d0312h03,S3d0312h19,S3e0320h24,S3h0419h02,S3h0419h04,S3i0421h03,S3i0421h04,S3j0422h22,S3m0916h20,S3m0916h23,S3n0918h01,S3o1005h19,S4p1110h24,S1b0130h22,S2aH1,S3aH7,S3e0320h04,S3e0320h05,S3g0410h03,S3h0419h19,S3i0421h19,S3i0421h24,S3l0429h03,S3m0916h04,S3m0916h21,S3o1005h23,S5aH8,S2c0205h06,S3e0320h23,S3g0410h20,S3g0410h24,S3j0422h03,S3k0427h22,S3l0429h05,S3n0918h24,S3o1005h02,S3o1005h06,S1b0130h04,S1b0130h19,S2c0205h01,S2c0205h03,S3h0419h01,S3k0427h05,S3m0916h19,S3n0918h22,S3o1005h05,S4p1110h02,S4p1110h04,S1aH7,S2c0205h05,S3d0312h02,S3d0312h06,S3e0320h20,S3f0321h19,S3h0419h22,S3i0421h22,S3j0422h01,S3j0422h23,S3l0429h06,S3m0916h03,S4aH7,S5aH7,S1b0130h20,S3d0312h23,S3e0320h03,S3f0321h04,S3g0410h06,S3g0410h21,S3j0422h19,S3l0429h02,S3l0429h23,S3m0916h01,S3m0916h05,S3m0916h06,S3n0918h06,S1b0130h21,S3e0320h01,S3f0321h02,S3h0419h06,S3h0419h20,S3i0421h06,S3m0916h24,S3n0918h05,S3o1005h04,S4p1110h19,S4p1110h20,S2c0205h04,S2c0205h19,S2c0205h20,S3d0312h21,S3f0321h22,S3h0419h21,S3j0422h24,S3k0427h21,S3o1005h01,S1aH8,S1b0130h03,S1b0130h24,S2c0205h02,S3d0312h04,S3f0321h23,S3i0421h20,S3j0422h21,S3k0427h06,S3k0427h24,S3n0918h02,S4p1110h06,S5aH1,S1b0130h02,S1b0130h06,S2c0205h22,S3aH1,S3h0419h03,S3h0419h23,S3j0422h04,S3k0427h01,S3k0427h20,S3l0429h22,S3m0916h02,S3n0918h03,S4p1110h03,S3e0320h22,S3f0321h01,S3f0321h05,S3g0410h01,S3g0410h04,S3h0419h05,S3h0419h24,S3m0916h22,S3n0918h19,S3n0918h20,S3o1005h03,S3o1005h20,S4aH8,S4p1110h21,S2aH8,S2c0205h24,S3d0312h24,S3e0320h02,S3e0320h21,S3f0321h24,S3g0410h19,S3g0410h22,S3j0422h02,S3j0422h06,S3k0427h02,S3k0427h03,S3l0429h19,S3l0429h20,S3l0429h24,S3n0918h23,S4p1110h23,S1b0130h01,S1b0130h05,S2c0205h21,S3e0320h06,S3f0321h03,S3i0421h01,S3i0421h02,S3j0422h20,S3l0429h01,S3n0918h04,S3o1005h21,S3o1005h24,S4p1110h22,S1aH1,S2aH7,S2c0205h23,S3f0321h21,S3g0410h23,S3i0421h05,S3j0422h05,S3k0427h04,S4p1110h01,S3d0312h01,S3d0312h05,S3d0312h20,S3d0312h22,S3f0321h06,S3f0321h20,S3n0918h21,S4aH1,S4p1110h05,S3e0320h19,S3g0410h02,S3g0410h05,S3i0421h21,S3i0421h23,S3k0427h19,S3k0427h23,S3l0429h04,S3l0429h21,S3o1005h22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH7,S2c0205h05,S3d0312h02,S3d0312h06,S3e0320h20,S3f0321h19,S3h0419h22,S3i0421h22,S3j0422h01,S3j0422h23,S3l0429h06,S3m0916h03,S4aH7,S5aH7,S1b0130h21,S3e0320h01,S3f0321h02,S3h0419h06,S3h0419h20,S3i0421h06,S3m0916h24,S3n0918h05,S3o1005h04,S4p1110h19,S4p1110h20,S2aH8,S2c0205h24,S3d0312h24,S3e0320h02,S3e0320h21,S3f0321h24,S3g0410h19,S3g0410h22,S3j0422h02,S3j0422h06,S3k0427h02,S3k0427h03,S3l0429h19,S3l0429h20,S3l0429h24,S3n0918h23,S4p1110h23,S3e0320h22,S3f0321h01,S3f0321h05,S3g0410h01,S3g0410h04,S3h0419h05,S3h0419h24,S3m0916h22,S3n0918h19,S3n0918h20,S3o1005h03,S3o1005h20,S4aH8,S4p1110h21,S1aH1,S2aH7,S2c0205h23,S3f0321h21,S3g0410h23,S3i0421h05,S3j0422h05,S3k0427h04,S4p1110h01,S1b0130h04,S1b0130h19,S2c0205h01,S2c0205h03,S3h0419h01,S3k0427h05,S3m0916h19,S3n0918h22,S3o1005h05,S4p1110h02,S4p1110h04,S3e0320h19,S3g0410h02,S3g0410h05,S3i0421h21,S3i0421h23,S3k0427h19,S3k0427h23,S3l0429h04,S3l0429h21,S3o1005h22,S1b0130h23,S3aH8,S3d0312h03,S3d0312h19,S3e0320h24,S3h0419h02,S3h0419h04,S3i0421h03,S3i0421h04,S3j0422h22,S3m0916h20,S3m0916h23,S3n0918h01,S3o1005h19,S4p1110h24,S1b0130h01,S1b0130h05,S2c0205h21,S3e0320h06,S3f0321h03,S3i0421h01,S3i0421h02,S3j0422h20,S3l0429h01,S3n0918h04,S3o1005h21,S3o1005h24,S4p1110h22,S1b0130h02,S1b0130h06,S2c0205h22,S3aH1,S3h0419h03,S3h0419h23,S3j0422h04,S3k0427h01,S3k0427h20,S3l0429h22,S3m0916h02,S3n0918h03,S4p1110h03,S1b0130h20,S3d0312h23,S3e0320h03,S3f0321h04,S3g0410h06,S3g0410h21,S3j0422h19,S3l0429h02,S3l0429h23,S3m0916h01,S3m0916h05,S3m0916h06,S3n0918h06,S2c0205h04,S2c0205h19,S2c0205h20,S3d0312h21,S3f0321h22,S3h0419h21,S3j0422h24,S3k0427h21,S3o1005h01,S2c0205h06,S3e0320h23,S3g0410h20,S3g0410h24,S3j0422h03,S3k0427h22,S3l0429h05,S3n0918h24,S3o1005h02,S3o1005h06,S1aH8,S1b0130h03,S1b0130h24,S2c0205h02,S3d0312h04,S3f0321h23,S3i0421h20,S3j0422h21,S3k0427h06,S3k0427h24,S3n0918h02,S4p1110h06,S5aH1,S1b0130h22,S2aH1,S3aH7,S3e0320h04,S3e0320h05,S3g0410h03,S3h0419h19,S3i0421h19,S3i0421h24,S3l0429h03,S3m0916h04,S3m0916h21,S3o1005h23,S5aH8,S3d0312h01,S3d0312h05,S3d0312h20,S3d0312h22,S3f0321h06,S3f0321h20,S3n0918h21,S4aH1,S4p1110h05</v>
+        <v>S1b0130h23,S3aH8,S3d0312h03,S3d0312h19,S3e0320h24,S3h0419h02,S3h0419h04,S3i0421h03,S3i0421h04,S3j0422h22,S3m0916h20,S3m0916h23,S3n0918h01,S3o1005h19,S4p1110h24,S1b0130h22,S2aH1,S3aH7,S3e0320h04,S3e0320h05,S3g0410h03,S3h0419h19,S3i0421h19,S3i0421h24,S3l0429h03,S3m0916h04,S3m0916h21,S3o1005h23,S5aH8,S2c0205h06,S3e0320h23,S3g0410h20,S3g0410h24,S3j0422h03,S3k0427h22,S3l0429h05,S3n0918h24,S3o1005h02,S3o1005h06,S1b0130h04,S1b0130h19,S2c0205h01,S2c0205h03,S3h0419h01,S3k0427h05,S3m0916h19,S3n0918h22,S3o1005h05,S4p1110h02,S4p1110h04,S1aH7,S2c0205h05,S3d0312h02,S3d0312h06,S3e0320h20,S3f0321h19,S3h0419h22,S3i0421h22,S3j0422h01,S3j0422h23,S3l0429h06,S3m0916h03,S4aH7,S5aH7,S1b0130h20,S3d0312h23,S3e0320h03,S3f0321h04,S3g0410h06,S3g0410h21,S3j0422h19,S3l0429h02,S3l0429h23,S3m0916h01,S3m0916h05,S3m0916h06,S3n0918h06,S1b0130h21,S3e0320h01,S3f0321h02,S3h0419h06,S3h0419h20,S3i0421h06,S3m0916h24,S3n0918h05,S3o1005h04,S4p1110h19,S4p1110h20,S2c0205h04,S2c0205h19,S2c0205h20,S3d0312h21,S3f0321h22,S3h0419h21,S3j0422h24,S3k0427h21,S3o1005h01,S1aH8,S1b0130h03,S1b0130h24,S2c0205h02,S3d0312h04,S3f0321h23,S3i0421h20,S3j0422h21,S3k0427h06,S3k0427h24,S3n0918h02,S4p1110h06,S5aH1,S1b0130h02,S1b0130h06,S2c0205h22,S3aH1,S3h0419h03,S3h0419h23,S3j0422h04,S3k0427h01,S3k0427h20,S3l0429h22,S3m0916h02,S3n0918h03,S4p1110h03,S3e0320h22,S3f0321h01,S3f0321h05,S3g0410h01,S3g0410h04,S3h0419h05,S3h0419h24,S3m0916h22,S3n0918h19,S3n0918h20,S3o1005h03,S3o1005h20,S4aH8,S4p1110h21,S2aH8,S2c0205h24,S3d0312h24,S3e0320h02,S3e0320h21,S3f0321h24,S3g0410h19,S3g0410h22,S3j0422h02,S3j0422h06,S3k0427h02,S3k0427h03,S3l0429h19,S3l0429h20,S3l0429h24,S3n0918h23,S4p1110h23,S1b0130h01,S1b0130h05,S2c0205h21,S3e0320h06,S3f0321h03,S3i0421h01,S3i0421h02,S3j0422h20,S3l0429h01,S3n0918h04,S3o1005h21,S3o1005h24,S4p1110h22,S1aH1,S2aH7,S2c0205h23,S3f0321h21,S3g0410h23,S3i0421h05,S3j0422h05,S3k0427h04,S4p1110h01,S3d0312h01,S3d0312h05,S3d0312h20,S3d0312h22,S3f0321h06,S3f0321h20,S3n0918h21,S4aH1,S4p1110h05,S3e0320h19,S3g0410h02,S3g0410h05,S3i0421h21,S3i0421h23,S3k0427h19,S3k0427h23,S3l0429h04,S3l0429h21,S3o1005h22</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S2c0205h15,S3d0312h13,S3d0312h17,S3h0419h17,S3j0422h14,S3k0427h09,S3k0427h11,S3k0427h18,S3m0916h11,S3m0916h12,S3m0916h16,S3m0916h17,S3o1005h09,S4p1110h08,S4p1110h13,S4p1110h17,S2c0205h08,S3d0312h12,S3e0320h18,S3i0421h07,S3i0421h13,S3i0421h15,S3i0421h16,S3j0422h15,S3k0427h15,S3m0916h07,S3m0916h10,S3m0916h18,S3o1005h10,S4aH5,S2c0205h07,S2c0205h14,S3d0312h14,S3f0321h11,S3g0410h13,S3i0421h17,S3j0422h08,S3j0422h18,S3k0427h17,S3l0429h13,S3l0429h18,S3n0918h09,S3n0918h10,S3n0918h11,S3e0320h14,S3f0321h15,S3g0410h09,S3g0410h16,S3g0410h18,S3j0422h07,S3l0429h15,S3o1005h12,S4p1110h07,S1b0130h12,S1b0130h13,S2c0205h12,S3e0320h07,S3f0321h07,S3f0321h13,S3g0410h07,S3g0410h17,S3h0419h11,S3h0419h13,S3h0419h16,S3k0427h12,S3l0429h08,S3n0918h16,S3o1005h08,S3o1005h14,S4p1110h11,S4p1110h18,S1aH5,S1b0130h15,S2aH4,S2aH5,S3e0320h08,S3f0321h10,S3h0419h15,S3j0422h11,S3k0427h07,S3m0916h14,S3m0916h15,S5aH2,S5aH5,S1b0130h18,S3d0312h15,S3g0410h10,S3h0419h08,S3i0421h11,S3l0429h10,S3n0918h17,S5aH4,S1b0130h08,S2c0205h18,S3aH2,S3e0320h09,S3f0321h09,S3f0321h17,S3g0410h15,S3h0419h14,S3i0421h08,S3i0421h14,S3l0429h07,S3l0429h09,S3l0429h11,S3n0918h07,S3n0918h14,S3n0918h18,S1aH6,S1b0130h17,S3d0312h10,S3d0312h18,S3h0419h10,S3i0421h10,S3j0422h10,S3k0427h08,S3l0429h14,S3o1005h18,S1b0130h09,S2c0205h10,S3e0320h16,S3g0410h14,S3j0422h12,S3n0918h12,S3o1005h13,S4p1110h12,S1aH2,S1b0130h07,S2aH3,S3aH6,S3d0312h08,S3e0320h11,S3j0422h09,S3m0916h13,S3o1005h11,S4p1110h14,S5aH6,S1b0130h11,S2c0205h16,S3aH4,S3d0312h07,S3d0312h11,S3g0410h12,S3i0421h09,S3l0429h17,S3o1005h15,S4aH3,S4aH4,S4p1110h10,S1b0130h14,S1b0130h16,S3aH3,S3d0312h09,S3d0312h16,S3e0320h15,S3e0320h17,S3f0321h14,S3h0419h07,S3h0419h12,S3l0429h16,S3o1005h07,S4p1110h15,S1b0130h10,S2aH6,S3aH5,S3e0320h13,S3f0321h12,S3j0422h13,S3j0422h16,S3k0427h10,S3k0427h14,S3n0918h08,S3n0918h13,S4p1110h16,S5aH3,S2c0205h11,S3e0320h12,S3f0321h16,S3h0419h18,S3i0421h18,S3k0427h16,S3l0429h12,S3m0916h08,S3m0916h09,S3n0918h15,S3o1005h16,S4aH2,S4p1110h09,S1aH4,S2aH2,S2c0205h09,S2c0205h13,S2c0205h17,S3e0320h10,S3f0321h08,S3f0321h18,S3g0410h08,S3g0410h11,S3h0419h09,S3i0421h12,S3j0422h17,S3k0427h13,S3o1005h17,S4aH6</v>
+        <v>S1b0130h08,S2c0205h18,S3aH2,S3e0320h09,S3f0321h09,S3f0321h17,S3g0410h15,S3h0419h14,S3i0421h08,S3i0421h14,S3l0429h07,S3l0429h09,S3l0429h11,S3n0918h07,S3n0918h14,S3n0918h18,S2c0205h11,S3e0320h12,S3f0321h16,S3h0419h18,S3i0421h18,S3k0427h16,S3l0429h12,S3m0916h08,S3m0916h09,S3n0918h15,S3o1005h16,S4aH2,S4p1110h09,S1b0130h14,S1b0130h16,S3aH3,S3d0312h09,S3d0312h16,S3e0320h15,S3e0320h17,S3f0321h14,S3h0419h07,S3h0419h12,S3l0429h16,S3o1005h07,S4p1110h15,S1aH5,S1b0130h15,S2aH4,S2aH5,S3e0320h08,S3f0321h10,S3h0419h15,S3j0422h11,S3k0427h07,S3m0916h14,S3m0916h15,S5aH2,S5aH5,S1aH3,S2c0205h15,S3d0312h13,S3d0312h17,S3h0419h17,S3j0422h14,S3k0427h09,S3k0427h11,S3k0427h18,S3m0916h11,S3m0916h12,S3m0916h16,S3m0916h17,S3o1005h09,S4p1110h08,S4p1110h13,S4p1110h17,S1aH2,S1b0130h07,S2aH3,S3aH6,S3d0312h08,S3e0320h11,S3j0422h09,S3m0916h13,S3o1005h11,S4p1110h14,S5aH6,S2c0205h08,S3d0312h12,S3e0320h18,S3i0421h07,S3i0421h13,S3i0421h15,S3i0421h16,S3j0422h15,S3k0427h15,S3m0916h07,S3m0916h10,S3m0916h18,S3o1005h10,S4aH5,S1b0130h11,S2c0205h16,S3aH4,S3d0312h07,S3d0312h11,S3g0410h12,S3i0421h09,S3l0429h17,S3o1005h15,S4aH3,S4aH4,S4p1110h10,S1b0130h10,S2aH6,S3aH5,S3e0320h13,S3f0321h12,S3j0422h13,S3j0422h16,S3k0427h10,S3k0427h14,S3n0918h08,S3n0918h13,S4p1110h16,S5aH3,S1b0130h09,S2c0205h10,S3e0320h16,S3g0410h14,S3j0422h12,S3n0918h12,S3o1005h13,S4p1110h12,S3e0320h14,S3f0321h15,S3g0410h09,S3g0410h16,S3g0410h18,S3j0422h07,S3l0429h15,S3o1005h12,S4p1110h07,S2c0205h07,S2c0205h14,S3d0312h14,S3f0321h11,S3g0410h13,S3i0421h17,S3j0422h08,S3j0422h18,S3k0427h17,S3l0429h13,S3l0429h18,S3n0918h09,S3n0918h10,S3n0918h11,S1aH6,S1b0130h17,S3d0312h10,S3d0312h18,S3h0419h10,S3i0421h10,S3j0422h10,S3k0427h08,S3l0429h14,S3o1005h18,S1b0130h12,S1b0130h13,S2c0205h12,S3e0320h07,S3f0321h07,S3f0321h13,S3g0410h07,S3g0410h17,S3h0419h11,S3h0419h13,S3h0419h16,S3k0427h12,S3l0429h08,S3n0918h16,S3o1005h08,S3o1005h14,S4p1110h11,S4p1110h18,S1aH4,S2aH2,S2c0205h09,S2c0205h13,S2c0205h17,S3e0320h10,S3f0321h08,S3f0321h18,S3g0410h08,S3g0410h11,S3h0419h09,S3i0421h12,S3j0422h17,S3k0427h13,S3o1005h17,S4aH6,S1b0130h18,S3d0312h15,S3g0410h10,S3h0419h08,S3i0421h11,S3l0429h10,S3n0918h17,S5aH4</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3880,7 +3880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD075C30-3EFC-4BBA-8608-16C3E6DD2D4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2EABA3-0183-4230-8DB5-81B0FE3F3FFC}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6970,7 +6970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A384FCE-C360-4481-8EBE-892B6B51A946}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341B3303-41F8-4BED-99FC-D2E18A76FE0D}">
   <dimension ref="B2:O403"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7043,16 +7043,16 @@
         <v>4.927E-3</v>
       </c>
       <c r="J4" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K4" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="N4">
-        <v>9.781227946365563E-2</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O4" t="s">
         <v>880</v>
@@ -7078,16 +7078,16 @@
         <v>1.95E-4</v>
       </c>
       <c r="J5" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K5" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N5">
-        <v>7.9527811637903401E-2</v>
+        <v>9.7812279463655616E-2</v>
       </c>
       <c r="O5" t="s">
         <v>880</v>
@@ -7113,16 +7113,16 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J6" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K6" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N6">
-        <v>7.8719445691922768E-2</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O6" t="s">
         <v>880</v>
@@ -7148,16 +7148,16 @@
         <v>1.95E-4</v>
       </c>
       <c r="J7" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K7" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
       <c r="M7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N7">
-        <v>8.0605632899210897E-2</v>
+        <v>0.86333483030730718</v>
       </c>
       <c r="O7" t="s">
         <v>880</v>
@@ -7183,16 +7183,16 @@
         <v>8.1700000000000002E-4</v>
       </c>
       <c r="J8" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K8" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N8">
-        <v>0.8633348303073074</v>
+        <v>7.8719445691922754E-2</v>
       </c>
       <c r="O8" t="s">
         <v>880</v>
@@ -7218,10 +7218,10 @@
         <v>1.4907E-2</v>
       </c>
       <c r="J9" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K9" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.45">
@@ -7244,10 +7244,10 @@
         <v>4.7479999999999996E-3</v>
       </c>
       <c r="J10" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K10" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
@@ -7270,10 +7270,10 @@
         <v>1.8435E-2</v>
       </c>
       <c r="J11" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K11" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
@@ -7296,10 +7296,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K12" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
@@ -7322,10 +7322,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K13" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.45">
@@ -7348,10 +7348,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K14" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
@@ -7374,10 +7374,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K15" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.45">
@@ -7400,10 +7400,10 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="J16" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K16" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.45">
@@ -7426,10 +7426,10 @@
         <v>1.1900000000000001E-4</v>
       </c>
       <c r="J17" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K17" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.45">
@@ -7452,10 +7452,10 @@
         <v>1.95E-4</v>
       </c>
       <c r="J18" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K18" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.45">
@@ -7478,10 +7478,10 @@
         <v>1.95E-4</v>
       </c>
       <c r="J19" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K19" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.45">
@@ -7504,10 +7504,10 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J20" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K20" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.45">
@@ -7530,10 +7530,10 @@
         <v>7.2800000000000002E-4</v>
       </c>
       <c r="J21" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K21" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.45">
@@ -7556,10 +7556,10 @@
         <v>7.2800000000000002E-4</v>
       </c>
       <c r="J22" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K22" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.45">
@@ -7582,10 +7582,10 @@
         <v>9.0499999999999999E-4</v>
       </c>
       <c r="J23" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K23" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.45">
@@ -7608,10 +7608,10 @@
         <v>2.679E-3</v>
       </c>
       <c r="J24" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K24" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.45">
@@ -7634,10 +7634,10 @@
         <v>4.287E-3</v>
       </c>
       <c r="J25" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K25" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.45">
@@ -7660,10 +7660,10 @@
         <v>1.17E-3</v>
       </c>
       <c r="J26" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K26" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.45">
@@ -7686,10 +7686,10 @@
         <v>4.287E-3</v>
       </c>
       <c r="J27" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K27" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.45">
@@ -7712,10 +7712,10 @@
         <v>6.3420000000000004E-3</v>
       </c>
       <c r="J28" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K28" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.45">
@@ -7738,10 +7738,10 @@
         <v>6.8739999999999999E-3</v>
       </c>
       <c r="J29" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K29" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.45">
@@ -7764,10 +7764,10 @@
         <v>4.7429999999999998E-3</v>
       </c>
       <c r="J30" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K30" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.45">
@@ -7790,10 +7790,10 @@
         <v>1.436E-3</v>
       </c>
       <c r="J31" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K31" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.45">
@@ -7816,10 +7816,10 @@
         <v>7.2800000000000002E-4</v>
       </c>
       <c r="J32" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K32" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.45">
@@ -7842,10 +7842,10 @@
         <v>2.99E-3</v>
       </c>
       <c r="J33" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K33" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.45">
@@ -7868,10 +7868,10 @@
         <v>2.99E-3</v>
       </c>
       <c r="J34" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K34" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.45">
@@ -7894,10 +7894,10 @@
         <v>5.2760000000000003E-3</v>
       </c>
       <c r="J35" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K35" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.45">
@@ -7920,10 +7920,10 @@
         <v>1.5494000000000001E-2</v>
       </c>
       <c r="J36" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K36" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.45">
@@ -7946,10 +7946,10 @@
         <v>1.4910000000000001E-3</v>
       </c>
       <c r="J37" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K37" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.45">
@@ -7972,10 +7972,10 @@
         <v>2.0230000000000001E-3</v>
       </c>
       <c r="J38" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K38" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.45">
@@ -7998,10 +7998,10 @@
         <v>2.4069999999999999E-3</v>
       </c>
       <c r="J39" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K39" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.45">
@@ -8024,10 +8024,10 @@
         <v>1.6163E-2</v>
       </c>
       <c r="J40" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K40" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.45">
@@ -8050,10 +8050,10 @@
         <v>1.6781000000000001E-2</v>
       </c>
       <c r="J41" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K41" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.45">
@@ -8076,10 +8076,10 @@
         <v>6.2459999999999998E-3</v>
       </c>
       <c r="J42" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K42" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.45">
@@ -8102,10 +8102,10 @@
         <v>1.2119E-2</v>
       </c>
       <c r="J43" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K43" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.45">
@@ -8128,10 +8128,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K44" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.45">
@@ -8154,10 +8154,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K45" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.45">
@@ -8180,10 +8180,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K46" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.45">
@@ -8206,10 +8206,10 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="J47" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K47" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.45">
@@ -8232,10 +8232,10 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J48" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K48" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.45">
@@ -8258,10 +8258,10 @@
         <v>4.6099999999999998E-4</v>
       </c>
       <c r="J49" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K49" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.45">
@@ -8284,10 +8284,10 @@
         <v>7.2800000000000002E-4</v>
       </c>
       <c r="J50" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K50" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.45">
@@ -8310,10 +8310,10 @@
         <v>1.17E-3</v>
       </c>
       <c r="J51" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K51" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.45">
@@ -8336,10 +8336,10 @@
         <v>3.3010000000000001E-3</v>
       </c>
       <c r="J52" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K52" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.45">
@@ -8362,10 +8362,10 @@
         <v>7.4070000000000004E-3</v>
       </c>
       <c r="J53" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K53" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.45">
@@ -8388,10 +8388,10 @@
         <v>8.4729999999999996E-3</v>
       </c>
       <c r="J54" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K54" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.45">
@@ -8414,10 +8414,10 @@
         <v>7.4070000000000004E-3</v>
       </c>
       <c r="J55" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K55" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.45">
@@ -8440,10 +8440,10 @@
         <v>1.1738999999999999E-2</v>
       </c>
       <c r="J56" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K56" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.45">
@@ -8466,10 +8466,10 @@
         <v>9.4619999999999999E-3</v>
       </c>
       <c r="J57" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K57" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.45">
@@ -8492,10 +8492,10 @@
         <v>1.6534E-2</v>
       </c>
       <c r="J58" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K58" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.45">
@@ -8518,10 +8518,10 @@
         <v>9.0060000000000001E-3</v>
       </c>
       <c r="J59" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K59" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.45">
@@ -8544,10 +8544,10 @@
         <v>3.6120000000000002E-3</v>
       </c>
       <c r="J60" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K60" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.45">
@@ -8570,10 +8570,10 @@
         <v>2.0579999999999999E-3</v>
       </c>
       <c r="J61" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K61" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.45">
@@ -8596,10 +8596,10 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="J62" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K62" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.45">
@@ -8622,10 +8622,10 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J63" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K63" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.45">
@@ -8648,10 +8648,10 @@
         <v>1.1900000000000001E-4</v>
       </c>
       <c r="J64" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K64" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.45">
@@ -8674,10 +8674,10 @@
         <v>1.95E-4</v>
       </c>
       <c r="J65" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K65" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.45">
@@ -8700,10 +8700,10 @@
         <v>8.1700000000000002E-4</v>
       </c>
       <c r="J66" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K66" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.45">
@@ -8726,10 +8726,10 @@
         <v>1.17E-3</v>
       </c>
       <c r="J67" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K67" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.45">
@@ -8752,10 +8752,10 @@
         <v>8.8450000000000004E-3</v>
       </c>
       <c r="J68" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K68" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.45">
@@ -8778,10 +8778,10 @@
         <v>2.8709999999999999E-3</v>
       </c>
       <c r="J69" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K69" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.45">
@@ -8804,10 +8804,10 @@
         <v>6.8380000000000003E-3</v>
       </c>
       <c r="J70" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K70" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.45">
@@ -8830,10 +8830,10 @@
         <v>1.5344E-2</v>
       </c>
       <c r="J71" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K71" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.45">
@@ -8856,10 +8856,10 @@
         <v>0.121249</v>
       </c>
       <c r="J72" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K72" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.45">
@@ -8882,10 +8882,10 @@
         <v>0.173016</v>
       </c>
       <c r="J73" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K73" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.45">
@@ -8908,10 +8908,10 @@
         <v>1.9003000000000003E-2</v>
       </c>
       <c r="J74" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K74" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.45">
@@ -8934,10 +8934,10 @@
         <v>2.1176E-2</v>
       </c>
       <c r="J75" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K75" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.45">
@@ -8960,10 +8960,10 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K76" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.45">
@@ -8986,10 +8986,10 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K77" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.45">
@@ -9012,10 +9012,10 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K78" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.45">
@@ -9038,10 +9038,10 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K79" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.45">
@@ -9064,10 +9064,10 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K80" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.45">
@@ -9090,10 +9090,10 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K81" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.45">
@@ -9116,10 +9116,10 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K82" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.45">
@@ -9142,10 +9142,10 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K83" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.45">
@@ -9168,10 +9168,10 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K84" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.45">
@@ -9194,10 +9194,10 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K85" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.45">
@@ -9220,10 +9220,10 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K86" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.45">
@@ -9246,10 +9246,10 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K87" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.45">
@@ -9272,10 +9272,10 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K88" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.45">
@@ -9298,10 +9298,10 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K89" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.45">
@@ -9324,10 +9324,10 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K90" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.45">
@@ -9350,10 +9350,10 @@
         <v>3.7300000000000001E-4</v>
       </c>
       <c r="J91" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K91" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.45">
@@ -9376,10 +9376,10 @@
         <v>1.17E-3</v>
       </c>
       <c r="J92" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K92" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.45">
@@ -9402,10 +9402,10 @@
         <v>1.436E-3</v>
       </c>
       <c r="J93" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K93" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.45">
@@ -9428,10 +9428,10 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K94" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.45">
@@ -9454,10 +9454,10 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K95" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.45">
@@ -9480,10 +9480,10 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K96" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.45">
@@ -9506,10 +9506,10 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K97" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.45">
@@ -9532,10 +9532,10 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K98" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.45">
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K99" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.45">
@@ -9584,10 +9584,10 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K100" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.45">
@@ -9610,10 +9610,10 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K101" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.45">
@@ -9636,10 +9636,10 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K102" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.45">
@@ -9662,10 +9662,10 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K103" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.45">
@@ -9688,10 +9688,10 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K104" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.45">
@@ -9714,10 +9714,10 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K105" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.45">
@@ -9740,10 +9740,10 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K106" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.45">
@@ -9766,10 +9766,10 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K107" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.45">
@@ -9792,10 +9792,10 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K108" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.45">
@@ -9818,10 +9818,10 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K109" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.45">
@@ -9844,10 +9844,10 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K110" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.45">
@@ -9870,10 +9870,10 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K111" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.45">
@@ -9896,10 +9896,10 @@
         <v>3.7300000000000001E-4</v>
       </c>
       <c r="J112" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K112" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.45">
@@ -9922,10 +9922,10 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K113" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.45">
@@ -9948,10 +9948,10 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K114" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.45">
@@ -9974,10 +9974,10 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J115" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K115" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.45">
@@ -10000,10 +10000,10 @@
         <v>6.3900000000000003E-4</v>
       </c>
       <c r="J116" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K116" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.45">
@@ -10026,10 +10026,10 @@
         <v>1.436E-3</v>
       </c>
       <c r="J117" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K117" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.45">
@@ -10052,10 +10052,10 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="J118" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K118" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.45">
@@ -10078,10 +10078,10 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="J119" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K119" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.45">
@@ -10104,10 +10104,10 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K120" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.45">
@@ -10130,10 +10130,10 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J121" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K121" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.45">
@@ -10156,10 +10156,10 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K122" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.45">
@@ -10182,10 +10182,10 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K123" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.45">
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K124" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.45">
@@ -10234,10 +10234,10 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K125" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.45">
@@ -10260,10 +10260,10 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K126" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.45">
@@ -10286,10 +10286,10 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K127" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.45">
@@ -10312,10 +10312,10 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K128" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.45">
@@ -10338,10 +10338,10 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K129" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.45">
@@ -10364,10 +10364,10 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K130" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.45">
@@ -10390,10 +10390,10 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K131" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.45">
@@ -10416,10 +10416,10 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K132" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.45">
@@ -10442,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K133" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.45">
@@ -10468,10 +10468,10 @@
         <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K134" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.45">
@@ -10494,10 +10494,10 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K135" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.45">
@@ -10520,10 +10520,10 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J136" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K136" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.45">
@@ -10546,10 +10546,10 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="J137" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K137" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.45">
@@ -10572,10 +10572,10 @@
         <v>7.2800000000000002E-4</v>
       </c>
       <c r="J138" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K138" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.45">
@@ -10598,10 +10598,10 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="J139" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K139" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.45">
@@ -10624,10 +10624,10 @@
         <v>1.95E-4</v>
       </c>
       <c r="J140" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K140" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="141" spans="2:11" x14ac:dyDescent="0.45">
@@ -10650,10 +10650,10 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="J141" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K141" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.45">
@@ -10676,10 +10676,10 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K142" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.45">
@@ -10702,10 +10702,10 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K143" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.45">
@@ -10728,10 +10728,10 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K144" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.45">
@@ -10754,10 +10754,10 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K145" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.45">
@@ -10780,10 +10780,10 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K146" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.45">
@@ -10806,10 +10806,10 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K147" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.45">
@@ -10832,10 +10832,10 @@
         <v>9.0499999999999999E-4</v>
       </c>
       <c r="J148" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K148" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.45">
@@ -10858,10 +10858,10 @@
         <v>1.7470000000000001E-3</v>
       </c>
       <c r="J149" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K149" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.45">
@@ -10884,10 +10884,10 @@
         <v>2.369E-3</v>
       </c>
       <c r="J150" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K150" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.45">
@@ -10910,10 +10910,10 @@
         <v>2.0579999999999999E-3</v>
       </c>
       <c r="J151" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K151" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.45">
@@ -10936,10 +10936,10 @@
         <v>1.436E-3</v>
       </c>
       <c r="J152" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K152" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.45">
@@ -10962,10 +10962,10 @@
         <v>9.0499999999999999E-4</v>
       </c>
       <c r="J153" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K153" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.45">
@@ -10988,10 +10988,10 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="J154" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K154" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="155" spans="2:11" x14ac:dyDescent="0.45">
@@ -11014,10 +11014,10 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="J155" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K155" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="156" spans="2:11" x14ac:dyDescent="0.45">
@@ -11040,10 +11040,10 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J156" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K156" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="157" spans="2:11" x14ac:dyDescent="0.45">
@@ -11066,10 +11066,10 @@
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K157" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.45">
@@ -11092,10 +11092,10 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="J158" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K158" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.45">
@@ -11118,10 +11118,10 @@
         <v>5.8089999999999999E-3</v>
       </c>
       <c r="J159" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K159" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="160" spans="2:11" x14ac:dyDescent="0.45">
@@ -11144,10 +11144,10 @@
         <v>8.4729999999999996E-3</v>
       </c>
       <c r="J160" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K160" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="161" spans="2:11" x14ac:dyDescent="0.45">
@@ -11170,10 +11170,10 @@
         <v>6.3420000000000004E-3</v>
       </c>
       <c r="J161" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K161" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="162" spans="2:11" x14ac:dyDescent="0.45">
@@ -11196,10 +11196,10 @@
         <v>6.3420000000000004E-3</v>
       </c>
       <c r="J162" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K162" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.45">
@@ -11222,10 +11222,10 @@
         <v>6.8739999999999999E-3</v>
       </c>
       <c r="J163" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K163" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.45">
@@ -11248,10 +11248,10 @@
         <v>3.9230000000000003E-3</v>
       </c>
       <c r="J164" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K164" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="165" spans="2:11" x14ac:dyDescent="0.45">
@@ -11274,10 +11274,10 @@
         <v>1.436E-3</v>
       </c>
       <c r="J165" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K165" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="166" spans="2:11" x14ac:dyDescent="0.45">
@@ -11300,10 +11300,10 @@
         <v>1.1900000000000001E-4</v>
       </c>
       <c r="J166" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K166" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="167" spans="2:11" x14ac:dyDescent="0.45">
@@ -11326,10 +11326,10 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K167" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="168" spans="2:11" x14ac:dyDescent="0.45">
@@ -11352,10 +11352,10 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K168" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="169" spans="2:11" x14ac:dyDescent="0.45">
@@ -11378,10 +11378,10 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K169" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="170" spans="2:11" x14ac:dyDescent="0.45">
@@ -11404,10 +11404,10 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K170" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="171" spans="2:11" x14ac:dyDescent="0.45">
@@ -11430,10 +11430,10 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K171" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="172" spans="2:11" x14ac:dyDescent="0.45">
@@ -11456,10 +11456,10 @@
         <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K172" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="173" spans="2:11" x14ac:dyDescent="0.45">
@@ -11482,10 +11482,10 @@
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K173" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="174" spans="2:11" x14ac:dyDescent="0.45">
@@ -11508,10 +11508,10 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K174" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="175" spans="2:11" x14ac:dyDescent="0.45">
@@ -11534,10 +11534,10 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K175" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="176" spans="2:11" x14ac:dyDescent="0.45">
@@ -11560,10 +11560,10 @@
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K176" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="177" spans="2:11" x14ac:dyDescent="0.45">
@@ -11586,10 +11586,10 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K177" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="178" spans="2:11" x14ac:dyDescent="0.45">
@@ -11612,10 +11612,10 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K178" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="179" spans="2:11" x14ac:dyDescent="0.45">
@@ -11638,10 +11638,10 @@
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K179" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.45">
@@ -11664,10 +11664,10 @@
         <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K180" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.45">
@@ -11690,10 +11690,10 @@
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K181" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.45">
@@ -11716,10 +11716,10 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K182" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="183" spans="2:11" x14ac:dyDescent="0.45">
@@ -11742,10 +11742,10 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K183" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="184" spans="2:11" x14ac:dyDescent="0.45">
@@ -11768,10 +11768,10 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K184" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="185" spans="2:11" x14ac:dyDescent="0.45">
@@ -11794,10 +11794,10 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K185" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="186" spans="2:11" x14ac:dyDescent="0.45">
@@ -11820,10 +11820,10 @@
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K186" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="187" spans="2:11" x14ac:dyDescent="0.45">
@@ -11846,10 +11846,10 @@
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K187" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="188" spans="2:11" x14ac:dyDescent="0.45">
@@ -11872,10 +11872,10 @@
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K188" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="189" spans="2:11" x14ac:dyDescent="0.45">
@@ -11898,10 +11898,10 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K189" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="190" spans="2:11" x14ac:dyDescent="0.45">
@@ -11924,10 +11924,10 @@
         <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K190" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="191" spans="2:11" x14ac:dyDescent="0.45">
@@ -11950,10 +11950,10 @@
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K191" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="192" spans="2:11" x14ac:dyDescent="0.45">
@@ -11976,10 +11976,10 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K192" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="193" spans="2:11" x14ac:dyDescent="0.45">
@@ -12002,10 +12002,10 @@
         <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K193" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="194" spans="2:11" x14ac:dyDescent="0.45">
@@ -12028,10 +12028,10 @@
         <v>0</v>
       </c>
       <c r="J194" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K194" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="195" spans="2:11" x14ac:dyDescent="0.45">
@@ -12054,10 +12054,10 @@
         <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K195" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="196" spans="2:11" x14ac:dyDescent="0.45">
@@ -12080,10 +12080,10 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K196" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="197" spans="2:11" x14ac:dyDescent="0.45">
@@ -12106,10 +12106,10 @@
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K197" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="198" spans="2:11" x14ac:dyDescent="0.45">
@@ -12132,10 +12132,10 @@
         <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K198" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="199" spans="2:11" x14ac:dyDescent="0.45">
@@ -12158,10 +12158,10 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K199" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="200" spans="2:11" x14ac:dyDescent="0.45">
@@ -12184,10 +12184,10 @@
         <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K200" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="201" spans="2:11" x14ac:dyDescent="0.45">
@@ -12210,10 +12210,10 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K201" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="202" spans="2:11" x14ac:dyDescent="0.45">
@@ -12236,10 +12236,10 @@
         <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K202" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.45">
@@ -12262,10 +12262,10 @@
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K203" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.45">
@@ -12288,10 +12288,10 @@
         <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K204" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="205" spans="2:11" x14ac:dyDescent="0.45">
@@ -12314,10 +12314,10 @@
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K205" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="206" spans="2:11" x14ac:dyDescent="0.45">
@@ -12340,10 +12340,10 @@
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K206" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="207" spans="2:11" x14ac:dyDescent="0.45">
@@ -12366,10 +12366,10 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K207" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="208" spans="2:11" x14ac:dyDescent="0.45">
@@ -12392,10 +12392,10 @@
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K208" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="209" spans="2:11" x14ac:dyDescent="0.45">
@@ -12418,10 +12418,10 @@
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K209" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="210" spans="2:11" x14ac:dyDescent="0.45">
@@ -12444,10 +12444,10 @@
         <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K210" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="211" spans="2:11" x14ac:dyDescent="0.45">
@@ -12470,10 +12470,10 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K211" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="212" spans="2:11" x14ac:dyDescent="0.45">
@@ -12496,10 +12496,10 @@
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K212" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="213" spans="2:11" x14ac:dyDescent="0.45">
@@ -12522,10 +12522,10 @@
         <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K213" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="214" spans="2:11" x14ac:dyDescent="0.45">
@@ -12548,10 +12548,10 @@
         <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K214" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="215" spans="2:11" x14ac:dyDescent="0.45">
@@ -12574,10 +12574,10 @@
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K215" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="216" spans="2:11" x14ac:dyDescent="0.45">
@@ -12600,10 +12600,10 @@
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K216" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="217" spans="2:11" x14ac:dyDescent="0.45">
@@ -12626,10 +12626,10 @@
         <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K217" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="218" spans="2:11" x14ac:dyDescent="0.45">
@@ -12652,10 +12652,10 @@
         <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K218" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="219" spans="2:11" x14ac:dyDescent="0.45">
@@ -12678,10 +12678,10 @@
         <v>0</v>
       </c>
       <c r="J219" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K219" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.45">
@@ -12704,10 +12704,10 @@
         <v>0</v>
       </c>
       <c r="J220" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K220" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="221" spans="2:11" x14ac:dyDescent="0.45">
@@ -12730,10 +12730,10 @@
         <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K221" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="222" spans="2:11" x14ac:dyDescent="0.45">
@@ -12756,10 +12756,10 @@
         <v>0</v>
       </c>
       <c r="J222" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K222" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="223" spans="2:11" x14ac:dyDescent="0.45">
@@ -12782,10 +12782,10 @@
         <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K223" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="224" spans="2:11" x14ac:dyDescent="0.45">
@@ -12808,10 +12808,10 @@
         <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K224" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="225" spans="2:11" x14ac:dyDescent="0.45">
@@ -12834,10 +12834,10 @@
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K225" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="226" spans="2:11" x14ac:dyDescent="0.45">
@@ -12860,10 +12860,10 @@
         <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K226" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="227" spans="2:11" x14ac:dyDescent="0.45">
@@ -12886,10 +12886,10 @@
         <v>0</v>
       </c>
       <c r="J227" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K227" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="228" spans="2:11" x14ac:dyDescent="0.45">
@@ -12912,10 +12912,10 @@
         <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K228" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="229" spans="2:11" x14ac:dyDescent="0.45">
@@ -12938,10 +12938,10 @@
         <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K229" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="230" spans="2:11" x14ac:dyDescent="0.45">
@@ -12964,10 +12964,10 @@
         <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K230" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="231" spans="2:11" x14ac:dyDescent="0.45">
@@ -12990,10 +12990,10 @@
         <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K231" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="232" spans="2:11" x14ac:dyDescent="0.45">
@@ -13016,10 +13016,10 @@
         <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K232" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="233" spans="2:11" x14ac:dyDescent="0.45">
@@ -13042,10 +13042,10 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K233" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="234" spans="2:11" x14ac:dyDescent="0.45">
@@ -13068,10 +13068,10 @@
         <v>0</v>
       </c>
       <c r="J234" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K234" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="235" spans="2:11" x14ac:dyDescent="0.45">
@@ -13094,10 +13094,10 @@
         <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K235" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="236" spans="2:11" x14ac:dyDescent="0.45">
@@ -13120,10 +13120,10 @@
         <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K236" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="237" spans="2:11" x14ac:dyDescent="0.45">
@@ -13146,10 +13146,10 @@
         <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K237" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="238" spans="2:11" x14ac:dyDescent="0.45">
@@ -13172,10 +13172,10 @@
         <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K238" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="239" spans="2:11" x14ac:dyDescent="0.45">
@@ -13198,10 +13198,10 @@
         <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K239" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="240" spans="2:11" x14ac:dyDescent="0.45">
@@ -13224,10 +13224,10 @@
         <v>0</v>
       </c>
       <c r="J240" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K240" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="241" spans="2:11" x14ac:dyDescent="0.45">
@@ -13250,10 +13250,10 @@
         <v>0</v>
       </c>
       <c r="J241" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K241" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="242" spans="2:11" x14ac:dyDescent="0.45">
@@ -13276,10 +13276,10 @@
         <v>0</v>
       </c>
       <c r="J242" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K242" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="243" spans="2:11" x14ac:dyDescent="0.45">
@@ -13302,10 +13302,10 @@
         <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K243" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="244" spans="2:11" x14ac:dyDescent="0.45">
@@ -13328,10 +13328,10 @@
         <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K244" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="245" spans="2:11" x14ac:dyDescent="0.45">
@@ -13354,10 +13354,10 @@
         <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K245" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="246" spans="2:11" x14ac:dyDescent="0.45">
@@ -13380,10 +13380,10 @@
         <v>0</v>
       </c>
       <c r="J246" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K246" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="247" spans="2:11" x14ac:dyDescent="0.45">
@@ -13406,10 +13406,10 @@
         <v>0</v>
       </c>
       <c r="J247" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K247" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="248" spans="2:11" x14ac:dyDescent="0.45">
@@ -13432,10 +13432,10 @@
         <v>0</v>
       </c>
       <c r="J248" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K248" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="249" spans="2:11" x14ac:dyDescent="0.45">
@@ -13458,10 +13458,10 @@
         <v>0</v>
       </c>
       <c r="J249" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K249" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="250" spans="2:11" x14ac:dyDescent="0.45">
@@ -13484,10 +13484,10 @@
         <v>0</v>
       </c>
       <c r="J250" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K250" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="251" spans="2:11" x14ac:dyDescent="0.45">
@@ -13510,10 +13510,10 @@
         <v>0</v>
       </c>
       <c r="J251" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K251" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="252" spans="2:11" x14ac:dyDescent="0.45">
@@ -13536,10 +13536,10 @@
         <v>0</v>
       </c>
       <c r="J252" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K252" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="253" spans="2:11" x14ac:dyDescent="0.45">
@@ -13562,10 +13562,10 @@
         <v>0</v>
       </c>
       <c r="J253" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K253" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="254" spans="2:11" x14ac:dyDescent="0.45">
@@ -13588,10 +13588,10 @@
         <v>0</v>
       </c>
       <c r="J254" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K254" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="255" spans="2:11" x14ac:dyDescent="0.45">
@@ -13614,10 +13614,10 @@
         <v>0</v>
       </c>
       <c r="J255" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K255" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="256" spans="2:11" x14ac:dyDescent="0.45">
@@ -13640,10 +13640,10 @@
         <v>0</v>
       </c>
       <c r="J256" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K256" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="257" spans="2:11" x14ac:dyDescent="0.45">
@@ -13666,10 +13666,10 @@
         <v>0</v>
       </c>
       <c r="J257" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K257" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="258" spans="2:11" x14ac:dyDescent="0.45">
@@ -13692,10 +13692,10 @@
         <v>0</v>
       </c>
       <c r="J258" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K258" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="259" spans="2:11" x14ac:dyDescent="0.45">
@@ -13718,10 +13718,10 @@
         <v>0</v>
       </c>
       <c r="J259" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K259" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="260" spans="2:11" x14ac:dyDescent="0.45">
@@ -13744,10 +13744,10 @@
         <v>0</v>
       </c>
       <c r="J260" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K260" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="261" spans="2:11" x14ac:dyDescent="0.45">
@@ -13770,10 +13770,10 @@
         <v>0</v>
       </c>
       <c r="J261" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K261" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="262" spans="2:11" x14ac:dyDescent="0.45">
@@ -13796,10 +13796,10 @@
         <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K262" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="263" spans="2:11" x14ac:dyDescent="0.45">
@@ -13822,10 +13822,10 @@
         <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K263" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="264" spans="2:11" x14ac:dyDescent="0.45">
@@ -13848,10 +13848,10 @@
         <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K264" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="265" spans="2:11" x14ac:dyDescent="0.45">
@@ -13874,10 +13874,10 @@
         <v>0</v>
       </c>
       <c r="J265" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K265" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="266" spans="2:11" x14ac:dyDescent="0.45">
@@ -13900,10 +13900,10 @@
         <v>0</v>
       </c>
       <c r="J266" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K266" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="267" spans="2:11" x14ac:dyDescent="0.45">
@@ -13926,10 +13926,10 @@
         <v>0</v>
       </c>
       <c r="J267" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K267" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="268" spans="2:11" x14ac:dyDescent="0.45">
@@ -13952,10 +13952,10 @@
         <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K268" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="269" spans="2:11" x14ac:dyDescent="0.45">
@@ -13978,10 +13978,10 @@
         <v>0</v>
       </c>
       <c r="J269" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K269" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="270" spans="2:11" x14ac:dyDescent="0.45">
@@ -14004,10 +14004,10 @@
         <v>0</v>
       </c>
       <c r="J270" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K270" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="271" spans="2:11" x14ac:dyDescent="0.45">
@@ -14030,10 +14030,10 @@
         <v>0</v>
       </c>
       <c r="J271" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K271" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="272" spans="2:11" x14ac:dyDescent="0.45">
@@ -14056,10 +14056,10 @@
         <v>0</v>
       </c>
       <c r="J272" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K272" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="273" spans="2:11" x14ac:dyDescent="0.45">
@@ -14082,10 +14082,10 @@
         <v>0</v>
       </c>
       <c r="J273" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K273" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="274" spans="2:11" x14ac:dyDescent="0.45">
@@ -14108,10 +14108,10 @@
         <v>0</v>
       </c>
       <c r="J274" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K274" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="275" spans="2:11" x14ac:dyDescent="0.45">
@@ -14134,10 +14134,10 @@
         <v>0</v>
       </c>
       <c r="J275" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K275" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="276" spans="2:11" x14ac:dyDescent="0.45">
@@ -14160,10 +14160,10 @@
         <v>0</v>
       </c>
       <c r="J276" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K276" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="277" spans="2:11" x14ac:dyDescent="0.45">
@@ -14186,10 +14186,10 @@
         <v>0</v>
       </c>
       <c r="J277" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K277" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="278" spans="2:11" x14ac:dyDescent="0.45">
@@ -14212,10 +14212,10 @@
         <v>0</v>
       </c>
       <c r="J278" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K278" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="279" spans="2:11" x14ac:dyDescent="0.45">
@@ -14238,10 +14238,10 @@
         <v>0</v>
       </c>
       <c r="J279" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K279" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="280" spans="2:11" x14ac:dyDescent="0.45">
@@ -14264,10 +14264,10 @@
         <v>0</v>
       </c>
       <c r="J280" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K280" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="281" spans="2:11" x14ac:dyDescent="0.45">
@@ -14290,10 +14290,10 @@
         <v>0</v>
       </c>
       <c r="J281" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K281" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="282" spans="2:11" x14ac:dyDescent="0.45">
@@ -14316,10 +14316,10 @@
         <v>0</v>
       </c>
       <c r="J282" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K282" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="283" spans="2:11" x14ac:dyDescent="0.45">
@@ -14342,10 +14342,10 @@
         <v>0</v>
       </c>
       <c r="J283" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K283" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="284" spans="2:11" x14ac:dyDescent="0.45">
@@ -14368,10 +14368,10 @@
         <v>0</v>
       </c>
       <c r="J284" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K284" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="285" spans="2:11" x14ac:dyDescent="0.45">
@@ -14394,10 +14394,10 @@
         <v>0</v>
       </c>
       <c r="J285" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K285" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="286" spans="2:11" x14ac:dyDescent="0.45">
@@ -14420,10 +14420,10 @@
         <v>0</v>
       </c>
       <c r="J286" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K286" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="287" spans="2:11" x14ac:dyDescent="0.45">
@@ -14446,10 +14446,10 @@
         <v>0</v>
       </c>
       <c r="J287" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K287" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="288" spans="2:11" x14ac:dyDescent="0.45">
@@ -14472,10 +14472,10 @@
         <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K288" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="289" spans="2:11" x14ac:dyDescent="0.45">
@@ -14498,10 +14498,10 @@
         <v>0</v>
       </c>
       <c r="J289" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K289" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="290" spans="2:11" x14ac:dyDescent="0.45">
@@ -14524,10 +14524,10 @@
         <v>0</v>
       </c>
       <c r="J290" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K290" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="291" spans="2:11" x14ac:dyDescent="0.45">
@@ -14550,10 +14550,10 @@
         <v>0</v>
       </c>
       <c r="J291" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K291" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="292" spans="2:11" x14ac:dyDescent="0.45">
@@ -14576,10 +14576,10 @@
         <v>0</v>
       </c>
       <c r="J292" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K292" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="293" spans="2:11" x14ac:dyDescent="0.45">
@@ -14602,10 +14602,10 @@
         <v>0</v>
       </c>
       <c r="J293" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K293" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="294" spans="2:11" x14ac:dyDescent="0.45">
@@ -14628,10 +14628,10 @@
         <v>0</v>
       </c>
       <c r="J294" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K294" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="295" spans="2:11" x14ac:dyDescent="0.45">
@@ -14654,10 +14654,10 @@
         <v>0</v>
       </c>
       <c r="J295" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K295" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="296" spans="2:11" x14ac:dyDescent="0.45">
@@ -14680,10 +14680,10 @@
         <v>0</v>
       </c>
       <c r="J296" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K296" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="297" spans="2:11" x14ac:dyDescent="0.45">
@@ -14706,10 +14706,10 @@
         <v>0</v>
       </c>
       <c r="J297" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K297" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="298" spans="2:11" x14ac:dyDescent="0.45">
@@ -14732,10 +14732,10 @@
         <v>0</v>
       </c>
       <c r="J298" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K298" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="299" spans="2:11" x14ac:dyDescent="0.45">
@@ -14758,10 +14758,10 @@
         <v>0</v>
       </c>
       <c r="J299" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K299" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="300" spans="2:11" x14ac:dyDescent="0.45">
@@ -14784,10 +14784,10 @@
         <v>0</v>
       </c>
       <c r="J300" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K300" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="301" spans="2:11" x14ac:dyDescent="0.45">
@@ -14810,10 +14810,10 @@
         <v>0</v>
       </c>
       <c r="J301" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K301" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="302" spans="2:11" x14ac:dyDescent="0.45">
@@ -14836,10 +14836,10 @@
         <v>0</v>
       </c>
       <c r="J302" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K302" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="303" spans="2:11" x14ac:dyDescent="0.45">
@@ -14862,10 +14862,10 @@
         <v>0</v>
       </c>
       <c r="J303" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K303" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="304" spans="2:11" x14ac:dyDescent="0.45">
@@ -14888,10 +14888,10 @@
         <v>0</v>
       </c>
       <c r="J304" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K304" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="305" spans="2:11" x14ac:dyDescent="0.45">
@@ -14914,10 +14914,10 @@
         <v>0</v>
       </c>
       <c r="J305" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K305" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="306" spans="2:11" x14ac:dyDescent="0.45">
@@ -14940,10 +14940,10 @@
         <v>0</v>
       </c>
       <c r="J306" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K306" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="307" spans="2:11" x14ac:dyDescent="0.45">
@@ -14966,10 +14966,10 @@
         <v>0</v>
       </c>
       <c r="J307" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K307" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="308" spans="2:11" x14ac:dyDescent="0.45">
@@ -14992,10 +14992,10 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="J308" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K308" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="309" spans="2:11" x14ac:dyDescent="0.45">
@@ -15018,10 +15018,10 @@
         <v>0</v>
       </c>
       <c r="J309" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K309" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="310" spans="2:11" x14ac:dyDescent="0.45">
@@ -15044,10 +15044,10 @@
         <v>1.1900000000000001E-4</v>
       </c>
       <c r="J310" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K310" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="311" spans="2:11" x14ac:dyDescent="0.45">
@@ -15070,10 +15070,10 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J311" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K311" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="312" spans="2:11" x14ac:dyDescent="0.45">
@@ -15096,10 +15096,10 @@
         <v>4.6099999999999998E-4</v>
       </c>
       <c r="J312" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K312" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="313" spans="2:11" x14ac:dyDescent="0.45">
@@ -15122,10 +15122,10 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="J313" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K313" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="314" spans="2:11" x14ac:dyDescent="0.45">
@@ -15148,10 +15148,10 @@
         <v>2.0579999999999999E-3</v>
       </c>
       <c r="J314" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K314" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="315" spans="2:11" x14ac:dyDescent="0.45">
@@ -15174,10 +15174,10 @@
         <v>9.0499999999999999E-4</v>
       </c>
       <c r="J315" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K315" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="316" spans="2:11" x14ac:dyDescent="0.45">
@@ -15200,10 +15200,10 @@
         <v>5.8089999999999999E-3</v>
       </c>
       <c r="J316" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K316" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="317" spans="2:11" x14ac:dyDescent="0.45">
@@ -15226,10 +15226,10 @@
         <v>7.9399999999999991E-3</v>
       </c>
       <c r="J317" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K317" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="318" spans="2:11" x14ac:dyDescent="0.45">
@@ -15252,10 +15252,10 @@
         <v>6.3420000000000004E-3</v>
       </c>
       <c r="J318" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K318" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="319" spans="2:11" x14ac:dyDescent="0.45">
@@ -15278,10 +15278,10 @@
         <v>3.9230000000000003E-3</v>
       </c>
       <c r="J319" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K319" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="320" spans="2:11" x14ac:dyDescent="0.45">
@@ -15304,10 +15304,10 @@
         <v>3.3010000000000001E-3</v>
       </c>
       <c r="J320" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K320" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="321" spans="2:11" x14ac:dyDescent="0.45">
@@ -15330,10 +15330,10 @@
         <v>2.679E-3</v>
       </c>
       <c r="J321" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K321" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="322" spans="2:11" x14ac:dyDescent="0.45">
@@ -15356,10 +15356,10 @@
         <v>3.6120000000000002E-3</v>
       </c>
       <c r="J322" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K322" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="323" spans="2:11" x14ac:dyDescent="0.45">
@@ -15382,10 +15382,10 @@
         <v>3.6120000000000002E-3</v>
       </c>
       <c r="J323" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K323" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="324" spans="2:11" x14ac:dyDescent="0.45">
@@ -15408,10 +15408,10 @@
         <v>3.3010000000000001E-3</v>
       </c>
       <c r="J324" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K324" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="325" spans="2:11" x14ac:dyDescent="0.45">
@@ -15434,10 +15434,10 @@
         <v>3.6120000000000002E-3</v>
       </c>
       <c r="J325" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K325" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="326" spans="2:11" x14ac:dyDescent="0.45">
@@ -15460,10 +15460,10 @@
         <v>2.99E-3</v>
       </c>
       <c r="J326" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K326" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="327" spans="2:11" x14ac:dyDescent="0.45">
@@ -15486,10 +15486,10 @@
         <v>3.9230000000000003E-3</v>
       </c>
       <c r="J327" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K327" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="328" spans="2:11" x14ac:dyDescent="0.45">
@@ -15512,10 +15512,10 @@
         <v>7.4070000000000004E-3</v>
       </c>
       <c r="J328" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K328" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="329" spans="2:11" x14ac:dyDescent="0.45">
@@ -15538,10 +15538,10 @@
         <v>3.6120000000000002E-3</v>
       </c>
       <c r="J329" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K329" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="330" spans="2:11" x14ac:dyDescent="0.45">
@@ -15564,10 +15564,10 @@
         <v>7.4070000000000004E-3</v>
       </c>
       <c r="J330" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K330" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="331" spans="2:11" x14ac:dyDescent="0.45">
@@ -15590,10 +15590,10 @@
         <v>6.3420000000000004E-3</v>
       </c>
       <c r="J331" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K331" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="332" spans="2:11" x14ac:dyDescent="0.45">
@@ -15616,10 +15616,10 @@
         <v>5.2760000000000003E-3</v>
       </c>
       <c r="J332" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K332" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="333" spans="2:11" x14ac:dyDescent="0.45">
@@ -15642,10 +15642,10 @@
         <v>8.1700000000000002E-4</v>
       </c>
       <c r="J333" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K333" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="334" spans="2:11" x14ac:dyDescent="0.45">
@@ -15668,10 +15668,10 @@
         <v>3.3010000000000001E-3</v>
       </c>
       <c r="J334" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K334" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="335" spans="2:11" x14ac:dyDescent="0.45">
@@ -15694,10 +15694,10 @@
         <v>8.1700000000000002E-4</v>
       </c>
       <c r="J335" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K335" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="336" spans="2:11" x14ac:dyDescent="0.45">
@@ -15720,10 +15720,10 @@
         <v>7.2800000000000002E-4</v>
       </c>
       <c r="J336" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K336" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="337" spans="2:11" x14ac:dyDescent="0.45">
@@ -15746,10 +15746,10 @@
         <v>3.7300000000000001E-4</v>
       </c>
       <c r="J337" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K337" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="338" spans="2:11" x14ac:dyDescent="0.45">
@@ -15772,10 +15772,10 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J338" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K338" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="339" spans="2:11" x14ac:dyDescent="0.45">
@@ -15798,10 +15798,10 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="J339" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K339" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="340" spans="2:11" x14ac:dyDescent="0.45">
@@ -15824,10 +15824,10 @@
         <v>0</v>
       </c>
       <c r="J340" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K340" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="341" spans="2:11" x14ac:dyDescent="0.45">
@@ -15850,10 +15850,10 @@
         <v>0</v>
       </c>
       <c r="J341" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K341" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="342" spans="2:11" x14ac:dyDescent="0.45">
@@ -15876,10 +15876,10 @@
         <v>0</v>
       </c>
       <c r="J342" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K342" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="343" spans="2:11" x14ac:dyDescent="0.45">
@@ -15902,10 +15902,10 @@
         <v>0</v>
       </c>
       <c r="J343" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K343" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="344" spans="2:11" x14ac:dyDescent="0.45">
@@ -15928,10 +15928,10 @@
         <v>0</v>
       </c>
       <c r="J344" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K344" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="345" spans="2:11" x14ac:dyDescent="0.45">
@@ -15954,10 +15954,10 @@
         <v>0</v>
       </c>
       <c r="J345" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K345" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="346" spans="2:11" x14ac:dyDescent="0.45">
@@ -15980,10 +15980,10 @@
         <v>0</v>
       </c>
       <c r="J346" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K346" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="347" spans="2:11" x14ac:dyDescent="0.45">
@@ -16006,10 +16006,10 @@
         <v>0</v>
       </c>
       <c r="J347" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K347" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="348" spans="2:11" x14ac:dyDescent="0.45">
@@ -16032,10 +16032,10 @@
         <v>0</v>
       </c>
       <c r="J348" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K348" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="349" spans="2:11" x14ac:dyDescent="0.45">
@@ -16058,10 +16058,10 @@
         <v>0</v>
       </c>
       <c r="J349" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K349" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="350" spans="2:11" x14ac:dyDescent="0.45">
@@ -16084,10 +16084,10 @@
         <v>0</v>
       </c>
       <c r="J350" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K350" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="351" spans="2:11" x14ac:dyDescent="0.45">
@@ -16110,10 +16110,10 @@
         <v>0</v>
       </c>
       <c r="J351" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K351" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="352" spans="2:11" x14ac:dyDescent="0.45">
@@ -16136,10 +16136,10 @@
         <v>0</v>
       </c>
       <c r="J352" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K352" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="353" spans="2:11" x14ac:dyDescent="0.45">
@@ -16162,10 +16162,10 @@
         <v>0</v>
       </c>
       <c r="J353" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K353" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="354" spans="2:11" x14ac:dyDescent="0.45">
@@ -16188,10 +16188,10 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J354" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K354" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="355" spans="2:11" x14ac:dyDescent="0.45">
@@ -16214,10 +16214,10 @@
         <v>0</v>
       </c>
       <c r="J355" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K355" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="356" spans="2:11" x14ac:dyDescent="0.45">
@@ -16240,10 +16240,10 @@
         <v>3.7300000000000001E-4</v>
       </c>
       <c r="J356" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K356" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="357" spans="2:11" x14ac:dyDescent="0.45">
@@ -16266,10 +16266,10 @@
         <v>2.369E-3</v>
       </c>
       <c r="J357" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K357" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="358" spans="2:11" x14ac:dyDescent="0.45">
@@ -16292,10 +16292,10 @@
         <v>7.2800000000000002E-4</v>
       </c>
       <c r="J358" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K358" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="359" spans="2:11" x14ac:dyDescent="0.45">
@@ -16318,10 +16318,10 @@
         <v>3.7300000000000001E-4</v>
       </c>
       <c r="J359" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K359" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="360" spans="2:11" x14ac:dyDescent="0.45">
@@ -16344,10 +16344,10 @@
         <v>1.1900000000000001E-4</v>
       </c>
       <c r="J360" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K360" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="361" spans="2:11" x14ac:dyDescent="0.45">
@@ -16370,10 +16370,10 @@
         <v>0</v>
       </c>
       <c r="J361" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K361" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="362" spans="2:11" x14ac:dyDescent="0.45">
@@ -16396,10 +16396,10 @@
         <v>0</v>
       </c>
       <c r="J362" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K362" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="363" spans="2:11" x14ac:dyDescent="0.45">
@@ -16422,10 +16422,10 @@
         <v>0</v>
       </c>
       <c r="J363" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K363" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="364" spans="2:11" x14ac:dyDescent="0.45">
@@ -16448,10 +16448,10 @@
         <v>1.7767999999999999E-2</v>
       </c>
       <c r="J364" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K364" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="365" spans="2:11" x14ac:dyDescent="0.45">
@@ -16474,10 +16474,10 @@
         <v>3.431E-3</v>
       </c>
       <c r="J365" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K365" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="366" spans="2:11" x14ac:dyDescent="0.45">
@@ -16500,10 +16500,10 @@
         <v>1.2438999999999999E-2</v>
       </c>
       <c r="J366" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K366" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="367" spans="2:11" x14ac:dyDescent="0.45">
@@ -16526,10 +16526,10 @@
         <v>1.7140000000000002E-2</v>
       </c>
       <c r="J367" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K367" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="368" spans="2:11" x14ac:dyDescent="0.45">
@@ -16552,10 +16552,10 @@
         <v>5.7876000000000004E-2</v>
       </c>
       <c r="J368" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K368" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="369" spans="2:11" x14ac:dyDescent="0.45">
@@ -16578,10 +16578,10 @@
         <v>3.9965000000000001E-2</v>
       </c>
       <c r="J369" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K369" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="370" spans="2:11" x14ac:dyDescent="0.45">
@@ -16604,10 +16604,10 @@
         <v>2.2720000000000001E-3</v>
       </c>
       <c r="J370" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K370" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="371" spans="2:11" x14ac:dyDescent="0.45">
@@ -16630,10 +16630,10 @@
         <v>1.0816000000000001E-2</v>
       </c>
       <c r="J371" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K371" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="372" spans="2:11" x14ac:dyDescent="0.45">
@@ -16656,10 +16656,10 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J372" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K372" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="373" spans="2:11" x14ac:dyDescent="0.45">
@@ -16682,10 +16682,10 @@
         <v>3.7300000000000001E-4</v>
       </c>
       <c r="J373" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K373" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="374" spans="2:11" x14ac:dyDescent="0.45">
@@ -16708,10 +16708,10 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J374" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K374" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="375" spans="2:11" x14ac:dyDescent="0.45">
@@ -16734,10 +16734,10 @@
         <v>1.95E-4</v>
       </c>
       <c r="J375" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K375" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="376" spans="2:11" x14ac:dyDescent="0.45">
@@ -16760,10 +16760,10 @@
         <v>1.1900000000000001E-4</v>
       </c>
       <c r="J376" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K376" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="377" spans="2:11" x14ac:dyDescent="0.45">
@@ -16786,10 +16786,10 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="J377" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K377" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="378" spans="2:11" x14ac:dyDescent="0.45">
@@ -16812,10 +16812,10 @@
         <v>0</v>
       </c>
       <c r="J378" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K378" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="379" spans="2:11" x14ac:dyDescent="0.45">
@@ -16838,10 +16838,10 @@
         <v>0</v>
       </c>
       <c r="J379" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K379" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="380" spans="2:11" x14ac:dyDescent="0.45">
@@ -16864,10 +16864,10 @@
         <v>0</v>
       </c>
       <c r="J380" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K380" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="381" spans="2:11" x14ac:dyDescent="0.45">
@@ -16890,10 +16890,10 @@
         <v>0</v>
       </c>
       <c r="J381" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K381" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="382" spans="2:11" x14ac:dyDescent="0.45">
@@ -16916,10 +16916,10 @@
         <v>2.0579999999999999E-3</v>
       </c>
       <c r="J382" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K382" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="383" spans="2:11" x14ac:dyDescent="0.45">
@@ -16942,10 +16942,10 @@
         <v>1.0939000000000001E-2</v>
       </c>
       <c r="J383" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K383" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="384" spans="2:11" x14ac:dyDescent="0.45">
@@ -16968,10 +16968,10 @@
         <v>1.9125E-2</v>
       </c>
       <c r="J384" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K384" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="385" spans="2:11" x14ac:dyDescent="0.45">
@@ -16994,10 +16994,10 @@
         <v>2.2454999999999999E-2</v>
       </c>
       <c r="J385" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K385" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="386" spans="2:11" x14ac:dyDescent="0.45">
@@ -17020,10 +17020,10 @@
         <v>3.6120000000000002E-3</v>
       </c>
       <c r="J386" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K386" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="387" spans="2:11" x14ac:dyDescent="0.45">
@@ -17046,10 +17046,10 @@
         <v>1.1900000000000001E-4</v>
       </c>
       <c r="J387" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K387" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="388" spans="2:11" x14ac:dyDescent="0.45">
@@ -17072,10 +17072,10 @@
         <v>0</v>
       </c>
       <c r="J388" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K388" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="389" spans="2:11" x14ac:dyDescent="0.45">
@@ -17098,10 +17098,10 @@
         <v>0</v>
       </c>
       <c r="J389" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K389" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="390" spans="2:11" x14ac:dyDescent="0.45">
@@ -17124,10 +17124,10 @@
         <v>0</v>
       </c>
       <c r="J390" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K390" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="391" spans="2:11" x14ac:dyDescent="0.45">
@@ -17150,10 +17150,10 @@
         <v>0</v>
       </c>
       <c r="J391" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K391" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="392" spans="2:11" x14ac:dyDescent="0.45">
@@ -17176,10 +17176,10 @@
         <v>0</v>
       </c>
       <c r="J392" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K392" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="393" spans="2:11" x14ac:dyDescent="0.45">
@@ -17202,10 +17202,10 @@
         <v>0</v>
       </c>
       <c r="J393" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K393" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="394" spans="2:11" x14ac:dyDescent="0.45">
@@ -17228,10 +17228,10 @@
         <v>0</v>
       </c>
       <c r="J394" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K394" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="395" spans="2:11" x14ac:dyDescent="0.45">
@@ -17254,10 +17254,10 @@
         <v>0</v>
       </c>
       <c r="J395" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K395" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="396" spans="2:11" x14ac:dyDescent="0.45">
@@ -17280,10 +17280,10 @@
         <v>2.5250000000000003E-3</v>
       </c>
       <c r="J396" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K396" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="397" spans="2:11" x14ac:dyDescent="0.45">
@@ -17306,10 +17306,10 @@
         <v>0</v>
       </c>
       <c r="J397" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K397" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="398" spans="2:11" x14ac:dyDescent="0.45">
@@ -17332,10 +17332,10 @@
         <v>0</v>
       </c>
       <c r="J398" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K398" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="399" spans="2:11" x14ac:dyDescent="0.45">
@@ -17358,10 +17358,10 @@
         <v>0</v>
       </c>
       <c r="J399" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K399" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="400" spans="2:11" x14ac:dyDescent="0.45">
@@ -17384,10 +17384,10 @@
         <v>6.87E-4</v>
       </c>
       <c r="J400" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K400" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="401" spans="2:11" x14ac:dyDescent="0.45">
@@ -17410,10 +17410,10 @@
         <v>1.774E-3</v>
       </c>
       <c r="J401" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K401" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="402" spans="2:11" x14ac:dyDescent="0.45">
@@ -17436,10 +17436,10 @@
         <v>1.1900000000000001E-4</v>
       </c>
       <c r="J402" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K402" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
     <row r="403" spans="2:11" x14ac:dyDescent="0.45">
@@ -17462,10 +17462,10 @@
         <v>2.0900000000000001E-4</v>
       </c>
       <c r="J403" t="s">
-        <v>869</v>
+        <v>467</v>
       </c>
       <c r="K403" t="s">
-        <v>468</v>
+        <v>869</v>
       </c>
     </row>
   </sheetData>
@@ -17474,7 +17474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FAFBD0-1A7F-4A92-8E63-FAEE66848F73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874CB0F8-0FAC-47C4-80CD-13C54CB00358}">
   <dimension ref="B2:O803"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -17503,10 +17503,10 @@
         <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I3" t="s">
         <v>70</v>
@@ -17515,7 +17515,7 @@
         <v>463</v>
       </c>
       <c r="M3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N3" t="s">
         <v>70</v>

--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71947079-B31F-484D-A707-D3FDED100416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EB3145-AE6F-461A-8335-EC637AF77417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2661,10 +2661,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0130h08,S2c0205h18,S3aH2,S3e0320h09,S3f0321h09,S3f0321h17,S3g0410h15,S3h0419h14,S3i0421h08,S3i0421h14,S3l0429h07,S3l0429h09,S3l0429h11,S3n0918h07,S3n0918h14,S3n0918h18,S2c0205h11,S3e0320h12,S3f0321h16,S3h0419h18,S3i0421h18,S3k0427h16,S3l0429h12,S3m0916h08,S3m0916h09,S3n0918h15,S3o1005h16,S4aH2,S4p1110h09,S1b0130h14,S1b0130h16,S3aH3,S3d0312h09,S3d0312h16,S3e0320h15,S3e0320h17,S3f0321h14,S3h0419h07,S3h0419h12,S3l0429h16,S3o1005h07,S4p1110h15,S1aH5,S1b0130h15,S2aH4,S2aH5,S3e0320h08,S3f0321h10,S3h0419h15,S3j0422h11,S3k0427h07,S3m0916h14,S3m0916h15,S5aH2,S5aH5,S1aH3,S2c0205h15,S3d0312h13,S3d0312h17,S3h0419h17,S3j0422h14,S3k0427h09,S3k0427h11,S3k0427h18,S3m0916h11,S3m0916h12,S3m0916h16,S3m0916h17,S3o1005h09,S4p1110h08,S4p1110h13,S4p1110h17,S1aH2,S1b0130h07,S2aH3,S3aH6,S3d0312h08,S3e0320h11,S3j0422h09,S3m0916h13,S3o1005h11,S4p1110h14,S5aH6,S2c0205h08,S3d0312h12,S3e0320h18,S3i0421h07,S3i0421h13,S3i0421h15,S3i0421h16,S3j0422h15,S3k0427h15,S3m0916h07,S3m0916h10,S3m0916h18,S3o1005h10,S4aH5,S1b0130h11,S2c0205h16,S3aH4,S3d0312h07,S3d0312h11,S3g0410h12,S3i0421h09,S3l0429h17,S3o1005h15,S4aH3,S4aH4,S4p1110h10,S1b0130h10,S2aH6,S3aH5,S3e0320h13,S3f0321h12,S3j0422h13,S3j0422h16,S3k0427h10,S3k0427h14,S3n0918h08,S3n0918h13,S4p1110h16,S5aH3,S1b0130h09,S2c0205h10,S3e0320h16,S3g0410h14,S3j0422h12,S3n0918h12,S3o1005h13,S4p1110h12,S3e0320h14,S3f0321h15,S3g0410h09,S3g0410h16,S3g0410h18,S3j0422h07,S3l0429h15,S3o1005h12,S4p1110h07,S2c0205h07,S2c0205h14,S3d0312h14,S3f0321h11,S3g0410h13,S3i0421h17,S3j0422h08,S3j0422h18,S3k0427h17,S3l0429h13,S3l0429h18,S3n0918h09,S3n0918h10,S3n0918h11,S1aH6,S1b0130h17,S3d0312h10,S3d0312h18,S3h0419h10,S3i0421h10,S3j0422h10,S3k0427h08,S3l0429h14,S3o1005h18,S1b0130h12,S1b0130h13,S2c0205h12,S3e0320h07,S3f0321h07,S3f0321h13,S3g0410h07,S3g0410h17,S3h0419h11,S3h0419h13,S3h0419h16,S3k0427h12,S3l0429h08,S3n0918h16,S3o1005h08,S3o1005h14,S4p1110h11,S4p1110h18,S1aH4,S2aH2,S2c0205h09,S2c0205h13,S2c0205h17,S3e0320h10,S3f0321h08,S3f0321h18,S3g0410h08,S3g0410h11,S3h0419h09,S3i0421h12,S3j0422h17,S3k0427h13,S3o1005h17,S4aH6,S1b0130h18,S3d0312h15,S3g0410h10,S3h0419h08,S3i0421h11,S3l0429h10,S3n0918h17,S5aH4</t>
-  </si>
-  <si>
-    <t>S1b0130h23,S3aH8,S3d0312h03,S3d0312h19,S3e0320h24,S3h0419h02,S3h0419h04,S3i0421h03,S3i0421h04,S3j0422h22,S3m0916h20,S3m0916h23,S3n0918h01,S3o1005h19,S4p1110h24,S1b0130h22,S2aH1,S3aH7,S3e0320h04,S3e0320h05,S3g0410h03,S3h0419h19,S3i0421h19,S3i0421h24,S3l0429h03,S3m0916h04,S3m0916h21,S3o1005h23,S5aH8,S2c0205h06,S3e0320h23,S3g0410h20,S3g0410h24,S3j0422h03,S3k0427h22,S3l0429h05,S3n0918h24,S3o1005h02,S3o1005h06,S1b0130h04,S1b0130h19,S2c0205h01,S2c0205h03,S3h0419h01,S3k0427h05,S3m0916h19,S3n0918h22,S3o1005h05,S4p1110h02,S4p1110h04,S1aH7,S2c0205h05,S3d0312h02,S3d0312h06,S3e0320h20,S3f0321h19,S3h0419h22,S3i0421h22,S3j0422h01,S3j0422h23,S3l0429h06,S3m0916h03,S4aH7,S5aH7,S1b0130h20,S3d0312h23,S3e0320h03,S3f0321h04,S3g0410h06,S3g0410h21,S3j0422h19,S3l0429h02,S3l0429h23,S3m0916h01,S3m0916h05,S3m0916h06,S3n0918h06,S1b0130h21,S3e0320h01,S3f0321h02,S3h0419h06,S3h0419h20,S3i0421h06,S3m0916h24,S3n0918h05,S3o1005h04,S4p1110h19,S4p1110h20,S2c0205h04,S2c0205h19,S2c0205h20,S3d0312h21,S3f0321h22,S3h0419h21,S3j0422h24,S3k0427h21,S3o1005h01,S1aH8,S1b0130h03,S1b0130h24,S2c0205h02,S3d0312h04,S3f0321h23,S3i0421h20,S3j0422h21,S3k0427h06,S3k0427h24,S3n0918h02,S4p1110h06,S5aH1,S1b0130h02,S1b0130h06,S2c0205h22,S3aH1,S3h0419h03,S3h0419h23,S3j0422h04,S3k0427h01,S3k0427h20,S3l0429h22,S3m0916h02,S3n0918h03,S4p1110h03,S3e0320h22,S3f0321h01,S3f0321h05,S3g0410h01,S3g0410h04,S3h0419h05,S3h0419h24,S3m0916h22,S3n0918h19,S3n0918h20,S3o1005h03,S3o1005h20,S4aH8,S4p1110h21,S2aH8,S2c0205h24,S3d0312h24,S3e0320h02,S3e0320h21,S3f0321h24,S3g0410h19,S3g0410h22,S3j0422h02,S3j0422h06,S3k0427h02,S3k0427h03,S3l0429h19,S3l0429h20,S3l0429h24,S3n0918h23,S4p1110h23,S1b0130h01,S1b0130h05,S2c0205h21,S3e0320h06,S3f0321h03,S3i0421h01,S3i0421h02,S3j0422h20,S3l0429h01,S3n0918h04,S3o1005h21,S3o1005h24,S4p1110h22,S1aH1,S2aH7,S2c0205h23,S3f0321h21,S3g0410h23,S3i0421h05,S3j0422h05,S3k0427h04,S4p1110h01,S3d0312h01,S3d0312h05,S3d0312h20,S3d0312h22,S3f0321h06,S3f0321h20,S3n0918h21,S4aH1,S4p1110h05,S3e0320h19,S3g0410h02,S3g0410h05,S3i0421h21,S3i0421h23,S3k0427h19,S3k0427h23,S3l0429h04,S3l0429h21,S3o1005h22</t>
+    <t>S1aH3,S2c0205h15,S3d0312h13,S3d0312h17,S3h0419h17,S3j0422h14,S3k0427h09,S3k0427h11,S3k0427h18,S3m0916h11,S3m0916h12,S3m0916h16,S3m0916h17,S3o1005h09,S4p1110h08,S4p1110h13,S4p1110h17,S2c0205h07,S2c0205h14,S3d0312h14,S3f0321h11,S3g0410h13,S3i0421h17,S3j0422h08,S3j0422h18,S3k0427h17,S3l0429h13,S3l0429h18,S3n0918h09,S3n0918h10,S3n0918h11,S1aH4,S2aH2,S2c0205h09,S2c0205h13,S2c0205h17,S3e0320h10,S3f0321h08,S3f0321h18,S3g0410h08,S3g0410h11,S3h0419h09,S3i0421h12,S3j0422h17,S3k0427h13,S3o1005h17,S4aH6,S3e0320h14,S3f0321h15,S3g0410h09,S3g0410h16,S3g0410h18,S3j0422h07,S3l0429h15,S3o1005h12,S4p1110h07,S1aH5,S1b0130h15,S2aH4,S2aH5,S3e0320h08,S3f0321h10,S3h0419h15,S3j0422h11,S3k0427h07,S3m0916h14,S3m0916h15,S5aH2,S5aH5,S1b0130h10,S2aH6,S3aH5,S3e0320h13,S3f0321h12,S3j0422h13,S3j0422h16,S3k0427h10,S3k0427h14,S3n0918h08,S3n0918h13,S4p1110h16,S5aH3,S1b0130h12,S1b0130h13,S2c0205h12,S3e0320h07,S3f0321h07,S3f0321h13,S3g0410h07,S3g0410h17,S3h0419h11,S3h0419h13,S3h0419h16,S3k0427h12,S3l0429h08,S3n0918h16,S3o1005h08,S3o1005h14,S4p1110h11,S4p1110h18,S2c0205h11,S3e0320h12,S3f0321h16,S3h0419h18,S3i0421h18,S3k0427h16,S3l0429h12,S3m0916h08,S3m0916h09,S3n0918h15,S3o1005h16,S4aH2,S4p1110h09,S1b0130h08,S2c0205h18,S3aH2,S3e0320h09,S3f0321h09,S3f0321h17,S3g0410h15,S3h0419h14,S3i0421h08,S3i0421h14,S3l0429h07,S3l0429h09,S3l0429h11,S3n0918h07,S3n0918h14,S3n0918h18,S1b0130h14,S1b0130h16,S3aH3,S3d0312h09,S3d0312h16,S3e0320h15,S3e0320h17,S3f0321h14,S3h0419h07,S3h0419h12,S3l0429h16,S3o1005h07,S4p1110h15,S1aH6,S1b0130h17,S3d0312h10,S3d0312h18,S3h0419h10,S3i0421h10,S3j0422h10,S3k0427h08,S3l0429h14,S3o1005h18,S1b0130h11,S2c0205h16,S3aH4,S3d0312h07,S3d0312h11,S3g0410h12,S3i0421h09,S3l0429h17,S3o1005h15,S4aH3,S4aH4,S4p1110h10,S2c0205h08,S3d0312h12,S3e0320h18,S3i0421h07,S3i0421h13,S3i0421h15,S3i0421h16,S3j0422h15,S3k0427h15,S3m0916h07,S3m0916h10,S3m0916h18,S3o1005h10,S4aH5,S1aH2,S1b0130h07,S2aH3,S3aH6,S3d0312h08,S3e0320h11,S3j0422h09,S3m0916h13,S3o1005h11,S4p1110h14,S5aH6,S1b0130h18,S3d0312h15,S3g0410h10,S3h0419h08,S3i0421h11,S3l0429h10,S3n0918h17,S5aH4,S1b0130h09,S2c0205h10,S3e0320h16,S3g0410h14,S3j0422h12,S3n0918h12,S3o1005h13,S4p1110h12</t>
+  </si>
+  <si>
+    <t>S1aH7,S2c0205h05,S3d0312h02,S3d0312h06,S3e0320h20,S3f0321h19,S3h0419h22,S3i0421h22,S3j0422h01,S3j0422h23,S3l0429h06,S3m0916h03,S4aH7,S5aH7,S2aH8,S2c0205h24,S3d0312h24,S3e0320h02,S3e0320h21,S3f0321h24,S3g0410h19,S3g0410h22,S3j0422h02,S3j0422h06,S3k0427h02,S3k0427h03,S3l0429h19,S3l0429h20,S3l0429h24,S3n0918h23,S4p1110h23,S3d0312h01,S3d0312h05,S3d0312h20,S3d0312h22,S3f0321h06,S3f0321h20,S3n0918h21,S4aH1,S4p1110h05,S3e0320h22,S3f0321h01,S3f0321h05,S3g0410h01,S3g0410h04,S3h0419h05,S3h0419h24,S3m0916h22,S3n0918h19,S3n0918h20,S3o1005h03,S3o1005h20,S4aH8,S4p1110h21,S1b0130h04,S1b0130h19,S2c0205h01,S2c0205h03,S3h0419h01,S3k0427h05,S3m0916h19,S3n0918h22,S3o1005h05,S4p1110h02,S4p1110h04,S1aH8,S1b0130h03,S1b0130h24,S2c0205h02,S3d0312h04,S3f0321h23,S3i0421h20,S3j0422h21,S3k0427h06,S3k0427h24,S3n0918h02,S4p1110h06,S5aH1,S1aH1,S2aH7,S2c0205h23,S3f0321h21,S3g0410h23,S3i0421h05,S3j0422h05,S3k0427h04,S4p1110h01,S1b0130h22,S2aH1,S3aH7,S3e0320h04,S3e0320h05,S3g0410h03,S3h0419h19,S3i0421h19,S3i0421h24,S3l0429h03,S3m0916h04,S3m0916h21,S3o1005h23,S5aH8,S1b0130h23,S3aH8,S3d0312h03,S3d0312h19,S3e0320h24,S3h0419h02,S3h0419h04,S3i0421h03,S3i0421h04,S3j0422h22,S3m0916h20,S3m0916h23,S3n0918h01,S3o1005h19,S4p1110h24,S2c0205h06,S3e0320h23,S3g0410h20,S3g0410h24,S3j0422h03,S3k0427h22,S3l0429h05,S3n0918h24,S3o1005h02,S3o1005h06,S1b0130h01,S1b0130h05,S2c0205h21,S3e0320h06,S3f0321h03,S3i0421h01,S3i0421h02,S3j0422h20,S3l0429h01,S3n0918h04,S3o1005h21,S3o1005h24,S4p1110h22,S2c0205h04,S2c0205h19,S2c0205h20,S3d0312h21,S3f0321h22,S3h0419h21,S3j0422h24,S3k0427h21,S3o1005h01,S1b0130h21,S3e0320h01,S3f0321h02,S3h0419h06,S3h0419h20,S3i0421h06,S3m0916h24,S3n0918h05,S3o1005h04,S4p1110h19,S4p1110h20,S1b0130h20,S3d0312h23,S3e0320h03,S3f0321h04,S3g0410h06,S3g0410h21,S3j0422h19,S3l0429h02,S3l0429h23,S3m0916h01,S3m0916h05,S3m0916h06,S3n0918h06,S3e0320h19,S3g0410h02,S3g0410h05,S3i0421h21,S3i0421h23,S3k0427h19,S3k0427h23,S3l0429h04,S3l0429h21,S3o1005h22,S1b0130h02,S1b0130h06,S2c0205h22,S3aH1,S3h0419h03,S3h0419h23,S3j0422h04,S3k0427h01,S3k0427h20,S3l0429h22,S3m0916h02,S3n0918h03,S4p1110h03</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0130h23,S3aH8,S3d0312h03,S3d0312h19,S3e0320h24,S3h0419h02,S3h0419h04,S3i0421h03,S3i0421h04,S3j0422h22,S3m0916h20,S3m0916h23,S3n0918h01,S3o1005h19,S4p1110h24,S1b0130h22,S2aH1,S3aH7,S3e0320h04,S3e0320h05,S3g0410h03,S3h0419h19,S3i0421h19,S3i0421h24,S3l0429h03,S3m0916h04,S3m0916h21,S3o1005h23,S5aH8,S2c0205h06,S3e0320h23,S3g0410h20,S3g0410h24,S3j0422h03,S3k0427h22,S3l0429h05,S3n0918h24,S3o1005h02,S3o1005h06,S1b0130h04,S1b0130h19,S2c0205h01,S2c0205h03,S3h0419h01,S3k0427h05,S3m0916h19,S3n0918h22,S3o1005h05,S4p1110h02,S4p1110h04,S1aH7,S2c0205h05,S3d0312h02,S3d0312h06,S3e0320h20,S3f0321h19,S3h0419h22,S3i0421h22,S3j0422h01,S3j0422h23,S3l0429h06,S3m0916h03,S4aH7,S5aH7,S1b0130h20,S3d0312h23,S3e0320h03,S3f0321h04,S3g0410h06,S3g0410h21,S3j0422h19,S3l0429h02,S3l0429h23,S3m0916h01,S3m0916h05,S3m0916h06,S3n0918h06,S1b0130h21,S3e0320h01,S3f0321h02,S3h0419h06,S3h0419h20,S3i0421h06,S3m0916h24,S3n0918h05,S3o1005h04,S4p1110h19,S4p1110h20,S2c0205h04,S2c0205h19,S2c0205h20,S3d0312h21,S3f0321h22,S3h0419h21,S3j0422h24,S3k0427h21,S3o1005h01,S1aH8,S1b0130h03,S1b0130h24,S2c0205h02,S3d0312h04,S3f0321h23,S3i0421h20,S3j0422h21,S3k0427h06,S3k0427h24,S3n0918h02,S4p1110h06,S5aH1,S1b0130h02,S1b0130h06,S2c0205h22,S3aH1,S3h0419h03,S3h0419h23,S3j0422h04,S3k0427h01,S3k0427h20,S3l0429h22,S3m0916h02,S3n0918h03,S4p1110h03,S3e0320h22,S3f0321h01,S3f0321h05,S3g0410h01,S3g0410h04,S3h0419h05,S3h0419h24,S3m0916h22,S3n0918h19,S3n0918h20,S3o1005h03,S3o1005h20,S4aH8,S4p1110h21,S2aH8,S2c0205h24,S3d0312h24,S3e0320h02,S3e0320h21,S3f0321h24,S3g0410h19,S3g0410h22,S3j0422h02,S3j0422h06,S3k0427h02,S3k0427h03,S3l0429h19,S3l0429h20,S3l0429h24,S3n0918h23,S4p1110h23,S1b0130h01,S1b0130h05,S2c0205h21,S3e0320h06,S3f0321h03,S3i0421h01,S3i0421h02,S3j0422h20,S3l0429h01,S3n0918h04,S3o1005h21,S3o1005h24,S4p1110h22,S1aH1,S2aH7,S2c0205h23,S3f0321h21,S3g0410h23,S3i0421h05,S3j0422h05,S3k0427h04,S4p1110h01,S3d0312h01,S3d0312h05,S3d0312h20,S3d0312h22,S3f0321h06,S3f0321h20,S3n0918h21,S4aH1,S4p1110h05,S3e0320h19,S3g0410h02,S3g0410h05,S3i0421h21,S3i0421h23,S3k0427h19,S3k0427h23,S3l0429h04,S3l0429h21,S3o1005h22</v>
+        <v>S1aH7,S2c0205h05,S3d0312h02,S3d0312h06,S3e0320h20,S3f0321h19,S3h0419h22,S3i0421h22,S3j0422h01,S3j0422h23,S3l0429h06,S3m0916h03,S4aH7,S5aH7,S2aH8,S2c0205h24,S3d0312h24,S3e0320h02,S3e0320h21,S3f0321h24,S3g0410h19,S3g0410h22,S3j0422h02,S3j0422h06,S3k0427h02,S3k0427h03,S3l0429h19,S3l0429h20,S3l0429h24,S3n0918h23,S4p1110h23,S3d0312h01,S3d0312h05,S3d0312h20,S3d0312h22,S3f0321h06,S3f0321h20,S3n0918h21,S4aH1,S4p1110h05,S3e0320h22,S3f0321h01,S3f0321h05,S3g0410h01,S3g0410h04,S3h0419h05,S3h0419h24,S3m0916h22,S3n0918h19,S3n0918h20,S3o1005h03,S3o1005h20,S4aH8,S4p1110h21,S1b0130h04,S1b0130h19,S2c0205h01,S2c0205h03,S3h0419h01,S3k0427h05,S3m0916h19,S3n0918h22,S3o1005h05,S4p1110h02,S4p1110h04,S1aH8,S1b0130h03,S1b0130h24,S2c0205h02,S3d0312h04,S3f0321h23,S3i0421h20,S3j0422h21,S3k0427h06,S3k0427h24,S3n0918h02,S4p1110h06,S5aH1,S1aH1,S2aH7,S2c0205h23,S3f0321h21,S3g0410h23,S3i0421h05,S3j0422h05,S3k0427h04,S4p1110h01,S1b0130h22,S2aH1,S3aH7,S3e0320h04,S3e0320h05,S3g0410h03,S3h0419h19,S3i0421h19,S3i0421h24,S3l0429h03,S3m0916h04,S3m0916h21,S3o1005h23,S5aH8,S1b0130h23,S3aH8,S3d0312h03,S3d0312h19,S3e0320h24,S3h0419h02,S3h0419h04,S3i0421h03,S3i0421h04,S3j0422h22,S3m0916h20,S3m0916h23,S3n0918h01,S3o1005h19,S4p1110h24,S2c0205h06,S3e0320h23,S3g0410h20,S3g0410h24,S3j0422h03,S3k0427h22,S3l0429h05,S3n0918h24,S3o1005h02,S3o1005h06,S1b0130h01,S1b0130h05,S2c0205h21,S3e0320h06,S3f0321h03,S3i0421h01,S3i0421h02,S3j0422h20,S3l0429h01,S3n0918h04,S3o1005h21,S3o1005h24,S4p1110h22,S2c0205h04,S2c0205h19,S2c0205h20,S3d0312h21,S3f0321h22,S3h0419h21,S3j0422h24,S3k0427h21,S3o1005h01,S1b0130h21,S3e0320h01,S3f0321h02,S3h0419h06,S3h0419h20,S3i0421h06,S3m0916h24,S3n0918h05,S3o1005h04,S4p1110h19,S4p1110h20,S1b0130h20,S3d0312h23,S3e0320h03,S3f0321h04,S3g0410h06,S3g0410h21,S3j0422h19,S3l0429h02,S3l0429h23,S3m0916h01,S3m0916h05,S3m0916h06,S3n0918h06,S3e0320h19,S3g0410h02,S3g0410h05,S3i0421h21,S3i0421h23,S3k0427h19,S3k0427h23,S3l0429h04,S3l0429h21,S3o1005h22,S1b0130h02,S1b0130h06,S2c0205h22,S3aH1,S3h0419h03,S3h0419h23,S3j0422h04,S3k0427h01,S3k0427h20,S3l0429h22,S3m0916h02,S3n0918h03,S4p1110h03</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0130h08,S2c0205h18,S3aH2,S3e0320h09,S3f0321h09,S3f0321h17,S3g0410h15,S3h0419h14,S3i0421h08,S3i0421h14,S3l0429h07,S3l0429h09,S3l0429h11,S3n0918h07,S3n0918h14,S3n0918h18,S2c0205h11,S3e0320h12,S3f0321h16,S3h0419h18,S3i0421h18,S3k0427h16,S3l0429h12,S3m0916h08,S3m0916h09,S3n0918h15,S3o1005h16,S4aH2,S4p1110h09,S1b0130h14,S1b0130h16,S3aH3,S3d0312h09,S3d0312h16,S3e0320h15,S3e0320h17,S3f0321h14,S3h0419h07,S3h0419h12,S3l0429h16,S3o1005h07,S4p1110h15,S1aH5,S1b0130h15,S2aH4,S2aH5,S3e0320h08,S3f0321h10,S3h0419h15,S3j0422h11,S3k0427h07,S3m0916h14,S3m0916h15,S5aH2,S5aH5,S1aH3,S2c0205h15,S3d0312h13,S3d0312h17,S3h0419h17,S3j0422h14,S3k0427h09,S3k0427h11,S3k0427h18,S3m0916h11,S3m0916h12,S3m0916h16,S3m0916h17,S3o1005h09,S4p1110h08,S4p1110h13,S4p1110h17,S1aH2,S1b0130h07,S2aH3,S3aH6,S3d0312h08,S3e0320h11,S3j0422h09,S3m0916h13,S3o1005h11,S4p1110h14,S5aH6,S2c0205h08,S3d0312h12,S3e0320h18,S3i0421h07,S3i0421h13,S3i0421h15,S3i0421h16,S3j0422h15,S3k0427h15,S3m0916h07,S3m0916h10,S3m0916h18,S3o1005h10,S4aH5,S1b0130h11,S2c0205h16,S3aH4,S3d0312h07,S3d0312h11,S3g0410h12,S3i0421h09,S3l0429h17,S3o1005h15,S4aH3,S4aH4,S4p1110h10,S1b0130h10,S2aH6,S3aH5,S3e0320h13,S3f0321h12,S3j0422h13,S3j0422h16,S3k0427h10,S3k0427h14,S3n0918h08,S3n0918h13,S4p1110h16,S5aH3,S1b0130h09,S2c0205h10,S3e0320h16,S3g0410h14,S3j0422h12,S3n0918h12,S3o1005h13,S4p1110h12,S3e0320h14,S3f0321h15,S3g0410h09,S3g0410h16,S3g0410h18,S3j0422h07,S3l0429h15,S3o1005h12,S4p1110h07,S2c0205h07,S2c0205h14,S3d0312h14,S3f0321h11,S3g0410h13,S3i0421h17,S3j0422h08,S3j0422h18,S3k0427h17,S3l0429h13,S3l0429h18,S3n0918h09,S3n0918h10,S3n0918h11,S1aH6,S1b0130h17,S3d0312h10,S3d0312h18,S3h0419h10,S3i0421h10,S3j0422h10,S3k0427h08,S3l0429h14,S3o1005h18,S1b0130h12,S1b0130h13,S2c0205h12,S3e0320h07,S3f0321h07,S3f0321h13,S3g0410h07,S3g0410h17,S3h0419h11,S3h0419h13,S3h0419h16,S3k0427h12,S3l0429h08,S3n0918h16,S3o1005h08,S3o1005h14,S4p1110h11,S4p1110h18,S1aH4,S2aH2,S2c0205h09,S2c0205h13,S2c0205h17,S3e0320h10,S3f0321h08,S3f0321h18,S3g0410h08,S3g0410h11,S3h0419h09,S3i0421h12,S3j0422h17,S3k0427h13,S3o1005h17,S4aH6,S1b0130h18,S3d0312h15,S3g0410h10,S3h0419h08,S3i0421h11,S3l0429h10,S3n0918h17,S5aH4</v>
+        <v>S1aH3,S2c0205h15,S3d0312h13,S3d0312h17,S3h0419h17,S3j0422h14,S3k0427h09,S3k0427h11,S3k0427h18,S3m0916h11,S3m0916h12,S3m0916h16,S3m0916h17,S3o1005h09,S4p1110h08,S4p1110h13,S4p1110h17,S2c0205h07,S2c0205h14,S3d0312h14,S3f0321h11,S3g0410h13,S3i0421h17,S3j0422h08,S3j0422h18,S3k0427h17,S3l0429h13,S3l0429h18,S3n0918h09,S3n0918h10,S3n0918h11,S1aH4,S2aH2,S2c0205h09,S2c0205h13,S2c0205h17,S3e0320h10,S3f0321h08,S3f0321h18,S3g0410h08,S3g0410h11,S3h0419h09,S3i0421h12,S3j0422h17,S3k0427h13,S3o1005h17,S4aH6,S3e0320h14,S3f0321h15,S3g0410h09,S3g0410h16,S3g0410h18,S3j0422h07,S3l0429h15,S3o1005h12,S4p1110h07,S1aH5,S1b0130h15,S2aH4,S2aH5,S3e0320h08,S3f0321h10,S3h0419h15,S3j0422h11,S3k0427h07,S3m0916h14,S3m0916h15,S5aH2,S5aH5,S1b0130h10,S2aH6,S3aH5,S3e0320h13,S3f0321h12,S3j0422h13,S3j0422h16,S3k0427h10,S3k0427h14,S3n0918h08,S3n0918h13,S4p1110h16,S5aH3,S1b0130h12,S1b0130h13,S2c0205h12,S3e0320h07,S3f0321h07,S3f0321h13,S3g0410h07,S3g0410h17,S3h0419h11,S3h0419h13,S3h0419h16,S3k0427h12,S3l0429h08,S3n0918h16,S3o1005h08,S3o1005h14,S4p1110h11,S4p1110h18,S2c0205h11,S3e0320h12,S3f0321h16,S3h0419h18,S3i0421h18,S3k0427h16,S3l0429h12,S3m0916h08,S3m0916h09,S3n0918h15,S3o1005h16,S4aH2,S4p1110h09,S1b0130h08,S2c0205h18,S3aH2,S3e0320h09,S3f0321h09,S3f0321h17,S3g0410h15,S3h0419h14,S3i0421h08,S3i0421h14,S3l0429h07,S3l0429h09,S3l0429h11,S3n0918h07,S3n0918h14,S3n0918h18,S1b0130h14,S1b0130h16,S3aH3,S3d0312h09,S3d0312h16,S3e0320h15,S3e0320h17,S3f0321h14,S3h0419h07,S3h0419h12,S3l0429h16,S3o1005h07,S4p1110h15,S1aH6,S1b0130h17,S3d0312h10,S3d0312h18,S3h0419h10,S3i0421h10,S3j0422h10,S3k0427h08,S3l0429h14,S3o1005h18,S1b0130h11,S2c0205h16,S3aH4,S3d0312h07,S3d0312h11,S3g0410h12,S3i0421h09,S3l0429h17,S3o1005h15,S4aH3,S4aH4,S4p1110h10,S2c0205h08,S3d0312h12,S3e0320h18,S3i0421h07,S3i0421h13,S3i0421h15,S3i0421h16,S3j0422h15,S3k0427h15,S3m0916h07,S3m0916h10,S3m0916h18,S3o1005h10,S4aH5,S1aH2,S1b0130h07,S2aH3,S3aH6,S3d0312h08,S3e0320h11,S3j0422h09,S3m0916h13,S3o1005h11,S4p1110h14,S5aH6,S1b0130h18,S3d0312h15,S3g0410h10,S3h0419h08,S3i0421h11,S3l0429h10,S3n0918h17,S5aH4,S1b0130h09,S2c0205h10,S3e0320h16,S3g0410h14,S3j0422h12,S3n0918h12,S3o1005h13,S4p1110h12</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3880,7 +3880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2EABA3-0183-4230-8DB5-81B0FE3F3FFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEAC748-548D-476D-9C35-220BA35A883F}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6970,7 +6970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341B3303-41F8-4BED-99FC-D2E18A76FE0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B2374F-9296-4F7F-B88F-65800BE6987D}">
   <dimension ref="B2:O403"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7049,10 +7049,10 @@
         <v>869</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N4">
-        <v>7.9527811637903387E-2</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O4" t="s">
         <v>880</v>
@@ -7119,10 +7119,10 @@
         <v>869</v>
       </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N6">
-        <v>8.0605632899210883E-2</v>
+        <v>7.8719445691922754E-2</v>
       </c>
       <c r="O6" t="s">
         <v>880</v>
@@ -7189,10 +7189,10 @@
         <v>869</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N8">
-        <v>7.8719445691922754E-2</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O8" t="s">
         <v>880</v>
@@ -17474,7 +17474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874CB0F8-0FAC-47C4-80CD-13C54CB00358}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F4178B-F9A4-4171-9028-54BC93B37587}">
   <dimension ref="B2:O803"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DA2721-5F61-4D96-8098-23A1E588918A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70712841-C188-42BF-9ED5-D31A551C9433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1449,7 +1449,7 @@
     <t>IMPNRGZ</t>
   </si>
   <si>
-    <t>elc_sol-CHE</t>
+    <t>elc_spv-CHE</t>
   </si>
   <si>
     <t>S1aH2</t>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S2e0416h11,S2e0416h18,S2i0429h11,S2i0429h12,S2i0429h15,S2j0518h16,S2j0518h18,S2k0531h17,S4l0918h10,S4l0918h12,S4l0918h13,S4l0918h17,S4m1019h11,S4n1020h15,S5p1104h15,S1c0205h18,S2d0415h18,S2e0416h08,S2f0420h16,S4l0918h15,S5aH4,S5p1104h13,S5p1104h17,S6aH3,S6aH4,S1b0201h09,S1c0205h17,S2aH6,S2e0416h15,S2f0420h13,S2g0421h10,S2g0421h15,S2h0427h18,S2j0518h09,S2j0518h12,S2k0531h08,S3aH5,S4m1019h13,S4m1019h15,S4o1023h09,S5aH3,S5p1104h08,S1aH2,S1aH7,S1c0205h10,S2aH3,S2e0416h07,S2f0420h09,S2f0420h18,S2i0429h08,S2j0518h11,S2j0518h15,S2j0518h17,S2k0531h18,S3aH6,S4aH7,S4l0918h08,S4o1023h11,S5aH6,S5aH7,S6aH6,S1b0201h07,S2d0415h12,S2g0421h16,S2j0518h08,S4aH5,S4l0918h16,S5p1104h07,S1c0205h09,S1c0205h11,S2aH7,S2d0415h09,S2h0427h16,S2k0531h15,S3aH4,S4aH3,S4aH4,S4m1019h10,S4m1019h16,S5p1104h09,S5p1104h11,S1aH4,S1b0201h08,S2aH2,S2f0420h17,S2i0429h16,S4aH6,S4l0918h18,S4n1020h12,S4n1020h18,S4o1023h15,S1aH6,S1b0201h11,S1b0201h14,S1b0201h16,S1b0201h17,S1b0201h18,S2g0421h11,S2g0421h12,S2g0421h14,S2h0427h12,S2h0427h15,S2j0518h13,S2k0531h13,S2k0531h16,S4l0918h09,S4l0918h11,S5p1104h10,S5p1104h18,S1b0201h10,S1b0201h12,S2d0415h08,S2d0415h10,S2d0415h13,S2e0416h09,S2f0420h14,S2i0429h18,S2j0518h14,S4aH2,S4m1019h14,S4o1023h07,S4o1023h16,S1c0205h13,S2d0415h07,S2f0420h08,S2f0420h11,S2h0427h09,S2h0427h14,S2i0429h13,S3aH7,S4l0918h07,S4l0918h14,S4o1023h18,S1aH5,S1c0205h16,S2aH4,S2aH5,S2d0415h11,S2d0415h17,S2e0416h16,S2g0421h08,S2g0421h13,S2h0427h07,S2h0427h11,S2k0531h10,S4m1019h09,S4m1019h18,S4o1023h17,S5aH2,S5aH5,S5p1104h16,S6aH2,S1b0201h13,S1b0201h15,S2e0416h10,S2e0416h14,S2e0416h17,S2f0420h10,S2i0429h17,S2k0531h14,S4m1019h12,S4n1020h08,S4n1020h11,S1c0205h15,S2f0420h07,S2g0421h09,S2h0427h10,S2j0518h10,S2k0531h11,S3aH3,S4n1020h07,S5p1104h14,S2d0415h16,S2e0416h13,S2f0420h12,S2f0420h15,S2g0421h17,S2h0427h08,S2j0518h07,S2k0531h12,S3aH2,S4o1023h14,S5p1104h12,S1c0205h07,S1c0205h08,S2d0415h14,S2d0415h15,S2i0429h07,S2i0429h09,S2i0429h14,S4n1020h10,S4n1020h13,S4n1020h14,S4n1020h17,S4o1023h08,S4o1023h12,S6aH5,S1c0205h12,S1c0205h14,S2e0416h12,S2g0421h07,S2g0421h18,S2h0427h13,S2h0427h17,S2i0429h10,S2k0531h07,S2k0531h09,S4m1019h07,S4m1019h08,S4m1019h17,S4n1020h09,S4n1020h16,S4o1023h10,S4o1023h13,S6aH7</t>
-  </si>
-  <si>
-    <t>S1b0201h02,S2d0415h03,S2d0415h20,S2g0421h05,S2g0421h23,S2h0427h20,S2h0427h21,S2i0429h20,S2j0518h01,S2j0518h19,S2j0518h23,S4l0918h06,S4m1019h20,S4n1020h19,S2d0415h01,S2d0415h02,S2d0415h06,S2d0415h19,S2g0421h19,S2h0427h24,S2i0429h06,S2k0531h01,S2k0531h23,S4l0918h04,S4m1019h03,S4m1019h05,S4m1019h21,S1aH8,S1b0201h22,S1c0205h03,S2d0415h23,S2g0421h01,S2g0421h20,S2i0429h01,S2j0518h04,S2j0518h21,S4m1019h06,S4o1023h04,S5aH1,S5p1104h05,S1b0201h03,S1b0201h06,S1c0205h02,S1c0205h05,S2d0415h24,S2e0416h20,S2e0416h23,S2f0420h03,S2h0427h03,S2h0427h23,S2i0429h21,S2j0518h06,S2k0531h05,S4l0918h21,S4m1019h23,S4n1020h24,S4o1023h02,S4o1023h21,S5p1104h01,S1c0205h23,S2e0416h02,S2e0416h04,S2f0420h22,S2h0427h22,S2i0429h24,S2j0518h03,S2j0518h24,S4n1020h01,S5p1104h02,S1b0201h05,S1c0205h01,S1c0205h20,S2f0420h05,S2f0420h24,S2g0421h06,S2h0427h19,S2j0518h20,S2k0531h06,S4m1019h04,S4o1023h03,S5p1104h20,S1b0201h20,S1b0201h24,S2d0415h05,S2f0420h01,S2h0427h01,S4aH1,S4l0918h24,S4n1020h02,S4o1023h19,S6aH1,S1b0201h19,S1c0205h06,S2d0415h21,S2g0421h04,S2i0429h04,S4l0918h20,S4m1019h02,S4n1020h21,S4o1023h05,S5p1104h22,S6aH8,S2aH1,S2g0421h02,S2g0421h03,S2h0427h05,S2h0427h06,S2i0429h19,S2k0531h19,S4l0918h01,S4m1019h22,S4n1020h23,S4o1023h20,S4o1023h24,S5aH8,S5p1104h03,S2aH8,S2e0416h19,S2f0420h19,S2g0421h22,S2i0429h02,S2i0429h22,S2i0429h23,S2k0531h04,S2k0531h24,S4l0918h02,S4l0918h05,S4m1019h24,S4n1020h05,S4n1020h22,S5p1104h04,S5p1104h24,S1c0205h04,S1c0205h19,S1c0205h22,S2f0420h04,S2j0518h05,S4l0918h23,S4m1019h19,S4n1020h04,S4n1020h06,S1aH1,S1b0201h23,S2d0415h22,S2f0420h21,S2g0421h24,S2i0429h03,S4n1020h03,S4n1020h20,S1b0201h01,S2e0416h01,S2f0420h20,S2g0421h21,S4l0918h22,S5p1104h19,S1c0205h24,S2d0415h04,S2h0427h04,S2k0531h21,S3aH8,S4m1019h01,S5p1104h21,S1b0201h04,S2e0416h03,S2e0416h05,S2e0416h06,S2e0416h22,S2f0420h02,S2i0429h05,S2k0531h20,S2k0531h22,S4aH8,S4l0918h03,S4o1023h01,S4o1023h23,S5p1104h06,S5p1104h23,S1b0201h21,S1c0205h21,S2e0416h21,S2e0416h24,S2f0420h06,S2f0420h23,S2h0427h02,S2j0518h02,S2j0518h22,S2k0531h02,S2k0531h03,S3aH1,S4l0918h19,S4o1023h06,S4o1023h22</t>
+    <t>S1b0201h10,S1b0201h12,S2d0415h08,S2d0415h10,S2d0415h13,S2e0416h09,S2f0420h14,S2i0429h18,S2j0518h14,S4aH2,S4m1019h14,S4o1023h07,S4o1023h16,S1c0205h18,S2d0415h18,S2e0416h08,S2f0420h16,S4l0918h15,S5aH4,S5p1104h13,S5p1104h17,S6aH3,S6aH4,S1c0205h12,S1c0205h14,S2e0416h12,S2g0421h07,S2g0421h18,S2h0427h13,S2h0427h17,S2i0429h10,S2k0531h07,S2k0531h09,S4m1019h07,S4m1019h08,S4m1019h17,S4n1020h09,S4n1020h16,S4o1023h10,S4o1023h13,S6aH7,S1aH2,S1aH7,S1c0205h10,S2aH3,S2e0416h07,S2f0420h09,S2f0420h18,S2i0429h08,S2j0518h11,S2j0518h15,S2j0518h17,S2k0531h18,S3aH6,S4aH7,S4l0918h08,S4o1023h11,S5aH6,S5aH7,S6aH6,S1aH6,S1b0201h11,S1b0201h14,S1b0201h16,S1b0201h17,S1b0201h18,S2g0421h11,S2g0421h12,S2g0421h14,S2h0427h12,S2h0427h15,S2j0518h13,S2k0531h13,S2k0531h16,S4l0918h09,S4l0918h11,S5p1104h10,S5p1104h18,S1aH4,S1b0201h08,S2aH2,S2f0420h17,S2i0429h16,S4aH6,S4l0918h18,S4n1020h12,S4n1020h18,S4o1023h15,S1b0201h07,S2d0415h12,S2g0421h16,S2j0518h08,S4aH5,S4l0918h16,S5p1104h07,S1c0205h07,S1c0205h08,S2d0415h14,S2d0415h15,S2i0429h07,S2i0429h09,S2i0429h14,S4n1020h10,S4n1020h13,S4n1020h14,S4n1020h17,S4o1023h08,S4o1023h12,S6aH5,S1c0205h15,S2f0420h07,S2g0421h09,S2h0427h10,S2j0518h10,S2k0531h11,S3aH3,S4n1020h07,S5p1104h14,S1c0205h09,S1c0205h11,S2aH7,S2d0415h09,S2h0427h16,S2k0531h15,S3aH4,S4aH3,S4aH4,S4m1019h10,S4m1019h16,S5p1104h09,S5p1104h11,S1c0205h13,S2d0415h07,S2f0420h08,S2f0420h11,S2h0427h09,S2h0427h14,S2i0429h13,S3aH7,S4l0918h07,S4l0918h14,S4o1023h18,S2d0415h16,S2e0416h13,S2f0420h12,S2f0420h15,S2g0421h17,S2h0427h08,S2j0518h07,S2k0531h12,S3aH2,S4o1023h14,S5p1104h12,S1b0201h13,S1b0201h15,S2e0416h10,S2e0416h14,S2e0416h17,S2f0420h10,S2i0429h17,S2k0531h14,S4m1019h12,S4n1020h08,S4n1020h11,S1aH3,S2e0416h11,S2e0416h18,S2i0429h11,S2i0429h12,S2i0429h15,S2j0518h16,S2j0518h18,S2k0531h17,S4l0918h10,S4l0918h12,S4l0918h13,S4l0918h17,S4m1019h11,S4n1020h15,S5p1104h15,S1aH5,S1c0205h16,S2aH4,S2aH5,S2d0415h11,S2d0415h17,S2e0416h16,S2g0421h08,S2g0421h13,S2h0427h07,S2h0427h11,S2k0531h10,S4m1019h09,S4m1019h18,S4o1023h17,S5aH2,S5aH5,S5p1104h16,S6aH2,S1b0201h09,S1c0205h17,S2aH6,S2e0416h15,S2f0420h13,S2g0421h10,S2g0421h15,S2h0427h18,S2j0518h09,S2j0518h12,S2k0531h08,S3aH5,S4m1019h13,S4m1019h15,S4o1023h09,S5aH3,S5p1104h08</t>
+  </si>
+  <si>
+    <t>S2aH1,S2g0421h02,S2g0421h03,S2h0427h05,S2h0427h06,S2i0429h19,S2k0531h19,S4l0918h01,S4m1019h22,S4n1020h23,S4o1023h20,S4o1023h24,S5aH8,S5p1104h03,S2d0415h01,S2d0415h02,S2d0415h06,S2d0415h19,S2g0421h19,S2h0427h24,S2i0429h06,S2k0531h01,S2k0531h23,S4l0918h04,S4m1019h03,S4m1019h05,S4m1019h21,S1b0201h21,S1c0205h21,S2e0416h21,S2e0416h24,S2f0420h06,S2f0420h23,S2h0427h02,S2j0518h02,S2j0518h22,S2k0531h02,S2k0531h03,S3aH1,S4l0918h19,S4o1023h06,S4o1023h22,S1b0201h03,S1b0201h06,S1c0205h02,S1c0205h05,S2d0415h24,S2e0416h20,S2e0416h23,S2f0420h03,S2h0427h03,S2h0427h23,S2i0429h21,S2j0518h06,S2k0531h05,S4l0918h21,S4m1019h23,S4n1020h24,S4o1023h02,S4o1023h21,S5p1104h01,S1b0201h19,S1c0205h06,S2d0415h21,S2g0421h04,S2i0429h04,S4l0918h20,S4m1019h02,S4n1020h21,S4o1023h05,S5p1104h22,S6aH8,S1b0201h20,S1b0201h24,S2d0415h05,S2f0420h01,S2h0427h01,S4aH1,S4l0918h24,S4n1020h02,S4o1023h19,S6aH1,S1c0205h23,S2e0416h02,S2e0416h04,S2f0420h22,S2h0427h22,S2i0429h24,S2j0518h03,S2j0518h24,S4n1020h01,S5p1104h02,S1b0201h04,S2e0416h03,S2e0416h05,S2e0416h06,S2e0416h22,S2f0420h02,S2i0429h05,S2k0531h20,S2k0531h22,S4aH8,S4l0918h03,S4o1023h01,S4o1023h23,S5p1104h06,S5p1104h23,S1b0201h01,S2e0416h01,S2f0420h20,S2g0421h21,S4l0918h22,S5p1104h19,S1b0201h05,S1c0205h01,S1c0205h20,S2f0420h05,S2f0420h24,S2g0421h06,S2h0427h19,S2j0518h20,S2k0531h06,S4m1019h04,S4o1023h03,S5p1104h20,S2aH8,S2e0416h19,S2f0420h19,S2g0421h22,S2i0429h02,S2i0429h22,S2i0429h23,S2k0531h04,S2k0531h24,S4l0918h02,S4l0918h05,S4m1019h24,S4n1020h05,S4n1020h22,S5p1104h04,S5p1104h24,S1c0205h24,S2d0415h04,S2h0427h04,S2k0531h21,S3aH8,S4m1019h01,S5p1104h21,S1aH1,S1b0201h23,S2d0415h22,S2f0420h21,S2g0421h24,S2i0429h03,S4n1020h03,S4n1020h20,S1b0201h02,S2d0415h03,S2d0415h20,S2g0421h05,S2g0421h23,S2h0427h20,S2h0427h21,S2i0429h20,S2j0518h01,S2j0518h19,S2j0518h23,S4l0918h06,S4m1019h20,S4n1020h19,S1c0205h04,S1c0205h19,S1c0205h22,S2f0420h04,S2j0518h05,S4l0918h23,S4m1019h19,S4n1020h04,S4n1020h06,S1aH8,S1b0201h22,S1c0205h03,S2d0415h23,S2g0421h01,S2g0421h20,S2i0429h01,S2j0518h04,S2j0518h21,S4m1019h06,S4o1023h04,S5aH1,S5p1104h05</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0201h02,S2d0415h03,S2d0415h20,S2g0421h05,S2g0421h23,S2h0427h20,S2h0427h21,S2i0429h20,S2j0518h01,S2j0518h19,S2j0518h23,S4l0918h06,S4m1019h20,S4n1020h19,S2d0415h01,S2d0415h02,S2d0415h06,S2d0415h19,S2g0421h19,S2h0427h24,S2i0429h06,S2k0531h01,S2k0531h23,S4l0918h04,S4m1019h03,S4m1019h05,S4m1019h21,S1aH8,S1b0201h22,S1c0205h03,S2d0415h23,S2g0421h01,S2g0421h20,S2i0429h01,S2j0518h04,S2j0518h21,S4m1019h06,S4o1023h04,S5aH1,S5p1104h05,S1b0201h03,S1b0201h06,S1c0205h02,S1c0205h05,S2d0415h24,S2e0416h20,S2e0416h23,S2f0420h03,S2h0427h03,S2h0427h23,S2i0429h21,S2j0518h06,S2k0531h05,S4l0918h21,S4m1019h23,S4n1020h24,S4o1023h02,S4o1023h21,S5p1104h01,S1c0205h23,S2e0416h02,S2e0416h04,S2f0420h22,S2h0427h22,S2i0429h24,S2j0518h03,S2j0518h24,S4n1020h01,S5p1104h02,S1b0201h05,S1c0205h01,S1c0205h20,S2f0420h05,S2f0420h24,S2g0421h06,S2h0427h19,S2j0518h20,S2k0531h06,S4m1019h04,S4o1023h03,S5p1104h20,S1b0201h20,S1b0201h24,S2d0415h05,S2f0420h01,S2h0427h01,S4aH1,S4l0918h24,S4n1020h02,S4o1023h19,S6aH1,S1b0201h19,S1c0205h06,S2d0415h21,S2g0421h04,S2i0429h04,S4l0918h20,S4m1019h02,S4n1020h21,S4o1023h05,S5p1104h22,S6aH8,S2aH1,S2g0421h02,S2g0421h03,S2h0427h05,S2h0427h06,S2i0429h19,S2k0531h19,S4l0918h01,S4m1019h22,S4n1020h23,S4o1023h20,S4o1023h24,S5aH8,S5p1104h03,S2aH8,S2e0416h19,S2f0420h19,S2g0421h22,S2i0429h02,S2i0429h22,S2i0429h23,S2k0531h04,S2k0531h24,S4l0918h02,S4l0918h05,S4m1019h24,S4n1020h05,S4n1020h22,S5p1104h04,S5p1104h24,S1c0205h04,S1c0205h19,S1c0205h22,S2f0420h04,S2j0518h05,S4l0918h23,S4m1019h19,S4n1020h04,S4n1020h06,S1aH1,S1b0201h23,S2d0415h22,S2f0420h21,S2g0421h24,S2i0429h03,S4n1020h03,S4n1020h20,S1b0201h01,S2e0416h01,S2f0420h20,S2g0421h21,S4l0918h22,S5p1104h19,S1c0205h24,S2d0415h04,S2h0427h04,S2k0531h21,S3aH8,S4m1019h01,S5p1104h21,S1b0201h04,S2e0416h03,S2e0416h05,S2e0416h06,S2e0416h22,S2f0420h02,S2i0429h05,S2k0531h20,S2k0531h22,S4aH8,S4l0918h03,S4o1023h01,S4o1023h23,S5p1104h06,S5p1104h23,S1b0201h21,S1c0205h21,S2e0416h21,S2e0416h24,S2f0420h06,S2f0420h23,S2h0427h02,S2j0518h02,S2j0518h22,S2k0531h02,S2k0531h03,S3aH1,S4l0918h19,S4o1023h06,S4o1023h22</v>
+        <v>S2aH1,S2g0421h02,S2g0421h03,S2h0427h05,S2h0427h06,S2i0429h19,S2k0531h19,S4l0918h01,S4m1019h22,S4n1020h23,S4o1023h20,S4o1023h24,S5aH8,S5p1104h03,S2d0415h01,S2d0415h02,S2d0415h06,S2d0415h19,S2g0421h19,S2h0427h24,S2i0429h06,S2k0531h01,S2k0531h23,S4l0918h04,S4m1019h03,S4m1019h05,S4m1019h21,S1b0201h21,S1c0205h21,S2e0416h21,S2e0416h24,S2f0420h06,S2f0420h23,S2h0427h02,S2j0518h02,S2j0518h22,S2k0531h02,S2k0531h03,S3aH1,S4l0918h19,S4o1023h06,S4o1023h22,S1b0201h03,S1b0201h06,S1c0205h02,S1c0205h05,S2d0415h24,S2e0416h20,S2e0416h23,S2f0420h03,S2h0427h03,S2h0427h23,S2i0429h21,S2j0518h06,S2k0531h05,S4l0918h21,S4m1019h23,S4n1020h24,S4o1023h02,S4o1023h21,S5p1104h01,S1b0201h19,S1c0205h06,S2d0415h21,S2g0421h04,S2i0429h04,S4l0918h20,S4m1019h02,S4n1020h21,S4o1023h05,S5p1104h22,S6aH8,S1b0201h20,S1b0201h24,S2d0415h05,S2f0420h01,S2h0427h01,S4aH1,S4l0918h24,S4n1020h02,S4o1023h19,S6aH1,S1c0205h23,S2e0416h02,S2e0416h04,S2f0420h22,S2h0427h22,S2i0429h24,S2j0518h03,S2j0518h24,S4n1020h01,S5p1104h02,S1b0201h04,S2e0416h03,S2e0416h05,S2e0416h06,S2e0416h22,S2f0420h02,S2i0429h05,S2k0531h20,S2k0531h22,S4aH8,S4l0918h03,S4o1023h01,S4o1023h23,S5p1104h06,S5p1104h23,S1b0201h01,S2e0416h01,S2f0420h20,S2g0421h21,S4l0918h22,S5p1104h19,S1b0201h05,S1c0205h01,S1c0205h20,S2f0420h05,S2f0420h24,S2g0421h06,S2h0427h19,S2j0518h20,S2k0531h06,S4m1019h04,S4o1023h03,S5p1104h20,S2aH8,S2e0416h19,S2f0420h19,S2g0421h22,S2i0429h02,S2i0429h22,S2i0429h23,S2k0531h04,S2k0531h24,S4l0918h02,S4l0918h05,S4m1019h24,S4n1020h05,S4n1020h22,S5p1104h04,S5p1104h24,S1c0205h24,S2d0415h04,S2h0427h04,S2k0531h21,S3aH8,S4m1019h01,S5p1104h21,S1aH1,S1b0201h23,S2d0415h22,S2f0420h21,S2g0421h24,S2i0429h03,S4n1020h03,S4n1020h20,S1b0201h02,S2d0415h03,S2d0415h20,S2g0421h05,S2g0421h23,S2h0427h20,S2h0427h21,S2i0429h20,S2j0518h01,S2j0518h19,S2j0518h23,S4l0918h06,S4m1019h20,S4n1020h19,S1c0205h04,S1c0205h19,S1c0205h22,S2f0420h04,S2j0518h05,S4l0918h23,S4m1019h19,S4n1020h04,S4n1020h06,S1aH8,S1b0201h22,S1c0205h03,S2d0415h23,S2g0421h01,S2g0421h20,S2i0429h01,S2j0518h04,S2j0518h21,S4m1019h06,S4o1023h04,S5aH1,S5p1104h05</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S2e0416h11,S2e0416h18,S2i0429h11,S2i0429h12,S2i0429h15,S2j0518h16,S2j0518h18,S2k0531h17,S4l0918h10,S4l0918h12,S4l0918h13,S4l0918h17,S4m1019h11,S4n1020h15,S5p1104h15,S1c0205h18,S2d0415h18,S2e0416h08,S2f0420h16,S4l0918h15,S5aH4,S5p1104h13,S5p1104h17,S6aH3,S6aH4,S1b0201h09,S1c0205h17,S2aH6,S2e0416h15,S2f0420h13,S2g0421h10,S2g0421h15,S2h0427h18,S2j0518h09,S2j0518h12,S2k0531h08,S3aH5,S4m1019h13,S4m1019h15,S4o1023h09,S5aH3,S5p1104h08,S1aH2,S1aH7,S1c0205h10,S2aH3,S2e0416h07,S2f0420h09,S2f0420h18,S2i0429h08,S2j0518h11,S2j0518h15,S2j0518h17,S2k0531h18,S3aH6,S4aH7,S4l0918h08,S4o1023h11,S5aH6,S5aH7,S6aH6,S1b0201h07,S2d0415h12,S2g0421h16,S2j0518h08,S4aH5,S4l0918h16,S5p1104h07,S1c0205h09,S1c0205h11,S2aH7,S2d0415h09,S2h0427h16,S2k0531h15,S3aH4,S4aH3,S4aH4,S4m1019h10,S4m1019h16,S5p1104h09,S5p1104h11,S1aH4,S1b0201h08,S2aH2,S2f0420h17,S2i0429h16,S4aH6,S4l0918h18,S4n1020h12,S4n1020h18,S4o1023h15,S1aH6,S1b0201h11,S1b0201h14,S1b0201h16,S1b0201h17,S1b0201h18,S2g0421h11,S2g0421h12,S2g0421h14,S2h0427h12,S2h0427h15,S2j0518h13,S2k0531h13,S2k0531h16,S4l0918h09,S4l0918h11,S5p1104h10,S5p1104h18,S1b0201h10,S1b0201h12,S2d0415h08,S2d0415h10,S2d0415h13,S2e0416h09,S2f0420h14,S2i0429h18,S2j0518h14,S4aH2,S4m1019h14,S4o1023h07,S4o1023h16,S1c0205h13,S2d0415h07,S2f0420h08,S2f0420h11,S2h0427h09,S2h0427h14,S2i0429h13,S3aH7,S4l0918h07,S4l0918h14,S4o1023h18,S1aH5,S1c0205h16,S2aH4,S2aH5,S2d0415h11,S2d0415h17,S2e0416h16,S2g0421h08,S2g0421h13,S2h0427h07,S2h0427h11,S2k0531h10,S4m1019h09,S4m1019h18,S4o1023h17,S5aH2,S5aH5,S5p1104h16,S6aH2,S1b0201h13,S1b0201h15,S2e0416h10,S2e0416h14,S2e0416h17,S2f0420h10,S2i0429h17,S2k0531h14,S4m1019h12,S4n1020h08,S4n1020h11,S1c0205h15,S2f0420h07,S2g0421h09,S2h0427h10,S2j0518h10,S2k0531h11,S3aH3,S4n1020h07,S5p1104h14,S2d0415h16,S2e0416h13,S2f0420h12,S2f0420h15,S2g0421h17,S2h0427h08,S2j0518h07,S2k0531h12,S3aH2,S4o1023h14,S5p1104h12,S1c0205h07,S1c0205h08,S2d0415h14,S2d0415h15,S2i0429h07,S2i0429h09,S2i0429h14,S4n1020h10,S4n1020h13,S4n1020h14,S4n1020h17,S4o1023h08,S4o1023h12,S6aH5,S1c0205h12,S1c0205h14,S2e0416h12,S2g0421h07,S2g0421h18,S2h0427h13,S2h0427h17,S2i0429h10,S2k0531h07,S2k0531h09,S4m1019h07,S4m1019h08,S4m1019h17,S4n1020h09,S4n1020h16,S4o1023h10,S4o1023h13,S6aH7</v>
+        <v>S1b0201h10,S1b0201h12,S2d0415h08,S2d0415h10,S2d0415h13,S2e0416h09,S2f0420h14,S2i0429h18,S2j0518h14,S4aH2,S4m1019h14,S4o1023h07,S4o1023h16,S1c0205h18,S2d0415h18,S2e0416h08,S2f0420h16,S4l0918h15,S5aH4,S5p1104h13,S5p1104h17,S6aH3,S6aH4,S1c0205h12,S1c0205h14,S2e0416h12,S2g0421h07,S2g0421h18,S2h0427h13,S2h0427h17,S2i0429h10,S2k0531h07,S2k0531h09,S4m1019h07,S4m1019h08,S4m1019h17,S4n1020h09,S4n1020h16,S4o1023h10,S4o1023h13,S6aH7,S1aH2,S1aH7,S1c0205h10,S2aH3,S2e0416h07,S2f0420h09,S2f0420h18,S2i0429h08,S2j0518h11,S2j0518h15,S2j0518h17,S2k0531h18,S3aH6,S4aH7,S4l0918h08,S4o1023h11,S5aH6,S5aH7,S6aH6,S1aH6,S1b0201h11,S1b0201h14,S1b0201h16,S1b0201h17,S1b0201h18,S2g0421h11,S2g0421h12,S2g0421h14,S2h0427h12,S2h0427h15,S2j0518h13,S2k0531h13,S2k0531h16,S4l0918h09,S4l0918h11,S5p1104h10,S5p1104h18,S1aH4,S1b0201h08,S2aH2,S2f0420h17,S2i0429h16,S4aH6,S4l0918h18,S4n1020h12,S4n1020h18,S4o1023h15,S1b0201h07,S2d0415h12,S2g0421h16,S2j0518h08,S4aH5,S4l0918h16,S5p1104h07,S1c0205h07,S1c0205h08,S2d0415h14,S2d0415h15,S2i0429h07,S2i0429h09,S2i0429h14,S4n1020h10,S4n1020h13,S4n1020h14,S4n1020h17,S4o1023h08,S4o1023h12,S6aH5,S1c0205h15,S2f0420h07,S2g0421h09,S2h0427h10,S2j0518h10,S2k0531h11,S3aH3,S4n1020h07,S5p1104h14,S1c0205h09,S1c0205h11,S2aH7,S2d0415h09,S2h0427h16,S2k0531h15,S3aH4,S4aH3,S4aH4,S4m1019h10,S4m1019h16,S5p1104h09,S5p1104h11,S1c0205h13,S2d0415h07,S2f0420h08,S2f0420h11,S2h0427h09,S2h0427h14,S2i0429h13,S3aH7,S4l0918h07,S4l0918h14,S4o1023h18,S2d0415h16,S2e0416h13,S2f0420h12,S2f0420h15,S2g0421h17,S2h0427h08,S2j0518h07,S2k0531h12,S3aH2,S4o1023h14,S5p1104h12,S1b0201h13,S1b0201h15,S2e0416h10,S2e0416h14,S2e0416h17,S2f0420h10,S2i0429h17,S2k0531h14,S4m1019h12,S4n1020h08,S4n1020h11,S1aH3,S2e0416h11,S2e0416h18,S2i0429h11,S2i0429h12,S2i0429h15,S2j0518h16,S2j0518h18,S2k0531h17,S4l0918h10,S4l0918h12,S4l0918h13,S4l0918h17,S4m1019h11,S4n1020h15,S5p1104h15,S1aH5,S1c0205h16,S2aH4,S2aH5,S2d0415h11,S2d0415h17,S2e0416h16,S2g0421h08,S2g0421h13,S2h0427h07,S2h0427h11,S2k0531h10,S4m1019h09,S4m1019h18,S4o1023h17,S5aH2,S5aH5,S5p1104h16,S6aH2,S1b0201h09,S1c0205h17,S2aH6,S2e0416h15,S2f0420h13,S2g0421h10,S2g0421h15,S2h0427h18,S2j0518h09,S2j0518h12,S2k0531h08,S3aH5,S4m1019h13,S4m1019h15,S4o1023h09,S5aH3,S5p1104h08</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F29FE0B-FF12-4CAA-A9BD-D74573FB12C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1930F16C-5583-4F52-8474-E3958BF4FD14}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A603DCCF-60FF-4C26-9363-E34D0BD69A57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D91528-9FCB-463D-8E1E-48AC97CE579D}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7082,7 +7082,7 @@
         <v>87</v>
       </c>
       <c r="N4">
-        <v>8.0605632899210883E-2</v>
+        <v>8.0605632899210897E-2</v>
       </c>
       <c r="O4" t="s">
         <v>889</v>
@@ -7114,10 +7114,10 @@
         <v>878</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N5">
-        <v>0.26179508564829657</v>
+        <v>0.17653172515557838</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7152,7 +7152,7 @@
         <v>84</v>
       </c>
       <c r="N6">
-        <v>0.19493167383075638</v>
+        <v>0.19493167383075641</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7184,10 +7184,10 @@
         <v>878</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N7">
-        <v>0.17653172515557836</v>
+        <v>0.26179508564829668</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7222,7 +7222,7 @@
         <v>89</v>
       </c>
       <c r="N8">
-        <v>7.9527811637903387E-2</v>
+        <v>7.9527811637903401E-2</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -7257,7 +7257,7 @@
         <v>80</v>
       </c>
       <c r="N9">
-        <v>0.40660807082825429</v>
+        <v>0.40660807082825434</v>
       </c>
       <c r="O9" t="s">
         <v>889</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28404FE-4C06-4BB8-AABF-7143EFEE7A5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1ADD45-F0DF-4BF6-BE05-A0AFE1A7A6EC}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70712841-C188-42BF-9ED5-D31A551C9433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB032A8-99BE-46E4-A04D-C175D6D34E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0201h10,S1b0201h12,S2d0415h08,S2d0415h10,S2d0415h13,S2e0416h09,S2f0420h14,S2i0429h18,S2j0518h14,S4aH2,S4m1019h14,S4o1023h07,S4o1023h16,S1c0205h18,S2d0415h18,S2e0416h08,S2f0420h16,S4l0918h15,S5aH4,S5p1104h13,S5p1104h17,S6aH3,S6aH4,S1c0205h12,S1c0205h14,S2e0416h12,S2g0421h07,S2g0421h18,S2h0427h13,S2h0427h17,S2i0429h10,S2k0531h07,S2k0531h09,S4m1019h07,S4m1019h08,S4m1019h17,S4n1020h09,S4n1020h16,S4o1023h10,S4o1023h13,S6aH7,S1aH2,S1aH7,S1c0205h10,S2aH3,S2e0416h07,S2f0420h09,S2f0420h18,S2i0429h08,S2j0518h11,S2j0518h15,S2j0518h17,S2k0531h18,S3aH6,S4aH7,S4l0918h08,S4o1023h11,S5aH6,S5aH7,S6aH6,S1aH6,S1b0201h11,S1b0201h14,S1b0201h16,S1b0201h17,S1b0201h18,S2g0421h11,S2g0421h12,S2g0421h14,S2h0427h12,S2h0427h15,S2j0518h13,S2k0531h13,S2k0531h16,S4l0918h09,S4l0918h11,S5p1104h10,S5p1104h18,S1aH4,S1b0201h08,S2aH2,S2f0420h17,S2i0429h16,S4aH6,S4l0918h18,S4n1020h12,S4n1020h18,S4o1023h15,S1b0201h07,S2d0415h12,S2g0421h16,S2j0518h08,S4aH5,S4l0918h16,S5p1104h07,S1c0205h07,S1c0205h08,S2d0415h14,S2d0415h15,S2i0429h07,S2i0429h09,S2i0429h14,S4n1020h10,S4n1020h13,S4n1020h14,S4n1020h17,S4o1023h08,S4o1023h12,S6aH5,S1c0205h15,S2f0420h07,S2g0421h09,S2h0427h10,S2j0518h10,S2k0531h11,S3aH3,S4n1020h07,S5p1104h14,S1c0205h09,S1c0205h11,S2aH7,S2d0415h09,S2h0427h16,S2k0531h15,S3aH4,S4aH3,S4aH4,S4m1019h10,S4m1019h16,S5p1104h09,S5p1104h11,S1c0205h13,S2d0415h07,S2f0420h08,S2f0420h11,S2h0427h09,S2h0427h14,S2i0429h13,S3aH7,S4l0918h07,S4l0918h14,S4o1023h18,S2d0415h16,S2e0416h13,S2f0420h12,S2f0420h15,S2g0421h17,S2h0427h08,S2j0518h07,S2k0531h12,S3aH2,S4o1023h14,S5p1104h12,S1b0201h13,S1b0201h15,S2e0416h10,S2e0416h14,S2e0416h17,S2f0420h10,S2i0429h17,S2k0531h14,S4m1019h12,S4n1020h08,S4n1020h11,S1aH3,S2e0416h11,S2e0416h18,S2i0429h11,S2i0429h12,S2i0429h15,S2j0518h16,S2j0518h18,S2k0531h17,S4l0918h10,S4l0918h12,S4l0918h13,S4l0918h17,S4m1019h11,S4n1020h15,S5p1104h15,S1aH5,S1c0205h16,S2aH4,S2aH5,S2d0415h11,S2d0415h17,S2e0416h16,S2g0421h08,S2g0421h13,S2h0427h07,S2h0427h11,S2k0531h10,S4m1019h09,S4m1019h18,S4o1023h17,S5aH2,S5aH5,S5p1104h16,S6aH2,S1b0201h09,S1c0205h17,S2aH6,S2e0416h15,S2f0420h13,S2g0421h10,S2g0421h15,S2h0427h18,S2j0518h09,S2j0518h12,S2k0531h08,S3aH5,S4m1019h13,S4m1019h15,S4o1023h09,S5aH3,S5p1104h08</t>
-  </si>
-  <si>
-    <t>S2aH1,S2g0421h02,S2g0421h03,S2h0427h05,S2h0427h06,S2i0429h19,S2k0531h19,S4l0918h01,S4m1019h22,S4n1020h23,S4o1023h20,S4o1023h24,S5aH8,S5p1104h03,S2d0415h01,S2d0415h02,S2d0415h06,S2d0415h19,S2g0421h19,S2h0427h24,S2i0429h06,S2k0531h01,S2k0531h23,S4l0918h04,S4m1019h03,S4m1019h05,S4m1019h21,S1b0201h21,S1c0205h21,S2e0416h21,S2e0416h24,S2f0420h06,S2f0420h23,S2h0427h02,S2j0518h02,S2j0518h22,S2k0531h02,S2k0531h03,S3aH1,S4l0918h19,S4o1023h06,S4o1023h22,S1b0201h03,S1b0201h06,S1c0205h02,S1c0205h05,S2d0415h24,S2e0416h20,S2e0416h23,S2f0420h03,S2h0427h03,S2h0427h23,S2i0429h21,S2j0518h06,S2k0531h05,S4l0918h21,S4m1019h23,S4n1020h24,S4o1023h02,S4o1023h21,S5p1104h01,S1b0201h19,S1c0205h06,S2d0415h21,S2g0421h04,S2i0429h04,S4l0918h20,S4m1019h02,S4n1020h21,S4o1023h05,S5p1104h22,S6aH8,S1b0201h20,S1b0201h24,S2d0415h05,S2f0420h01,S2h0427h01,S4aH1,S4l0918h24,S4n1020h02,S4o1023h19,S6aH1,S1c0205h23,S2e0416h02,S2e0416h04,S2f0420h22,S2h0427h22,S2i0429h24,S2j0518h03,S2j0518h24,S4n1020h01,S5p1104h02,S1b0201h04,S2e0416h03,S2e0416h05,S2e0416h06,S2e0416h22,S2f0420h02,S2i0429h05,S2k0531h20,S2k0531h22,S4aH8,S4l0918h03,S4o1023h01,S4o1023h23,S5p1104h06,S5p1104h23,S1b0201h01,S2e0416h01,S2f0420h20,S2g0421h21,S4l0918h22,S5p1104h19,S1b0201h05,S1c0205h01,S1c0205h20,S2f0420h05,S2f0420h24,S2g0421h06,S2h0427h19,S2j0518h20,S2k0531h06,S4m1019h04,S4o1023h03,S5p1104h20,S2aH8,S2e0416h19,S2f0420h19,S2g0421h22,S2i0429h02,S2i0429h22,S2i0429h23,S2k0531h04,S2k0531h24,S4l0918h02,S4l0918h05,S4m1019h24,S4n1020h05,S4n1020h22,S5p1104h04,S5p1104h24,S1c0205h24,S2d0415h04,S2h0427h04,S2k0531h21,S3aH8,S4m1019h01,S5p1104h21,S1aH1,S1b0201h23,S2d0415h22,S2f0420h21,S2g0421h24,S2i0429h03,S4n1020h03,S4n1020h20,S1b0201h02,S2d0415h03,S2d0415h20,S2g0421h05,S2g0421h23,S2h0427h20,S2h0427h21,S2i0429h20,S2j0518h01,S2j0518h19,S2j0518h23,S4l0918h06,S4m1019h20,S4n1020h19,S1c0205h04,S1c0205h19,S1c0205h22,S2f0420h04,S2j0518h05,S4l0918h23,S4m1019h19,S4n1020h04,S4n1020h06,S1aH8,S1b0201h22,S1c0205h03,S2d0415h23,S2g0421h01,S2g0421h20,S2i0429h01,S2j0518h04,S2j0518h21,S4m1019h06,S4o1023h04,S5aH1,S5p1104h05</t>
+    <t>S1b0201h10,S1b0201h12,S2d0415h08,S2d0415h10,S2d0415h13,S2e0416h09,S2f0420h14,S2i0429h18,S2j0518h14,S4aH2,S4m1019h14,S4o1023h07,S4o1023h16,S1aH4,S1b0201h08,S2aH2,S2f0420h17,S2i0429h16,S4aH6,S4l0918h18,S4n1020h12,S4n1020h18,S4o1023h15,S1c0205h07,S1c0205h08,S2d0415h14,S2d0415h15,S2i0429h07,S2i0429h09,S2i0429h14,S4n1020h10,S4n1020h13,S4n1020h14,S4n1020h17,S4o1023h08,S4o1023h12,S6aH5,S1c0205h18,S2d0415h18,S2e0416h08,S2f0420h16,S4l0918h15,S5aH4,S5p1104h13,S5p1104h17,S6aH3,S6aH4,S1c0205h12,S1c0205h14,S2e0416h12,S2g0421h07,S2g0421h18,S2h0427h13,S2h0427h17,S2i0429h10,S2k0531h07,S2k0531h09,S4m1019h07,S4m1019h08,S4m1019h17,S4n1020h09,S4n1020h16,S4o1023h10,S4o1023h13,S6aH7,S1aH3,S2e0416h11,S2e0416h18,S2i0429h11,S2i0429h12,S2i0429h15,S2j0518h16,S2j0518h18,S2k0531h17,S4l0918h10,S4l0918h12,S4l0918h13,S4l0918h17,S4m1019h11,S4n1020h15,S5p1104h15,S2d0415h16,S2e0416h13,S2f0420h12,S2f0420h15,S2g0421h17,S2h0427h08,S2j0518h07,S2k0531h12,S3aH2,S4o1023h14,S5p1104h12,S1b0201h07,S2d0415h12,S2g0421h16,S2j0518h08,S4aH5,S4l0918h16,S5p1104h07,S1aH6,S1b0201h11,S1b0201h14,S1b0201h16,S1b0201h17,S1b0201h18,S2g0421h11,S2g0421h12,S2g0421h14,S2h0427h12,S2h0427h15,S2j0518h13,S2k0531h13,S2k0531h16,S4l0918h09,S4l0918h11,S5p1104h10,S5p1104h18,S1b0201h13,S1b0201h15,S2e0416h10,S2e0416h14,S2e0416h17,S2f0420h10,S2i0429h17,S2k0531h14,S4m1019h12,S4n1020h08,S4n1020h11,S1c0205h09,S1c0205h11,S2aH7,S2d0415h09,S2h0427h16,S2k0531h15,S3aH4,S4aH3,S4aH4,S4m1019h10,S4m1019h16,S5p1104h09,S5p1104h11,S1aH2,S1aH7,S1c0205h10,S2aH3,S2e0416h07,S2f0420h09,S2f0420h18,S2i0429h08,S2j0518h11,S2j0518h15,S2j0518h17,S2k0531h18,S3aH6,S4aH7,S4l0918h08,S4o1023h11,S5aH6,S5aH7,S6aH6,S1c0205h15,S2f0420h07,S2g0421h09,S2h0427h10,S2j0518h10,S2k0531h11,S3aH3,S4n1020h07,S5p1104h14,S1b0201h09,S1c0205h17,S2aH6,S2e0416h15,S2f0420h13,S2g0421h10,S2g0421h15,S2h0427h18,S2j0518h09,S2j0518h12,S2k0531h08,S3aH5,S4m1019h13,S4m1019h15,S4o1023h09,S5aH3,S5p1104h08,S1c0205h13,S2d0415h07,S2f0420h08,S2f0420h11,S2h0427h09,S2h0427h14,S2i0429h13,S3aH7,S4l0918h07,S4l0918h14,S4o1023h18,S1aH5,S1c0205h16,S2aH4,S2aH5,S2d0415h11,S2d0415h17,S2e0416h16,S2g0421h08,S2g0421h13,S2h0427h07,S2h0427h11,S2k0531h10,S4m1019h09,S4m1019h18,S4o1023h17,S5aH2,S5aH5,S5p1104h16,S6aH2</t>
+  </si>
+  <si>
+    <t>S2aH1,S2g0421h02,S2g0421h03,S2h0427h05,S2h0427h06,S2i0429h19,S2k0531h19,S4l0918h01,S4m1019h22,S4n1020h23,S4o1023h20,S4o1023h24,S5aH8,S5p1104h03,S1b0201h20,S1b0201h24,S2d0415h05,S2f0420h01,S2h0427h01,S4aH1,S4l0918h24,S4n1020h02,S4o1023h19,S6aH1,S1b0201h04,S2e0416h03,S2e0416h05,S2e0416h06,S2e0416h22,S2f0420h02,S2i0429h05,S2k0531h20,S2k0531h22,S4aH8,S4l0918h03,S4o1023h01,S4o1023h23,S5p1104h06,S5p1104h23,S2d0415h01,S2d0415h02,S2d0415h06,S2d0415h19,S2g0421h19,S2h0427h24,S2i0429h06,S2k0531h01,S2k0531h23,S4l0918h04,S4m1019h03,S4m1019h05,S4m1019h21,S1b0201h21,S1c0205h21,S2e0416h21,S2e0416h24,S2f0420h06,S2f0420h23,S2h0427h02,S2j0518h02,S2j0518h22,S2k0531h02,S2k0531h03,S3aH1,S4l0918h19,S4o1023h06,S4o1023h22,S1b0201h02,S2d0415h03,S2d0415h20,S2g0421h05,S2g0421h23,S2h0427h20,S2h0427h21,S2i0429h20,S2j0518h01,S2j0518h19,S2j0518h23,S4l0918h06,S4m1019h20,S4n1020h19,S1c0205h24,S2d0415h04,S2h0427h04,S2k0531h21,S3aH8,S4m1019h01,S5p1104h21,S1c0205h23,S2e0416h02,S2e0416h04,S2f0420h22,S2h0427h22,S2i0429h24,S2j0518h03,S2j0518h24,S4n1020h01,S5p1104h02,S1b0201h19,S1c0205h06,S2d0415h21,S2g0421h04,S2i0429h04,S4l0918h20,S4m1019h02,S4n1020h21,S4o1023h05,S5p1104h22,S6aH8,S1aH1,S1b0201h23,S2d0415h22,S2f0420h21,S2g0421h24,S2i0429h03,S4n1020h03,S4n1020h20,S1b0201h05,S1c0205h01,S1c0205h20,S2f0420h05,S2f0420h24,S2g0421h06,S2h0427h19,S2j0518h20,S2k0531h06,S4m1019h04,S4o1023h03,S5p1104h20,S1b0201h03,S1b0201h06,S1c0205h02,S1c0205h05,S2d0415h24,S2e0416h20,S2e0416h23,S2f0420h03,S2h0427h03,S2h0427h23,S2i0429h21,S2j0518h06,S2k0531h05,S4l0918h21,S4m1019h23,S4n1020h24,S4o1023h02,S4o1023h21,S5p1104h01,S1b0201h01,S2e0416h01,S2f0420h20,S2g0421h21,S4l0918h22,S5p1104h19,S1aH8,S1b0201h22,S1c0205h03,S2d0415h23,S2g0421h01,S2g0421h20,S2i0429h01,S2j0518h04,S2j0518h21,S4m1019h06,S4o1023h04,S5aH1,S5p1104h05,S2aH8,S2e0416h19,S2f0420h19,S2g0421h22,S2i0429h02,S2i0429h22,S2i0429h23,S2k0531h04,S2k0531h24,S4l0918h02,S4l0918h05,S4m1019h24,S4n1020h05,S4n1020h22,S5p1104h04,S5p1104h24,S1c0205h04,S1c0205h19,S1c0205h22,S2f0420h04,S2j0518h05,S4l0918h23,S4m1019h19,S4n1020h04,S4n1020h06</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH1,S2g0421h02,S2g0421h03,S2h0427h05,S2h0427h06,S2i0429h19,S2k0531h19,S4l0918h01,S4m1019h22,S4n1020h23,S4o1023h20,S4o1023h24,S5aH8,S5p1104h03,S2d0415h01,S2d0415h02,S2d0415h06,S2d0415h19,S2g0421h19,S2h0427h24,S2i0429h06,S2k0531h01,S2k0531h23,S4l0918h04,S4m1019h03,S4m1019h05,S4m1019h21,S1b0201h21,S1c0205h21,S2e0416h21,S2e0416h24,S2f0420h06,S2f0420h23,S2h0427h02,S2j0518h02,S2j0518h22,S2k0531h02,S2k0531h03,S3aH1,S4l0918h19,S4o1023h06,S4o1023h22,S1b0201h03,S1b0201h06,S1c0205h02,S1c0205h05,S2d0415h24,S2e0416h20,S2e0416h23,S2f0420h03,S2h0427h03,S2h0427h23,S2i0429h21,S2j0518h06,S2k0531h05,S4l0918h21,S4m1019h23,S4n1020h24,S4o1023h02,S4o1023h21,S5p1104h01,S1b0201h19,S1c0205h06,S2d0415h21,S2g0421h04,S2i0429h04,S4l0918h20,S4m1019h02,S4n1020h21,S4o1023h05,S5p1104h22,S6aH8,S1b0201h20,S1b0201h24,S2d0415h05,S2f0420h01,S2h0427h01,S4aH1,S4l0918h24,S4n1020h02,S4o1023h19,S6aH1,S1c0205h23,S2e0416h02,S2e0416h04,S2f0420h22,S2h0427h22,S2i0429h24,S2j0518h03,S2j0518h24,S4n1020h01,S5p1104h02,S1b0201h04,S2e0416h03,S2e0416h05,S2e0416h06,S2e0416h22,S2f0420h02,S2i0429h05,S2k0531h20,S2k0531h22,S4aH8,S4l0918h03,S4o1023h01,S4o1023h23,S5p1104h06,S5p1104h23,S1b0201h01,S2e0416h01,S2f0420h20,S2g0421h21,S4l0918h22,S5p1104h19,S1b0201h05,S1c0205h01,S1c0205h20,S2f0420h05,S2f0420h24,S2g0421h06,S2h0427h19,S2j0518h20,S2k0531h06,S4m1019h04,S4o1023h03,S5p1104h20,S2aH8,S2e0416h19,S2f0420h19,S2g0421h22,S2i0429h02,S2i0429h22,S2i0429h23,S2k0531h04,S2k0531h24,S4l0918h02,S4l0918h05,S4m1019h24,S4n1020h05,S4n1020h22,S5p1104h04,S5p1104h24,S1c0205h24,S2d0415h04,S2h0427h04,S2k0531h21,S3aH8,S4m1019h01,S5p1104h21,S1aH1,S1b0201h23,S2d0415h22,S2f0420h21,S2g0421h24,S2i0429h03,S4n1020h03,S4n1020h20,S1b0201h02,S2d0415h03,S2d0415h20,S2g0421h05,S2g0421h23,S2h0427h20,S2h0427h21,S2i0429h20,S2j0518h01,S2j0518h19,S2j0518h23,S4l0918h06,S4m1019h20,S4n1020h19,S1c0205h04,S1c0205h19,S1c0205h22,S2f0420h04,S2j0518h05,S4l0918h23,S4m1019h19,S4n1020h04,S4n1020h06,S1aH8,S1b0201h22,S1c0205h03,S2d0415h23,S2g0421h01,S2g0421h20,S2i0429h01,S2j0518h04,S2j0518h21,S4m1019h06,S4o1023h04,S5aH1,S5p1104h05</v>
+        <v>S2aH1,S2g0421h02,S2g0421h03,S2h0427h05,S2h0427h06,S2i0429h19,S2k0531h19,S4l0918h01,S4m1019h22,S4n1020h23,S4o1023h20,S4o1023h24,S5aH8,S5p1104h03,S1b0201h20,S1b0201h24,S2d0415h05,S2f0420h01,S2h0427h01,S4aH1,S4l0918h24,S4n1020h02,S4o1023h19,S6aH1,S1b0201h04,S2e0416h03,S2e0416h05,S2e0416h06,S2e0416h22,S2f0420h02,S2i0429h05,S2k0531h20,S2k0531h22,S4aH8,S4l0918h03,S4o1023h01,S4o1023h23,S5p1104h06,S5p1104h23,S2d0415h01,S2d0415h02,S2d0415h06,S2d0415h19,S2g0421h19,S2h0427h24,S2i0429h06,S2k0531h01,S2k0531h23,S4l0918h04,S4m1019h03,S4m1019h05,S4m1019h21,S1b0201h21,S1c0205h21,S2e0416h21,S2e0416h24,S2f0420h06,S2f0420h23,S2h0427h02,S2j0518h02,S2j0518h22,S2k0531h02,S2k0531h03,S3aH1,S4l0918h19,S4o1023h06,S4o1023h22,S1b0201h02,S2d0415h03,S2d0415h20,S2g0421h05,S2g0421h23,S2h0427h20,S2h0427h21,S2i0429h20,S2j0518h01,S2j0518h19,S2j0518h23,S4l0918h06,S4m1019h20,S4n1020h19,S1c0205h24,S2d0415h04,S2h0427h04,S2k0531h21,S3aH8,S4m1019h01,S5p1104h21,S1c0205h23,S2e0416h02,S2e0416h04,S2f0420h22,S2h0427h22,S2i0429h24,S2j0518h03,S2j0518h24,S4n1020h01,S5p1104h02,S1b0201h19,S1c0205h06,S2d0415h21,S2g0421h04,S2i0429h04,S4l0918h20,S4m1019h02,S4n1020h21,S4o1023h05,S5p1104h22,S6aH8,S1aH1,S1b0201h23,S2d0415h22,S2f0420h21,S2g0421h24,S2i0429h03,S4n1020h03,S4n1020h20,S1b0201h05,S1c0205h01,S1c0205h20,S2f0420h05,S2f0420h24,S2g0421h06,S2h0427h19,S2j0518h20,S2k0531h06,S4m1019h04,S4o1023h03,S5p1104h20,S1b0201h03,S1b0201h06,S1c0205h02,S1c0205h05,S2d0415h24,S2e0416h20,S2e0416h23,S2f0420h03,S2h0427h03,S2h0427h23,S2i0429h21,S2j0518h06,S2k0531h05,S4l0918h21,S4m1019h23,S4n1020h24,S4o1023h02,S4o1023h21,S5p1104h01,S1b0201h01,S2e0416h01,S2f0420h20,S2g0421h21,S4l0918h22,S5p1104h19,S1aH8,S1b0201h22,S1c0205h03,S2d0415h23,S2g0421h01,S2g0421h20,S2i0429h01,S2j0518h04,S2j0518h21,S4m1019h06,S4o1023h04,S5aH1,S5p1104h05,S2aH8,S2e0416h19,S2f0420h19,S2g0421h22,S2i0429h02,S2i0429h22,S2i0429h23,S2k0531h04,S2k0531h24,S4l0918h02,S4l0918h05,S4m1019h24,S4n1020h05,S4n1020h22,S5p1104h04,S5p1104h24,S1c0205h04,S1c0205h19,S1c0205h22,S2f0420h04,S2j0518h05,S4l0918h23,S4m1019h19,S4n1020h04,S4n1020h06</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0201h10,S1b0201h12,S2d0415h08,S2d0415h10,S2d0415h13,S2e0416h09,S2f0420h14,S2i0429h18,S2j0518h14,S4aH2,S4m1019h14,S4o1023h07,S4o1023h16,S1c0205h18,S2d0415h18,S2e0416h08,S2f0420h16,S4l0918h15,S5aH4,S5p1104h13,S5p1104h17,S6aH3,S6aH4,S1c0205h12,S1c0205h14,S2e0416h12,S2g0421h07,S2g0421h18,S2h0427h13,S2h0427h17,S2i0429h10,S2k0531h07,S2k0531h09,S4m1019h07,S4m1019h08,S4m1019h17,S4n1020h09,S4n1020h16,S4o1023h10,S4o1023h13,S6aH7,S1aH2,S1aH7,S1c0205h10,S2aH3,S2e0416h07,S2f0420h09,S2f0420h18,S2i0429h08,S2j0518h11,S2j0518h15,S2j0518h17,S2k0531h18,S3aH6,S4aH7,S4l0918h08,S4o1023h11,S5aH6,S5aH7,S6aH6,S1aH6,S1b0201h11,S1b0201h14,S1b0201h16,S1b0201h17,S1b0201h18,S2g0421h11,S2g0421h12,S2g0421h14,S2h0427h12,S2h0427h15,S2j0518h13,S2k0531h13,S2k0531h16,S4l0918h09,S4l0918h11,S5p1104h10,S5p1104h18,S1aH4,S1b0201h08,S2aH2,S2f0420h17,S2i0429h16,S4aH6,S4l0918h18,S4n1020h12,S4n1020h18,S4o1023h15,S1b0201h07,S2d0415h12,S2g0421h16,S2j0518h08,S4aH5,S4l0918h16,S5p1104h07,S1c0205h07,S1c0205h08,S2d0415h14,S2d0415h15,S2i0429h07,S2i0429h09,S2i0429h14,S4n1020h10,S4n1020h13,S4n1020h14,S4n1020h17,S4o1023h08,S4o1023h12,S6aH5,S1c0205h15,S2f0420h07,S2g0421h09,S2h0427h10,S2j0518h10,S2k0531h11,S3aH3,S4n1020h07,S5p1104h14,S1c0205h09,S1c0205h11,S2aH7,S2d0415h09,S2h0427h16,S2k0531h15,S3aH4,S4aH3,S4aH4,S4m1019h10,S4m1019h16,S5p1104h09,S5p1104h11,S1c0205h13,S2d0415h07,S2f0420h08,S2f0420h11,S2h0427h09,S2h0427h14,S2i0429h13,S3aH7,S4l0918h07,S4l0918h14,S4o1023h18,S2d0415h16,S2e0416h13,S2f0420h12,S2f0420h15,S2g0421h17,S2h0427h08,S2j0518h07,S2k0531h12,S3aH2,S4o1023h14,S5p1104h12,S1b0201h13,S1b0201h15,S2e0416h10,S2e0416h14,S2e0416h17,S2f0420h10,S2i0429h17,S2k0531h14,S4m1019h12,S4n1020h08,S4n1020h11,S1aH3,S2e0416h11,S2e0416h18,S2i0429h11,S2i0429h12,S2i0429h15,S2j0518h16,S2j0518h18,S2k0531h17,S4l0918h10,S4l0918h12,S4l0918h13,S4l0918h17,S4m1019h11,S4n1020h15,S5p1104h15,S1aH5,S1c0205h16,S2aH4,S2aH5,S2d0415h11,S2d0415h17,S2e0416h16,S2g0421h08,S2g0421h13,S2h0427h07,S2h0427h11,S2k0531h10,S4m1019h09,S4m1019h18,S4o1023h17,S5aH2,S5aH5,S5p1104h16,S6aH2,S1b0201h09,S1c0205h17,S2aH6,S2e0416h15,S2f0420h13,S2g0421h10,S2g0421h15,S2h0427h18,S2j0518h09,S2j0518h12,S2k0531h08,S3aH5,S4m1019h13,S4m1019h15,S4o1023h09,S5aH3,S5p1104h08</v>
+        <v>S1b0201h10,S1b0201h12,S2d0415h08,S2d0415h10,S2d0415h13,S2e0416h09,S2f0420h14,S2i0429h18,S2j0518h14,S4aH2,S4m1019h14,S4o1023h07,S4o1023h16,S1aH4,S1b0201h08,S2aH2,S2f0420h17,S2i0429h16,S4aH6,S4l0918h18,S4n1020h12,S4n1020h18,S4o1023h15,S1c0205h07,S1c0205h08,S2d0415h14,S2d0415h15,S2i0429h07,S2i0429h09,S2i0429h14,S4n1020h10,S4n1020h13,S4n1020h14,S4n1020h17,S4o1023h08,S4o1023h12,S6aH5,S1c0205h18,S2d0415h18,S2e0416h08,S2f0420h16,S4l0918h15,S5aH4,S5p1104h13,S5p1104h17,S6aH3,S6aH4,S1c0205h12,S1c0205h14,S2e0416h12,S2g0421h07,S2g0421h18,S2h0427h13,S2h0427h17,S2i0429h10,S2k0531h07,S2k0531h09,S4m1019h07,S4m1019h08,S4m1019h17,S4n1020h09,S4n1020h16,S4o1023h10,S4o1023h13,S6aH7,S1aH3,S2e0416h11,S2e0416h18,S2i0429h11,S2i0429h12,S2i0429h15,S2j0518h16,S2j0518h18,S2k0531h17,S4l0918h10,S4l0918h12,S4l0918h13,S4l0918h17,S4m1019h11,S4n1020h15,S5p1104h15,S2d0415h16,S2e0416h13,S2f0420h12,S2f0420h15,S2g0421h17,S2h0427h08,S2j0518h07,S2k0531h12,S3aH2,S4o1023h14,S5p1104h12,S1b0201h07,S2d0415h12,S2g0421h16,S2j0518h08,S4aH5,S4l0918h16,S5p1104h07,S1aH6,S1b0201h11,S1b0201h14,S1b0201h16,S1b0201h17,S1b0201h18,S2g0421h11,S2g0421h12,S2g0421h14,S2h0427h12,S2h0427h15,S2j0518h13,S2k0531h13,S2k0531h16,S4l0918h09,S4l0918h11,S5p1104h10,S5p1104h18,S1b0201h13,S1b0201h15,S2e0416h10,S2e0416h14,S2e0416h17,S2f0420h10,S2i0429h17,S2k0531h14,S4m1019h12,S4n1020h08,S4n1020h11,S1c0205h09,S1c0205h11,S2aH7,S2d0415h09,S2h0427h16,S2k0531h15,S3aH4,S4aH3,S4aH4,S4m1019h10,S4m1019h16,S5p1104h09,S5p1104h11,S1aH2,S1aH7,S1c0205h10,S2aH3,S2e0416h07,S2f0420h09,S2f0420h18,S2i0429h08,S2j0518h11,S2j0518h15,S2j0518h17,S2k0531h18,S3aH6,S4aH7,S4l0918h08,S4o1023h11,S5aH6,S5aH7,S6aH6,S1c0205h15,S2f0420h07,S2g0421h09,S2h0427h10,S2j0518h10,S2k0531h11,S3aH3,S4n1020h07,S5p1104h14,S1b0201h09,S1c0205h17,S2aH6,S2e0416h15,S2f0420h13,S2g0421h10,S2g0421h15,S2h0427h18,S2j0518h09,S2j0518h12,S2k0531h08,S3aH5,S4m1019h13,S4m1019h15,S4o1023h09,S5aH3,S5p1104h08,S1c0205h13,S2d0415h07,S2f0420h08,S2f0420h11,S2h0427h09,S2h0427h14,S2i0429h13,S3aH7,S4l0918h07,S4l0918h14,S4o1023h18,S1aH5,S1c0205h16,S2aH4,S2aH5,S2d0415h11,S2d0415h17,S2e0416h16,S2g0421h08,S2g0421h13,S2h0427h07,S2h0427h11,S2k0531h10,S4m1019h09,S4m1019h18,S4o1023h17,S5aH2,S5aH5,S5p1104h16,S6aH2</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1930F16C-5583-4F52-8474-E3958BF4FD14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36771B0B-9F3D-4E48-A9CC-E08B6C298A52}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D91528-9FCB-463D-8E1E-48AC97CE579D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E159FA-2DA7-4D21-84F1-BDB41D8F3F34}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7082,7 +7082,7 @@
         <v>87</v>
       </c>
       <c r="N4">
-        <v>8.0605632899210897E-2</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O4" t="s">
         <v>889</v>
@@ -7114,10 +7114,10 @@
         <v>878</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N5">
-        <v>0.17653172515557838</v>
+        <v>0.40660807082825429</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7152,7 +7152,7 @@
         <v>84</v>
       </c>
       <c r="N6">
-        <v>0.19493167383075641</v>
+        <v>0.19493167383075638</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7184,10 +7184,10 @@
         <v>878</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N7">
-        <v>0.26179508564829668</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7219,10 +7219,10 @@
         <v>878</v>
       </c>
       <c r="M8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="N8">
-        <v>7.9527811637903401E-2</v>
+        <v>0.26179508564829657</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -7254,10 +7254,10 @@
         <v>878</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="N9">
-        <v>0.40660807082825434</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O9" t="s">
         <v>889</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1ADD45-F0DF-4BF6-BE05-A0AFE1A7A6EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEB7B6F-B60B-4196-873A-F81FEC98EBD2}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB032A8-99BE-46E4-A04D-C175D6D34E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F56D37-154E-4969-A922-9028BD51FD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2676,7 +2676,7 @@
     <t>~TFM_DINS-AT</t>
   </si>
   <si>
-    <t>elc_win-CHE</t>
+    <t>elc_won-CHE</t>
   </si>
   <si>
     <t>g_yrfr</t>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0201h10,S1b0201h12,S2d0415h08,S2d0415h10,S2d0415h13,S2e0416h09,S2f0420h14,S2i0429h18,S2j0518h14,S4aH2,S4m1019h14,S4o1023h07,S4o1023h16,S1aH4,S1b0201h08,S2aH2,S2f0420h17,S2i0429h16,S4aH6,S4l0918h18,S4n1020h12,S4n1020h18,S4o1023h15,S1c0205h07,S1c0205h08,S2d0415h14,S2d0415h15,S2i0429h07,S2i0429h09,S2i0429h14,S4n1020h10,S4n1020h13,S4n1020h14,S4n1020h17,S4o1023h08,S4o1023h12,S6aH5,S1c0205h18,S2d0415h18,S2e0416h08,S2f0420h16,S4l0918h15,S5aH4,S5p1104h13,S5p1104h17,S6aH3,S6aH4,S1c0205h12,S1c0205h14,S2e0416h12,S2g0421h07,S2g0421h18,S2h0427h13,S2h0427h17,S2i0429h10,S2k0531h07,S2k0531h09,S4m1019h07,S4m1019h08,S4m1019h17,S4n1020h09,S4n1020h16,S4o1023h10,S4o1023h13,S6aH7,S1aH3,S2e0416h11,S2e0416h18,S2i0429h11,S2i0429h12,S2i0429h15,S2j0518h16,S2j0518h18,S2k0531h17,S4l0918h10,S4l0918h12,S4l0918h13,S4l0918h17,S4m1019h11,S4n1020h15,S5p1104h15,S2d0415h16,S2e0416h13,S2f0420h12,S2f0420h15,S2g0421h17,S2h0427h08,S2j0518h07,S2k0531h12,S3aH2,S4o1023h14,S5p1104h12,S1b0201h07,S2d0415h12,S2g0421h16,S2j0518h08,S4aH5,S4l0918h16,S5p1104h07,S1aH6,S1b0201h11,S1b0201h14,S1b0201h16,S1b0201h17,S1b0201h18,S2g0421h11,S2g0421h12,S2g0421h14,S2h0427h12,S2h0427h15,S2j0518h13,S2k0531h13,S2k0531h16,S4l0918h09,S4l0918h11,S5p1104h10,S5p1104h18,S1b0201h13,S1b0201h15,S2e0416h10,S2e0416h14,S2e0416h17,S2f0420h10,S2i0429h17,S2k0531h14,S4m1019h12,S4n1020h08,S4n1020h11,S1c0205h09,S1c0205h11,S2aH7,S2d0415h09,S2h0427h16,S2k0531h15,S3aH4,S4aH3,S4aH4,S4m1019h10,S4m1019h16,S5p1104h09,S5p1104h11,S1aH2,S1aH7,S1c0205h10,S2aH3,S2e0416h07,S2f0420h09,S2f0420h18,S2i0429h08,S2j0518h11,S2j0518h15,S2j0518h17,S2k0531h18,S3aH6,S4aH7,S4l0918h08,S4o1023h11,S5aH6,S5aH7,S6aH6,S1c0205h15,S2f0420h07,S2g0421h09,S2h0427h10,S2j0518h10,S2k0531h11,S3aH3,S4n1020h07,S5p1104h14,S1b0201h09,S1c0205h17,S2aH6,S2e0416h15,S2f0420h13,S2g0421h10,S2g0421h15,S2h0427h18,S2j0518h09,S2j0518h12,S2k0531h08,S3aH5,S4m1019h13,S4m1019h15,S4o1023h09,S5aH3,S5p1104h08,S1c0205h13,S2d0415h07,S2f0420h08,S2f0420h11,S2h0427h09,S2h0427h14,S2i0429h13,S3aH7,S4l0918h07,S4l0918h14,S4o1023h18,S1aH5,S1c0205h16,S2aH4,S2aH5,S2d0415h11,S2d0415h17,S2e0416h16,S2g0421h08,S2g0421h13,S2h0427h07,S2h0427h11,S2k0531h10,S4m1019h09,S4m1019h18,S4o1023h17,S5aH2,S5aH5,S5p1104h16,S6aH2</t>
-  </si>
-  <si>
-    <t>S2aH1,S2g0421h02,S2g0421h03,S2h0427h05,S2h0427h06,S2i0429h19,S2k0531h19,S4l0918h01,S4m1019h22,S4n1020h23,S4o1023h20,S4o1023h24,S5aH8,S5p1104h03,S1b0201h20,S1b0201h24,S2d0415h05,S2f0420h01,S2h0427h01,S4aH1,S4l0918h24,S4n1020h02,S4o1023h19,S6aH1,S1b0201h04,S2e0416h03,S2e0416h05,S2e0416h06,S2e0416h22,S2f0420h02,S2i0429h05,S2k0531h20,S2k0531h22,S4aH8,S4l0918h03,S4o1023h01,S4o1023h23,S5p1104h06,S5p1104h23,S2d0415h01,S2d0415h02,S2d0415h06,S2d0415h19,S2g0421h19,S2h0427h24,S2i0429h06,S2k0531h01,S2k0531h23,S4l0918h04,S4m1019h03,S4m1019h05,S4m1019h21,S1b0201h21,S1c0205h21,S2e0416h21,S2e0416h24,S2f0420h06,S2f0420h23,S2h0427h02,S2j0518h02,S2j0518h22,S2k0531h02,S2k0531h03,S3aH1,S4l0918h19,S4o1023h06,S4o1023h22,S1b0201h02,S2d0415h03,S2d0415h20,S2g0421h05,S2g0421h23,S2h0427h20,S2h0427h21,S2i0429h20,S2j0518h01,S2j0518h19,S2j0518h23,S4l0918h06,S4m1019h20,S4n1020h19,S1c0205h24,S2d0415h04,S2h0427h04,S2k0531h21,S3aH8,S4m1019h01,S5p1104h21,S1c0205h23,S2e0416h02,S2e0416h04,S2f0420h22,S2h0427h22,S2i0429h24,S2j0518h03,S2j0518h24,S4n1020h01,S5p1104h02,S1b0201h19,S1c0205h06,S2d0415h21,S2g0421h04,S2i0429h04,S4l0918h20,S4m1019h02,S4n1020h21,S4o1023h05,S5p1104h22,S6aH8,S1aH1,S1b0201h23,S2d0415h22,S2f0420h21,S2g0421h24,S2i0429h03,S4n1020h03,S4n1020h20,S1b0201h05,S1c0205h01,S1c0205h20,S2f0420h05,S2f0420h24,S2g0421h06,S2h0427h19,S2j0518h20,S2k0531h06,S4m1019h04,S4o1023h03,S5p1104h20,S1b0201h03,S1b0201h06,S1c0205h02,S1c0205h05,S2d0415h24,S2e0416h20,S2e0416h23,S2f0420h03,S2h0427h03,S2h0427h23,S2i0429h21,S2j0518h06,S2k0531h05,S4l0918h21,S4m1019h23,S4n1020h24,S4o1023h02,S4o1023h21,S5p1104h01,S1b0201h01,S2e0416h01,S2f0420h20,S2g0421h21,S4l0918h22,S5p1104h19,S1aH8,S1b0201h22,S1c0205h03,S2d0415h23,S2g0421h01,S2g0421h20,S2i0429h01,S2j0518h04,S2j0518h21,S4m1019h06,S4o1023h04,S5aH1,S5p1104h05,S2aH8,S2e0416h19,S2f0420h19,S2g0421h22,S2i0429h02,S2i0429h22,S2i0429h23,S2k0531h04,S2k0531h24,S4l0918h02,S4l0918h05,S4m1019h24,S4n1020h05,S4n1020h22,S5p1104h04,S5p1104h24,S1c0205h04,S1c0205h19,S1c0205h22,S2f0420h04,S2j0518h05,S4l0918h23,S4m1019h19,S4n1020h04,S4n1020h06</t>
+    <t>S1aH3,S2e0416h11,S2e0416h18,S2i0429h11,S2i0429h12,S2i0429h15,S2j0518h16,S2j0518h18,S2k0531h17,S4l0918h10,S4l0918h12,S4l0918h13,S4l0918h17,S4m1019h11,S4n1020h15,S5p1104h15,S1aH4,S1b0201h08,S2aH2,S2f0420h17,S2i0429h16,S4aH6,S4l0918h18,S4n1020h12,S4n1020h18,S4o1023h15,S1aH6,S1b0201h11,S1b0201h14,S1b0201h16,S1b0201h17,S1b0201h18,S2g0421h11,S2g0421h12,S2g0421h14,S2h0427h12,S2h0427h15,S2j0518h13,S2k0531h13,S2k0531h16,S4l0918h09,S4l0918h11,S5p1104h10,S5p1104h18,S1b0201h13,S1b0201h15,S2e0416h10,S2e0416h14,S2e0416h17,S2f0420h10,S2i0429h17,S2k0531h14,S4m1019h12,S4n1020h08,S4n1020h11,S1b0201h10,S1b0201h12,S2d0415h08,S2d0415h10,S2d0415h13,S2e0416h09,S2f0420h14,S2i0429h18,S2j0518h14,S4aH2,S4m1019h14,S4o1023h07,S4o1023h16,S1c0205h15,S2f0420h07,S2g0421h09,S2h0427h10,S2j0518h10,S2k0531h11,S3aH3,S4n1020h07,S5p1104h14,S1aH5,S1c0205h16,S2aH4,S2aH5,S2d0415h11,S2d0415h17,S2e0416h16,S2g0421h08,S2g0421h13,S2h0427h07,S2h0427h11,S2k0531h10,S4m1019h09,S4m1019h18,S4o1023h17,S5aH2,S5aH5,S5p1104h16,S6aH2,S1b0201h09,S1c0205h17,S2aH6,S2e0416h15,S2f0420h13,S2g0421h10,S2g0421h15,S2h0427h18,S2j0518h09,S2j0518h12,S2k0531h08,S3aH5,S4m1019h13,S4m1019h15,S4o1023h09,S5aH3,S5p1104h08,S1aH2,S1aH7,S1c0205h10,S2aH3,S2e0416h07,S2f0420h09,S2f0420h18,S2i0429h08,S2j0518h11,S2j0518h15,S2j0518h17,S2k0531h18,S3aH6,S4aH7,S4l0918h08,S4o1023h11,S5aH6,S5aH7,S6aH6,S1b0201h07,S2d0415h12,S2g0421h16,S2j0518h08,S4aH5,S4l0918h16,S5p1104h07,S1c0205h09,S1c0205h11,S2aH7,S2d0415h09,S2h0427h16,S2k0531h15,S3aH4,S4aH3,S4aH4,S4m1019h10,S4m1019h16,S5p1104h09,S5p1104h11,S1c0205h13,S2d0415h07,S2f0420h08,S2f0420h11,S2h0427h09,S2h0427h14,S2i0429h13,S3aH7,S4l0918h07,S4l0918h14,S4o1023h18,S2d0415h16,S2e0416h13,S2f0420h12,S2f0420h15,S2g0421h17,S2h0427h08,S2j0518h07,S2k0531h12,S3aH2,S4o1023h14,S5p1104h12,S1c0205h07,S1c0205h08,S2d0415h14,S2d0415h15,S2i0429h07,S2i0429h09,S2i0429h14,S4n1020h10,S4n1020h13,S4n1020h14,S4n1020h17,S4o1023h08,S4o1023h12,S6aH5,S1c0205h18,S2d0415h18,S2e0416h08,S2f0420h16,S4l0918h15,S5aH4,S5p1104h13,S5p1104h17,S6aH3,S6aH4,S1c0205h12,S1c0205h14,S2e0416h12,S2g0421h07,S2g0421h18,S2h0427h13,S2h0427h17,S2i0429h10,S2k0531h07,S2k0531h09,S4m1019h07,S4m1019h08,S4m1019h17,S4n1020h09,S4n1020h16,S4o1023h10,S4o1023h13,S6aH7</t>
+  </si>
+  <si>
+    <t>S1b0201h02,S2d0415h03,S2d0415h20,S2g0421h05,S2g0421h23,S2h0427h20,S2h0427h21,S2i0429h20,S2j0518h01,S2j0518h19,S2j0518h23,S4l0918h06,S4m1019h20,S4n1020h19,S1b0201h20,S1b0201h24,S2d0415h05,S2f0420h01,S2h0427h01,S4aH1,S4l0918h24,S4n1020h02,S4o1023h19,S6aH1,S1b0201h19,S1c0205h06,S2d0415h21,S2g0421h04,S2i0429h04,S4l0918h20,S4m1019h02,S4n1020h21,S4o1023h05,S5p1104h22,S6aH8,S1aH1,S1b0201h23,S2d0415h22,S2f0420h21,S2g0421h24,S2i0429h03,S4n1020h03,S4n1020h20,S2aH1,S2g0421h02,S2g0421h03,S2h0427h05,S2h0427h06,S2i0429h19,S2k0531h19,S4l0918h01,S4m1019h22,S4n1020h23,S4o1023h20,S4o1023h24,S5aH8,S5p1104h03,S1b0201h01,S2e0416h01,S2f0420h20,S2g0421h21,S4l0918h22,S5p1104h19,S1c0205h04,S1c0205h19,S1c0205h22,S2f0420h04,S2j0518h05,S4l0918h23,S4m1019h19,S4n1020h04,S4n1020h06,S1aH8,S1b0201h22,S1c0205h03,S2d0415h23,S2g0421h01,S2g0421h20,S2i0429h01,S2j0518h04,S2j0518h21,S4m1019h06,S4o1023h04,S5aH1,S5p1104h05,S1b0201h03,S1b0201h06,S1c0205h02,S1c0205h05,S2d0415h24,S2e0416h20,S2e0416h23,S2f0420h03,S2h0427h03,S2h0427h23,S2i0429h21,S2j0518h06,S2k0531h05,S4l0918h21,S4m1019h23,S4n1020h24,S4o1023h02,S4o1023h21,S5p1104h01,S1c0205h23,S2e0416h02,S2e0416h04,S2f0420h22,S2h0427h22,S2i0429h24,S2j0518h03,S2j0518h24,S4n1020h01,S5p1104h02,S1b0201h05,S1c0205h01,S1c0205h20,S2f0420h05,S2f0420h24,S2g0421h06,S2h0427h19,S2j0518h20,S2k0531h06,S4m1019h04,S4o1023h03,S5p1104h20,S2aH8,S2e0416h19,S2f0420h19,S2g0421h22,S2i0429h02,S2i0429h22,S2i0429h23,S2k0531h04,S2k0531h24,S4l0918h02,S4l0918h05,S4m1019h24,S4n1020h05,S4n1020h22,S5p1104h04,S5p1104h24,S1c0205h24,S2d0415h04,S2h0427h04,S2k0531h21,S3aH8,S4m1019h01,S5p1104h21,S1b0201h04,S2e0416h03,S2e0416h05,S2e0416h06,S2e0416h22,S2f0420h02,S2i0429h05,S2k0531h20,S2k0531h22,S4aH8,S4l0918h03,S4o1023h01,S4o1023h23,S5p1104h06,S5p1104h23,S2d0415h01,S2d0415h02,S2d0415h06,S2d0415h19,S2g0421h19,S2h0427h24,S2i0429h06,S2k0531h01,S2k0531h23,S4l0918h04,S4m1019h03,S4m1019h05,S4m1019h21,S1b0201h21,S1c0205h21,S2e0416h21,S2e0416h24,S2f0420h06,S2f0420h23,S2h0427h02,S2j0518h02,S2j0518h22,S2k0531h02,S2k0531h03,S3aH1,S4l0918h19,S4o1023h06,S4o1023h22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH1,S2g0421h02,S2g0421h03,S2h0427h05,S2h0427h06,S2i0429h19,S2k0531h19,S4l0918h01,S4m1019h22,S4n1020h23,S4o1023h20,S4o1023h24,S5aH8,S5p1104h03,S1b0201h20,S1b0201h24,S2d0415h05,S2f0420h01,S2h0427h01,S4aH1,S4l0918h24,S4n1020h02,S4o1023h19,S6aH1,S1b0201h04,S2e0416h03,S2e0416h05,S2e0416h06,S2e0416h22,S2f0420h02,S2i0429h05,S2k0531h20,S2k0531h22,S4aH8,S4l0918h03,S4o1023h01,S4o1023h23,S5p1104h06,S5p1104h23,S2d0415h01,S2d0415h02,S2d0415h06,S2d0415h19,S2g0421h19,S2h0427h24,S2i0429h06,S2k0531h01,S2k0531h23,S4l0918h04,S4m1019h03,S4m1019h05,S4m1019h21,S1b0201h21,S1c0205h21,S2e0416h21,S2e0416h24,S2f0420h06,S2f0420h23,S2h0427h02,S2j0518h02,S2j0518h22,S2k0531h02,S2k0531h03,S3aH1,S4l0918h19,S4o1023h06,S4o1023h22,S1b0201h02,S2d0415h03,S2d0415h20,S2g0421h05,S2g0421h23,S2h0427h20,S2h0427h21,S2i0429h20,S2j0518h01,S2j0518h19,S2j0518h23,S4l0918h06,S4m1019h20,S4n1020h19,S1c0205h24,S2d0415h04,S2h0427h04,S2k0531h21,S3aH8,S4m1019h01,S5p1104h21,S1c0205h23,S2e0416h02,S2e0416h04,S2f0420h22,S2h0427h22,S2i0429h24,S2j0518h03,S2j0518h24,S4n1020h01,S5p1104h02,S1b0201h19,S1c0205h06,S2d0415h21,S2g0421h04,S2i0429h04,S4l0918h20,S4m1019h02,S4n1020h21,S4o1023h05,S5p1104h22,S6aH8,S1aH1,S1b0201h23,S2d0415h22,S2f0420h21,S2g0421h24,S2i0429h03,S4n1020h03,S4n1020h20,S1b0201h05,S1c0205h01,S1c0205h20,S2f0420h05,S2f0420h24,S2g0421h06,S2h0427h19,S2j0518h20,S2k0531h06,S4m1019h04,S4o1023h03,S5p1104h20,S1b0201h03,S1b0201h06,S1c0205h02,S1c0205h05,S2d0415h24,S2e0416h20,S2e0416h23,S2f0420h03,S2h0427h03,S2h0427h23,S2i0429h21,S2j0518h06,S2k0531h05,S4l0918h21,S4m1019h23,S4n1020h24,S4o1023h02,S4o1023h21,S5p1104h01,S1b0201h01,S2e0416h01,S2f0420h20,S2g0421h21,S4l0918h22,S5p1104h19,S1aH8,S1b0201h22,S1c0205h03,S2d0415h23,S2g0421h01,S2g0421h20,S2i0429h01,S2j0518h04,S2j0518h21,S4m1019h06,S4o1023h04,S5aH1,S5p1104h05,S2aH8,S2e0416h19,S2f0420h19,S2g0421h22,S2i0429h02,S2i0429h22,S2i0429h23,S2k0531h04,S2k0531h24,S4l0918h02,S4l0918h05,S4m1019h24,S4n1020h05,S4n1020h22,S5p1104h04,S5p1104h24,S1c0205h04,S1c0205h19,S1c0205h22,S2f0420h04,S2j0518h05,S4l0918h23,S4m1019h19,S4n1020h04,S4n1020h06</v>
+        <v>S1b0201h02,S2d0415h03,S2d0415h20,S2g0421h05,S2g0421h23,S2h0427h20,S2h0427h21,S2i0429h20,S2j0518h01,S2j0518h19,S2j0518h23,S4l0918h06,S4m1019h20,S4n1020h19,S1b0201h20,S1b0201h24,S2d0415h05,S2f0420h01,S2h0427h01,S4aH1,S4l0918h24,S4n1020h02,S4o1023h19,S6aH1,S1b0201h19,S1c0205h06,S2d0415h21,S2g0421h04,S2i0429h04,S4l0918h20,S4m1019h02,S4n1020h21,S4o1023h05,S5p1104h22,S6aH8,S1aH1,S1b0201h23,S2d0415h22,S2f0420h21,S2g0421h24,S2i0429h03,S4n1020h03,S4n1020h20,S2aH1,S2g0421h02,S2g0421h03,S2h0427h05,S2h0427h06,S2i0429h19,S2k0531h19,S4l0918h01,S4m1019h22,S4n1020h23,S4o1023h20,S4o1023h24,S5aH8,S5p1104h03,S1b0201h01,S2e0416h01,S2f0420h20,S2g0421h21,S4l0918h22,S5p1104h19,S1c0205h04,S1c0205h19,S1c0205h22,S2f0420h04,S2j0518h05,S4l0918h23,S4m1019h19,S4n1020h04,S4n1020h06,S1aH8,S1b0201h22,S1c0205h03,S2d0415h23,S2g0421h01,S2g0421h20,S2i0429h01,S2j0518h04,S2j0518h21,S4m1019h06,S4o1023h04,S5aH1,S5p1104h05,S1b0201h03,S1b0201h06,S1c0205h02,S1c0205h05,S2d0415h24,S2e0416h20,S2e0416h23,S2f0420h03,S2h0427h03,S2h0427h23,S2i0429h21,S2j0518h06,S2k0531h05,S4l0918h21,S4m1019h23,S4n1020h24,S4o1023h02,S4o1023h21,S5p1104h01,S1c0205h23,S2e0416h02,S2e0416h04,S2f0420h22,S2h0427h22,S2i0429h24,S2j0518h03,S2j0518h24,S4n1020h01,S5p1104h02,S1b0201h05,S1c0205h01,S1c0205h20,S2f0420h05,S2f0420h24,S2g0421h06,S2h0427h19,S2j0518h20,S2k0531h06,S4m1019h04,S4o1023h03,S5p1104h20,S2aH8,S2e0416h19,S2f0420h19,S2g0421h22,S2i0429h02,S2i0429h22,S2i0429h23,S2k0531h04,S2k0531h24,S4l0918h02,S4l0918h05,S4m1019h24,S4n1020h05,S4n1020h22,S5p1104h04,S5p1104h24,S1c0205h24,S2d0415h04,S2h0427h04,S2k0531h21,S3aH8,S4m1019h01,S5p1104h21,S1b0201h04,S2e0416h03,S2e0416h05,S2e0416h06,S2e0416h22,S2f0420h02,S2i0429h05,S2k0531h20,S2k0531h22,S4aH8,S4l0918h03,S4o1023h01,S4o1023h23,S5p1104h06,S5p1104h23,S2d0415h01,S2d0415h02,S2d0415h06,S2d0415h19,S2g0421h19,S2h0427h24,S2i0429h06,S2k0531h01,S2k0531h23,S4l0918h04,S4m1019h03,S4m1019h05,S4m1019h21,S1b0201h21,S1c0205h21,S2e0416h21,S2e0416h24,S2f0420h06,S2f0420h23,S2h0427h02,S2j0518h02,S2j0518h22,S2k0531h02,S2k0531h03,S3aH1,S4l0918h19,S4o1023h06,S4o1023h22</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0201h10,S1b0201h12,S2d0415h08,S2d0415h10,S2d0415h13,S2e0416h09,S2f0420h14,S2i0429h18,S2j0518h14,S4aH2,S4m1019h14,S4o1023h07,S4o1023h16,S1aH4,S1b0201h08,S2aH2,S2f0420h17,S2i0429h16,S4aH6,S4l0918h18,S4n1020h12,S4n1020h18,S4o1023h15,S1c0205h07,S1c0205h08,S2d0415h14,S2d0415h15,S2i0429h07,S2i0429h09,S2i0429h14,S4n1020h10,S4n1020h13,S4n1020h14,S4n1020h17,S4o1023h08,S4o1023h12,S6aH5,S1c0205h18,S2d0415h18,S2e0416h08,S2f0420h16,S4l0918h15,S5aH4,S5p1104h13,S5p1104h17,S6aH3,S6aH4,S1c0205h12,S1c0205h14,S2e0416h12,S2g0421h07,S2g0421h18,S2h0427h13,S2h0427h17,S2i0429h10,S2k0531h07,S2k0531h09,S4m1019h07,S4m1019h08,S4m1019h17,S4n1020h09,S4n1020h16,S4o1023h10,S4o1023h13,S6aH7,S1aH3,S2e0416h11,S2e0416h18,S2i0429h11,S2i0429h12,S2i0429h15,S2j0518h16,S2j0518h18,S2k0531h17,S4l0918h10,S4l0918h12,S4l0918h13,S4l0918h17,S4m1019h11,S4n1020h15,S5p1104h15,S2d0415h16,S2e0416h13,S2f0420h12,S2f0420h15,S2g0421h17,S2h0427h08,S2j0518h07,S2k0531h12,S3aH2,S4o1023h14,S5p1104h12,S1b0201h07,S2d0415h12,S2g0421h16,S2j0518h08,S4aH5,S4l0918h16,S5p1104h07,S1aH6,S1b0201h11,S1b0201h14,S1b0201h16,S1b0201h17,S1b0201h18,S2g0421h11,S2g0421h12,S2g0421h14,S2h0427h12,S2h0427h15,S2j0518h13,S2k0531h13,S2k0531h16,S4l0918h09,S4l0918h11,S5p1104h10,S5p1104h18,S1b0201h13,S1b0201h15,S2e0416h10,S2e0416h14,S2e0416h17,S2f0420h10,S2i0429h17,S2k0531h14,S4m1019h12,S4n1020h08,S4n1020h11,S1c0205h09,S1c0205h11,S2aH7,S2d0415h09,S2h0427h16,S2k0531h15,S3aH4,S4aH3,S4aH4,S4m1019h10,S4m1019h16,S5p1104h09,S5p1104h11,S1aH2,S1aH7,S1c0205h10,S2aH3,S2e0416h07,S2f0420h09,S2f0420h18,S2i0429h08,S2j0518h11,S2j0518h15,S2j0518h17,S2k0531h18,S3aH6,S4aH7,S4l0918h08,S4o1023h11,S5aH6,S5aH7,S6aH6,S1c0205h15,S2f0420h07,S2g0421h09,S2h0427h10,S2j0518h10,S2k0531h11,S3aH3,S4n1020h07,S5p1104h14,S1b0201h09,S1c0205h17,S2aH6,S2e0416h15,S2f0420h13,S2g0421h10,S2g0421h15,S2h0427h18,S2j0518h09,S2j0518h12,S2k0531h08,S3aH5,S4m1019h13,S4m1019h15,S4o1023h09,S5aH3,S5p1104h08,S1c0205h13,S2d0415h07,S2f0420h08,S2f0420h11,S2h0427h09,S2h0427h14,S2i0429h13,S3aH7,S4l0918h07,S4l0918h14,S4o1023h18,S1aH5,S1c0205h16,S2aH4,S2aH5,S2d0415h11,S2d0415h17,S2e0416h16,S2g0421h08,S2g0421h13,S2h0427h07,S2h0427h11,S2k0531h10,S4m1019h09,S4m1019h18,S4o1023h17,S5aH2,S5aH5,S5p1104h16,S6aH2</v>
+        <v>S1aH3,S2e0416h11,S2e0416h18,S2i0429h11,S2i0429h12,S2i0429h15,S2j0518h16,S2j0518h18,S2k0531h17,S4l0918h10,S4l0918h12,S4l0918h13,S4l0918h17,S4m1019h11,S4n1020h15,S5p1104h15,S1aH4,S1b0201h08,S2aH2,S2f0420h17,S2i0429h16,S4aH6,S4l0918h18,S4n1020h12,S4n1020h18,S4o1023h15,S1aH6,S1b0201h11,S1b0201h14,S1b0201h16,S1b0201h17,S1b0201h18,S2g0421h11,S2g0421h12,S2g0421h14,S2h0427h12,S2h0427h15,S2j0518h13,S2k0531h13,S2k0531h16,S4l0918h09,S4l0918h11,S5p1104h10,S5p1104h18,S1b0201h13,S1b0201h15,S2e0416h10,S2e0416h14,S2e0416h17,S2f0420h10,S2i0429h17,S2k0531h14,S4m1019h12,S4n1020h08,S4n1020h11,S1b0201h10,S1b0201h12,S2d0415h08,S2d0415h10,S2d0415h13,S2e0416h09,S2f0420h14,S2i0429h18,S2j0518h14,S4aH2,S4m1019h14,S4o1023h07,S4o1023h16,S1c0205h15,S2f0420h07,S2g0421h09,S2h0427h10,S2j0518h10,S2k0531h11,S3aH3,S4n1020h07,S5p1104h14,S1aH5,S1c0205h16,S2aH4,S2aH5,S2d0415h11,S2d0415h17,S2e0416h16,S2g0421h08,S2g0421h13,S2h0427h07,S2h0427h11,S2k0531h10,S4m1019h09,S4m1019h18,S4o1023h17,S5aH2,S5aH5,S5p1104h16,S6aH2,S1b0201h09,S1c0205h17,S2aH6,S2e0416h15,S2f0420h13,S2g0421h10,S2g0421h15,S2h0427h18,S2j0518h09,S2j0518h12,S2k0531h08,S3aH5,S4m1019h13,S4m1019h15,S4o1023h09,S5aH3,S5p1104h08,S1aH2,S1aH7,S1c0205h10,S2aH3,S2e0416h07,S2f0420h09,S2f0420h18,S2i0429h08,S2j0518h11,S2j0518h15,S2j0518h17,S2k0531h18,S3aH6,S4aH7,S4l0918h08,S4o1023h11,S5aH6,S5aH7,S6aH6,S1b0201h07,S2d0415h12,S2g0421h16,S2j0518h08,S4aH5,S4l0918h16,S5p1104h07,S1c0205h09,S1c0205h11,S2aH7,S2d0415h09,S2h0427h16,S2k0531h15,S3aH4,S4aH3,S4aH4,S4m1019h10,S4m1019h16,S5p1104h09,S5p1104h11,S1c0205h13,S2d0415h07,S2f0420h08,S2f0420h11,S2h0427h09,S2h0427h14,S2i0429h13,S3aH7,S4l0918h07,S4l0918h14,S4o1023h18,S2d0415h16,S2e0416h13,S2f0420h12,S2f0420h15,S2g0421h17,S2h0427h08,S2j0518h07,S2k0531h12,S3aH2,S4o1023h14,S5p1104h12,S1c0205h07,S1c0205h08,S2d0415h14,S2d0415h15,S2i0429h07,S2i0429h09,S2i0429h14,S4n1020h10,S4n1020h13,S4n1020h14,S4n1020h17,S4o1023h08,S4o1023h12,S6aH5,S1c0205h18,S2d0415h18,S2e0416h08,S2f0420h16,S4l0918h15,S5aH4,S5p1104h13,S5p1104h17,S6aH3,S6aH4,S1c0205h12,S1c0205h14,S2e0416h12,S2g0421h07,S2g0421h18,S2h0427h13,S2h0427h17,S2i0429h10,S2k0531h07,S2k0531h09,S4m1019h07,S4m1019h08,S4m1019h17,S4n1020h09,S4n1020h16,S4o1023h10,S4o1023h13,S6aH7</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36771B0B-9F3D-4E48-A9CC-E08B6C298A52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA4427D-B863-4337-BD5E-2DFD94508130}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E159FA-2DA7-4D21-84F1-BDB41D8F3F34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1B3369-053F-4CC2-BE0F-2A7912727FB7}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7082,7 +7082,7 @@
         <v>87</v>
       </c>
       <c r="N4">
-        <v>8.0605632899210883E-2</v>
+        <v>8.0605632899210897E-2</v>
       </c>
       <c r="O4" t="s">
         <v>889</v>
@@ -7114,10 +7114,10 @@
         <v>878</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N5">
-        <v>0.40660807082825429</v>
+        <v>0.26179508564829668</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7152,7 +7152,7 @@
         <v>84</v>
       </c>
       <c r="N6">
-        <v>0.19493167383075638</v>
+        <v>0.19493167383075641</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7184,10 +7184,10 @@
         <v>878</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N7">
-        <v>0.17653172515557836</v>
+        <v>0.40660807082825434</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7219,10 +7219,10 @@
         <v>878</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N8">
-        <v>0.26179508564829657</v>
+        <v>0.17653172515557838</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -7257,7 +7257,7 @@
         <v>89</v>
       </c>
       <c r="N9">
-        <v>7.9527811637903387E-2</v>
+        <v>7.9527811637903401E-2</v>
       </c>
       <c r="O9" t="s">
         <v>889</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEB7B6F-B60B-4196-873A-F81FEC98EBD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCD1EBC-0101-4654-B5E4-2001A6B468B5}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F56D37-154E-4969-A922-9028BD51FD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AFEE15-B046-4574-9B27-C26BC54A7E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S2e0416h11,S2e0416h18,S2i0429h11,S2i0429h12,S2i0429h15,S2j0518h16,S2j0518h18,S2k0531h17,S4l0918h10,S4l0918h12,S4l0918h13,S4l0918h17,S4m1019h11,S4n1020h15,S5p1104h15,S1aH4,S1b0201h08,S2aH2,S2f0420h17,S2i0429h16,S4aH6,S4l0918h18,S4n1020h12,S4n1020h18,S4o1023h15,S1aH6,S1b0201h11,S1b0201h14,S1b0201h16,S1b0201h17,S1b0201h18,S2g0421h11,S2g0421h12,S2g0421h14,S2h0427h12,S2h0427h15,S2j0518h13,S2k0531h13,S2k0531h16,S4l0918h09,S4l0918h11,S5p1104h10,S5p1104h18,S1b0201h13,S1b0201h15,S2e0416h10,S2e0416h14,S2e0416h17,S2f0420h10,S2i0429h17,S2k0531h14,S4m1019h12,S4n1020h08,S4n1020h11,S1b0201h10,S1b0201h12,S2d0415h08,S2d0415h10,S2d0415h13,S2e0416h09,S2f0420h14,S2i0429h18,S2j0518h14,S4aH2,S4m1019h14,S4o1023h07,S4o1023h16,S1c0205h15,S2f0420h07,S2g0421h09,S2h0427h10,S2j0518h10,S2k0531h11,S3aH3,S4n1020h07,S5p1104h14,S1aH5,S1c0205h16,S2aH4,S2aH5,S2d0415h11,S2d0415h17,S2e0416h16,S2g0421h08,S2g0421h13,S2h0427h07,S2h0427h11,S2k0531h10,S4m1019h09,S4m1019h18,S4o1023h17,S5aH2,S5aH5,S5p1104h16,S6aH2,S1b0201h09,S1c0205h17,S2aH6,S2e0416h15,S2f0420h13,S2g0421h10,S2g0421h15,S2h0427h18,S2j0518h09,S2j0518h12,S2k0531h08,S3aH5,S4m1019h13,S4m1019h15,S4o1023h09,S5aH3,S5p1104h08,S1aH2,S1aH7,S1c0205h10,S2aH3,S2e0416h07,S2f0420h09,S2f0420h18,S2i0429h08,S2j0518h11,S2j0518h15,S2j0518h17,S2k0531h18,S3aH6,S4aH7,S4l0918h08,S4o1023h11,S5aH6,S5aH7,S6aH6,S1b0201h07,S2d0415h12,S2g0421h16,S2j0518h08,S4aH5,S4l0918h16,S5p1104h07,S1c0205h09,S1c0205h11,S2aH7,S2d0415h09,S2h0427h16,S2k0531h15,S3aH4,S4aH3,S4aH4,S4m1019h10,S4m1019h16,S5p1104h09,S5p1104h11,S1c0205h13,S2d0415h07,S2f0420h08,S2f0420h11,S2h0427h09,S2h0427h14,S2i0429h13,S3aH7,S4l0918h07,S4l0918h14,S4o1023h18,S2d0415h16,S2e0416h13,S2f0420h12,S2f0420h15,S2g0421h17,S2h0427h08,S2j0518h07,S2k0531h12,S3aH2,S4o1023h14,S5p1104h12,S1c0205h07,S1c0205h08,S2d0415h14,S2d0415h15,S2i0429h07,S2i0429h09,S2i0429h14,S4n1020h10,S4n1020h13,S4n1020h14,S4n1020h17,S4o1023h08,S4o1023h12,S6aH5,S1c0205h18,S2d0415h18,S2e0416h08,S2f0420h16,S4l0918h15,S5aH4,S5p1104h13,S5p1104h17,S6aH3,S6aH4,S1c0205h12,S1c0205h14,S2e0416h12,S2g0421h07,S2g0421h18,S2h0427h13,S2h0427h17,S2i0429h10,S2k0531h07,S2k0531h09,S4m1019h07,S4m1019h08,S4m1019h17,S4n1020h09,S4n1020h16,S4o1023h10,S4o1023h13,S6aH7</t>
-  </si>
-  <si>
-    <t>S1b0201h02,S2d0415h03,S2d0415h20,S2g0421h05,S2g0421h23,S2h0427h20,S2h0427h21,S2i0429h20,S2j0518h01,S2j0518h19,S2j0518h23,S4l0918h06,S4m1019h20,S4n1020h19,S1b0201h20,S1b0201h24,S2d0415h05,S2f0420h01,S2h0427h01,S4aH1,S4l0918h24,S4n1020h02,S4o1023h19,S6aH1,S1b0201h19,S1c0205h06,S2d0415h21,S2g0421h04,S2i0429h04,S4l0918h20,S4m1019h02,S4n1020h21,S4o1023h05,S5p1104h22,S6aH8,S1aH1,S1b0201h23,S2d0415h22,S2f0420h21,S2g0421h24,S2i0429h03,S4n1020h03,S4n1020h20,S2aH1,S2g0421h02,S2g0421h03,S2h0427h05,S2h0427h06,S2i0429h19,S2k0531h19,S4l0918h01,S4m1019h22,S4n1020h23,S4o1023h20,S4o1023h24,S5aH8,S5p1104h03,S1b0201h01,S2e0416h01,S2f0420h20,S2g0421h21,S4l0918h22,S5p1104h19,S1c0205h04,S1c0205h19,S1c0205h22,S2f0420h04,S2j0518h05,S4l0918h23,S4m1019h19,S4n1020h04,S4n1020h06,S1aH8,S1b0201h22,S1c0205h03,S2d0415h23,S2g0421h01,S2g0421h20,S2i0429h01,S2j0518h04,S2j0518h21,S4m1019h06,S4o1023h04,S5aH1,S5p1104h05,S1b0201h03,S1b0201h06,S1c0205h02,S1c0205h05,S2d0415h24,S2e0416h20,S2e0416h23,S2f0420h03,S2h0427h03,S2h0427h23,S2i0429h21,S2j0518h06,S2k0531h05,S4l0918h21,S4m1019h23,S4n1020h24,S4o1023h02,S4o1023h21,S5p1104h01,S1c0205h23,S2e0416h02,S2e0416h04,S2f0420h22,S2h0427h22,S2i0429h24,S2j0518h03,S2j0518h24,S4n1020h01,S5p1104h02,S1b0201h05,S1c0205h01,S1c0205h20,S2f0420h05,S2f0420h24,S2g0421h06,S2h0427h19,S2j0518h20,S2k0531h06,S4m1019h04,S4o1023h03,S5p1104h20,S2aH8,S2e0416h19,S2f0420h19,S2g0421h22,S2i0429h02,S2i0429h22,S2i0429h23,S2k0531h04,S2k0531h24,S4l0918h02,S4l0918h05,S4m1019h24,S4n1020h05,S4n1020h22,S5p1104h04,S5p1104h24,S1c0205h24,S2d0415h04,S2h0427h04,S2k0531h21,S3aH8,S4m1019h01,S5p1104h21,S1b0201h04,S2e0416h03,S2e0416h05,S2e0416h06,S2e0416h22,S2f0420h02,S2i0429h05,S2k0531h20,S2k0531h22,S4aH8,S4l0918h03,S4o1023h01,S4o1023h23,S5p1104h06,S5p1104h23,S2d0415h01,S2d0415h02,S2d0415h06,S2d0415h19,S2g0421h19,S2h0427h24,S2i0429h06,S2k0531h01,S2k0531h23,S4l0918h04,S4m1019h03,S4m1019h05,S4m1019h21,S1b0201h21,S1c0205h21,S2e0416h21,S2e0416h24,S2f0420h06,S2f0420h23,S2h0427h02,S2j0518h02,S2j0518h22,S2k0531h02,S2k0531h03,S3aH1,S4l0918h19,S4o1023h06,S4o1023h22</t>
+    <t>S1b0201h10,S1b0201h12,S2d0415h08,S2d0415h10,S2d0415h13,S2e0416h09,S2f0420h14,S2i0429h18,S2j0518h14,S4aH2,S4m1019h14,S4o1023h07,S4o1023h16,S1aH4,S1b0201h08,S2aH2,S2f0420h17,S2i0429h16,S4aH6,S4l0918h18,S4n1020h12,S4n1020h18,S4o1023h15,S1b0201h13,S1b0201h15,S2e0416h10,S2e0416h14,S2e0416h17,S2f0420h10,S2i0429h17,S2k0531h14,S4m1019h12,S4n1020h08,S4n1020h11,S1aH2,S1aH7,S1c0205h10,S2aH3,S2e0416h07,S2f0420h09,S2f0420h18,S2i0429h08,S2j0518h11,S2j0518h15,S2j0518h17,S2k0531h18,S3aH6,S4aH7,S4l0918h08,S4o1023h11,S5aH6,S5aH7,S6aH6,S1aH6,S1b0201h11,S1b0201h14,S1b0201h16,S1b0201h17,S1b0201h18,S2g0421h11,S2g0421h12,S2g0421h14,S2h0427h12,S2h0427h15,S2j0518h13,S2k0531h13,S2k0531h16,S4l0918h09,S4l0918h11,S5p1104h10,S5p1104h18,S1aH3,S2e0416h11,S2e0416h18,S2i0429h11,S2i0429h12,S2i0429h15,S2j0518h16,S2j0518h18,S2k0531h17,S4l0918h10,S4l0918h12,S4l0918h13,S4l0918h17,S4m1019h11,S4n1020h15,S5p1104h15,S2d0415h16,S2e0416h13,S2f0420h12,S2f0420h15,S2g0421h17,S2h0427h08,S2j0518h07,S2k0531h12,S3aH2,S4o1023h14,S5p1104h12,S1b0201h07,S2d0415h12,S2g0421h16,S2j0518h08,S4aH5,S4l0918h16,S5p1104h07,S1aH5,S1c0205h16,S2aH4,S2aH5,S2d0415h11,S2d0415h17,S2e0416h16,S2g0421h08,S2g0421h13,S2h0427h07,S2h0427h11,S2k0531h10,S4m1019h09,S4m1019h18,S4o1023h17,S5aH2,S5aH5,S5p1104h16,S6aH2,S1c0205h18,S2d0415h18,S2e0416h08,S2f0420h16,S4l0918h15,S5aH4,S5p1104h13,S5p1104h17,S6aH3,S6aH4,S1c0205h09,S1c0205h11,S2aH7,S2d0415h09,S2h0427h16,S2k0531h15,S3aH4,S4aH3,S4aH4,S4m1019h10,S4m1019h16,S5p1104h09,S5p1104h11,S1c0205h12,S1c0205h14,S2e0416h12,S2g0421h07,S2g0421h18,S2h0427h13,S2h0427h17,S2i0429h10,S2k0531h07,S2k0531h09,S4m1019h07,S4m1019h08,S4m1019h17,S4n1020h09,S4n1020h16,S4o1023h10,S4o1023h13,S6aH7,S1c0205h07,S1c0205h08,S2d0415h14,S2d0415h15,S2i0429h07,S2i0429h09,S2i0429h14,S4n1020h10,S4n1020h13,S4n1020h14,S4n1020h17,S4o1023h08,S4o1023h12,S6aH5,S1b0201h09,S1c0205h17,S2aH6,S2e0416h15,S2f0420h13,S2g0421h10,S2g0421h15,S2h0427h18,S2j0518h09,S2j0518h12,S2k0531h08,S3aH5,S4m1019h13,S4m1019h15,S4o1023h09,S5aH3,S5p1104h08,S1c0205h13,S2d0415h07,S2f0420h08,S2f0420h11,S2h0427h09,S2h0427h14,S2i0429h13,S3aH7,S4l0918h07,S4l0918h14,S4o1023h18,S1c0205h15,S2f0420h07,S2g0421h09,S2h0427h10,S2j0518h10,S2k0531h11,S3aH3,S4n1020h07,S5p1104h14</t>
+  </si>
+  <si>
+    <t>S2aH1,S2g0421h02,S2g0421h03,S2h0427h05,S2h0427h06,S2i0429h19,S2k0531h19,S4l0918h01,S4m1019h22,S4n1020h23,S4o1023h20,S4o1023h24,S5aH8,S5p1104h03,S1b0201h20,S1b0201h24,S2d0415h05,S2f0420h01,S2h0427h01,S4aH1,S4l0918h24,S4n1020h02,S4o1023h19,S6aH1,S1aH1,S1b0201h23,S2d0415h22,S2f0420h21,S2g0421h24,S2i0429h03,S4n1020h03,S4n1020h20,S1b0201h03,S1b0201h06,S1c0205h02,S1c0205h05,S2d0415h24,S2e0416h20,S2e0416h23,S2f0420h03,S2h0427h03,S2h0427h23,S2i0429h21,S2j0518h06,S2k0531h05,S4l0918h21,S4m1019h23,S4n1020h24,S4o1023h02,S4o1023h21,S5p1104h01,S1b0201h19,S1c0205h06,S2d0415h21,S2g0421h04,S2i0429h04,S4l0918h20,S4m1019h02,S4n1020h21,S4o1023h05,S5p1104h22,S6aH8,S1b0201h02,S2d0415h03,S2d0415h20,S2g0421h05,S2g0421h23,S2h0427h20,S2h0427h21,S2i0429h20,S2j0518h01,S2j0518h19,S2j0518h23,S4l0918h06,S4m1019h20,S4n1020h19,S1c0205h24,S2d0415h04,S2h0427h04,S2k0531h21,S3aH8,S4m1019h01,S5p1104h21,S1c0205h23,S2e0416h02,S2e0416h04,S2f0420h22,S2h0427h22,S2i0429h24,S2j0518h03,S2j0518h24,S4n1020h01,S5p1104h02,S1c0205h04,S1c0205h19,S1c0205h22,S2f0420h04,S2j0518h05,S4l0918h23,S4m1019h19,S4n1020h04,S4n1020h06,S2d0415h01,S2d0415h02,S2d0415h06,S2d0415h19,S2g0421h19,S2h0427h24,S2i0429h06,S2k0531h01,S2k0531h23,S4l0918h04,S4m1019h03,S4m1019h05,S4m1019h21,S1b0201h05,S1c0205h01,S1c0205h20,S2f0420h05,S2f0420h24,S2g0421h06,S2h0427h19,S2j0518h20,S2k0531h06,S4m1019h04,S4o1023h03,S5p1104h20,S1b0201h21,S1c0205h21,S2e0416h21,S2e0416h24,S2f0420h06,S2f0420h23,S2h0427h02,S2j0518h02,S2j0518h22,S2k0531h02,S2k0531h03,S3aH1,S4l0918h19,S4o1023h06,S4o1023h22,S1b0201h04,S2e0416h03,S2e0416h05,S2e0416h06,S2e0416h22,S2f0420h02,S2i0429h05,S2k0531h20,S2k0531h22,S4aH8,S4l0918h03,S4o1023h01,S4o1023h23,S5p1104h06,S5p1104h23,S1aH8,S1b0201h22,S1c0205h03,S2d0415h23,S2g0421h01,S2g0421h20,S2i0429h01,S2j0518h04,S2j0518h21,S4m1019h06,S4o1023h04,S5aH1,S5p1104h05,S2aH8,S2e0416h19,S2f0420h19,S2g0421h22,S2i0429h02,S2i0429h22,S2i0429h23,S2k0531h04,S2k0531h24,S4l0918h02,S4l0918h05,S4m1019h24,S4n1020h05,S4n1020h22,S5p1104h04,S5p1104h24,S1b0201h01,S2e0416h01,S2f0420h20,S2g0421h21,S4l0918h22,S5p1104h19</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0201h02,S2d0415h03,S2d0415h20,S2g0421h05,S2g0421h23,S2h0427h20,S2h0427h21,S2i0429h20,S2j0518h01,S2j0518h19,S2j0518h23,S4l0918h06,S4m1019h20,S4n1020h19,S1b0201h20,S1b0201h24,S2d0415h05,S2f0420h01,S2h0427h01,S4aH1,S4l0918h24,S4n1020h02,S4o1023h19,S6aH1,S1b0201h19,S1c0205h06,S2d0415h21,S2g0421h04,S2i0429h04,S4l0918h20,S4m1019h02,S4n1020h21,S4o1023h05,S5p1104h22,S6aH8,S1aH1,S1b0201h23,S2d0415h22,S2f0420h21,S2g0421h24,S2i0429h03,S4n1020h03,S4n1020h20,S2aH1,S2g0421h02,S2g0421h03,S2h0427h05,S2h0427h06,S2i0429h19,S2k0531h19,S4l0918h01,S4m1019h22,S4n1020h23,S4o1023h20,S4o1023h24,S5aH8,S5p1104h03,S1b0201h01,S2e0416h01,S2f0420h20,S2g0421h21,S4l0918h22,S5p1104h19,S1c0205h04,S1c0205h19,S1c0205h22,S2f0420h04,S2j0518h05,S4l0918h23,S4m1019h19,S4n1020h04,S4n1020h06,S1aH8,S1b0201h22,S1c0205h03,S2d0415h23,S2g0421h01,S2g0421h20,S2i0429h01,S2j0518h04,S2j0518h21,S4m1019h06,S4o1023h04,S5aH1,S5p1104h05,S1b0201h03,S1b0201h06,S1c0205h02,S1c0205h05,S2d0415h24,S2e0416h20,S2e0416h23,S2f0420h03,S2h0427h03,S2h0427h23,S2i0429h21,S2j0518h06,S2k0531h05,S4l0918h21,S4m1019h23,S4n1020h24,S4o1023h02,S4o1023h21,S5p1104h01,S1c0205h23,S2e0416h02,S2e0416h04,S2f0420h22,S2h0427h22,S2i0429h24,S2j0518h03,S2j0518h24,S4n1020h01,S5p1104h02,S1b0201h05,S1c0205h01,S1c0205h20,S2f0420h05,S2f0420h24,S2g0421h06,S2h0427h19,S2j0518h20,S2k0531h06,S4m1019h04,S4o1023h03,S5p1104h20,S2aH8,S2e0416h19,S2f0420h19,S2g0421h22,S2i0429h02,S2i0429h22,S2i0429h23,S2k0531h04,S2k0531h24,S4l0918h02,S4l0918h05,S4m1019h24,S4n1020h05,S4n1020h22,S5p1104h04,S5p1104h24,S1c0205h24,S2d0415h04,S2h0427h04,S2k0531h21,S3aH8,S4m1019h01,S5p1104h21,S1b0201h04,S2e0416h03,S2e0416h05,S2e0416h06,S2e0416h22,S2f0420h02,S2i0429h05,S2k0531h20,S2k0531h22,S4aH8,S4l0918h03,S4o1023h01,S4o1023h23,S5p1104h06,S5p1104h23,S2d0415h01,S2d0415h02,S2d0415h06,S2d0415h19,S2g0421h19,S2h0427h24,S2i0429h06,S2k0531h01,S2k0531h23,S4l0918h04,S4m1019h03,S4m1019h05,S4m1019h21,S1b0201h21,S1c0205h21,S2e0416h21,S2e0416h24,S2f0420h06,S2f0420h23,S2h0427h02,S2j0518h02,S2j0518h22,S2k0531h02,S2k0531h03,S3aH1,S4l0918h19,S4o1023h06,S4o1023h22</v>
+        <v>S2aH1,S2g0421h02,S2g0421h03,S2h0427h05,S2h0427h06,S2i0429h19,S2k0531h19,S4l0918h01,S4m1019h22,S4n1020h23,S4o1023h20,S4o1023h24,S5aH8,S5p1104h03,S1b0201h20,S1b0201h24,S2d0415h05,S2f0420h01,S2h0427h01,S4aH1,S4l0918h24,S4n1020h02,S4o1023h19,S6aH1,S1aH1,S1b0201h23,S2d0415h22,S2f0420h21,S2g0421h24,S2i0429h03,S4n1020h03,S4n1020h20,S1b0201h03,S1b0201h06,S1c0205h02,S1c0205h05,S2d0415h24,S2e0416h20,S2e0416h23,S2f0420h03,S2h0427h03,S2h0427h23,S2i0429h21,S2j0518h06,S2k0531h05,S4l0918h21,S4m1019h23,S4n1020h24,S4o1023h02,S4o1023h21,S5p1104h01,S1b0201h19,S1c0205h06,S2d0415h21,S2g0421h04,S2i0429h04,S4l0918h20,S4m1019h02,S4n1020h21,S4o1023h05,S5p1104h22,S6aH8,S1b0201h02,S2d0415h03,S2d0415h20,S2g0421h05,S2g0421h23,S2h0427h20,S2h0427h21,S2i0429h20,S2j0518h01,S2j0518h19,S2j0518h23,S4l0918h06,S4m1019h20,S4n1020h19,S1c0205h24,S2d0415h04,S2h0427h04,S2k0531h21,S3aH8,S4m1019h01,S5p1104h21,S1c0205h23,S2e0416h02,S2e0416h04,S2f0420h22,S2h0427h22,S2i0429h24,S2j0518h03,S2j0518h24,S4n1020h01,S5p1104h02,S1c0205h04,S1c0205h19,S1c0205h22,S2f0420h04,S2j0518h05,S4l0918h23,S4m1019h19,S4n1020h04,S4n1020h06,S2d0415h01,S2d0415h02,S2d0415h06,S2d0415h19,S2g0421h19,S2h0427h24,S2i0429h06,S2k0531h01,S2k0531h23,S4l0918h04,S4m1019h03,S4m1019h05,S4m1019h21,S1b0201h05,S1c0205h01,S1c0205h20,S2f0420h05,S2f0420h24,S2g0421h06,S2h0427h19,S2j0518h20,S2k0531h06,S4m1019h04,S4o1023h03,S5p1104h20,S1b0201h21,S1c0205h21,S2e0416h21,S2e0416h24,S2f0420h06,S2f0420h23,S2h0427h02,S2j0518h02,S2j0518h22,S2k0531h02,S2k0531h03,S3aH1,S4l0918h19,S4o1023h06,S4o1023h22,S1b0201h04,S2e0416h03,S2e0416h05,S2e0416h06,S2e0416h22,S2f0420h02,S2i0429h05,S2k0531h20,S2k0531h22,S4aH8,S4l0918h03,S4o1023h01,S4o1023h23,S5p1104h06,S5p1104h23,S1aH8,S1b0201h22,S1c0205h03,S2d0415h23,S2g0421h01,S2g0421h20,S2i0429h01,S2j0518h04,S2j0518h21,S4m1019h06,S4o1023h04,S5aH1,S5p1104h05,S2aH8,S2e0416h19,S2f0420h19,S2g0421h22,S2i0429h02,S2i0429h22,S2i0429h23,S2k0531h04,S2k0531h24,S4l0918h02,S4l0918h05,S4m1019h24,S4n1020h05,S4n1020h22,S5p1104h04,S5p1104h24,S1b0201h01,S2e0416h01,S2f0420h20,S2g0421h21,S4l0918h22,S5p1104h19</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S2e0416h11,S2e0416h18,S2i0429h11,S2i0429h12,S2i0429h15,S2j0518h16,S2j0518h18,S2k0531h17,S4l0918h10,S4l0918h12,S4l0918h13,S4l0918h17,S4m1019h11,S4n1020h15,S5p1104h15,S1aH4,S1b0201h08,S2aH2,S2f0420h17,S2i0429h16,S4aH6,S4l0918h18,S4n1020h12,S4n1020h18,S4o1023h15,S1aH6,S1b0201h11,S1b0201h14,S1b0201h16,S1b0201h17,S1b0201h18,S2g0421h11,S2g0421h12,S2g0421h14,S2h0427h12,S2h0427h15,S2j0518h13,S2k0531h13,S2k0531h16,S4l0918h09,S4l0918h11,S5p1104h10,S5p1104h18,S1b0201h13,S1b0201h15,S2e0416h10,S2e0416h14,S2e0416h17,S2f0420h10,S2i0429h17,S2k0531h14,S4m1019h12,S4n1020h08,S4n1020h11,S1b0201h10,S1b0201h12,S2d0415h08,S2d0415h10,S2d0415h13,S2e0416h09,S2f0420h14,S2i0429h18,S2j0518h14,S4aH2,S4m1019h14,S4o1023h07,S4o1023h16,S1c0205h15,S2f0420h07,S2g0421h09,S2h0427h10,S2j0518h10,S2k0531h11,S3aH3,S4n1020h07,S5p1104h14,S1aH5,S1c0205h16,S2aH4,S2aH5,S2d0415h11,S2d0415h17,S2e0416h16,S2g0421h08,S2g0421h13,S2h0427h07,S2h0427h11,S2k0531h10,S4m1019h09,S4m1019h18,S4o1023h17,S5aH2,S5aH5,S5p1104h16,S6aH2,S1b0201h09,S1c0205h17,S2aH6,S2e0416h15,S2f0420h13,S2g0421h10,S2g0421h15,S2h0427h18,S2j0518h09,S2j0518h12,S2k0531h08,S3aH5,S4m1019h13,S4m1019h15,S4o1023h09,S5aH3,S5p1104h08,S1aH2,S1aH7,S1c0205h10,S2aH3,S2e0416h07,S2f0420h09,S2f0420h18,S2i0429h08,S2j0518h11,S2j0518h15,S2j0518h17,S2k0531h18,S3aH6,S4aH7,S4l0918h08,S4o1023h11,S5aH6,S5aH7,S6aH6,S1b0201h07,S2d0415h12,S2g0421h16,S2j0518h08,S4aH5,S4l0918h16,S5p1104h07,S1c0205h09,S1c0205h11,S2aH7,S2d0415h09,S2h0427h16,S2k0531h15,S3aH4,S4aH3,S4aH4,S4m1019h10,S4m1019h16,S5p1104h09,S5p1104h11,S1c0205h13,S2d0415h07,S2f0420h08,S2f0420h11,S2h0427h09,S2h0427h14,S2i0429h13,S3aH7,S4l0918h07,S4l0918h14,S4o1023h18,S2d0415h16,S2e0416h13,S2f0420h12,S2f0420h15,S2g0421h17,S2h0427h08,S2j0518h07,S2k0531h12,S3aH2,S4o1023h14,S5p1104h12,S1c0205h07,S1c0205h08,S2d0415h14,S2d0415h15,S2i0429h07,S2i0429h09,S2i0429h14,S4n1020h10,S4n1020h13,S4n1020h14,S4n1020h17,S4o1023h08,S4o1023h12,S6aH5,S1c0205h18,S2d0415h18,S2e0416h08,S2f0420h16,S4l0918h15,S5aH4,S5p1104h13,S5p1104h17,S6aH3,S6aH4,S1c0205h12,S1c0205h14,S2e0416h12,S2g0421h07,S2g0421h18,S2h0427h13,S2h0427h17,S2i0429h10,S2k0531h07,S2k0531h09,S4m1019h07,S4m1019h08,S4m1019h17,S4n1020h09,S4n1020h16,S4o1023h10,S4o1023h13,S6aH7</v>
+        <v>S1b0201h10,S1b0201h12,S2d0415h08,S2d0415h10,S2d0415h13,S2e0416h09,S2f0420h14,S2i0429h18,S2j0518h14,S4aH2,S4m1019h14,S4o1023h07,S4o1023h16,S1aH4,S1b0201h08,S2aH2,S2f0420h17,S2i0429h16,S4aH6,S4l0918h18,S4n1020h12,S4n1020h18,S4o1023h15,S1b0201h13,S1b0201h15,S2e0416h10,S2e0416h14,S2e0416h17,S2f0420h10,S2i0429h17,S2k0531h14,S4m1019h12,S4n1020h08,S4n1020h11,S1aH2,S1aH7,S1c0205h10,S2aH3,S2e0416h07,S2f0420h09,S2f0420h18,S2i0429h08,S2j0518h11,S2j0518h15,S2j0518h17,S2k0531h18,S3aH6,S4aH7,S4l0918h08,S4o1023h11,S5aH6,S5aH7,S6aH6,S1aH6,S1b0201h11,S1b0201h14,S1b0201h16,S1b0201h17,S1b0201h18,S2g0421h11,S2g0421h12,S2g0421h14,S2h0427h12,S2h0427h15,S2j0518h13,S2k0531h13,S2k0531h16,S4l0918h09,S4l0918h11,S5p1104h10,S5p1104h18,S1aH3,S2e0416h11,S2e0416h18,S2i0429h11,S2i0429h12,S2i0429h15,S2j0518h16,S2j0518h18,S2k0531h17,S4l0918h10,S4l0918h12,S4l0918h13,S4l0918h17,S4m1019h11,S4n1020h15,S5p1104h15,S2d0415h16,S2e0416h13,S2f0420h12,S2f0420h15,S2g0421h17,S2h0427h08,S2j0518h07,S2k0531h12,S3aH2,S4o1023h14,S5p1104h12,S1b0201h07,S2d0415h12,S2g0421h16,S2j0518h08,S4aH5,S4l0918h16,S5p1104h07,S1aH5,S1c0205h16,S2aH4,S2aH5,S2d0415h11,S2d0415h17,S2e0416h16,S2g0421h08,S2g0421h13,S2h0427h07,S2h0427h11,S2k0531h10,S4m1019h09,S4m1019h18,S4o1023h17,S5aH2,S5aH5,S5p1104h16,S6aH2,S1c0205h18,S2d0415h18,S2e0416h08,S2f0420h16,S4l0918h15,S5aH4,S5p1104h13,S5p1104h17,S6aH3,S6aH4,S1c0205h09,S1c0205h11,S2aH7,S2d0415h09,S2h0427h16,S2k0531h15,S3aH4,S4aH3,S4aH4,S4m1019h10,S4m1019h16,S5p1104h09,S5p1104h11,S1c0205h12,S1c0205h14,S2e0416h12,S2g0421h07,S2g0421h18,S2h0427h13,S2h0427h17,S2i0429h10,S2k0531h07,S2k0531h09,S4m1019h07,S4m1019h08,S4m1019h17,S4n1020h09,S4n1020h16,S4o1023h10,S4o1023h13,S6aH7,S1c0205h07,S1c0205h08,S2d0415h14,S2d0415h15,S2i0429h07,S2i0429h09,S2i0429h14,S4n1020h10,S4n1020h13,S4n1020h14,S4n1020h17,S4o1023h08,S4o1023h12,S6aH5,S1b0201h09,S1c0205h17,S2aH6,S2e0416h15,S2f0420h13,S2g0421h10,S2g0421h15,S2h0427h18,S2j0518h09,S2j0518h12,S2k0531h08,S3aH5,S4m1019h13,S4m1019h15,S4o1023h09,S5aH3,S5p1104h08,S1c0205h13,S2d0415h07,S2f0420h08,S2f0420h11,S2h0427h09,S2h0427h14,S2i0429h13,S3aH7,S4l0918h07,S4l0918h14,S4o1023h18,S1c0205h15,S2f0420h07,S2g0421h09,S2h0427h10,S2j0518h10,S2k0531h11,S3aH3,S4n1020h07,S5p1104h14</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA4427D-B863-4337-BD5E-2DFD94508130}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA082766-98FF-4ED8-B1B9-86B8CC97F9D5}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1B3369-053F-4CC2-BE0F-2A7912727FB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1900251-8781-4B1C-BD76-D8F080D9974C}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7070,7 +7070,7 @@
         <v>467</v>
       </c>
       <c r="I4">
-        <v>1.6476999999999999E-2</v>
+        <v>4.5486000000000006E-2</v>
       </c>
       <c r="J4" t="s">
         <v>468</v>
@@ -7079,10 +7079,10 @@
         <v>878</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N4">
-        <v>8.0605632899210897E-2</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O4" t="s">
         <v>889</v>
@@ -7105,7 +7105,7 @@
         <v>470</v>
       </c>
       <c r="I5">
-        <v>1.047E-3</v>
+        <v>6.4980000000000003E-3</v>
       </c>
       <c r="J5" t="s">
         <v>468</v>
@@ -7114,10 +7114,10 @@
         <v>878</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N5">
-        <v>0.26179508564829668</v>
+        <v>0.40660807082825429</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7140,7 +7140,7 @@
         <v>471</v>
       </c>
       <c r="I6">
-        <v>1.3129999999999999E-3</v>
+        <v>6.4980000000000003E-3</v>
       </c>
       <c r="J6" t="s">
         <v>468</v>
@@ -7152,7 +7152,7 @@
         <v>84</v>
       </c>
       <c r="N6">
-        <v>0.19493167383075641</v>
+        <v>0.19493167383075638</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7175,7 +7175,7 @@
         <v>472</v>
       </c>
       <c r="I7">
-        <v>2.4139999999999999E-3</v>
+        <v>6.4980000000000003E-3</v>
       </c>
       <c r="J7" t="s">
         <v>468</v>
@@ -7184,10 +7184,10 @@
         <v>878</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N7">
-        <v>0.40660807082825434</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7210,7 +7210,7 @@
         <v>473</v>
       </c>
       <c r="I8">
-        <v>3.0349000000000001E-2</v>
+        <v>3.2490000000000005E-2</v>
       </c>
       <c r="J8" t="s">
         <v>468</v>
@@ -7219,10 +7219,10 @@
         <v>878</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="N8">
-        <v>0.17653172515557838</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -7245,7 +7245,7 @@
         <v>474</v>
       </c>
       <c r="I9">
-        <v>1.1408E-2</v>
+        <v>6.4980000000000003E-3</v>
       </c>
       <c r="J9" t="s">
         <v>468</v>
@@ -7254,10 +7254,10 @@
         <v>878</v>
       </c>
       <c r="M9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="N9">
-        <v>7.9527811637903401E-2</v>
+        <v>0.26179508564829657</v>
       </c>
       <c r="O9" t="s">
         <v>889</v>
@@ -7280,7 +7280,7 @@
         <v>475</v>
       </c>
       <c r="I10">
-        <v>1.4707000000000001E-2</v>
+        <v>6.4980000000000003E-3</v>
       </c>
       <c r="J10" t="s">
         <v>468</v>
@@ -7306,7 +7306,7 @@
         <v>476</v>
       </c>
       <c r="I11">
-        <v>6.1848E-2</v>
+        <v>4.5486000000000006E-2</v>
       </c>
       <c r="J11" t="s">
         <v>468</v>
@@ -7332,7 +7332,7 @@
         <v>477</v>
       </c>
       <c r="I12">
-        <v>1.17E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J12" t="s">
         <v>468</v>
@@ -7358,7 +7358,7 @@
         <v>478</v>
       </c>
       <c r="I13">
-        <v>6.3900000000000003E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J13" t="s">
         <v>468</v>
@@ -7384,7 +7384,7 @@
         <v>479</v>
       </c>
       <c r="I14">
-        <v>2.8400000000000002E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J14" t="s">
         <v>468</v>
@@ -7410,7 +7410,7 @@
         <v>480</v>
       </c>
       <c r="I15">
-        <v>1.95E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J15" t="s">
         <v>468</v>
@@ -7436,7 +7436,7 @@
         <v>481</v>
       </c>
       <c r="I16">
-        <v>1.1900000000000001E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J16" t="s">
         <v>468</v>
@@ -7462,7 +7462,7 @@
         <v>482</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J17" t="s">
         <v>468</v>
@@ -7488,7 +7488,7 @@
         <v>483</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J18" t="s">
         <v>468</v>
@@ -7514,7 +7514,7 @@
         <v>484</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J19" t="s">
         <v>468</v>
@@ -7540,7 +7540,7 @@
         <v>485</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J20" t="s">
         <v>468</v>
@@ -7566,7 +7566,7 @@
         <v>486</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J21" t="s">
         <v>468</v>
@@ -7592,7 +7592,7 @@
         <v>487</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J22" t="s">
         <v>468</v>
@@ -7618,7 +7618,7 @@
         <v>488</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J23" t="s">
         <v>468</v>
@@ -7644,7 +7644,7 @@
         <v>489</v>
       </c>
       <c r="I24">
-        <v>1.1900000000000001E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J24" t="s">
         <v>468</v>
@@ -7670,7 +7670,7 @@
         <v>490</v>
       </c>
       <c r="I25">
-        <v>3.7300000000000001E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J25" t="s">
         <v>468</v>
@@ -7696,7 +7696,7 @@
         <v>491</v>
       </c>
       <c r="I26">
-        <v>8.1700000000000002E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J26" t="s">
         <v>468</v>
@@ -7722,7 +7722,7 @@
         <v>492</v>
       </c>
       <c r="I27">
-        <v>2.0579999999999999E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J27" t="s">
         <v>468</v>
@@ -7748,7 +7748,7 @@
         <v>493</v>
       </c>
       <c r="I28">
-        <v>1.17E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J28" t="s">
         <v>468</v>
@@ -7774,7 +7774,7 @@
         <v>494</v>
       </c>
       <c r="I29">
-        <v>3.3010000000000001E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J29" t="s">
         <v>468</v>
@@ -7800,7 +7800,7 @@
         <v>495</v>
       </c>
       <c r="I30">
-        <v>4.7429999999999998E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J30" t="s">
         <v>468</v>
@@ -7826,7 +7826,7 @@
         <v>496</v>
       </c>
       <c r="I31">
-        <v>3.3010000000000001E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J31" t="s">
         <v>468</v>
@@ -7852,7 +7852,7 @@
         <v>497</v>
       </c>
       <c r="I32">
-        <v>1.7470000000000001E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J32" t="s">
         <v>468</v>
@@ -7878,7 +7878,7 @@
         <v>498</v>
       </c>
       <c r="I33">
-        <v>1.436E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J33" t="s">
         <v>468</v>
@@ -7904,7 +7904,7 @@
         <v>499</v>
       </c>
       <c r="I34">
-        <v>1.436E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J34" t="s">
         <v>468</v>
@@ -7930,7 +7930,7 @@
         <v>500</v>
       </c>
       <c r="I35">
-        <v>1.7470000000000001E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J35" t="s">
         <v>468</v>
@@ -7956,7 +7956,7 @@
         <v>501</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J36" t="s">
         <v>468</v>
@@ -7982,7 +7982,7 @@
         <v>502</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J37" t="s">
         <v>468</v>
@@ -8008,7 +8008,7 @@
         <v>503</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J38" t="s">
         <v>468</v>
@@ -8034,7 +8034,7 @@
         <v>504</v>
       </c>
       <c r="I39">
-        <v>3.0000000000000001E-5</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J39" t="s">
         <v>468</v>
@@ -8060,7 +8060,7 @@
         <v>505</v>
       </c>
       <c r="I40">
-        <v>2.8400000000000002E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J40" t="s">
         <v>468</v>
@@ -8086,7 +8086,7 @@
         <v>506</v>
       </c>
       <c r="I41">
-        <v>4.6099999999999998E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J41" t="s">
         <v>468</v>
@@ -8112,7 +8112,7 @@
         <v>507</v>
       </c>
       <c r="I42">
-        <v>7.2800000000000002E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J42" t="s">
         <v>468</v>
@@ -8138,7 +8138,7 @@
         <v>508</v>
       </c>
       <c r="I43">
-        <v>1.17E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J43" t="s">
         <v>468</v>
@@ -8164,7 +8164,7 @@
         <v>509</v>
       </c>
       <c r="I44">
-        <v>3.3010000000000001E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J44" t="s">
         <v>468</v>
@@ -8190,7 +8190,7 @@
         <v>510</v>
       </c>
       <c r="I45">
-        <v>7.4070000000000004E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J45" t="s">
         <v>468</v>
@@ -8216,7 +8216,7 @@
         <v>511</v>
       </c>
       <c r="I46">
-        <v>8.4729999999999996E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J46" t="s">
         <v>468</v>
@@ -8242,7 +8242,7 @@
         <v>512</v>
       </c>
       <c r="I47">
-        <v>7.4070000000000004E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J47" t="s">
         <v>468</v>
@@ -8268,7 +8268,7 @@
         <v>513</v>
       </c>
       <c r="I48">
-        <v>1.1738999999999999E-2</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J48" t="s">
         <v>468</v>
@@ -8294,7 +8294,7 @@
         <v>514</v>
       </c>
       <c r="I49">
-        <v>9.4619999999999999E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J49" t="s">
         <v>468</v>
@@ -8320,7 +8320,7 @@
         <v>515</v>
       </c>
       <c r="I50">
-        <v>1.6534E-2</v>
+        <v>1.34E-4</v>
       </c>
       <c r="J50" t="s">
         <v>468</v>
@@ -8346,7 +8346,7 @@
         <v>516</v>
       </c>
       <c r="I51">
-        <v>9.0060000000000001E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J51" t="s">
         <v>468</v>
@@ -8372,7 +8372,7 @@
         <v>517</v>
       </c>
       <c r="I52">
-        <v>3.6120000000000002E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J52" t="s">
         <v>468</v>
@@ -8398,7 +8398,7 @@
         <v>518</v>
       </c>
       <c r="I53">
-        <v>2.0579999999999999E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J53" t="s">
         <v>468</v>
@@ -8424,7 +8424,7 @@
         <v>519</v>
       </c>
       <c r="I54">
-        <v>5.5000000000000003E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J54" t="s">
         <v>468</v>
@@ -8450,7 +8450,7 @@
         <v>520</v>
       </c>
       <c r="I55">
-        <v>2.8400000000000002E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J55" t="s">
         <v>468</v>
@@ -8476,7 +8476,7 @@
         <v>521</v>
       </c>
       <c r="I56">
-        <v>1.1900000000000001E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J56" t="s">
         <v>468</v>
@@ -8502,7 +8502,7 @@
         <v>522</v>
       </c>
       <c r="I57">
-        <v>1.95E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J57" t="s">
         <v>468</v>
@@ -8528,7 +8528,7 @@
         <v>523</v>
       </c>
       <c r="I58">
-        <v>8.1700000000000002E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J58" t="s">
         <v>468</v>
@@ -8554,7 +8554,7 @@
         <v>524</v>
       </c>
       <c r="I59">
-        <v>1.17E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J59" t="s">
         <v>468</v>
@@ -8580,7 +8580,7 @@
         <v>525</v>
       </c>
       <c r="I60">
-        <v>1.4759E-2</v>
+        <v>9.0972000000000011E-2</v>
       </c>
       <c r="J60" t="s">
         <v>468</v>
@@ -8606,7 +8606,7 @@
         <v>526</v>
       </c>
       <c r="I61">
-        <v>8.3400000000000011E-4</v>
+        <v>1.2996000000000001E-2</v>
       </c>
       <c r="J61" t="s">
         <v>468</v>
@@ -8632,7 +8632,7 @@
         <v>527</v>
       </c>
       <c r="I62">
-        <v>6.5700000000000003E-4</v>
+        <v>1.2996000000000001E-2</v>
       </c>
       <c r="J62" t="s">
         <v>468</v>
@@ -8658,7 +8658,7 @@
         <v>528</v>
       </c>
       <c r="I63">
-        <v>2.1719999999999999E-3</v>
+        <v>1.2996000000000001E-2</v>
       </c>
       <c r="J63" t="s">
         <v>468</v>
@@ -8684,7 +8684,7 @@
         <v>529</v>
       </c>
       <c r="I64">
-        <v>0.122935</v>
+        <v>6.498000000000001E-2</v>
       </c>
       <c r="J64" t="s">
         <v>468</v>
@@ -8710,7 +8710,7 @@
         <v>530</v>
       </c>
       <c r="I65">
-        <v>5.0062000000000002E-2</v>
+        <v>1.2996000000000001E-2</v>
       </c>
       <c r="J65" t="s">
         <v>468</v>
@@ -8736,7 +8736,7 @@
         <v>531</v>
       </c>
       <c r="I66">
-        <v>4.0696000000000003E-2</v>
+        <v>1.2996000000000001E-2</v>
       </c>
       <c r="J66" t="s">
         <v>468</v>
@@ -8762,7 +8762,7 @@
         <v>532</v>
       </c>
       <c r="I67">
-        <v>6.2156000000000003E-2</v>
+        <v>9.0972000000000011E-2</v>
       </c>
       <c r="J67" t="s">
         <v>468</v>
@@ -8788,7 +8788,7 @@
         <v>533</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J68" t="s">
         <v>468</v>
@@ -8814,7 +8814,7 @@
         <v>534</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J69" t="s">
         <v>468</v>
@@ -8840,7 +8840,7 @@
         <v>535</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J70" t="s">
         <v>468</v>
@@ -8866,7 +8866,7 @@
         <v>536</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J71" t="s">
         <v>468</v>
@@ -8892,7 +8892,7 @@
         <v>537</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J72" t="s">
         <v>468</v>
@@ -8918,7 +8918,7 @@
         <v>538</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J73" t="s">
         <v>468</v>
@@ -8944,7 +8944,7 @@
         <v>539</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J74" t="s">
         <v>468</v>
@@ -8970,7 +8970,7 @@
         <v>540</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J75" t="s">
         <v>468</v>
@@ -8996,7 +8996,7 @@
         <v>541</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J76" t="s">
         <v>468</v>
@@ -9022,7 +9022,7 @@
         <v>542</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J77" t="s">
         <v>468</v>
@@ -9048,7 +9048,7 @@
         <v>543</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J78" t="s">
         <v>468</v>
@@ -9074,7 +9074,7 @@
         <v>544</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J79" t="s">
         <v>468</v>
@@ -9100,7 +9100,7 @@
         <v>545</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J80" t="s">
         <v>468</v>
@@ -9126,7 +9126,7 @@
         <v>546</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J81" t="s">
         <v>468</v>
@@ -9152,7 +9152,7 @@
         <v>547</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J82" t="s">
         <v>468</v>
@@ -9178,7 +9178,7 @@
         <v>548</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J83" t="s">
         <v>468</v>
@@ -9204,7 +9204,7 @@
         <v>549</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J84" t="s">
         <v>468</v>
@@ -9230,7 +9230,7 @@
         <v>550</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J85" t="s">
         <v>468</v>
@@ -9256,7 +9256,7 @@
         <v>551</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J86" t="s">
         <v>468</v>
@@ -9282,7 +9282,7 @@
         <v>552</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J87" t="s">
         <v>468</v>
@@ -9308,7 +9308,7 @@
         <v>553</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J88" t="s">
         <v>468</v>
@@ -9334,7 +9334,7 @@
         <v>554</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J89" t="s">
         <v>468</v>
@@ -9360,7 +9360,7 @@
         <v>555</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J90" t="s">
         <v>468</v>
@@ -9386,7 +9386,7 @@
         <v>556</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J91" t="s">
         <v>468</v>
@@ -9412,7 +9412,7 @@
         <v>557</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J92" t="s">
         <v>468</v>
@@ -9438,7 +9438,7 @@
         <v>558</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J93" t="s">
         <v>468</v>
@@ -9464,7 +9464,7 @@
         <v>559</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J94" t="s">
         <v>468</v>
@@ -9490,7 +9490,7 @@
         <v>560</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J95" t="s">
         <v>468</v>
@@ -9516,7 +9516,7 @@
         <v>561</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J96" t="s">
         <v>468</v>
@@ -9542,7 +9542,7 @@
         <v>562</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J97" t="s">
         <v>468</v>
@@ -9568,7 +9568,7 @@
         <v>563</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J98" t="s">
         <v>468</v>
@@ -9594,7 +9594,7 @@
         <v>564</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J99" t="s">
         <v>468</v>
@@ -9620,7 +9620,7 @@
         <v>565</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J100" t="s">
         <v>468</v>
@@ -9646,7 +9646,7 @@
         <v>566</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J101" t="s">
         <v>468</v>
@@ -9672,7 +9672,7 @@
         <v>567</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J102" t="s">
         <v>468</v>
@@ -9698,7 +9698,7 @@
         <v>568</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J103" t="s">
         <v>468</v>
@@ -9724,7 +9724,7 @@
         <v>569</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J104" t="s">
         <v>468</v>
@@ -9750,7 +9750,7 @@
         <v>570</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J105" t="s">
         <v>468</v>
@@ -9776,7 +9776,7 @@
         <v>571</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J106" t="s">
         <v>468</v>
@@ -9802,7 +9802,7 @@
         <v>572</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J107" t="s">
         <v>468</v>
@@ -9828,7 +9828,7 @@
         <v>573</v>
       </c>
       <c r="I108">
-        <v>3.0000000000000001E-5</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J108" t="s">
         <v>468</v>
@@ -9854,7 +9854,7 @@
         <v>574</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J109" t="s">
         <v>468</v>
@@ -9880,7 +9880,7 @@
         <v>575</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J110" t="s">
         <v>468</v>
@@ -9906,7 +9906,7 @@
         <v>576</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J111" t="s">
         <v>468</v>
@@ -9932,7 +9932,7 @@
         <v>577</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J112" t="s">
         <v>468</v>
@@ -9958,7 +9958,7 @@
         <v>578</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J113" t="s">
         <v>468</v>
@@ -9984,7 +9984,7 @@
         <v>579</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J114" t="s">
         <v>468</v>
@@ -10010,7 +10010,7 @@
         <v>580</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J115" t="s">
         <v>468</v>
@@ -10036,7 +10036,7 @@
         <v>581</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J116" t="s">
         <v>468</v>
@@ -10062,7 +10062,7 @@
         <v>582</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J117" t="s">
         <v>468</v>
@@ -10088,7 +10088,7 @@
         <v>583</v>
       </c>
       <c r="I118">
-        <v>1.95E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J118" t="s">
         <v>468</v>
@@ -10114,7 +10114,7 @@
         <v>584</v>
       </c>
       <c r="I119">
-        <v>1.1900000000000001E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J119" t="s">
         <v>468</v>
@@ -10140,7 +10140,7 @@
         <v>585</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J120" t="s">
         <v>468</v>
@@ -10166,7 +10166,7 @@
         <v>586</v>
       </c>
       <c r="I121">
-        <v>1.1900000000000001E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J121" t="s">
         <v>468</v>
@@ -10192,7 +10192,7 @@
         <v>587</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J122" t="s">
         <v>468</v>
@@ -10218,7 +10218,7 @@
         <v>588</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J123" t="s">
         <v>468</v>
@@ -10244,7 +10244,7 @@
         <v>589</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J124" t="s">
         <v>468</v>
@@ -10270,7 +10270,7 @@
         <v>590</v>
       </c>
       <c r="I125">
-        <v>5.5000000000000003E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J125" t="s">
         <v>468</v>
@@ -10296,7 +10296,7 @@
         <v>591</v>
       </c>
       <c r="I126">
-        <v>1.17E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J126" t="s">
         <v>468</v>
@@ -10322,7 +10322,7 @@
         <v>592</v>
       </c>
       <c r="I127">
-        <v>1.7470000000000001E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J127" t="s">
         <v>468</v>
@@ -10348,7 +10348,7 @@
         <v>593</v>
       </c>
       <c r="I128">
-        <v>2.369E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J128" t="s">
         <v>468</v>
@@ -10374,7 +10374,7 @@
         <v>594</v>
       </c>
       <c r="I129">
-        <v>3.3010000000000001E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J129" t="s">
         <v>468</v>
@@ -10400,7 +10400,7 @@
         <v>595</v>
       </c>
       <c r="I130">
-        <v>2.99E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J130" t="s">
         <v>468</v>
@@ -10426,7 +10426,7 @@
         <v>596</v>
       </c>
       <c r="I131">
-        <v>2.679E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J131" t="s">
         <v>468</v>
@@ -10452,7 +10452,7 @@
         <v>597</v>
       </c>
       <c r="I132">
-        <v>2.679E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J132" t="s">
         <v>468</v>
@@ -10478,7 +10478,7 @@
         <v>598</v>
       </c>
       <c r="I133">
-        <v>1.7470000000000001E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J133" t="s">
         <v>468</v>
@@ -10504,7 +10504,7 @@
         <v>599</v>
       </c>
       <c r="I134">
-        <v>5.5000000000000003E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J134" t="s">
         <v>468</v>
@@ -10530,7 +10530,7 @@
         <v>600</v>
       </c>
       <c r="I135">
-        <v>3.0000000000000001E-5</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J135" t="s">
         <v>468</v>
@@ -10556,7 +10556,7 @@
         <v>601</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J136" t="s">
         <v>468</v>
@@ -10582,7 +10582,7 @@
         <v>602</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J137" t="s">
         <v>468</v>
@@ -10608,7 +10608,7 @@
         <v>603</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J138" t="s">
         <v>468</v>
@@ -10634,7 +10634,7 @@
         <v>604</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J139" t="s">
         <v>468</v>
@@ -10660,7 +10660,7 @@
         <v>605</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J140" t="s">
         <v>468</v>
@@ -10686,7 +10686,7 @@
         <v>606</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J141" t="s">
         <v>468</v>
@@ -10712,7 +10712,7 @@
         <v>607</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J142" t="s">
         <v>468</v>
@@ -10738,7 +10738,7 @@
         <v>608</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J143" t="s">
         <v>468</v>
@@ -10764,7 +10764,7 @@
         <v>609</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J144" t="s">
         <v>468</v>
@@ -10790,7 +10790,7 @@
         <v>610</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J145" t="s">
         <v>468</v>
@@ -10816,7 +10816,7 @@
         <v>611</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J146" t="s">
         <v>468</v>
@@ -10842,7 +10842,7 @@
         <v>612</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J147" t="s">
         <v>468</v>
@@ -10868,7 +10868,7 @@
         <v>613</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J148" t="s">
         <v>468</v>
@@ -10894,7 +10894,7 @@
         <v>614</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J149" t="s">
         <v>468</v>
@@ -10920,7 +10920,7 @@
         <v>615</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J150" t="s">
         <v>468</v>
@@ -10946,7 +10946,7 @@
         <v>616</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J151" t="s">
         <v>468</v>
@@ -10972,7 +10972,7 @@
         <v>617</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J152" t="s">
         <v>468</v>
@@ -10998,7 +10998,7 @@
         <v>618</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J153" t="s">
         <v>468</v>
@@ -11024,7 +11024,7 @@
         <v>619</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J154" t="s">
         <v>468</v>
@@ -11050,7 +11050,7 @@
         <v>620</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J155" t="s">
         <v>468</v>
@@ -11076,7 +11076,7 @@
         <v>621</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J156" t="s">
         <v>468</v>
@@ -11102,7 +11102,7 @@
         <v>622</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J157" t="s">
         <v>468</v>
@@ -11128,7 +11128,7 @@
         <v>623</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J158" t="s">
         <v>468</v>
@@ -11154,7 +11154,7 @@
         <v>624</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J159" t="s">
         <v>468</v>
@@ -11180,7 +11180,7 @@
         <v>625</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J160" t="s">
         <v>468</v>
@@ -11206,7 +11206,7 @@
         <v>626</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J161" t="s">
         <v>468</v>
@@ -11232,7 +11232,7 @@
         <v>627</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J162" t="s">
         <v>468</v>
@@ -11258,7 +11258,7 @@
         <v>628</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J163" t="s">
         <v>468</v>
@@ -11284,7 +11284,7 @@
         <v>629</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J164" t="s">
         <v>468</v>
@@ -11310,7 +11310,7 @@
         <v>630</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J165" t="s">
         <v>468</v>
@@ -11336,7 +11336,7 @@
         <v>631</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J166" t="s">
         <v>468</v>
@@ -11362,7 +11362,7 @@
         <v>632</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J167" t="s">
         <v>468</v>
@@ -11388,7 +11388,7 @@
         <v>633</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J168" t="s">
         <v>468</v>
@@ -11414,7 +11414,7 @@
         <v>634</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J169" t="s">
         <v>468</v>
@@ -11440,7 +11440,7 @@
         <v>635</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J170" t="s">
         <v>468</v>
@@ -11466,7 +11466,7 @@
         <v>636</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J171" t="s">
         <v>468</v>
@@ -11492,7 +11492,7 @@
         <v>637</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J172" t="s">
         <v>468</v>
@@ -11518,7 +11518,7 @@
         <v>638</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J173" t="s">
         <v>468</v>
@@ -11544,7 +11544,7 @@
         <v>639</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J174" t="s">
         <v>468</v>
@@ -11570,7 +11570,7 @@
         <v>640</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J175" t="s">
         <v>468</v>
@@ -11596,7 +11596,7 @@
         <v>641</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J176" t="s">
         <v>468</v>
@@ -11622,7 +11622,7 @@
         <v>642</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J177" t="s">
         <v>468</v>
@@ -11648,7 +11648,7 @@
         <v>643</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J178" t="s">
         <v>468</v>
@@ -11674,7 +11674,7 @@
         <v>644</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J179" t="s">
         <v>468</v>
@@ -11700,7 +11700,7 @@
         <v>645</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J180" t="s">
         <v>468</v>
@@ -11726,7 +11726,7 @@
         <v>646</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J181" t="s">
         <v>468</v>
@@ -11752,7 +11752,7 @@
         <v>647</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J182" t="s">
         <v>468</v>
@@ -11778,7 +11778,7 @@
         <v>648</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J183" t="s">
         <v>468</v>
@@ -11804,7 +11804,7 @@
         <v>649</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J184" t="s">
         <v>468</v>
@@ -11830,7 +11830,7 @@
         <v>650</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J185" t="s">
         <v>468</v>
@@ -11856,7 +11856,7 @@
         <v>651</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J186" t="s">
         <v>468</v>
@@ -11882,7 +11882,7 @@
         <v>652</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J187" t="s">
         <v>468</v>
@@ -11908,7 +11908,7 @@
         <v>653</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J188" t="s">
         <v>468</v>
@@ -11934,7 +11934,7 @@
         <v>654</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J189" t="s">
         <v>468</v>
@@ -11960,7 +11960,7 @@
         <v>655</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J190" t="s">
         <v>468</v>
@@ -11986,7 +11986,7 @@
         <v>656</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J191" t="s">
         <v>468</v>
@@ -12012,7 +12012,7 @@
         <v>657</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J192" t="s">
         <v>468</v>
@@ -12038,7 +12038,7 @@
         <v>658</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J193" t="s">
         <v>468</v>
@@ -12064,7 +12064,7 @@
         <v>659</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J194" t="s">
         <v>468</v>
@@ -12090,7 +12090,7 @@
         <v>660</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J195" t="s">
         <v>468</v>
@@ -12116,7 +12116,7 @@
         <v>661</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J196" t="s">
         <v>468</v>
@@ -12142,7 +12142,7 @@
         <v>662</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J197" t="s">
         <v>468</v>
@@ -12168,7 +12168,7 @@
         <v>663</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J198" t="s">
         <v>468</v>
@@ -12194,7 +12194,7 @@
         <v>664</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J199" t="s">
         <v>468</v>
@@ -12220,7 +12220,7 @@
         <v>665</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J200" t="s">
         <v>468</v>
@@ -12246,7 +12246,7 @@
         <v>666</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J201" t="s">
         <v>468</v>
@@ -12272,7 +12272,7 @@
         <v>667</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J202" t="s">
         <v>468</v>
@@ -12298,7 +12298,7 @@
         <v>668</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J203" t="s">
         <v>468</v>
@@ -12324,7 +12324,7 @@
         <v>669</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J204" t="s">
         <v>468</v>
@@ -12350,7 +12350,7 @@
         <v>670</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J205" t="s">
         <v>468</v>
@@ -12376,7 +12376,7 @@
         <v>671</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J206" t="s">
         <v>468</v>
@@ -12402,7 +12402,7 @@
         <v>672</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J207" t="s">
         <v>468</v>
@@ -12428,7 +12428,7 @@
         <v>673</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J208" t="s">
         <v>468</v>
@@ -12454,7 +12454,7 @@
         <v>674</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J209" t="s">
         <v>468</v>
@@ -12480,7 +12480,7 @@
         <v>675</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J210" t="s">
         <v>468</v>
@@ -12506,7 +12506,7 @@
         <v>676</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J211" t="s">
         <v>468</v>
@@ -12532,7 +12532,7 @@
         <v>677</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J212" t="s">
         <v>468</v>
@@ -12558,7 +12558,7 @@
         <v>678</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J213" t="s">
         <v>468</v>
@@ -12584,7 +12584,7 @@
         <v>679</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J214" t="s">
         <v>468</v>
@@ -12610,7 +12610,7 @@
         <v>680</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J215" t="s">
         <v>468</v>
@@ -12636,7 +12636,7 @@
         <v>681</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J216" t="s">
         <v>468</v>
@@ -12662,7 +12662,7 @@
         <v>682</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J217" t="s">
         <v>468</v>
@@ -12688,7 +12688,7 @@
         <v>683</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J218" t="s">
         <v>468</v>
@@ -12714,7 +12714,7 @@
         <v>684</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J219" t="s">
         <v>468</v>
@@ -12740,7 +12740,7 @@
         <v>685</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J220" t="s">
         <v>468</v>
@@ -12766,7 +12766,7 @@
         <v>686</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J221" t="s">
         <v>468</v>
@@ -12792,7 +12792,7 @@
         <v>687</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J222" t="s">
         <v>468</v>
@@ -12818,7 +12818,7 @@
         <v>688</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J223" t="s">
         <v>468</v>
@@ -12844,7 +12844,7 @@
         <v>689</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J224" t="s">
         <v>468</v>
@@ -12870,7 +12870,7 @@
         <v>690</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J225" t="s">
         <v>468</v>
@@ -12896,7 +12896,7 @@
         <v>691</v>
       </c>
       <c r="I226">
-        <v>1.1900000000000001E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J226" t="s">
         <v>468</v>
@@ -12922,7 +12922,7 @@
         <v>692</v>
       </c>
       <c r="I227">
-        <v>1.1900000000000001E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J227" t="s">
         <v>468</v>
@@ -12948,7 +12948,7 @@
         <v>693</v>
       </c>
       <c r="I228">
-        <v>3.0000000000000001E-5</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J228" t="s">
         <v>468</v>
@@ -12974,7 +12974,7 @@
         <v>694</v>
       </c>
       <c r="I229">
-        <v>1.1900000000000001E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J229" t="s">
         <v>468</v>
@@ -13000,7 +13000,7 @@
         <v>695</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J230" t="s">
         <v>468</v>
@@ -13026,7 +13026,7 @@
         <v>696</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J231" t="s">
         <v>468</v>
@@ -13052,7 +13052,7 @@
         <v>697</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J232" t="s">
         <v>468</v>
@@ -13078,7 +13078,7 @@
         <v>698</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J233" t="s">
         <v>468</v>
@@ -13104,7 +13104,7 @@
         <v>699</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J234" t="s">
         <v>468</v>
@@ -13130,7 +13130,7 @@
         <v>700</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J235" t="s">
         <v>468</v>
@@ -13156,7 +13156,7 @@
         <v>701</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J236" t="s">
         <v>468</v>
@@ -13182,7 +13182,7 @@
         <v>702</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J237" t="s">
         <v>468</v>
@@ -13208,7 +13208,7 @@
         <v>703</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J238" t="s">
         <v>468</v>
@@ -13234,7 +13234,7 @@
         <v>704</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J239" t="s">
         <v>468</v>
@@ -13260,7 +13260,7 @@
         <v>705</v>
       </c>
       <c r="I240">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J240" t="s">
         <v>468</v>
@@ -13286,7 +13286,7 @@
         <v>706</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J241" t="s">
         <v>468</v>
@@ -13312,7 +13312,7 @@
         <v>707</v>
       </c>
       <c r="I242">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J242" t="s">
         <v>468</v>
@@ -13338,7 +13338,7 @@
         <v>708</v>
       </c>
       <c r="I243">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J243" t="s">
         <v>468</v>
@@ -13364,7 +13364,7 @@
         <v>709</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J244" t="s">
         <v>468</v>
@@ -13390,7 +13390,7 @@
         <v>710</v>
       </c>
       <c r="I245">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J245" t="s">
         <v>468</v>
@@ -13416,7 +13416,7 @@
         <v>711</v>
       </c>
       <c r="I246">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J246" t="s">
         <v>468</v>
@@ -13442,7 +13442,7 @@
         <v>712</v>
       </c>
       <c r="I247">
-        <v>1.1900000000000001E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J247" t="s">
         <v>468</v>
@@ -13468,7 +13468,7 @@
         <v>713</v>
       </c>
       <c r="I248">
-        <v>1.95E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J248" t="s">
         <v>468</v>
@@ -13494,7 +13494,7 @@
         <v>714</v>
       </c>
       <c r="I249">
-        <v>5.5000000000000003E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J249" t="s">
         <v>468</v>
@@ -13520,7 +13520,7 @@
         <v>715</v>
       </c>
       <c r="I250">
-        <v>7.2800000000000002E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J250" t="s">
         <v>468</v>
@@ -13546,7 +13546,7 @@
         <v>716</v>
       </c>
       <c r="I251">
-        <v>7.2800000000000002E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J251" t="s">
         <v>468</v>
@@ -13572,7 +13572,7 @@
         <v>717</v>
       </c>
       <c r="I252">
-        <v>4.6099999999999998E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J252" t="s">
         <v>468</v>
@@ -13598,7 +13598,7 @@
         <v>718</v>
       </c>
       <c r="I253">
-        <v>3.0000000000000001E-5</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J253" t="s">
         <v>468</v>
@@ -13624,7 +13624,7 @@
         <v>719</v>
       </c>
       <c r="I254">
-        <v>3.0000000000000001E-5</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J254" t="s">
         <v>468</v>
@@ -13650,7 +13650,7 @@
         <v>720</v>
       </c>
       <c r="I255">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J255" t="s">
         <v>468</v>
@@ -13676,7 +13676,7 @@
         <v>721</v>
       </c>
       <c r="I256">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J256" t="s">
         <v>468</v>
@@ -13702,7 +13702,7 @@
         <v>722</v>
       </c>
       <c r="I257">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J257" t="s">
         <v>468</v>
@@ -13728,7 +13728,7 @@
         <v>723</v>
       </c>
       <c r="I258">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J258" t="s">
         <v>468</v>
@@ -13754,7 +13754,7 @@
         <v>724</v>
       </c>
       <c r="I259">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J259" t="s">
         <v>468</v>
@@ -13780,7 +13780,7 @@
         <v>725</v>
       </c>
       <c r="I260">
-        <v>0</v>
+        <v>4.9476000000000006E-2</v>
       </c>
       <c r="J260" t="s">
         <v>468</v>
@@ -13806,7 +13806,7 @@
         <v>726</v>
       </c>
       <c r="I261">
-        <v>2.8400000000000002E-4</v>
+        <v>7.0680000000000005E-3</v>
       </c>
       <c r="J261" t="s">
         <v>468</v>
@@ -13832,7 +13832,7 @@
         <v>727</v>
       </c>
       <c r="I262">
-        <v>0</v>
+        <v>7.0680000000000005E-3</v>
       </c>
       <c r="J262" t="s">
         <v>468</v>
@@ -13858,7 +13858,7 @@
         <v>728</v>
       </c>
       <c r="I263">
-        <v>0</v>
+        <v>7.0680000000000005E-3</v>
       </c>
       <c r="J263" t="s">
         <v>468</v>
@@ -13884,7 +13884,7 @@
         <v>729</v>
       </c>
       <c r="I264">
-        <v>1.1037E-2</v>
+        <v>3.5340000000000003E-2</v>
       </c>
       <c r="J264" t="s">
         <v>468</v>
@@ -13910,7 +13910,7 @@
         <v>730</v>
       </c>
       <c r="I265">
-        <v>8.0480000000000013E-3</v>
+        <v>7.0680000000000005E-3</v>
       </c>
       <c r="J265" t="s">
         <v>468</v>
@@ -13936,7 +13936,7 @@
         <v>731</v>
       </c>
       <c r="I266">
-        <v>6.2060000000000006E-3</v>
+        <v>7.0680000000000005E-3</v>
       </c>
       <c r="J266" t="s">
         <v>468</v>
@@ -13962,7 +13962,7 @@
         <v>732</v>
       </c>
       <c r="I267">
-        <v>4.4350000000000006E-3</v>
+        <v>4.9476000000000006E-2</v>
       </c>
       <c r="J267" t="s">
         <v>468</v>
@@ -13988,7 +13988,7 @@
         <v>733</v>
       </c>
       <c r="I268">
-        <v>2.6819999999999999E-3</v>
+        <v>4.5486000000000006E-2</v>
       </c>
       <c r="J268" t="s">
         <v>468</v>
@@ -14014,7 +14014,7 @@
         <v>734</v>
       </c>
       <c r="I269">
-        <v>0</v>
+        <v>6.4980000000000003E-3</v>
       </c>
       <c r="J269" t="s">
         <v>468</v>
@@ -14040,7 +14040,7 @@
         <v>735</v>
       </c>
       <c r="I270">
-        <v>0</v>
+        <v>6.4980000000000003E-3</v>
       </c>
       <c r="J270" t="s">
         <v>468</v>
@@ -14066,7 +14066,7 @@
         <v>736</v>
       </c>
       <c r="I271">
-        <v>1.4900000000000002E-4</v>
+        <v>6.4980000000000003E-3</v>
       </c>
       <c r="J271" t="s">
         <v>468</v>
@@ -14092,7 +14092,7 @@
         <v>737</v>
       </c>
       <c r="I272">
-        <v>2.5905999999999998E-2</v>
+        <v>3.2490000000000005E-2</v>
       </c>
       <c r="J272" t="s">
         <v>468</v>
@@ -14118,7 +14118,7 @@
         <v>738</v>
       </c>
       <c r="I273">
-        <v>8.4189999999999994E-3</v>
+        <v>6.4980000000000003E-3</v>
       </c>
       <c r="J273" t="s">
         <v>468</v>
@@ -14144,7 +14144,7 @@
         <v>739</v>
       </c>
       <c r="I274">
-        <v>1.5671000000000001E-2</v>
+        <v>6.4980000000000003E-3</v>
       </c>
       <c r="J274" t="s">
         <v>468</v>
@@ -14170,7 +14170,7 @@
         <v>740</v>
       </c>
       <c r="I275">
-        <v>3.5968E-2</v>
+        <v>4.5486000000000006E-2</v>
       </c>
       <c r="J275" t="s">
         <v>468</v>
@@ -14196,7 +14196,7 @@
         <v>741</v>
       </c>
       <c r="I276">
-        <v>5.8089999999999999E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J276" t="s">
         <v>468</v>
@@ -14222,7 +14222,7 @@
         <v>742</v>
       </c>
       <c r="I277">
-        <v>7.9399999999999991E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J277" t="s">
         <v>468</v>
@@ -14248,7 +14248,7 @@
         <v>743</v>
       </c>
       <c r="I278">
-        <v>6.3420000000000004E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J278" t="s">
         <v>468</v>
@@ -14274,7 +14274,7 @@
         <v>744</v>
       </c>
       <c r="I279">
-        <v>3.9230000000000003E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J279" t="s">
         <v>468</v>
@@ -14300,7 +14300,7 @@
         <v>745</v>
       </c>
       <c r="I280">
-        <v>3.3010000000000001E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J280" t="s">
         <v>468</v>
@@ -14326,7 +14326,7 @@
         <v>746</v>
       </c>
       <c r="I281">
-        <v>2.679E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J281" t="s">
         <v>468</v>
@@ -14352,7 +14352,7 @@
         <v>747</v>
       </c>
       <c r="I282">
-        <v>3.6120000000000002E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J282" t="s">
         <v>468</v>
@@ -14378,7 +14378,7 @@
         <v>748</v>
       </c>
       <c r="I283">
-        <v>3.6120000000000002E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J283" t="s">
         <v>468</v>
@@ -14404,7 +14404,7 @@
         <v>749</v>
       </c>
       <c r="I284">
-        <v>3.3010000000000001E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J284" t="s">
         <v>468</v>
@@ -14430,7 +14430,7 @@
         <v>750</v>
       </c>
       <c r="I285">
-        <v>3.6120000000000002E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J285" t="s">
         <v>468</v>
@@ -14456,7 +14456,7 @@
         <v>751</v>
       </c>
       <c r="I286">
-        <v>2.99E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J286" t="s">
         <v>468</v>
@@ -14482,7 +14482,7 @@
         <v>752</v>
       </c>
       <c r="I287">
-        <v>3.9230000000000003E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J287" t="s">
         <v>468</v>
@@ -14508,7 +14508,7 @@
         <v>753</v>
       </c>
       <c r="I288">
-        <v>7.4070000000000004E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J288" t="s">
         <v>468</v>
@@ -14534,7 +14534,7 @@
         <v>754</v>
       </c>
       <c r="I289">
-        <v>3.6120000000000002E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J289" t="s">
         <v>468</v>
@@ -14560,7 +14560,7 @@
         <v>755</v>
       </c>
       <c r="I290">
-        <v>7.4070000000000004E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J290" t="s">
         <v>468</v>
@@ -14586,7 +14586,7 @@
         <v>756</v>
       </c>
       <c r="I291">
-        <v>6.3420000000000004E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J291" t="s">
         <v>468</v>
@@ -14612,7 +14612,7 @@
         <v>757</v>
       </c>
       <c r="I292">
-        <v>5.2760000000000003E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J292" t="s">
         <v>468</v>
@@ -14638,7 +14638,7 @@
         <v>758</v>
       </c>
       <c r="I293">
-        <v>8.1700000000000002E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J293" t="s">
         <v>468</v>
@@ -14664,7 +14664,7 @@
         <v>759</v>
       </c>
       <c r="I294">
-        <v>3.3010000000000001E-3</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J294" t="s">
         <v>468</v>
@@ -14690,7 +14690,7 @@
         <v>760</v>
       </c>
       <c r="I295">
-        <v>8.1700000000000002E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J295" t="s">
         <v>468</v>
@@ -14716,7 +14716,7 @@
         <v>761</v>
       </c>
       <c r="I296">
-        <v>7.2800000000000002E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J296" t="s">
         <v>468</v>
@@ -14742,7 +14742,7 @@
         <v>762</v>
       </c>
       <c r="I297">
-        <v>3.7300000000000001E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J297" t="s">
         <v>468</v>
@@ -14768,7 +14768,7 @@
         <v>763</v>
       </c>
       <c r="I298">
-        <v>2.8400000000000002E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J298" t="s">
         <v>468</v>
@@ -14794,7 +14794,7 @@
         <v>764</v>
       </c>
       <c r="I299">
-        <v>3.0000000000000001E-5</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J299" t="s">
         <v>468</v>
@@ -14820,7 +14820,7 @@
         <v>765</v>
       </c>
       <c r="I300">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J300" t="s">
         <v>468</v>
@@ -14846,7 +14846,7 @@
         <v>766</v>
       </c>
       <c r="I301">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J301" t="s">
         <v>468</v>
@@ -14872,7 +14872,7 @@
         <v>767</v>
       </c>
       <c r="I302">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J302" t="s">
         <v>468</v>
@@ -14898,7 +14898,7 @@
         <v>768</v>
       </c>
       <c r="I303">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J303" t="s">
         <v>468</v>
@@ -14924,7 +14924,7 @@
         <v>769</v>
       </c>
       <c r="I304">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J304" t="s">
         <v>468</v>
@@ -14950,7 +14950,7 @@
         <v>770</v>
       </c>
       <c r="I305">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J305" t="s">
         <v>468</v>
@@ -14976,7 +14976,7 @@
         <v>771</v>
       </c>
       <c r="I306">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J306" t="s">
         <v>468</v>
@@ -15002,7 +15002,7 @@
         <v>772</v>
       </c>
       <c r="I307">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J307" t="s">
         <v>468</v>
@@ -15028,7 +15028,7 @@
         <v>773</v>
       </c>
       <c r="I308">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J308" t="s">
         <v>468</v>
@@ -15054,7 +15054,7 @@
         <v>774</v>
       </c>
       <c r="I309">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J309" t="s">
         <v>468</v>
@@ -15080,7 +15080,7 @@
         <v>775</v>
       </c>
       <c r="I310">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J310" t="s">
         <v>468</v>
@@ -15106,7 +15106,7 @@
         <v>776</v>
       </c>
       <c r="I311">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J311" t="s">
         <v>468</v>
@@ -15132,7 +15132,7 @@
         <v>777</v>
       </c>
       <c r="I312">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J312" t="s">
         <v>468</v>
@@ -15158,7 +15158,7 @@
         <v>778</v>
       </c>
       <c r="I313">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J313" t="s">
         <v>468</v>
@@ -15184,7 +15184,7 @@
         <v>779</v>
       </c>
       <c r="I314">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J314" t="s">
         <v>468</v>
@@ -15210,7 +15210,7 @@
         <v>780</v>
       </c>
       <c r="I315">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J315" t="s">
         <v>468</v>
@@ -15236,7 +15236,7 @@
         <v>781</v>
       </c>
       <c r="I316">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J316" t="s">
         <v>468</v>
@@ -15262,7 +15262,7 @@
         <v>782</v>
       </c>
       <c r="I317">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J317" t="s">
         <v>468</v>
@@ -15288,7 +15288,7 @@
         <v>783</v>
       </c>
       <c r="I318">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J318" t="s">
         <v>468</v>
@@ -15314,7 +15314,7 @@
         <v>784</v>
       </c>
       <c r="I319">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J319" t="s">
         <v>468</v>
@@ -15340,7 +15340,7 @@
         <v>785</v>
       </c>
       <c r="I320">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J320" t="s">
         <v>468</v>
@@ -15366,7 +15366,7 @@
         <v>786</v>
       </c>
       <c r="I321">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J321" t="s">
         <v>468</v>
@@ -15392,7 +15392,7 @@
         <v>787</v>
       </c>
       <c r="I322">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J322" t="s">
         <v>468</v>
@@ -15418,7 +15418,7 @@
         <v>788</v>
       </c>
       <c r="I323">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J323" t="s">
         <v>468</v>
@@ -15444,7 +15444,7 @@
         <v>789</v>
       </c>
       <c r="I324">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J324" t="s">
         <v>468</v>
@@ -15470,7 +15470,7 @@
         <v>790</v>
       </c>
       <c r="I325">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J325" t="s">
         <v>468</v>
@@ -15496,7 +15496,7 @@
         <v>791</v>
       </c>
       <c r="I326">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J326" t="s">
         <v>468</v>
@@ -15522,7 +15522,7 @@
         <v>792</v>
       </c>
       <c r="I327">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J327" t="s">
         <v>468</v>
@@ -15548,7 +15548,7 @@
         <v>793</v>
       </c>
       <c r="I328">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J328" t="s">
         <v>468</v>
@@ -15574,7 +15574,7 @@
         <v>794</v>
       </c>
       <c r="I329">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J329" t="s">
         <v>468</v>
@@ -15600,7 +15600,7 @@
         <v>795</v>
       </c>
       <c r="I330">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J330" t="s">
         <v>468</v>
@@ -15626,7 +15626,7 @@
         <v>796</v>
       </c>
       <c r="I331">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J331" t="s">
         <v>468</v>
@@ -15652,7 +15652,7 @@
         <v>797</v>
       </c>
       <c r="I332">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J332" t="s">
         <v>468</v>
@@ -15678,7 +15678,7 @@
         <v>798</v>
       </c>
       <c r="I333">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J333" t="s">
         <v>468</v>
@@ -15704,7 +15704,7 @@
         <v>799</v>
       </c>
       <c r="I334">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J334" t="s">
         <v>468</v>
@@ -15730,7 +15730,7 @@
         <v>800</v>
       </c>
       <c r="I335">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J335" t="s">
         <v>468</v>
@@ -15756,7 +15756,7 @@
         <v>801</v>
       </c>
       <c r="I336">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J336" t="s">
         <v>468</v>
@@ -15782,7 +15782,7 @@
         <v>802</v>
       </c>
       <c r="I337">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J337" t="s">
         <v>468</v>
@@ -15808,7 +15808,7 @@
         <v>803</v>
       </c>
       <c r="I338">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J338" t="s">
         <v>468</v>
@@ -15834,7 +15834,7 @@
         <v>804</v>
       </c>
       <c r="I339">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J339" t="s">
         <v>468</v>
@@ -15860,7 +15860,7 @@
         <v>805</v>
       </c>
       <c r="I340">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J340" t="s">
         <v>468</v>
@@ -15886,7 +15886,7 @@
         <v>806</v>
       </c>
       <c r="I341">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J341" t="s">
         <v>468</v>
@@ -15912,7 +15912,7 @@
         <v>807</v>
       </c>
       <c r="I342">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J342" t="s">
         <v>468</v>
@@ -15938,7 +15938,7 @@
         <v>808</v>
       </c>
       <c r="I343">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J343" t="s">
         <v>468</v>
@@ -15964,7 +15964,7 @@
         <v>809</v>
       </c>
       <c r="I344">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J344" t="s">
         <v>468</v>
@@ -15990,7 +15990,7 @@
         <v>810</v>
       </c>
       <c r="I345">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J345" t="s">
         <v>468</v>
@@ -16016,7 +16016,7 @@
         <v>811</v>
       </c>
       <c r="I346">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J346" t="s">
         <v>468</v>
@@ -16042,7 +16042,7 @@
         <v>812</v>
       </c>
       <c r="I347">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J347" t="s">
         <v>468</v>
@@ -16068,7 +16068,7 @@
         <v>813</v>
       </c>
       <c r="I348">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J348" t="s">
         <v>468</v>
@@ -16094,7 +16094,7 @@
         <v>814</v>
       </c>
       <c r="I349">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J349" t="s">
         <v>468</v>
@@ -16120,7 +16120,7 @@
         <v>815</v>
       </c>
       <c r="I350">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J350" t="s">
         <v>468</v>
@@ -16146,7 +16146,7 @@
         <v>816</v>
       </c>
       <c r="I351">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J351" t="s">
         <v>468</v>
@@ -16172,7 +16172,7 @@
         <v>817</v>
       </c>
       <c r="I352">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J352" t="s">
         <v>468</v>
@@ -16198,7 +16198,7 @@
         <v>818</v>
       </c>
       <c r="I353">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J353" t="s">
         <v>468</v>
@@ -16224,7 +16224,7 @@
         <v>819</v>
       </c>
       <c r="I354">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J354" t="s">
         <v>468</v>
@@ -16250,7 +16250,7 @@
         <v>820</v>
       </c>
       <c r="I355">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J355" t="s">
         <v>468</v>
@@ -16276,7 +16276,7 @@
         <v>821</v>
       </c>
       <c r="I356">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J356" t="s">
         <v>468</v>
@@ -16302,7 +16302,7 @@
         <v>822</v>
       </c>
       <c r="I357">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J357" t="s">
         <v>468</v>
@@ -16328,7 +16328,7 @@
         <v>823</v>
       </c>
       <c r="I358">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J358" t="s">
         <v>468</v>
@@ -16354,7 +16354,7 @@
         <v>824</v>
       </c>
       <c r="I359">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J359" t="s">
         <v>468</v>
@@ -16380,7 +16380,7 @@
         <v>825</v>
       </c>
       <c r="I360">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J360" t="s">
         <v>468</v>
@@ -16406,7 +16406,7 @@
         <v>826</v>
       </c>
       <c r="I361">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J361" t="s">
         <v>468</v>
@@ -16432,7 +16432,7 @@
         <v>827</v>
       </c>
       <c r="I362">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J362" t="s">
         <v>468</v>
@@ -16458,7 +16458,7 @@
         <v>828</v>
       </c>
       <c r="I363">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J363" t="s">
         <v>468</v>
@@ -16484,7 +16484,7 @@
         <v>829</v>
       </c>
       <c r="I364">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J364" t="s">
         <v>468</v>
@@ -16510,7 +16510,7 @@
         <v>830</v>
       </c>
       <c r="I365">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J365" t="s">
         <v>468</v>
@@ -16536,7 +16536,7 @@
         <v>831</v>
       </c>
       <c r="I366">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J366" t="s">
         <v>468</v>
@@ -16562,7 +16562,7 @@
         <v>832</v>
       </c>
       <c r="I367">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J367" t="s">
         <v>468</v>
@@ -16588,7 +16588,7 @@
         <v>833</v>
       </c>
       <c r="I368">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J368" t="s">
         <v>468</v>
@@ -16614,7 +16614,7 @@
         <v>834</v>
       </c>
       <c r="I369">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J369" t="s">
         <v>468</v>
@@ -16640,7 +16640,7 @@
         <v>835</v>
       </c>
       <c r="I370">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J370" t="s">
         <v>468</v>
@@ -16666,7 +16666,7 @@
         <v>836</v>
       </c>
       <c r="I371">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J371" t="s">
         <v>468</v>
@@ -16692,7 +16692,7 @@
         <v>837</v>
       </c>
       <c r="I372">
-        <v>1.5316000000000001E-2</v>
+        <v>2.3142000000000003E-2</v>
       </c>
       <c r="J372" t="s">
         <v>468</v>
@@ -16718,7 +16718,7 @@
         <v>838</v>
       </c>
       <c r="I373">
-        <v>1.9060000000000001E-3</v>
+        <v>3.3060000000000003E-3</v>
       </c>
       <c r="J373" t="s">
         <v>468</v>
@@ -16744,7 +16744,7 @@
         <v>839</v>
       </c>
       <c r="I374">
-        <v>1.3680000000000001E-3</v>
+        <v>3.3060000000000003E-3</v>
       </c>
       <c r="J374" t="s">
         <v>468</v>
@@ -16770,7 +16770,7 @@
         <v>840</v>
       </c>
       <c r="I375">
-        <v>3.1470000000000001E-3</v>
+        <v>3.3060000000000003E-3</v>
       </c>
       <c r="J375" t="s">
         <v>468</v>
@@ -16796,7 +16796,7 @@
         <v>841</v>
       </c>
       <c r="I376">
-        <v>0.14430100000000001</v>
+        <v>1.6623000000000002E-2</v>
       </c>
       <c r="J376" t="s">
         <v>468</v>
@@ -16822,7 +16822,7 @@
         <v>842</v>
       </c>
       <c r="I377">
-        <v>1.864E-2</v>
+        <v>3.3060000000000003E-3</v>
       </c>
       <c r="J377" t="s">
         <v>468</v>
@@ -16848,7 +16848,7 @@
         <v>843</v>
       </c>
       <c r="I378">
-        <v>1.4532E-2</v>
+        <v>3.3060000000000003E-3</v>
       </c>
       <c r="J378" t="s">
         <v>468</v>
@@ -16874,7 +16874,7 @@
         <v>844</v>
       </c>
       <c r="I379">
-        <v>1.9730999999999999E-2</v>
+        <v>2.3142000000000003E-2</v>
       </c>
       <c r="J379" t="s">
         <v>468</v>
@@ -16900,7 +16900,7 @@
         <v>845</v>
       </c>
       <c r="I380">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J380" t="s">
         <v>468</v>
@@ -16926,7 +16926,7 @@
         <v>846</v>
       </c>
       <c r="I381">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J381" t="s">
         <v>468</v>
@@ -16952,7 +16952,7 @@
         <v>847</v>
       </c>
       <c r="I382">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J382" t="s">
         <v>468</v>
@@ -16978,7 +16978,7 @@
         <v>848</v>
       </c>
       <c r="I383">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J383" t="s">
         <v>468</v>
@@ -17004,7 +17004,7 @@
         <v>849</v>
       </c>
       <c r="I384">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J384" t="s">
         <v>468</v>
@@ -17030,7 +17030,7 @@
         <v>850</v>
       </c>
       <c r="I385">
-        <v>3.0000000000000001E-5</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J385" t="s">
         <v>468</v>
@@ -17056,7 +17056,7 @@
         <v>851</v>
       </c>
       <c r="I386">
-        <v>1.95E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J386" t="s">
         <v>468</v>
@@ -17082,7 +17082,7 @@
         <v>852</v>
       </c>
       <c r="I387">
-        <v>1.1900000000000001E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J387" t="s">
         <v>468</v>
@@ -17108,7 +17108,7 @@
         <v>853</v>
       </c>
       <c r="I388">
-        <v>1.1900000000000001E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J388" t="s">
         <v>468</v>
@@ -17134,7 +17134,7 @@
         <v>854</v>
       </c>
       <c r="I389">
-        <v>2.8400000000000002E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J389" t="s">
         <v>468</v>
@@ -17160,7 +17160,7 @@
         <v>855</v>
       </c>
       <c r="I390">
-        <v>4.6099999999999998E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J390" t="s">
         <v>468</v>
@@ -17186,7 +17186,7 @@
         <v>856</v>
       </c>
       <c r="I391">
-        <v>3.7300000000000001E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J391" t="s">
         <v>468</v>
@@ -17212,7 +17212,7 @@
         <v>857</v>
       </c>
       <c r="I392">
-        <v>2.8400000000000002E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J392" t="s">
         <v>468</v>
@@ -17238,7 +17238,7 @@
         <v>858</v>
       </c>
       <c r="I393">
-        <v>1.95E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J393" t="s">
         <v>468</v>
@@ -17264,7 +17264,7 @@
         <v>859</v>
       </c>
       <c r="I394">
-        <v>3.0000000000000001E-5</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J394" t="s">
         <v>468</v>
@@ -17290,7 +17290,7 @@
         <v>860</v>
       </c>
       <c r="I395">
-        <v>3.0000000000000001E-5</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J395" t="s">
         <v>468</v>
@@ -17316,7 +17316,7 @@
         <v>861</v>
       </c>
       <c r="I396">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J396" t="s">
         <v>468</v>
@@ -17342,7 +17342,7 @@
         <v>862</v>
       </c>
       <c r="I397">
-        <v>3.0000000000000001E-5</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J397" t="s">
         <v>468</v>
@@ -17368,7 +17368,7 @@
         <v>863</v>
       </c>
       <c r="I398">
-        <v>3.0000000000000001E-5</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J398" t="s">
         <v>468</v>
@@ -17394,7 +17394,7 @@
         <v>864</v>
       </c>
       <c r="I399">
-        <v>3.0000000000000001E-5</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J399" t="s">
         <v>468</v>
@@ -17420,7 +17420,7 @@
         <v>865</v>
       </c>
       <c r="I400">
-        <v>1.1900000000000001E-4</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J400" t="s">
         <v>468</v>
@@ -17446,7 +17446,7 @@
         <v>866</v>
       </c>
       <c r="I401">
-        <v>3.0000000000000001E-5</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J401" t="s">
         <v>468</v>
@@ -17472,7 +17472,7 @@
         <v>867</v>
       </c>
       <c r="I402">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J402" t="s">
         <v>468</v>
@@ -17498,7 +17498,7 @@
         <v>868</v>
       </c>
       <c r="I403">
-        <v>0</v>
+        <v>1.1400000000000001E-4</v>
       </c>
       <c r="J403" t="s">
         <v>468</v>
@@ -17524,7 +17524,7 @@
         <v>869</v>
       </c>
       <c r="I404">
-        <v>2.287E-3</v>
+        <v>2.4738000000000003E-2</v>
       </c>
       <c r="J404" t="s">
         <v>468</v>
@@ -17550,7 +17550,7 @@
         <v>870</v>
       </c>
       <c r="I405">
-        <v>1.1900000000000001E-4</v>
+        <v>3.5340000000000002E-3</v>
       </c>
       <c r="J405" t="s">
         <v>468</v>
@@ -17576,7 +17576,7 @@
         <v>871</v>
       </c>
       <c r="I406">
-        <v>1.1900000000000001E-4</v>
+        <v>3.5340000000000002E-3</v>
       </c>
       <c r="J406" t="s">
         <v>468</v>
@@ -17602,7 +17602,7 @@
         <v>872</v>
       </c>
       <c r="I407">
-        <v>0</v>
+        <v>3.5340000000000002E-3</v>
       </c>
       <c r="J407" t="s">
         <v>468</v>
@@ -17628,7 +17628,7 @@
         <v>873</v>
       </c>
       <c r="I408">
-        <v>6.87E-4</v>
+        <v>1.7670000000000002E-2</v>
       </c>
       <c r="J408" t="s">
         <v>468</v>
@@ -17654,7 +17654,7 @@
         <v>874</v>
       </c>
       <c r="I409">
-        <v>1.1000000000000001E-3</v>
+        <v>3.5340000000000002E-3</v>
       </c>
       <c r="J409" t="s">
         <v>468</v>
@@ -17680,7 +17680,7 @@
         <v>875</v>
       </c>
       <c r="I410">
-        <v>4.7900000000000004E-4</v>
+        <v>3.5340000000000002E-3</v>
       </c>
       <c r="J410" t="s">
         <v>468</v>
@@ -17706,7 +17706,7 @@
         <v>876</v>
       </c>
       <c r="I411">
-        <v>5.2300000000000003E-4</v>
+        <v>2.4738000000000003E-2</v>
       </c>
       <c r="J411" t="s">
         <v>468</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCD1EBC-0101-4654-B5E4-2001A6B468B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1936EC57-65C9-4AB9-BBB4-9F2A1EAC78D0}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AFEE15-B046-4574-9B27-C26BC54A7E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4593749B-E3FA-4B81-B312-1A15EA9C702C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="12683" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0201h10,S1b0201h12,S2d0415h08,S2d0415h10,S2d0415h13,S2e0416h09,S2f0420h14,S2i0429h18,S2j0518h14,S4aH2,S4m1019h14,S4o1023h07,S4o1023h16,S1aH4,S1b0201h08,S2aH2,S2f0420h17,S2i0429h16,S4aH6,S4l0918h18,S4n1020h12,S4n1020h18,S4o1023h15,S1b0201h13,S1b0201h15,S2e0416h10,S2e0416h14,S2e0416h17,S2f0420h10,S2i0429h17,S2k0531h14,S4m1019h12,S4n1020h08,S4n1020h11,S1aH2,S1aH7,S1c0205h10,S2aH3,S2e0416h07,S2f0420h09,S2f0420h18,S2i0429h08,S2j0518h11,S2j0518h15,S2j0518h17,S2k0531h18,S3aH6,S4aH7,S4l0918h08,S4o1023h11,S5aH6,S5aH7,S6aH6,S1aH6,S1b0201h11,S1b0201h14,S1b0201h16,S1b0201h17,S1b0201h18,S2g0421h11,S2g0421h12,S2g0421h14,S2h0427h12,S2h0427h15,S2j0518h13,S2k0531h13,S2k0531h16,S4l0918h09,S4l0918h11,S5p1104h10,S5p1104h18,S1aH3,S2e0416h11,S2e0416h18,S2i0429h11,S2i0429h12,S2i0429h15,S2j0518h16,S2j0518h18,S2k0531h17,S4l0918h10,S4l0918h12,S4l0918h13,S4l0918h17,S4m1019h11,S4n1020h15,S5p1104h15,S2d0415h16,S2e0416h13,S2f0420h12,S2f0420h15,S2g0421h17,S2h0427h08,S2j0518h07,S2k0531h12,S3aH2,S4o1023h14,S5p1104h12,S1b0201h07,S2d0415h12,S2g0421h16,S2j0518h08,S4aH5,S4l0918h16,S5p1104h07,S1aH5,S1c0205h16,S2aH4,S2aH5,S2d0415h11,S2d0415h17,S2e0416h16,S2g0421h08,S2g0421h13,S2h0427h07,S2h0427h11,S2k0531h10,S4m1019h09,S4m1019h18,S4o1023h17,S5aH2,S5aH5,S5p1104h16,S6aH2,S1c0205h18,S2d0415h18,S2e0416h08,S2f0420h16,S4l0918h15,S5aH4,S5p1104h13,S5p1104h17,S6aH3,S6aH4,S1c0205h09,S1c0205h11,S2aH7,S2d0415h09,S2h0427h16,S2k0531h15,S3aH4,S4aH3,S4aH4,S4m1019h10,S4m1019h16,S5p1104h09,S5p1104h11,S1c0205h12,S1c0205h14,S2e0416h12,S2g0421h07,S2g0421h18,S2h0427h13,S2h0427h17,S2i0429h10,S2k0531h07,S2k0531h09,S4m1019h07,S4m1019h08,S4m1019h17,S4n1020h09,S4n1020h16,S4o1023h10,S4o1023h13,S6aH7,S1c0205h07,S1c0205h08,S2d0415h14,S2d0415h15,S2i0429h07,S2i0429h09,S2i0429h14,S4n1020h10,S4n1020h13,S4n1020h14,S4n1020h17,S4o1023h08,S4o1023h12,S6aH5,S1b0201h09,S1c0205h17,S2aH6,S2e0416h15,S2f0420h13,S2g0421h10,S2g0421h15,S2h0427h18,S2j0518h09,S2j0518h12,S2k0531h08,S3aH5,S4m1019h13,S4m1019h15,S4o1023h09,S5aH3,S5p1104h08,S1c0205h13,S2d0415h07,S2f0420h08,S2f0420h11,S2h0427h09,S2h0427h14,S2i0429h13,S3aH7,S4l0918h07,S4l0918h14,S4o1023h18,S1c0205h15,S2f0420h07,S2g0421h09,S2h0427h10,S2j0518h10,S2k0531h11,S3aH3,S4n1020h07,S5p1104h14</t>
-  </si>
-  <si>
-    <t>S2aH1,S2g0421h02,S2g0421h03,S2h0427h05,S2h0427h06,S2i0429h19,S2k0531h19,S4l0918h01,S4m1019h22,S4n1020h23,S4o1023h20,S4o1023h24,S5aH8,S5p1104h03,S1b0201h20,S1b0201h24,S2d0415h05,S2f0420h01,S2h0427h01,S4aH1,S4l0918h24,S4n1020h02,S4o1023h19,S6aH1,S1aH1,S1b0201h23,S2d0415h22,S2f0420h21,S2g0421h24,S2i0429h03,S4n1020h03,S4n1020h20,S1b0201h03,S1b0201h06,S1c0205h02,S1c0205h05,S2d0415h24,S2e0416h20,S2e0416h23,S2f0420h03,S2h0427h03,S2h0427h23,S2i0429h21,S2j0518h06,S2k0531h05,S4l0918h21,S4m1019h23,S4n1020h24,S4o1023h02,S4o1023h21,S5p1104h01,S1b0201h19,S1c0205h06,S2d0415h21,S2g0421h04,S2i0429h04,S4l0918h20,S4m1019h02,S4n1020h21,S4o1023h05,S5p1104h22,S6aH8,S1b0201h02,S2d0415h03,S2d0415h20,S2g0421h05,S2g0421h23,S2h0427h20,S2h0427h21,S2i0429h20,S2j0518h01,S2j0518h19,S2j0518h23,S4l0918h06,S4m1019h20,S4n1020h19,S1c0205h24,S2d0415h04,S2h0427h04,S2k0531h21,S3aH8,S4m1019h01,S5p1104h21,S1c0205h23,S2e0416h02,S2e0416h04,S2f0420h22,S2h0427h22,S2i0429h24,S2j0518h03,S2j0518h24,S4n1020h01,S5p1104h02,S1c0205h04,S1c0205h19,S1c0205h22,S2f0420h04,S2j0518h05,S4l0918h23,S4m1019h19,S4n1020h04,S4n1020h06,S2d0415h01,S2d0415h02,S2d0415h06,S2d0415h19,S2g0421h19,S2h0427h24,S2i0429h06,S2k0531h01,S2k0531h23,S4l0918h04,S4m1019h03,S4m1019h05,S4m1019h21,S1b0201h05,S1c0205h01,S1c0205h20,S2f0420h05,S2f0420h24,S2g0421h06,S2h0427h19,S2j0518h20,S2k0531h06,S4m1019h04,S4o1023h03,S5p1104h20,S1b0201h21,S1c0205h21,S2e0416h21,S2e0416h24,S2f0420h06,S2f0420h23,S2h0427h02,S2j0518h02,S2j0518h22,S2k0531h02,S2k0531h03,S3aH1,S4l0918h19,S4o1023h06,S4o1023h22,S1b0201h04,S2e0416h03,S2e0416h05,S2e0416h06,S2e0416h22,S2f0420h02,S2i0429h05,S2k0531h20,S2k0531h22,S4aH8,S4l0918h03,S4o1023h01,S4o1023h23,S5p1104h06,S5p1104h23,S1aH8,S1b0201h22,S1c0205h03,S2d0415h23,S2g0421h01,S2g0421h20,S2i0429h01,S2j0518h04,S2j0518h21,S4m1019h06,S4o1023h04,S5aH1,S5p1104h05,S2aH8,S2e0416h19,S2f0420h19,S2g0421h22,S2i0429h02,S2i0429h22,S2i0429h23,S2k0531h04,S2k0531h24,S4l0918h02,S4l0918h05,S4m1019h24,S4n1020h05,S4n1020h22,S5p1104h04,S5p1104h24,S1b0201h01,S2e0416h01,S2f0420h20,S2g0421h21,S4l0918h22,S5p1104h19</t>
+    <t>S1c0205h13,S2d0415h07,S2f0420h08,S2f0420h11,S2h0427h09,S2h0427h14,S2i0429h13,S3aH7,S4l0918h07,S4l0918h14,S4o1023h18,S1c0205h07,S1c0205h08,S2d0415h14,S2d0415h15,S2i0429h07,S2i0429h09,S2i0429h14,S4n1020h10,S4n1020h13,S4n1020h14,S4n1020h17,S4o1023h08,S4o1023h12,S6aH5,S1b0201h13,S1b0201h15,S2e0416h10,S2e0416h14,S2e0416h17,S2f0420h10,S2i0429h17,S2k0531h14,S4m1019h12,S4n1020h08,S4n1020h11,S1aH3,S2e0416h11,S2e0416h18,S2i0429h11,S2i0429h12,S2i0429h15,S2j0518h16,S2j0518h18,S2k0531h17,S4l0918h10,S4l0918h12,S4l0918h13,S4l0918h17,S4m1019h11,S4n1020h15,S5p1104h15,S2d0415h16,S2e0416h13,S2f0420h12,S2f0420h15,S2g0421h17,S2h0427h08,S2j0518h07,S2k0531h12,S3aH2,S4o1023h14,S5p1104h12,S1c0205h15,S2f0420h07,S2g0421h09,S2h0427h10,S2j0518h10,S2k0531h11,S3aH3,S4n1020h07,S5p1104h14,S1aH5,S1c0205h16,S2aH4,S2aH5,S2d0415h11,S2d0415h17,S2e0416h16,S2g0421h08,S2g0421h13,S2h0427h07,S2h0427h11,S2k0531h10,S4m1019h09,S4m1019h18,S4o1023h17,S5aH2,S5aH5,S5p1104h16,S6aH2,S1c0205h12,S1c0205h14,S2e0416h12,S2g0421h07,S2g0421h18,S2h0427h13,S2h0427h17,S2i0429h10,S2k0531h07,S2k0531h09,S4m1019h07,S4m1019h08,S4m1019h17,S4n1020h09,S4n1020h16,S4o1023h10,S4o1023h13,S6aH7,S1b0201h10,S1b0201h12,S2d0415h08,S2d0415h10,S2d0415h13,S2e0416h09,S2f0420h14,S2i0429h18,S2j0518h14,S4aH2,S4m1019h14,S4o1023h07,S4o1023h16,S1aH4,S1b0201h08,S2aH2,S2f0420h17,S2i0429h16,S4aH6,S4l0918h18,S4n1020h12,S4n1020h18,S4o1023h15,S1aH6,S1b0201h11,S1b0201h14,S1b0201h16,S1b0201h17,S1b0201h18,S2g0421h11,S2g0421h12,S2g0421h14,S2h0427h12,S2h0427h15,S2j0518h13,S2k0531h13,S2k0531h16,S4l0918h09,S4l0918h11,S5p1104h10,S5p1104h18,S1b0201h09,S1c0205h17,S2aH6,S2e0416h15,S2f0420h13,S2g0421h10,S2g0421h15,S2h0427h18,S2j0518h09,S2j0518h12,S2k0531h08,S3aH5,S4m1019h13,S4m1019h15,S4o1023h09,S5aH3,S5p1104h08,S1aH2,S1aH7,S1c0205h10,S2aH3,S2e0416h07,S2f0420h09,S2f0420h18,S2i0429h08,S2j0518h11,S2j0518h15,S2j0518h17,S2k0531h18,S3aH6,S4aH7,S4l0918h08,S4o1023h11,S5aH6,S5aH7,S6aH6,S1b0201h07,S2d0415h12,S2g0421h16,S2j0518h08,S4aH5,S4l0918h16,S5p1104h07,S1c0205h18,S2d0415h18,S2e0416h08,S2f0420h16,S4l0918h15,S5aH4,S5p1104h13,S5p1104h17,S6aH3,S6aH4,S1c0205h09,S1c0205h11,S2aH7,S2d0415h09,S2h0427h16,S2k0531h15,S3aH4,S4aH3,S4aH4,S4m1019h10,S4m1019h16,S5p1104h09,S5p1104h11</t>
+  </si>
+  <si>
+    <t>S2aH8,S2e0416h19,S2f0420h19,S2g0421h22,S2i0429h02,S2i0429h22,S2i0429h23,S2k0531h04,S2k0531h24,S4l0918h02,S4l0918h05,S4m1019h24,S4n1020h05,S4n1020h22,S5p1104h04,S5p1104h24,S1b0201h04,S2e0416h03,S2e0416h05,S2e0416h06,S2e0416h22,S2f0420h02,S2i0429h05,S2k0531h20,S2k0531h22,S4aH8,S4l0918h03,S4o1023h01,S4o1023h23,S5p1104h06,S5p1104h23,S1aH1,S1b0201h23,S2d0415h22,S2f0420h21,S2g0421h24,S2i0429h03,S4n1020h03,S4n1020h20,S1b0201h02,S2d0415h03,S2d0415h20,S2g0421h05,S2g0421h23,S2h0427h20,S2h0427h21,S2i0429h20,S2j0518h01,S2j0518h19,S2j0518h23,S4l0918h06,S4m1019h20,S4n1020h19,S1c0205h24,S2d0415h04,S2h0427h04,S2k0531h21,S3aH8,S4m1019h01,S5p1104h21,S1b0201h01,S2e0416h01,S2f0420h20,S2g0421h21,S4l0918h22,S5p1104h19,S1c0205h04,S1c0205h19,S1c0205h22,S2f0420h04,S2j0518h05,S4l0918h23,S4m1019h19,S4n1020h04,S4n1020h06,S1b0201h21,S1c0205h21,S2e0416h21,S2e0416h24,S2f0420h06,S2f0420h23,S2h0427h02,S2j0518h02,S2j0518h22,S2k0531h02,S2k0531h03,S3aH1,S4l0918h19,S4o1023h06,S4o1023h22,S2aH1,S2g0421h02,S2g0421h03,S2h0427h05,S2h0427h06,S2i0429h19,S2k0531h19,S4l0918h01,S4m1019h22,S4n1020h23,S4o1023h20,S4o1023h24,S5aH8,S5p1104h03,S1b0201h20,S1b0201h24,S2d0415h05,S2f0420h01,S2h0427h01,S4aH1,S4l0918h24,S4n1020h02,S4o1023h19,S6aH1,S1b0201h19,S1c0205h06,S2d0415h21,S2g0421h04,S2i0429h04,S4l0918h20,S4m1019h02,S4n1020h21,S4o1023h05,S5p1104h22,S6aH8,S1aH8,S1b0201h22,S1c0205h03,S2d0415h23,S2g0421h01,S2g0421h20,S2i0429h01,S2j0518h04,S2j0518h21,S4m1019h06,S4o1023h04,S5aH1,S5p1104h05,S1b0201h03,S1b0201h06,S1c0205h02,S1c0205h05,S2d0415h24,S2e0416h20,S2e0416h23,S2f0420h03,S2h0427h03,S2h0427h23,S2i0429h21,S2j0518h06,S2k0531h05,S4l0918h21,S4m1019h23,S4n1020h24,S4o1023h02,S4o1023h21,S5p1104h01,S1c0205h23,S2e0416h02,S2e0416h04,S2f0420h22,S2h0427h22,S2i0429h24,S2j0518h03,S2j0518h24,S4n1020h01,S5p1104h02,S2d0415h01,S2d0415h02,S2d0415h06,S2d0415h19,S2g0421h19,S2h0427h24,S2i0429h06,S2k0531h01,S2k0531h23,S4l0918h04,S4m1019h03,S4m1019h05,S4m1019h21,S1b0201h05,S1c0205h01,S1c0205h20,S2f0420h05,S2f0420h24,S2g0421h06,S2h0427h19,S2j0518h20,S2k0531h06,S4m1019h04,S4o1023h03,S5p1104h20</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH1,S2g0421h02,S2g0421h03,S2h0427h05,S2h0427h06,S2i0429h19,S2k0531h19,S4l0918h01,S4m1019h22,S4n1020h23,S4o1023h20,S4o1023h24,S5aH8,S5p1104h03,S1b0201h20,S1b0201h24,S2d0415h05,S2f0420h01,S2h0427h01,S4aH1,S4l0918h24,S4n1020h02,S4o1023h19,S6aH1,S1aH1,S1b0201h23,S2d0415h22,S2f0420h21,S2g0421h24,S2i0429h03,S4n1020h03,S4n1020h20,S1b0201h03,S1b0201h06,S1c0205h02,S1c0205h05,S2d0415h24,S2e0416h20,S2e0416h23,S2f0420h03,S2h0427h03,S2h0427h23,S2i0429h21,S2j0518h06,S2k0531h05,S4l0918h21,S4m1019h23,S4n1020h24,S4o1023h02,S4o1023h21,S5p1104h01,S1b0201h19,S1c0205h06,S2d0415h21,S2g0421h04,S2i0429h04,S4l0918h20,S4m1019h02,S4n1020h21,S4o1023h05,S5p1104h22,S6aH8,S1b0201h02,S2d0415h03,S2d0415h20,S2g0421h05,S2g0421h23,S2h0427h20,S2h0427h21,S2i0429h20,S2j0518h01,S2j0518h19,S2j0518h23,S4l0918h06,S4m1019h20,S4n1020h19,S1c0205h24,S2d0415h04,S2h0427h04,S2k0531h21,S3aH8,S4m1019h01,S5p1104h21,S1c0205h23,S2e0416h02,S2e0416h04,S2f0420h22,S2h0427h22,S2i0429h24,S2j0518h03,S2j0518h24,S4n1020h01,S5p1104h02,S1c0205h04,S1c0205h19,S1c0205h22,S2f0420h04,S2j0518h05,S4l0918h23,S4m1019h19,S4n1020h04,S4n1020h06,S2d0415h01,S2d0415h02,S2d0415h06,S2d0415h19,S2g0421h19,S2h0427h24,S2i0429h06,S2k0531h01,S2k0531h23,S4l0918h04,S4m1019h03,S4m1019h05,S4m1019h21,S1b0201h05,S1c0205h01,S1c0205h20,S2f0420h05,S2f0420h24,S2g0421h06,S2h0427h19,S2j0518h20,S2k0531h06,S4m1019h04,S4o1023h03,S5p1104h20,S1b0201h21,S1c0205h21,S2e0416h21,S2e0416h24,S2f0420h06,S2f0420h23,S2h0427h02,S2j0518h02,S2j0518h22,S2k0531h02,S2k0531h03,S3aH1,S4l0918h19,S4o1023h06,S4o1023h22,S1b0201h04,S2e0416h03,S2e0416h05,S2e0416h06,S2e0416h22,S2f0420h02,S2i0429h05,S2k0531h20,S2k0531h22,S4aH8,S4l0918h03,S4o1023h01,S4o1023h23,S5p1104h06,S5p1104h23,S1aH8,S1b0201h22,S1c0205h03,S2d0415h23,S2g0421h01,S2g0421h20,S2i0429h01,S2j0518h04,S2j0518h21,S4m1019h06,S4o1023h04,S5aH1,S5p1104h05,S2aH8,S2e0416h19,S2f0420h19,S2g0421h22,S2i0429h02,S2i0429h22,S2i0429h23,S2k0531h04,S2k0531h24,S4l0918h02,S4l0918h05,S4m1019h24,S4n1020h05,S4n1020h22,S5p1104h04,S5p1104h24,S1b0201h01,S2e0416h01,S2f0420h20,S2g0421h21,S4l0918h22,S5p1104h19</v>
+        <v>S2aH8,S2e0416h19,S2f0420h19,S2g0421h22,S2i0429h02,S2i0429h22,S2i0429h23,S2k0531h04,S2k0531h24,S4l0918h02,S4l0918h05,S4m1019h24,S4n1020h05,S4n1020h22,S5p1104h04,S5p1104h24,S1b0201h04,S2e0416h03,S2e0416h05,S2e0416h06,S2e0416h22,S2f0420h02,S2i0429h05,S2k0531h20,S2k0531h22,S4aH8,S4l0918h03,S4o1023h01,S4o1023h23,S5p1104h06,S5p1104h23,S1aH1,S1b0201h23,S2d0415h22,S2f0420h21,S2g0421h24,S2i0429h03,S4n1020h03,S4n1020h20,S1b0201h02,S2d0415h03,S2d0415h20,S2g0421h05,S2g0421h23,S2h0427h20,S2h0427h21,S2i0429h20,S2j0518h01,S2j0518h19,S2j0518h23,S4l0918h06,S4m1019h20,S4n1020h19,S1c0205h24,S2d0415h04,S2h0427h04,S2k0531h21,S3aH8,S4m1019h01,S5p1104h21,S1b0201h01,S2e0416h01,S2f0420h20,S2g0421h21,S4l0918h22,S5p1104h19,S1c0205h04,S1c0205h19,S1c0205h22,S2f0420h04,S2j0518h05,S4l0918h23,S4m1019h19,S4n1020h04,S4n1020h06,S1b0201h21,S1c0205h21,S2e0416h21,S2e0416h24,S2f0420h06,S2f0420h23,S2h0427h02,S2j0518h02,S2j0518h22,S2k0531h02,S2k0531h03,S3aH1,S4l0918h19,S4o1023h06,S4o1023h22,S2aH1,S2g0421h02,S2g0421h03,S2h0427h05,S2h0427h06,S2i0429h19,S2k0531h19,S4l0918h01,S4m1019h22,S4n1020h23,S4o1023h20,S4o1023h24,S5aH8,S5p1104h03,S1b0201h20,S1b0201h24,S2d0415h05,S2f0420h01,S2h0427h01,S4aH1,S4l0918h24,S4n1020h02,S4o1023h19,S6aH1,S1b0201h19,S1c0205h06,S2d0415h21,S2g0421h04,S2i0429h04,S4l0918h20,S4m1019h02,S4n1020h21,S4o1023h05,S5p1104h22,S6aH8,S1aH8,S1b0201h22,S1c0205h03,S2d0415h23,S2g0421h01,S2g0421h20,S2i0429h01,S2j0518h04,S2j0518h21,S4m1019h06,S4o1023h04,S5aH1,S5p1104h05,S1b0201h03,S1b0201h06,S1c0205h02,S1c0205h05,S2d0415h24,S2e0416h20,S2e0416h23,S2f0420h03,S2h0427h03,S2h0427h23,S2i0429h21,S2j0518h06,S2k0531h05,S4l0918h21,S4m1019h23,S4n1020h24,S4o1023h02,S4o1023h21,S5p1104h01,S1c0205h23,S2e0416h02,S2e0416h04,S2f0420h22,S2h0427h22,S2i0429h24,S2j0518h03,S2j0518h24,S4n1020h01,S5p1104h02,S2d0415h01,S2d0415h02,S2d0415h06,S2d0415h19,S2g0421h19,S2h0427h24,S2i0429h06,S2k0531h01,S2k0531h23,S4l0918h04,S4m1019h03,S4m1019h05,S4m1019h21,S1b0201h05,S1c0205h01,S1c0205h20,S2f0420h05,S2f0420h24,S2g0421h06,S2h0427h19,S2j0518h20,S2k0531h06,S4m1019h04,S4o1023h03,S5p1104h20</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0201h10,S1b0201h12,S2d0415h08,S2d0415h10,S2d0415h13,S2e0416h09,S2f0420h14,S2i0429h18,S2j0518h14,S4aH2,S4m1019h14,S4o1023h07,S4o1023h16,S1aH4,S1b0201h08,S2aH2,S2f0420h17,S2i0429h16,S4aH6,S4l0918h18,S4n1020h12,S4n1020h18,S4o1023h15,S1b0201h13,S1b0201h15,S2e0416h10,S2e0416h14,S2e0416h17,S2f0420h10,S2i0429h17,S2k0531h14,S4m1019h12,S4n1020h08,S4n1020h11,S1aH2,S1aH7,S1c0205h10,S2aH3,S2e0416h07,S2f0420h09,S2f0420h18,S2i0429h08,S2j0518h11,S2j0518h15,S2j0518h17,S2k0531h18,S3aH6,S4aH7,S4l0918h08,S4o1023h11,S5aH6,S5aH7,S6aH6,S1aH6,S1b0201h11,S1b0201h14,S1b0201h16,S1b0201h17,S1b0201h18,S2g0421h11,S2g0421h12,S2g0421h14,S2h0427h12,S2h0427h15,S2j0518h13,S2k0531h13,S2k0531h16,S4l0918h09,S4l0918h11,S5p1104h10,S5p1104h18,S1aH3,S2e0416h11,S2e0416h18,S2i0429h11,S2i0429h12,S2i0429h15,S2j0518h16,S2j0518h18,S2k0531h17,S4l0918h10,S4l0918h12,S4l0918h13,S4l0918h17,S4m1019h11,S4n1020h15,S5p1104h15,S2d0415h16,S2e0416h13,S2f0420h12,S2f0420h15,S2g0421h17,S2h0427h08,S2j0518h07,S2k0531h12,S3aH2,S4o1023h14,S5p1104h12,S1b0201h07,S2d0415h12,S2g0421h16,S2j0518h08,S4aH5,S4l0918h16,S5p1104h07,S1aH5,S1c0205h16,S2aH4,S2aH5,S2d0415h11,S2d0415h17,S2e0416h16,S2g0421h08,S2g0421h13,S2h0427h07,S2h0427h11,S2k0531h10,S4m1019h09,S4m1019h18,S4o1023h17,S5aH2,S5aH5,S5p1104h16,S6aH2,S1c0205h18,S2d0415h18,S2e0416h08,S2f0420h16,S4l0918h15,S5aH4,S5p1104h13,S5p1104h17,S6aH3,S6aH4,S1c0205h09,S1c0205h11,S2aH7,S2d0415h09,S2h0427h16,S2k0531h15,S3aH4,S4aH3,S4aH4,S4m1019h10,S4m1019h16,S5p1104h09,S5p1104h11,S1c0205h12,S1c0205h14,S2e0416h12,S2g0421h07,S2g0421h18,S2h0427h13,S2h0427h17,S2i0429h10,S2k0531h07,S2k0531h09,S4m1019h07,S4m1019h08,S4m1019h17,S4n1020h09,S4n1020h16,S4o1023h10,S4o1023h13,S6aH7,S1c0205h07,S1c0205h08,S2d0415h14,S2d0415h15,S2i0429h07,S2i0429h09,S2i0429h14,S4n1020h10,S4n1020h13,S4n1020h14,S4n1020h17,S4o1023h08,S4o1023h12,S6aH5,S1b0201h09,S1c0205h17,S2aH6,S2e0416h15,S2f0420h13,S2g0421h10,S2g0421h15,S2h0427h18,S2j0518h09,S2j0518h12,S2k0531h08,S3aH5,S4m1019h13,S4m1019h15,S4o1023h09,S5aH3,S5p1104h08,S1c0205h13,S2d0415h07,S2f0420h08,S2f0420h11,S2h0427h09,S2h0427h14,S2i0429h13,S3aH7,S4l0918h07,S4l0918h14,S4o1023h18,S1c0205h15,S2f0420h07,S2g0421h09,S2h0427h10,S2j0518h10,S2k0531h11,S3aH3,S4n1020h07,S5p1104h14</v>
+        <v>S1c0205h13,S2d0415h07,S2f0420h08,S2f0420h11,S2h0427h09,S2h0427h14,S2i0429h13,S3aH7,S4l0918h07,S4l0918h14,S4o1023h18,S1c0205h07,S1c0205h08,S2d0415h14,S2d0415h15,S2i0429h07,S2i0429h09,S2i0429h14,S4n1020h10,S4n1020h13,S4n1020h14,S4n1020h17,S4o1023h08,S4o1023h12,S6aH5,S1b0201h13,S1b0201h15,S2e0416h10,S2e0416h14,S2e0416h17,S2f0420h10,S2i0429h17,S2k0531h14,S4m1019h12,S4n1020h08,S4n1020h11,S1aH3,S2e0416h11,S2e0416h18,S2i0429h11,S2i0429h12,S2i0429h15,S2j0518h16,S2j0518h18,S2k0531h17,S4l0918h10,S4l0918h12,S4l0918h13,S4l0918h17,S4m1019h11,S4n1020h15,S5p1104h15,S2d0415h16,S2e0416h13,S2f0420h12,S2f0420h15,S2g0421h17,S2h0427h08,S2j0518h07,S2k0531h12,S3aH2,S4o1023h14,S5p1104h12,S1c0205h15,S2f0420h07,S2g0421h09,S2h0427h10,S2j0518h10,S2k0531h11,S3aH3,S4n1020h07,S5p1104h14,S1aH5,S1c0205h16,S2aH4,S2aH5,S2d0415h11,S2d0415h17,S2e0416h16,S2g0421h08,S2g0421h13,S2h0427h07,S2h0427h11,S2k0531h10,S4m1019h09,S4m1019h18,S4o1023h17,S5aH2,S5aH5,S5p1104h16,S6aH2,S1c0205h12,S1c0205h14,S2e0416h12,S2g0421h07,S2g0421h18,S2h0427h13,S2h0427h17,S2i0429h10,S2k0531h07,S2k0531h09,S4m1019h07,S4m1019h08,S4m1019h17,S4n1020h09,S4n1020h16,S4o1023h10,S4o1023h13,S6aH7,S1b0201h10,S1b0201h12,S2d0415h08,S2d0415h10,S2d0415h13,S2e0416h09,S2f0420h14,S2i0429h18,S2j0518h14,S4aH2,S4m1019h14,S4o1023h07,S4o1023h16,S1aH4,S1b0201h08,S2aH2,S2f0420h17,S2i0429h16,S4aH6,S4l0918h18,S4n1020h12,S4n1020h18,S4o1023h15,S1aH6,S1b0201h11,S1b0201h14,S1b0201h16,S1b0201h17,S1b0201h18,S2g0421h11,S2g0421h12,S2g0421h14,S2h0427h12,S2h0427h15,S2j0518h13,S2k0531h13,S2k0531h16,S4l0918h09,S4l0918h11,S5p1104h10,S5p1104h18,S1b0201h09,S1c0205h17,S2aH6,S2e0416h15,S2f0420h13,S2g0421h10,S2g0421h15,S2h0427h18,S2j0518h09,S2j0518h12,S2k0531h08,S3aH5,S4m1019h13,S4m1019h15,S4o1023h09,S5aH3,S5p1104h08,S1aH2,S1aH7,S1c0205h10,S2aH3,S2e0416h07,S2f0420h09,S2f0420h18,S2i0429h08,S2j0518h11,S2j0518h15,S2j0518h17,S2k0531h18,S3aH6,S4aH7,S4l0918h08,S4o1023h11,S5aH6,S5aH7,S6aH6,S1b0201h07,S2d0415h12,S2g0421h16,S2j0518h08,S4aH5,S4l0918h16,S5p1104h07,S1c0205h18,S2d0415h18,S2e0416h08,S2f0420h16,S4l0918h15,S5aH4,S5p1104h13,S5p1104h17,S6aH3,S6aH4,S1c0205h09,S1c0205h11,S2aH7,S2d0415h09,S2h0427h16,S2k0531h15,S3aH4,S4aH3,S4aH4,S4m1019h10,S4m1019h16,S5p1104h09,S5p1104h11</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA082766-98FF-4ED8-B1B9-86B8CC97F9D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569A9843-BA95-4971-B261-F6DC4CDEF663}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1900251-8781-4B1C-BD76-D8F080D9974C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67051FB-1612-4530-A7BD-492F14389424}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7070,7 +7070,7 @@
         <v>467</v>
       </c>
       <c r="I4">
-        <v>4.5486000000000006E-2</v>
+        <v>4.2661999999999999E-2</v>
       </c>
       <c r="J4" t="s">
         <v>468</v>
@@ -7079,10 +7079,10 @@
         <v>878</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N4">
-        <v>0.17653172515557836</v>
+        <v>0.26179508564829668</v>
       </c>
       <c r="O4" t="s">
         <v>889</v>
@@ -7105,7 +7105,7 @@
         <v>470</v>
       </c>
       <c r="I5">
-        <v>6.4980000000000003E-3</v>
+        <v>5.9449999999999998E-3</v>
       </c>
       <c r="J5" t="s">
         <v>468</v>
@@ -7114,10 +7114,10 @@
         <v>878</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N5">
-        <v>0.40660807082825429</v>
+        <v>0.19493167383075641</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7140,7 +7140,7 @@
         <v>471</v>
       </c>
       <c r="I6">
-        <v>6.4980000000000003E-3</v>
+        <v>5.986E-3</v>
       </c>
       <c r="J6" t="s">
         <v>468</v>
@@ -7149,10 +7149,10 @@
         <v>878</v>
       </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="N6">
-        <v>0.19493167383075638</v>
+        <v>7.9527811637903401E-2</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7175,7 +7175,7 @@
         <v>472</v>
       </c>
       <c r="I7">
-        <v>6.4980000000000003E-3</v>
+        <v>6.1349999999999998E-3</v>
       </c>
       <c r="J7" t="s">
         <v>468</v>
@@ -7187,7 +7187,7 @@
         <v>87</v>
       </c>
       <c r="N7">
-        <v>8.0605632899210883E-2</v>
+        <v>8.0605632899210897E-2</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7210,7 +7210,7 @@
         <v>473</v>
       </c>
       <c r="I8">
-        <v>3.2490000000000005E-2</v>
+        <v>3.2736000000000001E-2</v>
       </c>
       <c r="J8" t="s">
         <v>468</v>
@@ -7219,10 +7219,10 @@
         <v>878</v>
       </c>
       <c r="M8" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="N8">
-        <v>7.9527811637903387E-2</v>
+        <v>0.40660807082825434</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -7245,7 +7245,7 @@
         <v>474</v>
       </c>
       <c r="I9">
-        <v>6.4980000000000003E-3</v>
+        <v>7.0439999999999999E-3</v>
       </c>
       <c r="J9" t="s">
         <v>468</v>
@@ -7254,10 +7254,10 @@
         <v>878</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N9">
-        <v>0.26179508564829657</v>
+        <v>0.17653172515557838</v>
       </c>
       <c r="O9" t="s">
         <v>889</v>
@@ -7280,7 +7280,7 @@
         <v>475</v>
       </c>
       <c r="I10">
-        <v>6.4980000000000003E-3</v>
+        <v>7.2399999999999999E-3</v>
       </c>
       <c r="J10" t="s">
         <v>468</v>
@@ -7306,7 +7306,7 @@
         <v>476</v>
       </c>
       <c r="I11">
-        <v>4.5486000000000006E-2</v>
+        <v>4.6535E-2</v>
       </c>
       <c r="J11" t="s">
         <v>468</v>
@@ -7332,7 +7332,7 @@
         <v>477</v>
       </c>
       <c r="I12">
-        <v>1.1400000000000001E-4</v>
+        <v>2.5799999999999998E-4</v>
       </c>
       <c r="J12" t="s">
         <v>468</v>
@@ -7358,7 +7358,7 @@
         <v>478</v>
       </c>
       <c r="I13">
-        <v>1.1400000000000001E-4</v>
+        <v>1.9100000000000001E-4</v>
       </c>
       <c r="J13" t="s">
         <v>468</v>
@@ -7384,7 +7384,7 @@
         <v>479</v>
       </c>
       <c r="I14">
-        <v>1.1400000000000001E-4</v>
+        <v>1.37E-4</v>
       </c>
       <c r="J14" t="s">
         <v>468</v>
@@ -7410,7 +7410,7 @@
         <v>480</v>
       </c>
       <c r="I15">
-        <v>1.1400000000000001E-4</v>
+        <v>1.26E-4</v>
       </c>
       <c r="J15" t="s">
         <v>468</v>
@@ -7436,7 +7436,7 @@
         <v>481</v>
       </c>
       <c r="I16">
-        <v>1.1400000000000001E-4</v>
+        <v>1.16E-4</v>
       </c>
       <c r="J16" t="s">
         <v>468</v>
@@ -7462,7 +7462,7 @@
         <v>482</v>
       </c>
       <c r="I17">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J17" t="s">
         <v>468</v>
@@ -7488,7 +7488,7 @@
         <v>483</v>
       </c>
       <c r="I18">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J18" t="s">
         <v>468</v>
@@ -7514,7 +7514,7 @@
         <v>484</v>
       </c>
       <c r="I19">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J19" t="s">
         <v>468</v>
@@ -7540,7 +7540,7 @@
         <v>485</v>
       </c>
       <c r="I20">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J20" t="s">
         <v>468</v>
@@ -7566,7 +7566,7 @@
         <v>486</v>
       </c>
       <c r="I21">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J21" t="s">
         <v>468</v>
@@ -7592,7 +7592,7 @@
         <v>487</v>
       </c>
       <c r="I22">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J22" t="s">
         <v>468</v>
@@ -7618,7 +7618,7 @@
         <v>488</v>
       </c>
       <c r="I23">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J23" t="s">
         <v>468</v>
@@ -7644,7 +7644,7 @@
         <v>489</v>
       </c>
       <c r="I24">
-        <v>1.1400000000000001E-4</v>
+        <v>1.16E-4</v>
       </c>
       <c r="J24" t="s">
         <v>468</v>
@@ -7670,7 +7670,7 @@
         <v>490</v>
       </c>
       <c r="I25">
-        <v>1.1400000000000001E-4</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="J25" t="s">
         <v>468</v>
@@ -7696,7 +7696,7 @@
         <v>491</v>
       </c>
       <c r="I26">
-        <v>1.1400000000000001E-4</v>
+        <v>2.23E-4</v>
       </c>
       <c r="J26" t="s">
         <v>468</v>
@@ -7722,7 +7722,7 @@
         <v>492</v>
       </c>
       <c r="I27">
-        <v>1.1400000000000001E-4</v>
+        <v>3.1399999999999999E-4</v>
       </c>
       <c r="J27" t="s">
         <v>468</v>
@@ -7748,7 +7748,7 @@
         <v>493</v>
       </c>
       <c r="I28">
-        <v>1.1400000000000001E-4</v>
+        <v>2.5799999999999998E-4</v>
       </c>
       <c r="J28" t="s">
         <v>468</v>
@@ -7774,7 +7774,7 @@
         <v>494</v>
       </c>
       <c r="I29">
-        <v>1.1400000000000001E-4</v>
+        <v>4.0400000000000001E-4</v>
       </c>
       <c r="J29" t="s">
         <v>468</v>
@@ -7800,7 +7800,7 @@
         <v>495</v>
       </c>
       <c r="I30">
-        <v>1.1400000000000001E-4</v>
+        <v>5.0699999999999996E-4</v>
       </c>
       <c r="J30" t="s">
         <v>468</v>
@@ -7826,7 +7826,7 @@
         <v>496</v>
       </c>
       <c r="I31">
-        <v>1.1400000000000001E-4</v>
+        <v>4.0400000000000001E-4</v>
       </c>
       <c r="J31" t="s">
         <v>468</v>
@@ -7852,7 +7852,7 @@
         <v>497</v>
       </c>
       <c r="I32">
-        <v>1.1400000000000001E-4</v>
+        <v>2.9300000000000002E-4</v>
       </c>
       <c r="J32" t="s">
         <v>468</v>
@@ -7878,7 +7878,7 @@
         <v>498</v>
       </c>
       <c r="I33">
-        <v>1.1400000000000001E-4</v>
+        <v>2.7399999999999999E-4</v>
       </c>
       <c r="J33" t="s">
         <v>468</v>
@@ -7904,7 +7904,7 @@
         <v>499</v>
       </c>
       <c r="I34">
-        <v>1.1400000000000001E-4</v>
+        <v>2.7399999999999999E-4</v>
       </c>
       <c r="J34" t="s">
         <v>468</v>
@@ -7930,7 +7930,7 @@
         <v>500</v>
       </c>
       <c r="I35">
-        <v>1.1400000000000001E-4</v>
+        <v>2.9300000000000002E-4</v>
       </c>
       <c r="J35" t="s">
         <v>468</v>
@@ -7956,7 +7956,7 @@
         <v>501</v>
       </c>
       <c r="I36">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J36" t="s">
         <v>468</v>
@@ -7982,7 +7982,7 @@
         <v>502</v>
       </c>
       <c r="I37">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J37" t="s">
         <v>468</v>
@@ -8008,7 +8008,7 @@
         <v>503</v>
       </c>
       <c r="I38">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J38" t="s">
         <v>468</v>
@@ -8034,7 +8034,7 @@
         <v>504</v>
       </c>
       <c r="I39">
-        <v>1.1400000000000001E-4</v>
+        <v>1.06E-4</v>
       </c>
       <c r="J39" t="s">
         <v>468</v>
@@ -8060,7 +8060,7 @@
         <v>505</v>
       </c>
       <c r="I40">
-        <v>1.1400000000000001E-4</v>
+        <v>1.37E-4</v>
       </c>
       <c r="J40" t="s">
         <v>468</v>
@@ -8086,7 +8086,7 @@
         <v>506</v>
       </c>
       <c r="I41">
-        <v>1.1400000000000001E-4</v>
+        <v>1.63E-4</v>
       </c>
       <c r="J41" t="s">
         <v>468</v>
@@ -8112,7 +8112,7 @@
         <v>507</v>
       </c>
       <c r="I42">
-        <v>1.1400000000000001E-4</v>
+        <v>2.0699999999999999E-4</v>
       </c>
       <c r="J42" t="s">
         <v>468</v>
@@ -8138,7 +8138,7 @@
         <v>508</v>
       </c>
       <c r="I43">
-        <v>1.1400000000000001E-4</v>
+        <v>2.5799999999999998E-4</v>
       </c>
       <c r="J43" t="s">
         <v>468</v>
@@ -8164,7 +8164,7 @@
         <v>509</v>
       </c>
       <c r="I44">
-        <v>1.1400000000000001E-4</v>
+        <v>4.0400000000000001E-4</v>
       </c>
       <c r="J44" t="s">
         <v>468</v>
@@ -8190,7 +8190,7 @@
         <v>510</v>
       </c>
       <c r="I45">
-        <v>1.1400000000000001E-4</v>
+        <v>6.6399999999999999E-4</v>
       </c>
       <c r="J45" t="s">
         <v>468</v>
@@ -8216,7 +8216,7 @@
         <v>511</v>
       </c>
       <c r="I46">
-        <v>1.1400000000000001E-4</v>
+        <v>7.3499999999999998E-4</v>
       </c>
       <c r="J46" t="s">
         <v>468</v>
@@ -8242,7 +8242,7 @@
         <v>512</v>
       </c>
       <c r="I47">
-        <v>1.1400000000000001E-4</v>
+        <v>6.6399999999999999E-4</v>
       </c>
       <c r="J47" t="s">
         <v>468</v>
@@ -8268,7 +8268,7 @@
         <v>513</v>
       </c>
       <c r="I48">
-        <v>1.1400000000000001E-4</v>
+        <v>9.2800000000000001E-4</v>
       </c>
       <c r="J48" t="s">
         <v>468</v>
@@ -8294,7 +8294,7 @@
         <v>514</v>
       </c>
       <c r="I49">
-        <v>1.1400000000000001E-4</v>
+        <v>8.0500000000000005E-4</v>
       </c>
       <c r="J49" t="s">
         <v>468</v>
@@ -8320,7 +8320,7 @@
         <v>515</v>
       </c>
       <c r="I50">
-        <v>1.34E-4</v>
+        <v>1.2099999999999999E-3</v>
       </c>
       <c r="J50" t="s">
         <v>468</v>
@@ -8346,7 +8346,7 @@
         <v>516</v>
       </c>
       <c r="I51">
-        <v>1.1400000000000001E-4</v>
+        <v>7.7200000000000001E-4</v>
       </c>
       <c r="J51" t="s">
         <v>468</v>
@@ -8372,7 +8372,7 @@
         <v>517</v>
       </c>
       <c r="I52">
-        <v>1.1400000000000001E-4</v>
+        <v>4.2900000000000002E-4</v>
       </c>
       <c r="J52" t="s">
         <v>468</v>
@@ -8398,7 +8398,7 @@
         <v>518</v>
       </c>
       <c r="I53">
-        <v>1.1400000000000001E-4</v>
+        <v>3.1399999999999999E-4</v>
       </c>
       <c r="J53" t="s">
         <v>468</v>
@@ -8424,7 +8424,7 @@
         <v>519</v>
       </c>
       <c r="I54">
-        <v>1.1400000000000001E-4</v>
+        <v>1.7699999999999999E-4</v>
       </c>
       <c r="J54" t="s">
         <v>468</v>
@@ -8450,7 +8450,7 @@
         <v>520</v>
       </c>
       <c r="I55">
-        <v>1.1400000000000001E-4</v>
+        <v>1.37E-4</v>
       </c>
       <c r="J55" t="s">
         <v>468</v>
@@ -8476,7 +8476,7 @@
         <v>521</v>
       </c>
       <c r="I56">
-        <v>1.1400000000000001E-4</v>
+        <v>1.16E-4</v>
       </c>
       <c r="J56" t="s">
         <v>468</v>
@@ -8502,7 +8502,7 @@
         <v>522</v>
       </c>
       <c r="I57">
-        <v>1.1400000000000001E-4</v>
+        <v>1.26E-4</v>
       </c>
       <c r="J57" t="s">
         <v>468</v>
@@ -8528,7 +8528,7 @@
         <v>523</v>
       </c>
       <c r="I58">
-        <v>1.1400000000000001E-4</v>
+        <v>2.23E-4</v>
       </c>
       <c r="J58" t="s">
         <v>468</v>
@@ -8554,7 +8554,7 @@
         <v>524</v>
       </c>
       <c r="I59">
-        <v>1.1400000000000001E-4</v>
+        <v>2.5799999999999998E-4</v>
       </c>
       <c r="J59" t="s">
         <v>468</v>
@@ -8580,7 +8580,7 @@
         <v>525</v>
       </c>
       <c r="I60">
-        <v>9.0972000000000011E-2</v>
+        <v>8.3145999999999998E-2</v>
       </c>
       <c r="J60" t="s">
         <v>468</v>
@@ -8606,7 +8606,7 @@
         <v>526</v>
       </c>
       <c r="I61">
-        <v>1.2996000000000001E-2</v>
+        <v>1.1738E-2</v>
       </c>
       <c r="J61" t="s">
         <v>468</v>
@@ -8632,7 +8632,7 @@
         <v>527</v>
       </c>
       <c r="I62">
-        <v>1.2996000000000001E-2</v>
+        <v>1.1710999999999999E-2</v>
       </c>
       <c r="J62" t="s">
         <v>468</v>
@@ -8658,7 +8658,7 @@
         <v>528</v>
       </c>
       <c r="I63">
-        <v>1.2996000000000001E-2</v>
+        <v>1.1932E-2</v>
       </c>
       <c r="J63" t="s">
         <v>468</v>
@@ -8684,7 +8684,7 @@
         <v>529</v>
       </c>
       <c r="I64">
-        <v>6.498000000000001E-2</v>
+        <v>6.9993E-2</v>
       </c>
       <c r="J64" t="s">
         <v>468</v>
@@ -8710,7 +8710,7 @@
         <v>530</v>
       </c>
       <c r="I65">
-        <v>1.2996000000000001E-2</v>
+        <v>1.6046999999999999E-2</v>
       </c>
       <c r="J65" t="s">
         <v>468</v>
@@ -8736,7 +8736,7 @@
         <v>531</v>
       </c>
       <c r="I66">
-        <v>1.2996000000000001E-2</v>
+        <v>1.5556E-2</v>
       </c>
       <c r="J66" t="s">
         <v>468</v>
@@ -8762,7 +8762,7 @@
         <v>532</v>
       </c>
       <c r="I67">
-        <v>9.0972000000000011E-2</v>
+        <v>8.7919999999999998E-2</v>
       </c>
       <c r="J67" t="s">
         <v>468</v>
@@ -8788,7 +8788,7 @@
         <v>533</v>
       </c>
       <c r="I68">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J68" t="s">
         <v>468</v>
@@ -8814,7 +8814,7 @@
         <v>534</v>
       </c>
       <c r="I69">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J69" t="s">
         <v>468</v>
@@ -8840,7 +8840,7 @@
         <v>535</v>
       </c>
       <c r="I70">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J70" t="s">
         <v>468</v>
@@ -8866,7 +8866,7 @@
         <v>536</v>
       </c>
       <c r="I71">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J71" t="s">
         <v>468</v>
@@ -8892,7 +8892,7 @@
         <v>537</v>
       </c>
       <c r="I72">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J72" t="s">
         <v>468</v>
@@ -8918,7 +8918,7 @@
         <v>538</v>
       </c>
       <c r="I73">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J73" t="s">
         <v>468</v>
@@ -8944,7 +8944,7 @@
         <v>539</v>
       </c>
       <c r="I74">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J74" t="s">
         <v>468</v>
@@ -8970,7 +8970,7 @@
         <v>540</v>
       </c>
       <c r="I75">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J75" t="s">
         <v>468</v>
@@ -8996,7 +8996,7 @@
         <v>541</v>
       </c>
       <c r="I76">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J76" t="s">
         <v>468</v>
@@ -9022,7 +9022,7 @@
         <v>542</v>
       </c>
       <c r="I77">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J77" t="s">
         <v>468</v>
@@ -9048,7 +9048,7 @@
         <v>543</v>
       </c>
       <c r="I78">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J78" t="s">
         <v>468</v>
@@ -9074,7 +9074,7 @@
         <v>544</v>
       </c>
       <c r="I79">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J79" t="s">
         <v>468</v>
@@ -9100,7 +9100,7 @@
         <v>545</v>
       </c>
       <c r="I80">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J80" t="s">
         <v>468</v>
@@ -9126,7 +9126,7 @@
         <v>546</v>
       </c>
       <c r="I81">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J81" t="s">
         <v>468</v>
@@ -9152,7 +9152,7 @@
         <v>547</v>
       </c>
       <c r="I82">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J82" t="s">
         <v>468</v>
@@ -9178,7 +9178,7 @@
         <v>548</v>
       </c>
       <c r="I83">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J83" t="s">
         <v>468</v>
@@ -9204,7 +9204,7 @@
         <v>549</v>
       </c>
       <c r="I84">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J84" t="s">
         <v>468</v>
@@ -9230,7 +9230,7 @@
         <v>550</v>
       </c>
       <c r="I85">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J85" t="s">
         <v>468</v>
@@ -9256,7 +9256,7 @@
         <v>551</v>
       </c>
       <c r="I86">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J86" t="s">
         <v>468</v>
@@ -9282,7 +9282,7 @@
         <v>552</v>
       </c>
       <c r="I87">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J87" t="s">
         <v>468</v>
@@ -9308,7 +9308,7 @@
         <v>553</v>
       </c>
       <c r="I88">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J88" t="s">
         <v>468</v>
@@ -9334,7 +9334,7 @@
         <v>554</v>
       </c>
       <c r="I89">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J89" t="s">
         <v>468</v>
@@ -9360,7 +9360,7 @@
         <v>555</v>
       </c>
       <c r="I90">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J90" t="s">
         <v>468</v>
@@ -9386,7 +9386,7 @@
         <v>556</v>
       </c>
       <c r="I91">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J91" t="s">
         <v>468</v>
@@ -9412,7 +9412,7 @@
         <v>557</v>
       </c>
       <c r="I92">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J92" t="s">
         <v>468</v>
@@ -9438,7 +9438,7 @@
         <v>558</v>
       </c>
       <c r="I93">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J93" t="s">
         <v>468</v>
@@ -9464,7 +9464,7 @@
         <v>559</v>
       </c>
       <c r="I94">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J94" t="s">
         <v>468</v>
@@ -9490,7 +9490,7 @@
         <v>560</v>
       </c>
       <c r="I95">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J95" t="s">
         <v>468</v>
@@ -9516,7 +9516,7 @@
         <v>561</v>
       </c>
       <c r="I96">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J96" t="s">
         <v>468</v>
@@ -9542,7 +9542,7 @@
         <v>562</v>
       </c>
       <c r="I97">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J97" t="s">
         <v>468</v>
@@ -9568,7 +9568,7 @@
         <v>563</v>
       </c>
       <c r="I98">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J98" t="s">
         <v>468</v>
@@ -9594,7 +9594,7 @@
         <v>564</v>
       </c>
       <c r="I99">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J99" t="s">
         <v>468</v>
@@ -9620,7 +9620,7 @@
         <v>565</v>
       </c>
       <c r="I100">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J100" t="s">
         <v>468</v>
@@ -9646,7 +9646,7 @@
         <v>566</v>
       </c>
       <c r="I101">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J101" t="s">
         <v>468</v>
@@ -9672,7 +9672,7 @@
         <v>567</v>
       </c>
       <c r="I102">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J102" t="s">
         <v>468</v>
@@ -9698,7 +9698,7 @@
         <v>568</v>
       </c>
       <c r="I103">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J103" t="s">
         <v>468</v>
@@ -9724,7 +9724,7 @@
         <v>569</v>
       </c>
       <c r="I104">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J104" t="s">
         <v>468</v>
@@ -9750,7 +9750,7 @@
         <v>570</v>
       </c>
       <c r="I105">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J105" t="s">
         <v>468</v>
@@ -9776,7 +9776,7 @@
         <v>571</v>
       </c>
       <c r="I106">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J106" t="s">
         <v>468</v>
@@ -9802,7 +9802,7 @@
         <v>572</v>
       </c>
       <c r="I107">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J107" t="s">
         <v>468</v>
@@ -9828,7 +9828,7 @@
         <v>573</v>
       </c>
       <c r="I108">
-        <v>1.1400000000000001E-4</v>
+        <v>1.06E-4</v>
       </c>
       <c r="J108" t="s">
         <v>468</v>
@@ -9854,7 +9854,7 @@
         <v>574</v>
       </c>
       <c r="I109">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J109" t="s">
         <v>468</v>
@@ -9880,7 +9880,7 @@
         <v>575</v>
       </c>
       <c r="I110">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J110" t="s">
         <v>468</v>
@@ -9906,7 +9906,7 @@
         <v>576</v>
       </c>
       <c r="I111">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J111" t="s">
         <v>468</v>
@@ -9932,7 +9932,7 @@
         <v>577</v>
       </c>
       <c r="I112">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J112" t="s">
         <v>468</v>
@@ -9958,7 +9958,7 @@
         <v>578</v>
       </c>
       <c r="I113">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J113" t="s">
         <v>468</v>
@@ -9984,7 +9984,7 @@
         <v>579</v>
       </c>
       <c r="I114">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J114" t="s">
         <v>468</v>
@@ -10010,7 +10010,7 @@
         <v>580</v>
       </c>
       <c r="I115">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J115" t="s">
         <v>468</v>
@@ -10036,7 +10036,7 @@
         <v>581</v>
       </c>
       <c r="I116">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J116" t="s">
         <v>468</v>
@@ -10062,7 +10062,7 @@
         <v>582</v>
       </c>
       <c r="I117">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J117" t="s">
         <v>468</v>
@@ -10088,7 +10088,7 @@
         <v>583</v>
       </c>
       <c r="I118">
-        <v>1.1400000000000001E-4</v>
+        <v>1.26E-4</v>
       </c>
       <c r="J118" t="s">
         <v>468</v>
@@ -10114,7 +10114,7 @@
         <v>584</v>
       </c>
       <c r="I119">
-        <v>1.1400000000000001E-4</v>
+        <v>1.16E-4</v>
       </c>
       <c r="J119" t="s">
         <v>468</v>
@@ -10140,7 +10140,7 @@
         <v>585</v>
       </c>
       <c r="I120">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J120" t="s">
         <v>468</v>
@@ -10166,7 +10166,7 @@
         <v>586</v>
       </c>
       <c r="I121">
-        <v>1.1400000000000001E-4</v>
+        <v>1.16E-4</v>
       </c>
       <c r="J121" t="s">
         <v>468</v>
@@ -10192,7 +10192,7 @@
         <v>587</v>
       </c>
       <c r="I122">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J122" t="s">
         <v>468</v>
@@ -10218,7 +10218,7 @@
         <v>588</v>
       </c>
       <c r="I123">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J123" t="s">
         <v>468</v>
@@ -10244,7 +10244,7 @@
         <v>589</v>
       </c>
       <c r="I124">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J124" t="s">
         <v>468</v>
@@ -10270,7 +10270,7 @@
         <v>590</v>
       </c>
       <c r="I125">
-        <v>1.1400000000000001E-4</v>
+        <v>1.7699999999999999E-4</v>
       </c>
       <c r="J125" t="s">
         <v>468</v>
@@ -10296,7 +10296,7 @@
         <v>591</v>
       </c>
       <c r="I126">
-        <v>1.1400000000000001E-4</v>
+        <v>2.5799999999999998E-4</v>
       </c>
       <c r="J126" t="s">
         <v>468</v>
@@ -10322,7 +10322,7 @@
         <v>592</v>
       </c>
       <c r="I127">
-        <v>1.1400000000000001E-4</v>
+        <v>2.9300000000000002E-4</v>
       </c>
       <c r="J127" t="s">
         <v>468</v>
@@ -10348,7 +10348,7 @@
         <v>593</v>
       </c>
       <c r="I128">
-        <v>1.1400000000000001E-4</v>
+        <v>3.3500000000000001E-4</v>
       </c>
       <c r="J128" t="s">
         <v>468</v>
@@ -10374,7 +10374,7 @@
         <v>594</v>
       </c>
       <c r="I129">
-        <v>1.1400000000000001E-4</v>
+        <v>4.0400000000000001E-4</v>
       </c>
       <c r="J129" t="s">
         <v>468</v>
@@ -10400,7 +10400,7 @@
         <v>595</v>
       </c>
       <c r="I130">
-        <v>1.1400000000000001E-4</v>
+        <v>3.8000000000000002E-4</v>
       </c>
       <c r="J130" t="s">
         <v>468</v>
@@ -10426,7 +10426,7 @@
         <v>596</v>
       </c>
       <c r="I131">
-        <v>1.1400000000000001E-4</v>
+        <v>3.57E-4</v>
       </c>
       <c r="J131" t="s">
         <v>468</v>
@@ -10452,7 +10452,7 @@
         <v>597</v>
       </c>
       <c r="I132">
-        <v>1.1400000000000001E-4</v>
+        <v>3.57E-4</v>
       </c>
       <c r="J132" t="s">
         <v>468</v>
@@ -10478,7 +10478,7 @@
         <v>598</v>
       </c>
       <c r="I133">
-        <v>1.1400000000000001E-4</v>
+        <v>2.9300000000000002E-4</v>
       </c>
       <c r="J133" t="s">
         <v>468</v>
@@ -10504,7 +10504,7 @@
         <v>599</v>
       </c>
       <c r="I134">
-        <v>1.1400000000000001E-4</v>
+        <v>1.7699999999999999E-4</v>
       </c>
       <c r="J134" t="s">
         <v>468</v>
@@ -10530,7 +10530,7 @@
         <v>600</v>
       </c>
       <c r="I135">
-        <v>1.1400000000000001E-4</v>
+        <v>1.06E-4</v>
       </c>
       <c r="J135" t="s">
         <v>468</v>
@@ -10556,7 +10556,7 @@
         <v>601</v>
       </c>
       <c r="I136">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J136" t="s">
         <v>468</v>
@@ -10582,7 +10582,7 @@
         <v>602</v>
       </c>
       <c r="I137">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J137" t="s">
         <v>468</v>
@@ -10608,7 +10608,7 @@
         <v>603</v>
       </c>
       <c r="I138">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J138" t="s">
         <v>468</v>
@@ -10634,7 +10634,7 @@
         <v>604</v>
       </c>
       <c r="I139">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J139" t="s">
         <v>468</v>
@@ -10660,7 +10660,7 @@
         <v>605</v>
       </c>
       <c r="I140">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J140" t="s">
         <v>468</v>
@@ -10686,7 +10686,7 @@
         <v>606</v>
       </c>
       <c r="I141">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J141" t="s">
         <v>468</v>
@@ -10712,7 +10712,7 @@
         <v>607</v>
       </c>
       <c r="I142">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J142" t="s">
         <v>468</v>
@@ -10738,7 +10738,7 @@
         <v>608</v>
       </c>
       <c r="I143">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J143" t="s">
         <v>468</v>
@@ -10764,7 +10764,7 @@
         <v>609</v>
       </c>
       <c r="I144">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J144" t="s">
         <v>468</v>
@@ -10790,7 +10790,7 @@
         <v>610</v>
       </c>
       <c r="I145">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J145" t="s">
         <v>468</v>
@@ -10816,7 +10816,7 @@
         <v>611</v>
       </c>
       <c r="I146">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J146" t="s">
         <v>468</v>
@@ -10842,7 +10842,7 @@
         <v>612</v>
       </c>
       <c r="I147">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J147" t="s">
         <v>468</v>
@@ -10868,7 +10868,7 @@
         <v>613</v>
       </c>
       <c r="I148">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J148" t="s">
         <v>468</v>
@@ -10894,7 +10894,7 @@
         <v>614</v>
       </c>
       <c r="I149">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J149" t="s">
         <v>468</v>
@@ -10920,7 +10920,7 @@
         <v>615</v>
       </c>
       <c r="I150">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J150" t="s">
         <v>468</v>
@@ -10946,7 +10946,7 @@
         <v>616</v>
       </c>
       <c r="I151">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J151" t="s">
         <v>468</v>
@@ -10972,7 +10972,7 @@
         <v>617</v>
       </c>
       <c r="I152">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J152" t="s">
         <v>468</v>
@@ -10998,7 +10998,7 @@
         <v>618</v>
       </c>
       <c r="I153">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J153" t="s">
         <v>468</v>
@@ -11024,7 +11024,7 @@
         <v>619</v>
       </c>
       <c r="I154">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J154" t="s">
         <v>468</v>
@@ -11050,7 +11050,7 @@
         <v>620</v>
       </c>
       <c r="I155">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J155" t="s">
         <v>468</v>
@@ -11076,7 +11076,7 @@
         <v>621</v>
       </c>
       <c r="I156">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J156" t="s">
         <v>468</v>
@@ -11102,7 +11102,7 @@
         <v>622</v>
       </c>
       <c r="I157">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J157" t="s">
         <v>468</v>
@@ -11128,7 +11128,7 @@
         <v>623</v>
       </c>
       <c r="I158">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J158" t="s">
         <v>468</v>
@@ -11154,7 +11154,7 @@
         <v>624</v>
       </c>
       <c r="I159">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J159" t="s">
         <v>468</v>
@@ -11180,7 +11180,7 @@
         <v>625</v>
       </c>
       <c r="I160">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J160" t="s">
         <v>468</v>
@@ -11206,7 +11206,7 @@
         <v>626</v>
       </c>
       <c r="I161">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J161" t="s">
         <v>468</v>
@@ -11232,7 +11232,7 @@
         <v>627</v>
       </c>
       <c r="I162">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J162" t="s">
         <v>468</v>
@@ -11258,7 +11258,7 @@
         <v>628</v>
       </c>
       <c r="I163">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J163" t="s">
         <v>468</v>
@@ -11284,7 +11284,7 @@
         <v>629</v>
       </c>
       <c r="I164">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J164" t="s">
         <v>468</v>
@@ -11310,7 +11310,7 @@
         <v>630</v>
       </c>
       <c r="I165">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J165" t="s">
         <v>468</v>
@@ -11336,7 +11336,7 @@
         <v>631</v>
       </c>
       <c r="I166">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J166" t="s">
         <v>468</v>
@@ -11362,7 +11362,7 @@
         <v>632</v>
       </c>
       <c r="I167">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J167" t="s">
         <v>468</v>
@@ -11388,7 +11388,7 @@
         <v>633</v>
       </c>
       <c r="I168">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J168" t="s">
         <v>468</v>
@@ -11414,7 +11414,7 @@
         <v>634</v>
       </c>
       <c r="I169">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J169" t="s">
         <v>468</v>
@@ -11440,7 +11440,7 @@
         <v>635</v>
       </c>
       <c r="I170">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J170" t="s">
         <v>468</v>
@@ -11466,7 +11466,7 @@
         <v>636</v>
       </c>
       <c r="I171">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J171" t="s">
         <v>468</v>
@@ -11492,7 +11492,7 @@
         <v>637</v>
       </c>
       <c r="I172">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J172" t="s">
         <v>468</v>
@@ -11518,7 +11518,7 @@
         <v>638</v>
       </c>
       <c r="I173">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J173" t="s">
         <v>468</v>
@@ -11544,7 +11544,7 @@
         <v>639</v>
       </c>
       <c r="I174">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J174" t="s">
         <v>468</v>
@@ -11570,7 +11570,7 @@
         <v>640</v>
       </c>
       <c r="I175">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J175" t="s">
         <v>468</v>
@@ -11596,7 +11596,7 @@
         <v>641</v>
       </c>
       <c r="I176">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J176" t="s">
         <v>468</v>
@@ -11622,7 +11622,7 @@
         <v>642</v>
       </c>
       <c r="I177">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J177" t="s">
         <v>468</v>
@@ -11648,7 +11648,7 @@
         <v>643</v>
       </c>
       <c r="I178">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J178" t="s">
         <v>468</v>
@@ -11674,7 +11674,7 @@
         <v>644</v>
       </c>
       <c r="I179">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J179" t="s">
         <v>468</v>
@@ -11700,7 +11700,7 @@
         <v>645</v>
       </c>
       <c r="I180">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J180" t="s">
         <v>468</v>
@@ -11726,7 +11726,7 @@
         <v>646</v>
       </c>
       <c r="I181">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J181" t="s">
         <v>468</v>
@@ -11752,7 +11752,7 @@
         <v>647</v>
       </c>
       <c r="I182">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J182" t="s">
         <v>468</v>
@@ -11778,7 +11778,7 @@
         <v>648</v>
       </c>
       <c r="I183">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J183" t="s">
         <v>468</v>
@@ -11804,7 +11804,7 @@
         <v>649</v>
       </c>
       <c r="I184">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J184" t="s">
         <v>468</v>
@@ -11830,7 +11830,7 @@
         <v>650</v>
       </c>
       <c r="I185">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J185" t="s">
         <v>468</v>
@@ -11856,7 +11856,7 @@
         <v>651</v>
       </c>
       <c r="I186">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J186" t="s">
         <v>468</v>
@@ -11882,7 +11882,7 @@
         <v>652</v>
       </c>
       <c r="I187">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J187" t="s">
         <v>468</v>
@@ -11908,7 +11908,7 @@
         <v>653</v>
       </c>
       <c r="I188">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J188" t="s">
         <v>468</v>
@@ -11934,7 +11934,7 @@
         <v>654</v>
       </c>
       <c r="I189">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J189" t="s">
         <v>468</v>
@@ -11960,7 +11960,7 @@
         <v>655</v>
       </c>
       <c r="I190">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J190" t="s">
         <v>468</v>
@@ -11986,7 +11986,7 @@
         <v>656</v>
       </c>
       <c r="I191">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J191" t="s">
         <v>468</v>
@@ -12012,7 +12012,7 @@
         <v>657</v>
       </c>
       <c r="I192">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J192" t="s">
         <v>468</v>
@@ -12038,7 +12038,7 @@
         <v>658</v>
       </c>
       <c r="I193">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J193" t="s">
         <v>468</v>
@@ -12064,7 +12064,7 @@
         <v>659</v>
       </c>
       <c r="I194">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J194" t="s">
         <v>468</v>
@@ -12090,7 +12090,7 @@
         <v>660</v>
       </c>
       <c r="I195">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J195" t="s">
         <v>468</v>
@@ -12116,7 +12116,7 @@
         <v>661</v>
       </c>
       <c r="I196">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J196" t="s">
         <v>468</v>
@@ -12142,7 +12142,7 @@
         <v>662</v>
       </c>
       <c r="I197">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J197" t="s">
         <v>468</v>
@@ -12168,7 +12168,7 @@
         <v>663</v>
       </c>
       <c r="I198">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J198" t="s">
         <v>468</v>
@@ -12194,7 +12194,7 @@
         <v>664</v>
       </c>
       <c r="I199">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J199" t="s">
         <v>468</v>
@@ -12220,7 +12220,7 @@
         <v>665</v>
       </c>
       <c r="I200">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J200" t="s">
         <v>468</v>
@@ -12246,7 +12246,7 @@
         <v>666</v>
       </c>
       <c r="I201">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J201" t="s">
         <v>468</v>
@@ -12272,7 +12272,7 @@
         <v>667</v>
       </c>
       <c r="I202">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J202" t="s">
         <v>468</v>
@@ -12298,7 +12298,7 @@
         <v>668</v>
       </c>
       <c r="I203">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J203" t="s">
         <v>468</v>
@@ -12324,7 +12324,7 @@
         <v>669</v>
       </c>
       <c r="I204">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J204" t="s">
         <v>468</v>
@@ -12350,7 +12350,7 @@
         <v>670</v>
       </c>
       <c r="I205">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J205" t="s">
         <v>468</v>
@@ -12376,7 +12376,7 @@
         <v>671</v>
       </c>
       <c r="I206">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J206" t="s">
         <v>468</v>
@@ -12402,7 +12402,7 @@
         <v>672</v>
       </c>
       <c r="I207">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J207" t="s">
         <v>468</v>
@@ -12428,7 +12428,7 @@
         <v>673</v>
       </c>
       <c r="I208">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J208" t="s">
         <v>468</v>
@@ -12454,7 +12454,7 @@
         <v>674</v>
       </c>
       <c r="I209">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J209" t="s">
         <v>468</v>
@@ -12480,7 +12480,7 @@
         <v>675</v>
       </c>
       <c r="I210">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J210" t="s">
         <v>468</v>
@@ -12506,7 +12506,7 @@
         <v>676</v>
       </c>
       <c r="I211">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J211" t="s">
         <v>468</v>
@@ -12532,7 +12532,7 @@
         <v>677</v>
       </c>
       <c r="I212">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J212" t="s">
         <v>468</v>
@@ -12558,7 +12558,7 @@
         <v>678</v>
       </c>
       <c r="I213">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J213" t="s">
         <v>468</v>
@@ -12584,7 +12584,7 @@
         <v>679</v>
       </c>
       <c r="I214">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J214" t="s">
         <v>468</v>
@@ -12610,7 +12610,7 @@
         <v>680</v>
       </c>
       <c r="I215">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J215" t="s">
         <v>468</v>
@@ -12636,7 +12636,7 @@
         <v>681</v>
       </c>
       <c r="I216">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J216" t="s">
         <v>468</v>
@@ -12662,7 +12662,7 @@
         <v>682</v>
       </c>
       <c r="I217">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J217" t="s">
         <v>468</v>
@@ -12688,7 +12688,7 @@
         <v>683</v>
       </c>
       <c r="I218">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J218" t="s">
         <v>468</v>
@@ -12714,7 +12714,7 @@
         <v>684</v>
       </c>
       <c r="I219">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J219" t="s">
         <v>468</v>
@@ -12740,7 +12740,7 @@
         <v>685</v>
       </c>
       <c r="I220">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J220" t="s">
         <v>468</v>
@@ -12766,7 +12766,7 @@
         <v>686</v>
       </c>
       <c r="I221">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J221" t="s">
         <v>468</v>
@@ -12792,7 +12792,7 @@
         <v>687</v>
       </c>
       <c r="I222">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J222" t="s">
         <v>468</v>
@@ -12818,7 +12818,7 @@
         <v>688</v>
       </c>
       <c r="I223">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J223" t="s">
         <v>468</v>
@@ -12844,7 +12844,7 @@
         <v>689</v>
       </c>
       <c r="I224">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J224" t="s">
         <v>468</v>
@@ -12870,7 +12870,7 @@
         <v>690</v>
       </c>
       <c r="I225">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J225" t="s">
         <v>468</v>
@@ -12896,7 +12896,7 @@
         <v>691</v>
       </c>
       <c r="I226">
-        <v>1.1400000000000001E-4</v>
+        <v>1.16E-4</v>
       </c>
       <c r="J226" t="s">
         <v>468</v>
@@ -12922,7 +12922,7 @@
         <v>692</v>
       </c>
       <c r="I227">
-        <v>1.1400000000000001E-4</v>
+        <v>1.16E-4</v>
       </c>
       <c r="J227" t="s">
         <v>468</v>
@@ -12948,7 +12948,7 @@
         <v>693</v>
       </c>
       <c r="I228">
-        <v>1.1400000000000001E-4</v>
+        <v>1.06E-4</v>
       </c>
       <c r="J228" t="s">
         <v>468</v>
@@ -12974,7 +12974,7 @@
         <v>694</v>
       </c>
       <c r="I229">
-        <v>1.1400000000000001E-4</v>
+        <v>1.16E-4</v>
       </c>
       <c r="J229" t="s">
         <v>468</v>
@@ -13000,7 +13000,7 @@
         <v>695</v>
       </c>
       <c r="I230">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J230" t="s">
         <v>468</v>
@@ -13026,7 +13026,7 @@
         <v>696</v>
       </c>
       <c r="I231">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J231" t="s">
         <v>468</v>
@@ -13052,7 +13052,7 @@
         <v>697</v>
       </c>
       <c r="I232">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J232" t="s">
         <v>468</v>
@@ -13078,7 +13078,7 @@
         <v>698</v>
       </c>
       <c r="I233">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J233" t="s">
         <v>468</v>
@@ -13104,7 +13104,7 @@
         <v>699</v>
       </c>
       <c r="I234">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J234" t="s">
         <v>468</v>
@@ -13130,7 +13130,7 @@
         <v>700</v>
       </c>
       <c r="I235">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J235" t="s">
         <v>468</v>
@@ -13156,7 +13156,7 @@
         <v>701</v>
       </c>
       <c r="I236">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J236" t="s">
         <v>468</v>
@@ -13182,7 +13182,7 @@
         <v>702</v>
       </c>
       <c r="I237">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J237" t="s">
         <v>468</v>
@@ -13208,7 +13208,7 @@
         <v>703</v>
       </c>
       <c r="I238">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J238" t="s">
         <v>468</v>
@@ -13234,7 +13234,7 @@
         <v>704</v>
       </c>
       <c r="I239">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J239" t="s">
         <v>468</v>
@@ -13260,7 +13260,7 @@
         <v>705</v>
       </c>
       <c r="I240">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J240" t="s">
         <v>468</v>
@@ -13286,7 +13286,7 @@
         <v>706</v>
       </c>
       <c r="I241">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J241" t="s">
         <v>468</v>
@@ -13312,7 +13312,7 @@
         <v>707</v>
       </c>
       <c r="I242">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J242" t="s">
         <v>468</v>
@@ -13338,7 +13338,7 @@
         <v>708</v>
       </c>
       <c r="I243">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J243" t="s">
         <v>468</v>
@@ -13364,7 +13364,7 @@
         <v>709</v>
       </c>
       <c r="I244">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J244" t="s">
         <v>468</v>
@@ -13390,7 +13390,7 @@
         <v>710</v>
       </c>
       <c r="I245">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J245" t="s">
         <v>468</v>
@@ -13416,7 +13416,7 @@
         <v>711</v>
       </c>
       <c r="I246">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J246" t="s">
         <v>468</v>
@@ -13442,7 +13442,7 @@
         <v>712</v>
       </c>
       <c r="I247">
-        <v>1.1400000000000001E-4</v>
+        <v>1.16E-4</v>
       </c>
       <c r="J247" t="s">
         <v>468</v>
@@ -13468,7 +13468,7 @@
         <v>713</v>
       </c>
       <c r="I248">
-        <v>1.1400000000000001E-4</v>
+        <v>1.26E-4</v>
       </c>
       <c r="J248" t="s">
         <v>468</v>
@@ -13494,7 +13494,7 @@
         <v>714</v>
       </c>
       <c r="I249">
-        <v>1.1400000000000001E-4</v>
+        <v>1.7699999999999999E-4</v>
       </c>
       <c r="J249" t="s">
         <v>468</v>
@@ -13520,7 +13520,7 @@
         <v>715</v>
       </c>
       <c r="I250">
-        <v>1.1400000000000001E-4</v>
+        <v>2.0699999999999999E-4</v>
       </c>
       <c r="J250" t="s">
         <v>468</v>
@@ -13546,7 +13546,7 @@
         <v>716</v>
       </c>
       <c r="I251">
-        <v>1.1400000000000001E-4</v>
+        <v>2.0699999999999999E-4</v>
       </c>
       <c r="J251" t="s">
         <v>468</v>
@@ -13572,7 +13572,7 @@
         <v>717</v>
       </c>
       <c r="I252">
-        <v>1.1400000000000001E-4</v>
+        <v>1.63E-4</v>
       </c>
       <c r="J252" t="s">
         <v>468</v>
@@ -13598,7 +13598,7 @@
         <v>718</v>
       </c>
       <c r="I253">
-        <v>1.1400000000000001E-4</v>
+        <v>1.06E-4</v>
       </c>
       <c r="J253" t="s">
         <v>468</v>
@@ -13624,7 +13624,7 @@
         <v>719</v>
       </c>
       <c r="I254">
-        <v>1.1400000000000001E-4</v>
+        <v>1.06E-4</v>
       </c>
       <c r="J254" t="s">
         <v>468</v>
@@ -13650,7 +13650,7 @@
         <v>720</v>
       </c>
       <c r="I255">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J255" t="s">
         <v>468</v>
@@ -13676,7 +13676,7 @@
         <v>721</v>
       </c>
       <c r="I256">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J256" t="s">
         <v>468</v>
@@ -13702,7 +13702,7 @@
         <v>722</v>
       </c>
       <c r="I257">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J257" t="s">
         <v>468</v>
@@ -13728,7 +13728,7 @@
         <v>723</v>
       </c>
       <c r="I258">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J258" t="s">
         <v>468</v>
@@ -13754,7 +13754,7 @@
         <v>724</v>
       </c>
       <c r="I259">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J259" t="s">
         <v>468</v>
@@ -13780,7 +13780,7 @@
         <v>725</v>
       </c>
       <c r="I260">
-        <v>4.9476000000000006E-2</v>
+        <v>4.4268000000000002E-2</v>
       </c>
       <c r="J260" t="s">
         <v>468</v>
@@ -13806,7 +13806,7 @@
         <v>726</v>
       </c>
       <c r="I261">
-        <v>7.0680000000000005E-3</v>
+        <v>6.3590000000000001E-3</v>
       </c>
       <c r="J261" t="s">
         <v>468</v>
@@ -13832,7 +13832,7 @@
         <v>727</v>
       </c>
       <c r="I262">
-        <v>7.0680000000000005E-3</v>
+        <v>6.3239999999999998E-3</v>
       </c>
       <c r="J262" t="s">
         <v>468</v>
@@ -13858,7 +13858,7 @@
         <v>728</v>
       </c>
       <c r="I263">
-        <v>7.0680000000000005E-3</v>
+        <v>6.3239999999999998E-3</v>
       </c>
       <c r="J263" t="s">
         <v>468</v>
@@ -13884,7 +13884,7 @@
         <v>729</v>
       </c>
       <c r="I264">
-        <v>3.5340000000000003E-2</v>
+        <v>3.3065999999999998E-2</v>
       </c>
       <c r="J264" t="s">
         <v>468</v>
@@ -13910,7 +13910,7 @@
         <v>730</v>
       </c>
       <c r="I265">
-        <v>7.0680000000000005E-3</v>
+        <v>7.2199999999999999E-3</v>
       </c>
       <c r="J265" t="s">
         <v>468</v>
@@ -13936,7 +13936,7 @@
         <v>731</v>
       </c>
       <c r="I266">
-        <v>7.0680000000000005E-3</v>
+        <v>7.0959999999999999E-3</v>
       </c>
       <c r="J266" t="s">
         <v>468</v>
@@ -13962,7 +13962,7 @@
         <v>732</v>
       </c>
       <c r="I267">
-        <v>4.9476000000000006E-2</v>
+        <v>4.4859000000000003E-2</v>
       </c>
       <c r="J267" t="s">
         <v>468</v>
@@ -13988,7 +13988,7 @@
         <v>733</v>
       </c>
       <c r="I268">
-        <v>4.5486000000000006E-2</v>
+        <v>4.1054E-2</v>
       </c>
       <c r="J268" t="s">
         <v>468</v>
@@ -14014,7 +14014,7 @@
         <v>734</v>
       </c>
       <c r="I269">
-        <v>6.4980000000000003E-3</v>
+        <v>5.8139999999999997E-3</v>
       </c>
       <c r="J269" t="s">
         <v>468</v>
@@ -14040,7 +14040,7 @@
         <v>735</v>
       </c>
       <c r="I270">
-        <v>6.4980000000000003E-3</v>
+        <v>5.8139999999999997E-3</v>
       </c>
       <c r="J270" t="s">
         <v>468</v>
@@ -14066,7 +14066,7 @@
         <v>736</v>
       </c>
       <c r="I271">
-        <v>6.4980000000000003E-3</v>
+        <v>5.8320000000000004E-3</v>
       </c>
       <c r="J271" t="s">
         <v>468</v>
@@ -14092,7 +14092,7 @@
         <v>737</v>
       </c>
       <c r="I272">
-        <v>3.2490000000000005E-2</v>
+        <v>3.1900999999999999E-2</v>
       </c>
       <c r="J272" t="s">
         <v>468</v>
@@ -14118,7 +14118,7 @@
         <v>738</v>
       </c>
       <c r="I273">
-        <v>6.4980000000000003E-3</v>
+        <v>6.7720000000000002E-3</v>
       </c>
       <c r="J273" t="s">
         <v>468</v>
@@ -14144,7 +14144,7 @@
         <v>739</v>
       </c>
       <c r="I274">
-        <v>6.4980000000000003E-3</v>
+        <v>7.2849999999999998E-3</v>
       </c>
       <c r="J274" t="s">
         <v>468</v>
@@ -14170,7 +14170,7 @@
         <v>740</v>
       </c>
       <c r="I275">
-        <v>4.5486000000000006E-2</v>
+        <v>4.4523E-2</v>
       </c>
       <c r="J275" t="s">
         <v>468</v>
@@ -14196,7 +14196,7 @@
         <v>741</v>
       </c>
       <c r="I276">
-        <v>1.1400000000000001E-4</v>
+        <v>5.6599999999999999E-4</v>
       </c>
       <c r="J276" t="s">
         <v>468</v>
@@ -14222,7 +14222,7 @@
         <v>742</v>
       </c>
       <c r="I277">
-        <v>1.1400000000000001E-4</v>
+        <v>6.9899999999999997E-4</v>
       </c>
       <c r="J277" t="s">
         <v>468</v>
@@ -14248,7 +14248,7 @@
         <v>743</v>
       </c>
       <c r="I278">
-        <v>1.1400000000000001E-4</v>
+        <v>5.9800000000000001E-4</v>
       </c>
       <c r="J278" t="s">
         <v>468</v>
@@ -14274,7 +14274,7 @@
         <v>744</v>
       </c>
       <c r="I279">
-        <v>1.1400000000000001E-4</v>
+        <v>4.5600000000000003E-4</v>
       </c>
       <c r="J279" t="s">
         <v>468</v>
@@ -14300,7 +14300,7 @@
         <v>745</v>
       </c>
       <c r="I280">
-        <v>1.1400000000000001E-4</v>
+        <v>4.0400000000000001E-4</v>
       </c>
       <c r="J280" t="s">
         <v>468</v>
@@ -14326,7 +14326,7 @@
         <v>746</v>
       </c>
       <c r="I281">
-        <v>1.1400000000000001E-4</v>
+        <v>3.57E-4</v>
       </c>
       <c r="J281" t="s">
         <v>468</v>
@@ -14352,7 +14352,7 @@
         <v>747</v>
       </c>
       <c r="I282">
-        <v>1.1400000000000001E-4</v>
+        <v>4.2900000000000002E-4</v>
       </c>
       <c r="J282" t="s">
         <v>468</v>
@@ -14378,7 +14378,7 @@
         <v>748</v>
       </c>
       <c r="I283">
-        <v>1.1400000000000001E-4</v>
+        <v>4.2900000000000002E-4</v>
       </c>
       <c r="J283" t="s">
         <v>468</v>
@@ -14404,7 +14404,7 @@
         <v>749</v>
       </c>
       <c r="I284">
-        <v>1.1400000000000001E-4</v>
+        <v>4.0400000000000001E-4</v>
       </c>
       <c r="J284" t="s">
         <v>468</v>
@@ -14430,7 +14430,7 @@
         <v>750</v>
       </c>
       <c r="I285">
-        <v>1.1400000000000001E-4</v>
+        <v>4.2900000000000002E-4</v>
       </c>
       <c r="J285" t="s">
         <v>468</v>
@@ -14456,7 +14456,7 @@
         <v>751</v>
       </c>
       <c r="I286">
-        <v>1.1400000000000001E-4</v>
+        <v>3.8000000000000002E-4</v>
       </c>
       <c r="J286" t="s">
         <v>468</v>
@@ -14482,7 +14482,7 @@
         <v>752</v>
       </c>
       <c r="I287">
-        <v>1.1400000000000001E-4</v>
+        <v>4.5600000000000003E-4</v>
       </c>
       <c r="J287" t="s">
         <v>468</v>
@@ -14508,7 +14508,7 @@
         <v>753</v>
       </c>
       <c r="I288">
-        <v>1.1400000000000001E-4</v>
+        <v>6.6399999999999999E-4</v>
       </c>
       <c r="J288" t="s">
         <v>468</v>
@@ -14534,7 +14534,7 @@
         <v>754</v>
       </c>
       <c r="I289">
-        <v>1.1400000000000001E-4</v>
+        <v>4.2900000000000002E-4</v>
       </c>
       <c r="J289" t="s">
         <v>468</v>
@@ -14560,7 +14560,7 @@
         <v>755</v>
       </c>
       <c r="I290">
-        <v>1.1400000000000001E-4</v>
+        <v>6.6399999999999999E-4</v>
       </c>
       <c r="J290" t="s">
         <v>468</v>
@@ -14586,7 +14586,7 @@
         <v>756</v>
       </c>
       <c r="I291">
-        <v>1.1400000000000001E-4</v>
+        <v>5.9800000000000001E-4</v>
       </c>
       <c r="J291" t="s">
         <v>468</v>
@@ -14612,7 +14612,7 @@
         <v>757</v>
       </c>
       <c r="I292">
-        <v>1.1400000000000001E-4</v>
+        <v>5.3600000000000002E-4</v>
       </c>
       <c r="J292" t="s">
         <v>468</v>
@@ -14638,7 +14638,7 @@
         <v>758</v>
       </c>
       <c r="I293">
-        <v>1.1400000000000001E-4</v>
+        <v>2.23E-4</v>
       </c>
       <c r="J293" t="s">
         <v>468</v>
@@ -14664,7 +14664,7 @@
         <v>759</v>
       </c>
       <c r="I294">
-        <v>1.1400000000000001E-4</v>
+        <v>4.0400000000000001E-4</v>
       </c>
       <c r="J294" t="s">
         <v>468</v>
@@ -14690,7 +14690,7 @@
         <v>760</v>
       </c>
       <c r="I295">
-        <v>1.1400000000000001E-4</v>
+        <v>2.23E-4</v>
       </c>
       <c r="J295" t="s">
         <v>468</v>
@@ -14716,7 +14716,7 @@
         <v>761</v>
       </c>
       <c r="I296">
-        <v>1.1400000000000001E-4</v>
+        <v>2.0699999999999999E-4</v>
       </c>
       <c r="J296" t="s">
         <v>468</v>
@@ -14742,7 +14742,7 @@
         <v>762</v>
       </c>
       <c r="I297">
-        <v>1.1400000000000001E-4</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="J297" t="s">
         <v>468</v>
@@ -14768,7 +14768,7 @@
         <v>763</v>
       </c>
       <c r="I298">
-        <v>1.1400000000000001E-4</v>
+        <v>1.37E-4</v>
       </c>
       <c r="J298" t="s">
         <v>468</v>
@@ -14794,7 +14794,7 @@
         <v>764</v>
       </c>
       <c r="I299">
-        <v>1.1400000000000001E-4</v>
+        <v>1.06E-4</v>
       </c>
       <c r="J299" t="s">
         <v>468</v>
@@ -14820,7 +14820,7 @@
         <v>765</v>
       </c>
       <c r="I300">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J300" t="s">
         <v>468</v>
@@ -14846,7 +14846,7 @@
         <v>766</v>
       </c>
       <c r="I301">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J301" t="s">
         <v>468</v>
@@ -14872,7 +14872,7 @@
         <v>767</v>
       </c>
       <c r="I302">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J302" t="s">
         <v>468</v>
@@ -14898,7 +14898,7 @@
         <v>768</v>
       </c>
       <c r="I303">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J303" t="s">
         <v>468</v>
@@ -14924,7 +14924,7 @@
         <v>769</v>
       </c>
       <c r="I304">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J304" t="s">
         <v>468</v>
@@ -14950,7 +14950,7 @@
         <v>770</v>
       </c>
       <c r="I305">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J305" t="s">
         <v>468</v>
@@ -14976,7 +14976,7 @@
         <v>771</v>
       </c>
       <c r="I306">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J306" t="s">
         <v>468</v>
@@ -15002,7 +15002,7 @@
         <v>772</v>
       </c>
       <c r="I307">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J307" t="s">
         <v>468</v>
@@ -15028,7 +15028,7 @@
         <v>773</v>
       </c>
       <c r="I308">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J308" t="s">
         <v>468</v>
@@ -15054,7 +15054,7 @@
         <v>774</v>
       </c>
       <c r="I309">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J309" t="s">
         <v>468</v>
@@ -15080,7 +15080,7 @@
         <v>775</v>
       </c>
       <c r="I310">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J310" t="s">
         <v>468</v>
@@ -15106,7 +15106,7 @@
         <v>776</v>
       </c>
       <c r="I311">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J311" t="s">
         <v>468</v>
@@ -15132,7 +15132,7 @@
         <v>777</v>
       </c>
       <c r="I312">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J312" t="s">
         <v>468</v>
@@ -15158,7 +15158,7 @@
         <v>778</v>
       </c>
       <c r="I313">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J313" t="s">
         <v>468</v>
@@ -15184,7 +15184,7 @@
         <v>779</v>
       </c>
       <c r="I314">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J314" t="s">
         <v>468</v>
@@ -15210,7 +15210,7 @@
         <v>780</v>
       </c>
       <c r="I315">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J315" t="s">
         <v>468</v>
@@ -15236,7 +15236,7 @@
         <v>781</v>
       </c>
       <c r="I316">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J316" t="s">
         <v>468</v>
@@ -15262,7 +15262,7 @@
         <v>782</v>
       </c>
       <c r="I317">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J317" t="s">
         <v>468</v>
@@ -15288,7 +15288,7 @@
         <v>783</v>
       </c>
       <c r="I318">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J318" t="s">
         <v>468</v>
@@ -15314,7 +15314,7 @@
         <v>784</v>
       </c>
       <c r="I319">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J319" t="s">
         <v>468</v>
@@ -15340,7 +15340,7 @@
         <v>785</v>
       </c>
       <c r="I320">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J320" t="s">
         <v>468</v>
@@ -15366,7 +15366,7 @@
         <v>786</v>
       </c>
       <c r="I321">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J321" t="s">
         <v>468</v>
@@ -15392,7 +15392,7 @@
         <v>787</v>
       </c>
       <c r="I322">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J322" t="s">
         <v>468</v>
@@ -15418,7 +15418,7 @@
         <v>788</v>
       </c>
       <c r="I323">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J323" t="s">
         <v>468</v>
@@ -15444,7 +15444,7 @@
         <v>789</v>
       </c>
       <c r="I324">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J324" t="s">
         <v>468</v>
@@ -15470,7 +15470,7 @@
         <v>790</v>
       </c>
       <c r="I325">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J325" t="s">
         <v>468</v>
@@ -15496,7 +15496,7 @@
         <v>791</v>
       </c>
       <c r="I326">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J326" t="s">
         <v>468</v>
@@ -15522,7 +15522,7 @@
         <v>792</v>
       </c>
       <c r="I327">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J327" t="s">
         <v>468</v>
@@ -15548,7 +15548,7 @@
         <v>793</v>
       </c>
       <c r="I328">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J328" t="s">
         <v>468</v>
@@ -15574,7 +15574,7 @@
         <v>794</v>
       </c>
       <c r="I329">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J329" t="s">
         <v>468</v>
@@ -15600,7 +15600,7 @@
         <v>795</v>
       </c>
       <c r="I330">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J330" t="s">
         <v>468</v>
@@ -15626,7 +15626,7 @@
         <v>796</v>
       </c>
       <c r="I331">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J331" t="s">
         <v>468</v>
@@ -15652,7 +15652,7 @@
         <v>797</v>
       </c>
       <c r="I332">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J332" t="s">
         <v>468</v>
@@ -15678,7 +15678,7 @@
         <v>798</v>
       </c>
       <c r="I333">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J333" t="s">
         <v>468</v>
@@ -15704,7 +15704,7 @@
         <v>799</v>
       </c>
       <c r="I334">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J334" t="s">
         <v>468</v>
@@ -15730,7 +15730,7 @@
         <v>800</v>
       </c>
       <c r="I335">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J335" t="s">
         <v>468</v>
@@ -15756,7 +15756,7 @@
         <v>801</v>
       </c>
       <c r="I336">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J336" t="s">
         <v>468</v>
@@ -15782,7 +15782,7 @@
         <v>802</v>
       </c>
       <c r="I337">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J337" t="s">
         <v>468</v>
@@ -15808,7 +15808,7 @@
         <v>803</v>
       </c>
       <c r="I338">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J338" t="s">
         <v>468</v>
@@ -15834,7 +15834,7 @@
         <v>804</v>
       </c>
       <c r="I339">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J339" t="s">
         <v>468</v>
@@ -15860,7 +15860,7 @@
         <v>805</v>
       </c>
       <c r="I340">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J340" t="s">
         <v>468</v>
@@ -15886,7 +15886,7 @@
         <v>806</v>
       </c>
       <c r="I341">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J341" t="s">
         <v>468</v>
@@ -15912,7 +15912,7 @@
         <v>807</v>
       </c>
       <c r="I342">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J342" t="s">
         <v>468</v>
@@ -15938,7 +15938,7 @@
         <v>808</v>
       </c>
       <c r="I343">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J343" t="s">
         <v>468</v>
@@ -15964,7 +15964,7 @@
         <v>809</v>
       </c>
       <c r="I344">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J344" t="s">
         <v>468</v>
@@ -15990,7 +15990,7 @@
         <v>810</v>
       </c>
       <c r="I345">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J345" t="s">
         <v>468</v>
@@ -16016,7 +16016,7 @@
         <v>811</v>
       </c>
       <c r="I346">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J346" t="s">
         <v>468</v>
@@ -16042,7 +16042,7 @@
         <v>812</v>
       </c>
       <c r="I347">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J347" t="s">
         <v>468</v>
@@ -16068,7 +16068,7 @@
         <v>813</v>
       </c>
       <c r="I348">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J348" t="s">
         <v>468</v>
@@ -16094,7 +16094,7 @@
         <v>814</v>
       </c>
       <c r="I349">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J349" t="s">
         <v>468</v>
@@ -16120,7 +16120,7 @@
         <v>815</v>
       </c>
       <c r="I350">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J350" t="s">
         <v>468</v>
@@ -16146,7 +16146,7 @@
         <v>816</v>
       </c>
       <c r="I351">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J351" t="s">
         <v>468</v>
@@ -16172,7 +16172,7 @@
         <v>817</v>
       </c>
       <c r="I352">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J352" t="s">
         <v>468</v>
@@ -16198,7 +16198,7 @@
         <v>818</v>
       </c>
       <c r="I353">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J353" t="s">
         <v>468</v>
@@ -16224,7 +16224,7 @@
         <v>819</v>
       </c>
       <c r="I354">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J354" t="s">
         <v>468</v>
@@ -16250,7 +16250,7 @@
         <v>820</v>
       </c>
       <c r="I355">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J355" t="s">
         <v>468</v>
@@ -16276,7 +16276,7 @@
         <v>821</v>
       </c>
       <c r="I356">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J356" t="s">
         <v>468</v>
@@ -16302,7 +16302,7 @@
         <v>822</v>
       </c>
       <c r="I357">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J357" t="s">
         <v>468</v>
@@ -16328,7 +16328,7 @@
         <v>823</v>
       </c>
       <c r="I358">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J358" t="s">
         <v>468</v>
@@ -16354,7 +16354,7 @@
         <v>824</v>
       </c>
       <c r="I359">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J359" t="s">
         <v>468</v>
@@ -16380,7 +16380,7 @@
         <v>825</v>
       </c>
       <c r="I360">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J360" t="s">
         <v>468</v>
@@ -16406,7 +16406,7 @@
         <v>826</v>
       </c>
       <c r="I361">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J361" t="s">
         <v>468</v>
@@ -16432,7 +16432,7 @@
         <v>827</v>
       </c>
       <c r="I362">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J362" t="s">
         <v>468</v>
@@ -16458,7 +16458,7 @@
         <v>828</v>
       </c>
       <c r="I363">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J363" t="s">
         <v>468</v>
@@ -16484,7 +16484,7 @@
         <v>829</v>
       </c>
       <c r="I364">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J364" t="s">
         <v>468</v>
@@ -16510,7 +16510,7 @@
         <v>830</v>
       </c>
       <c r="I365">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J365" t="s">
         <v>468</v>
@@ -16536,7 +16536,7 @@
         <v>831</v>
       </c>
       <c r="I366">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J366" t="s">
         <v>468</v>
@@ -16562,7 +16562,7 @@
         <v>832</v>
       </c>
       <c r="I367">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J367" t="s">
         <v>468</v>
@@ -16588,7 +16588,7 @@
         <v>833</v>
       </c>
       <c r="I368">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J368" t="s">
         <v>468</v>
@@ -16614,7 +16614,7 @@
         <v>834</v>
       </c>
       <c r="I369">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J369" t="s">
         <v>468</v>
@@ -16640,7 +16640,7 @@
         <v>835</v>
       </c>
       <c r="I370">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J370" t="s">
         <v>468</v>
@@ -16666,7 +16666,7 @@
         <v>836</v>
       </c>
       <c r="I371">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J371" t="s">
         <v>468</v>
@@ -16692,7 +16692,7 @@
         <v>837</v>
       </c>
       <c r="I372">
-        <v>2.3142000000000003E-2</v>
+        <v>2.2547000000000001E-2</v>
       </c>
       <c r="J372" t="s">
         <v>468</v>
@@ -16718,7 +16718,7 @@
         <v>838</v>
       </c>
       <c r="I373">
-        <v>3.3060000000000003E-3</v>
+        <v>3.2139999999999998E-3</v>
       </c>
       <c r="J373" t="s">
         <v>468</v>
@@ -16744,7 +16744,7 @@
         <v>839</v>
       </c>
       <c r="I374">
-        <v>3.3060000000000003E-3</v>
+        <v>3.1359999999999999E-3</v>
       </c>
       <c r="J374" t="s">
         <v>468</v>
@@ -16770,7 +16770,7 @@
         <v>840</v>
       </c>
       <c r="I375">
-        <v>3.3060000000000003E-3</v>
+        <v>3.3869999999999998E-3</v>
       </c>
       <c r="J375" t="s">
         <v>468</v>
@@ -16796,7 +16796,7 @@
         <v>841</v>
       </c>
       <c r="I376">
-        <v>1.6623000000000002E-2</v>
+        <v>2.7576E-2</v>
       </c>
       <c r="J376" t="s">
         <v>468</v>
@@ -16822,7 +16822,7 @@
         <v>842</v>
       </c>
       <c r="I377">
-        <v>3.3060000000000003E-3</v>
+        <v>4.8960000000000002E-3</v>
       </c>
       <c r="J377" t="s">
         <v>468</v>
@@ -16848,7 +16848,7 @@
         <v>843</v>
       </c>
       <c r="I378">
-        <v>3.3060000000000003E-3</v>
+        <v>4.5079999999999999E-3</v>
       </c>
       <c r="J378" t="s">
         <v>468</v>
@@ -16874,7 +16874,7 @@
         <v>844</v>
       </c>
       <c r="I379">
-        <v>2.3142000000000003E-2</v>
+        <v>2.3018E-2</v>
       </c>
       <c r="J379" t="s">
         <v>468</v>
@@ -16900,7 +16900,7 @@
         <v>845</v>
       </c>
       <c r="I380">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J380" t="s">
         <v>468</v>
@@ -16926,7 +16926,7 @@
         <v>846</v>
       </c>
       <c r="I381">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J381" t="s">
         <v>468</v>
@@ -16952,7 +16952,7 @@
         <v>847</v>
       </c>
       <c r="I382">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J382" t="s">
         <v>468</v>
@@ -16978,7 +16978,7 @@
         <v>848</v>
       </c>
       <c r="I383">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J383" t="s">
         <v>468</v>
@@ -17004,7 +17004,7 @@
         <v>849</v>
       </c>
       <c r="I384">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J384" t="s">
         <v>468</v>
@@ -17030,7 +17030,7 @@
         <v>850</v>
       </c>
       <c r="I385">
-        <v>1.1400000000000001E-4</v>
+        <v>1.06E-4</v>
       </c>
       <c r="J385" t="s">
         <v>468</v>
@@ -17056,7 +17056,7 @@
         <v>851</v>
       </c>
       <c r="I386">
-        <v>1.1400000000000001E-4</v>
+        <v>1.26E-4</v>
       </c>
       <c r="J386" t="s">
         <v>468</v>
@@ -17082,7 +17082,7 @@
         <v>852</v>
       </c>
       <c r="I387">
-        <v>1.1400000000000001E-4</v>
+        <v>1.16E-4</v>
       </c>
       <c r="J387" t="s">
         <v>468</v>
@@ -17108,7 +17108,7 @@
         <v>853</v>
       </c>
       <c r="I388">
-        <v>1.1400000000000001E-4</v>
+        <v>1.16E-4</v>
       </c>
       <c r="J388" t="s">
         <v>468</v>
@@ -17134,7 +17134,7 @@
         <v>854</v>
       </c>
       <c r="I389">
-        <v>1.1400000000000001E-4</v>
+        <v>1.37E-4</v>
       </c>
       <c r="J389" t="s">
         <v>468</v>
@@ -17160,7 +17160,7 @@
         <v>855</v>
       </c>
       <c r="I390">
-        <v>1.1400000000000001E-4</v>
+        <v>1.63E-4</v>
       </c>
       <c r="J390" t="s">
         <v>468</v>
@@ -17186,7 +17186,7 @@
         <v>856</v>
       </c>
       <c r="I391">
-        <v>1.1400000000000001E-4</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="J391" t="s">
         <v>468</v>
@@ -17212,7 +17212,7 @@
         <v>857</v>
       </c>
       <c r="I392">
-        <v>1.1400000000000001E-4</v>
+        <v>1.37E-4</v>
       </c>
       <c r="J392" t="s">
         <v>468</v>
@@ -17238,7 +17238,7 @@
         <v>858</v>
       </c>
       <c r="I393">
-        <v>1.1400000000000001E-4</v>
+        <v>1.26E-4</v>
       </c>
       <c r="J393" t="s">
         <v>468</v>
@@ -17264,7 +17264,7 @@
         <v>859</v>
       </c>
       <c r="I394">
-        <v>1.1400000000000001E-4</v>
+        <v>1.06E-4</v>
       </c>
       <c r="J394" t="s">
         <v>468</v>
@@ -17290,7 +17290,7 @@
         <v>860</v>
       </c>
       <c r="I395">
-        <v>1.1400000000000001E-4</v>
+        <v>1.06E-4</v>
       </c>
       <c r="J395" t="s">
         <v>468</v>
@@ -17316,7 +17316,7 @@
         <v>861</v>
       </c>
       <c r="I396">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J396" t="s">
         <v>468</v>
@@ -17342,7 +17342,7 @@
         <v>862</v>
       </c>
       <c r="I397">
-        <v>1.1400000000000001E-4</v>
+        <v>1.06E-4</v>
       </c>
       <c r="J397" t="s">
         <v>468</v>
@@ -17368,7 +17368,7 @@
         <v>863</v>
       </c>
       <c r="I398">
-        <v>1.1400000000000001E-4</v>
+        <v>1.06E-4</v>
       </c>
       <c r="J398" t="s">
         <v>468</v>
@@ -17394,7 +17394,7 @@
         <v>864</v>
       </c>
       <c r="I399">
-        <v>1.1400000000000001E-4</v>
+        <v>1.06E-4</v>
       </c>
       <c r="J399" t="s">
         <v>468</v>
@@ -17420,7 +17420,7 @@
         <v>865</v>
       </c>
       <c r="I400">
-        <v>1.1400000000000001E-4</v>
+        <v>1.16E-4</v>
       </c>
       <c r="J400" t="s">
         <v>468</v>
@@ -17446,7 +17446,7 @@
         <v>866</v>
       </c>
       <c r="I401">
-        <v>1.1400000000000001E-4</v>
+        <v>1.06E-4</v>
       </c>
       <c r="J401" t="s">
         <v>468</v>
@@ -17472,7 +17472,7 @@
         <v>867</v>
       </c>
       <c r="I402">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J402" t="s">
         <v>468</v>
@@ -17498,7 +17498,7 @@
         <v>868</v>
       </c>
       <c r="I403">
-        <v>1.1400000000000001E-4</v>
+        <v>1.02E-4</v>
       </c>
       <c r="J403" t="s">
         <v>468</v>
@@ -17524,7 +17524,7 @@
         <v>869</v>
       </c>
       <c r="I404">
-        <v>2.4738000000000003E-2</v>
+        <v>2.2414E-2</v>
       </c>
       <c r="J404" t="s">
         <v>468</v>
@@ -17550,7 +17550,7 @@
         <v>870</v>
       </c>
       <c r="I405">
-        <v>3.5340000000000002E-3</v>
+        <v>3.176E-3</v>
       </c>
       <c r="J405" t="s">
         <v>468</v>
@@ -17576,7 +17576,7 @@
         <v>871</v>
       </c>
       <c r="I406">
-        <v>3.5340000000000002E-3</v>
+        <v>3.176E-3</v>
       </c>
       <c r="J406" t="s">
         <v>468</v>
@@ -17602,7 +17602,7 @@
         <v>872</v>
       </c>
       <c r="I407">
-        <v>3.5340000000000002E-3</v>
+        <v>3.1619999999999999E-3</v>
       </c>
       <c r="J407" t="s">
         <v>468</v>
@@ -17628,7 +17628,7 @@
         <v>873</v>
       </c>
       <c r="I408">
-        <v>1.7670000000000002E-2</v>
+        <v>1.5896E-2</v>
       </c>
       <c r="J408" t="s">
         <v>468</v>
@@ -17654,7 +17654,7 @@
         <v>874</v>
       </c>
       <c r="I409">
-        <v>3.5340000000000002E-3</v>
+        <v>3.3119999999999998E-3</v>
       </c>
       <c r="J409" t="s">
         <v>468</v>
@@ -17680,7 +17680,7 @@
         <v>875</v>
       </c>
       <c r="I410">
-        <v>3.5340000000000002E-3</v>
+        <v>3.2209999999999999E-3</v>
       </c>
       <c r="J410" t="s">
         <v>468</v>
@@ -17706,7 +17706,7 @@
         <v>876</v>
       </c>
       <c r="I411">
-        <v>2.4738000000000003E-2</v>
+        <v>2.2197999999999999E-2</v>
       </c>
       <c r="J411" t="s">
         <v>468</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1936EC57-65C9-4AB9-BBB4-9F2A1EAC78D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875ADDB3-6C3E-4A72-AF74-44C51868D4D7}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_CHE/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4593749B-E3FA-4B81-B312-1A15EA9C702C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151EC618-4E26-472F-9D54-A0CA10195F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="12683" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1c0205h13,S2d0415h07,S2f0420h08,S2f0420h11,S2h0427h09,S2h0427h14,S2i0429h13,S3aH7,S4l0918h07,S4l0918h14,S4o1023h18,S1c0205h07,S1c0205h08,S2d0415h14,S2d0415h15,S2i0429h07,S2i0429h09,S2i0429h14,S4n1020h10,S4n1020h13,S4n1020h14,S4n1020h17,S4o1023h08,S4o1023h12,S6aH5,S1b0201h13,S1b0201h15,S2e0416h10,S2e0416h14,S2e0416h17,S2f0420h10,S2i0429h17,S2k0531h14,S4m1019h12,S4n1020h08,S4n1020h11,S1aH3,S2e0416h11,S2e0416h18,S2i0429h11,S2i0429h12,S2i0429h15,S2j0518h16,S2j0518h18,S2k0531h17,S4l0918h10,S4l0918h12,S4l0918h13,S4l0918h17,S4m1019h11,S4n1020h15,S5p1104h15,S2d0415h16,S2e0416h13,S2f0420h12,S2f0420h15,S2g0421h17,S2h0427h08,S2j0518h07,S2k0531h12,S3aH2,S4o1023h14,S5p1104h12,S1c0205h15,S2f0420h07,S2g0421h09,S2h0427h10,S2j0518h10,S2k0531h11,S3aH3,S4n1020h07,S5p1104h14,S1aH5,S1c0205h16,S2aH4,S2aH5,S2d0415h11,S2d0415h17,S2e0416h16,S2g0421h08,S2g0421h13,S2h0427h07,S2h0427h11,S2k0531h10,S4m1019h09,S4m1019h18,S4o1023h17,S5aH2,S5aH5,S5p1104h16,S6aH2,S1c0205h12,S1c0205h14,S2e0416h12,S2g0421h07,S2g0421h18,S2h0427h13,S2h0427h17,S2i0429h10,S2k0531h07,S2k0531h09,S4m1019h07,S4m1019h08,S4m1019h17,S4n1020h09,S4n1020h16,S4o1023h10,S4o1023h13,S6aH7,S1b0201h10,S1b0201h12,S2d0415h08,S2d0415h10,S2d0415h13,S2e0416h09,S2f0420h14,S2i0429h18,S2j0518h14,S4aH2,S4m1019h14,S4o1023h07,S4o1023h16,S1aH4,S1b0201h08,S2aH2,S2f0420h17,S2i0429h16,S4aH6,S4l0918h18,S4n1020h12,S4n1020h18,S4o1023h15,S1aH6,S1b0201h11,S1b0201h14,S1b0201h16,S1b0201h17,S1b0201h18,S2g0421h11,S2g0421h12,S2g0421h14,S2h0427h12,S2h0427h15,S2j0518h13,S2k0531h13,S2k0531h16,S4l0918h09,S4l0918h11,S5p1104h10,S5p1104h18,S1b0201h09,S1c0205h17,S2aH6,S2e0416h15,S2f0420h13,S2g0421h10,S2g0421h15,S2h0427h18,S2j0518h09,S2j0518h12,S2k0531h08,S3aH5,S4m1019h13,S4m1019h15,S4o1023h09,S5aH3,S5p1104h08,S1aH2,S1aH7,S1c0205h10,S2aH3,S2e0416h07,S2f0420h09,S2f0420h18,S2i0429h08,S2j0518h11,S2j0518h15,S2j0518h17,S2k0531h18,S3aH6,S4aH7,S4l0918h08,S4o1023h11,S5aH6,S5aH7,S6aH6,S1b0201h07,S2d0415h12,S2g0421h16,S2j0518h08,S4aH5,S4l0918h16,S5p1104h07,S1c0205h18,S2d0415h18,S2e0416h08,S2f0420h16,S4l0918h15,S5aH4,S5p1104h13,S5p1104h17,S6aH3,S6aH4,S1c0205h09,S1c0205h11,S2aH7,S2d0415h09,S2h0427h16,S2k0531h15,S3aH4,S4aH3,S4aH4,S4m1019h10,S4m1019h16,S5p1104h09,S5p1104h11</t>
-  </si>
-  <si>
-    <t>S2aH8,S2e0416h19,S2f0420h19,S2g0421h22,S2i0429h02,S2i0429h22,S2i0429h23,S2k0531h04,S2k0531h24,S4l0918h02,S4l0918h05,S4m1019h24,S4n1020h05,S4n1020h22,S5p1104h04,S5p1104h24,S1b0201h04,S2e0416h03,S2e0416h05,S2e0416h06,S2e0416h22,S2f0420h02,S2i0429h05,S2k0531h20,S2k0531h22,S4aH8,S4l0918h03,S4o1023h01,S4o1023h23,S5p1104h06,S5p1104h23,S1aH1,S1b0201h23,S2d0415h22,S2f0420h21,S2g0421h24,S2i0429h03,S4n1020h03,S4n1020h20,S1b0201h02,S2d0415h03,S2d0415h20,S2g0421h05,S2g0421h23,S2h0427h20,S2h0427h21,S2i0429h20,S2j0518h01,S2j0518h19,S2j0518h23,S4l0918h06,S4m1019h20,S4n1020h19,S1c0205h24,S2d0415h04,S2h0427h04,S2k0531h21,S3aH8,S4m1019h01,S5p1104h21,S1b0201h01,S2e0416h01,S2f0420h20,S2g0421h21,S4l0918h22,S5p1104h19,S1c0205h04,S1c0205h19,S1c0205h22,S2f0420h04,S2j0518h05,S4l0918h23,S4m1019h19,S4n1020h04,S4n1020h06,S1b0201h21,S1c0205h21,S2e0416h21,S2e0416h24,S2f0420h06,S2f0420h23,S2h0427h02,S2j0518h02,S2j0518h22,S2k0531h02,S2k0531h03,S3aH1,S4l0918h19,S4o1023h06,S4o1023h22,S2aH1,S2g0421h02,S2g0421h03,S2h0427h05,S2h0427h06,S2i0429h19,S2k0531h19,S4l0918h01,S4m1019h22,S4n1020h23,S4o1023h20,S4o1023h24,S5aH8,S5p1104h03,S1b0201h20,S1b0201h24,S2d0415h05,S2f0420h01,S2h0427h01,S4aH1,S4l0918h24,S4n1020h02,S4o1023h19,S6aH1,S1b0201h19,S1c0205h06,S2d0415h21,S2g0421h04,S2i0429h04,S4l0918h20,S4m1019h02,S4n1020h21,S4o1023h05,S5p1104h22,S6aH8,S1aH8,S1b0201h22,S1c0205h03,S2d0415h23,S2g0421h01,S2g0421h20,S2i0429h01,S2j0518h04,S2j0518h21,S4m1019h06,S4o1023h04,S5aH1,S5p1104h05,S1b0201h03,S1b0201h06,S1c0205h02,S1c0205h05,S2d0415h24,S2e0416h20,S2e0416h23,S2f0420h03,S2h0427h03,S2h0427h23,S2i0429h21,S2j0518h06,S2k0531h05,S4l0918h21,S4m1019h23,S4n1020h24,S4o1023h02,S4o1023h21,S5p1104h01,S1c0205h23,S2e0416h02,S2e0416h04,S2f0420h22,S2h0427h22,S2i0429h24,S2j0518h03,S2j0518h24,S4n1020h01,S5p1104h02,S2d0415h01,S2d0415h02,S2d0415h06,S2d0415h19,S2g0421h19,S2h0427h24,S2i0429h06,S2k0531h01,S2k0531h23,S4l0918h04,S4m1019h03,S4m1019h05,S4m1019h21,S1b0201h05,S1c0205h01,S1c0205h20,S2f0420h05,S2f0420h24,S2g0421h06,S2h0427h19,S2j0518h20,S2k0531h06,S4m1019h04,S4o1023h03,S5p1104h20</t>
+    <t>S1b0201h09,S1c0205h17,S2aH6,S2e0416h15,S2f0420h13,S2g0421h10,S2g0421h15,S2h0427h18,S2j0518h09,S2j0518h12,S2k0531h08,S3aH5,S4m1019h13,S4m1019h15,S4o1023h09,S5aH3,S5p1104h08,S1c0205h07,S1c0205h08,S2d0415h14,S2d0415h15,S2i0429h07,S2i0429h09,S2i0429h14,S4n1020h10,S4n1020h13,S4n1020h14,S4n1020h17,S4o1023h08,S4o1023h12,S6aH5,S1aH2,S1aH7,S1c0205h10,S2aH3,S2e0416h07,S2f0420h09,S2f0420h18,S2i0429h08,S2j0518h11,S2j0518h15,S2j0518h17,S2k0531h18,S3aH6,S4aH7,S4l0918h08,S4o1023h11,S5aH6,S5aH7,S6aH6,S1b0201h07,S2d0415h12,S2g0421h16,S2j0518h08,S4aH5,S4l0918h16,S5p1104h07,S1c0205h18,S2d0415h18,S2e0416h08,S2f0420h16,S4l0918h15,S5aH4,S5p1104h13,S5p1104h17,S6aH3,S6aH4,S2d0415h16,S2e0416h13,S2f0420h12,S2f0420h15,S2g0421h17,S2h0427h08,S2j0518h07,S2k0531h12,S3aH2,S4o1023h14,S5p1104h12,S1aH6,S1b0201h11,S1b0201h14,S1b0201h16,S1b0201h17,S1b0201h18,S2g0421h11,S2g0421h12,S2g0421h14,S2h0427h12,S2h0427h15,S2j0518h13,S2k0531h13,S2k0531h16,S4l0918h09,S4l0918h11,S5p1104h10,S5p1104h18,S1c0205h09,S1c0205h11,S2aH7,S2d0415h09,S2h0427h16,S2k0531h15,S3aH4,S4aH3,S4aH4,S4m1019h10,S4m1019h16,S5p1104h09,S5p1104h11,S1c0205h15,S2f0420h07,S2g0421h09,S2h0427h10,S2j0518h10,S2k0531h11,S3aH3,S4n1020h07,S5p1104h14,S1aH5,S1c0205h16,S2aH4,S2aH5,S2d0415h11,S2d0415h17,S2e0416h16,S2g0421h08,S2g0421h13,S2h0427h07,S2h0427h11,S2k0531h10,S4m1019h09,S4m1019h18,S4o1023h17,S5aH2,S5aH5,S5p1104h16,S6aH2,S1b0201h10,S1b0201h12,S2d0415h08,S2d0415h10,S2d0415h13,S2e0416h09,S2f0420h14,S2i0429h18,S2j0518h14,S4aH2,S4m1019h14,S4o1023h07,S4o1023h16,S1aH4,S1b0201h08,S2aH2,S2f0420h17,S2i0429h16,S4aH6,S4l0918h18,S4n1020h12,S4n1020h18,S4o1023h15,S1c0205h12,S1c0205h14,S2e0416h12,S2g0421h07,S2g0421h18,S2h0427h13,S2h0427h17,S2i0429h10,S2k0531h07,S2k0531h09,S4m1019h07,S4m1019h08,S4m1019h17,S4n1020h09,S4n1020h16,S4o1023h10,S4o1023h13,S6aH7,S1aH3,S2e0416h11,S2e0416h18,S2i0429h11,S2i0429h12,S2i0429h15,S2j0518h16,S2j0518h18,S2k0531h17,S4l0918h10,S4l0918h12,S4l0918h13,S4l0918h17,S4m1019h11,S4n1020h15,S5p1104h15,S1b0201h13,S1b0201h15,S2e0416h10,S2e0416h14,S2e0416h17,S2f0420h10,S2i0429h17,S2k0531h14,S4m1019h12,S4n1020h08,S4n1020h11,S1c0205h13,S2d0415h07,S2f0420h08,S2f0420h11,S2h0427h09,S2h0427h14,S2i0429h13,S3aH7,S4l0918h07,S4l0918h14,S4o1023h18</t>
+  </si>
+  <si>
+    <t>S1aH8,S1b0201h22,S1c0205h03,S2d0415h23,S2g0421h01,S2g0421h20,S2i0429h01,S2j0518h04,S2j0518h21,S4m1019h06,S4o1023h04,S5aH1,S5p1104h05,S1b0201h04,S2e0416h03,S2e0416h05,S2e0416h06,S2e0416h22,S2f0420h02,S2i0429h05,S2k0531h20,S2k0531h22,S4aH8,S4l0918h03,S4o1023h01,S4o1023h23,S5p1104h06,S5p1104h23,S1b0201h03,S1b0201h06,S1c0205h02,S1c0205h05,S2d0415h24,S2e0416h20,S2e0416h23,S2f0420h03,S2h0427h03,S2h0427h23,S2i0429h21,S2j0518h06,S2k0531h05,S4l0918h21,S4m1019h23,S4n1020h24,S4o1023h02,S4o1023h21,S5p1104h01,S1c0205h23,S2e0416h02,S2e0416h04,S2f0420h22,S2h0427h22,S2i0429h24,S2j0518h03,S2j0518h24,S4n1020h01,S5p1104h02,S2d0415h01,S2d0415h02,S2d0415h06,S2d0415h19,S2g0421h19,S2h0427h24,S2i0429h06,S2k0531h01,S2k0531h23,S4l0918h04,S4m1019h03,S4m1019h05,S4m1019h21,S1c0205h24,S2d0415h04,S2h0427h04,S2k0531h21,S3aH8,S4m1019h01,S5p1104h21,S1b0201h19,S1c0205h06,S2d0415h21,S2g0421h04,S2i0429h04,S4l0918h20,S4m1019h02,S4n1020h21,S4o1023h05,S5p1104h22,S6aH8,S1b0201h05,S1c0205h01,S1c0205h20,S2f0420h05,S2f0420h24,S2g0421h06,S2h0427h19,S2j0518h20,S2k0531h06,S4m1019h04,S4o1023h03,S5p1104h20,S1b0201h01,S2e0416h01,S2f0420h20,S2g0421h21,S4l0918h22,S5p1104h19,S1c0205h04,S1c0205h19,S1c0205h22,S2f0420h04,S2j0518h05,S4l0918h23,S4m1019h19,S4n1020h04,S4n1020h06,S2aH1,S2g0421h02,S2g0421h03,S2h0427h05,S2h0427h06,S2i0429h19,S2k0531h19,S4l0918h01,S4m1019h22,S4n1020h23,S4o1023h20,S4o1023h24,S5aH8,S5p1104h03,S1b0201h20,S1b0201h24,S2d0415h05,S2f0420h01,S2h0427h01,S4aH1,S4l0918h24,S4n1020h02,S4o1023h19,S6aH1,S1b0201h21,S1c0205h21,S2e0416h21,S2e0416h24,S2f0420h06,S2f0420h23,S2h0427h02,S2j0518h02,S2j0518h22,S2k0531h02,S2k0531h03,S3aH1,S4l0918h19,S4o1023h06,S4o1023h22,S1b0201h02,S2d0415h03,S2d0415h20,S2g0421h05,S2g0421h23,S2h0427h20,S2h0427h21,S2i0429h20,S2j0518h01,S2j0518h19,S2j0518h23,S4l0918h06,S4m1019h20,S4n1020h19,S1aH1,S1b0201h23,S2d0415h22,S2f0420h21,S2g0421h24,S2i0429h03,S4n1020h03,S4n1020h20,S2aH8,S2e0416h19,S2f0420h19,S2g0421h22,S2i0429h02,S2i0429h22,S2i0429h23,S2k0531h04,S2k0531h24,S4l0918h02,S4l0918h05,S4m1019h24,S4n1020h05,S4n1020h22,S5p1104h04,S5p1104h24</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH8,S2e0416h19,S2f0420h19,S2g0421h22,S2i0429h02,S2i0429h22,S2i0429h23,S2k0531h04,S2k0531h24,S4l0918h02,S4l0918h05,S4m1019h24,S4n1020h05,S4n1020h22,S5p1104h04,S5p1104h24,S1b0201h04,S2e0416h03,S2e0416h05,S2e0416h06,S2e0416h22,S2f0420h02,S2i0429h05,S2k0531h20,S2k0531h22,S4aH8,S4l0918h03,S4o1023h01,S4o1023h23,S5p1104h06,S5p1104h23,S1aH1,S1b0201h23,S2d0415h22,S2f0420h21,S2g0421h24,S2i0429h03,S4n1020h03,S4n1020h20,S1b0201h02,S2d0415h03,S2d0415h20,S2g0421h05,S2g0421h23,S2h0427h20,S2h0427h21,S2i0429h20,S2j0518h01,S2j0518h19,S2j0518h23,S4l0918h06,S4m1019h20,S4n1020h19,S1c0205h24,S2d0415h04,S2h0427h04,S2k0531h21,S3aH8,S4m1019h01,S5p1104h21,S1b0201h01,S2e0416h01,S2f0420h20,S2g0421h21,S4l0918h22,S5p1104h19,S1c0205h04,S1c0205h19,S1c0205h22,S2f0420h04,S2j0518h05,S4l0918h23,S4m1019h19,S4n1020h04,S4n1020h06,S1b0201h21,S1c0205h21,S2e0416h21,S2e0416h24,S2f0420h06,S2f0420h23,S2h0427h02,S2j0518h02,S2j0518h22,S2k0531h02,S2k0531h03,S3aH1,S4l0918h19,S4o1023h06,S4o1023h22,S2aH1,S2g0421h02,S2g0421h03,S2h0427h05,S2h0427h06,S2i0429h19,S2k0531h19,S4l0918h01,S4m1019h22,S4n1020h23,S4o1023h20,S4o1023h24,S5aH8,S5p1104h03,S1b0201h20,S1b0201h24,S2d0415h05,S2f0420h01,S2h0427h01,S4aH1,S4l0918h24,S4n1020h02,S4o1023h19,S6aH1,S1b0201h19,S1c0205h06,S2d0415h21,S2g0421h04,S2i0429h04,S4l0918h20,S4m1019h02,S4n1020h21,S4o1023h05,S5p1104h22,S6aH8,S1aH8,S1b0201h22,S1c0205h03,S2d0415h23,S2g0421h01,S2g0421h20,S2i0429h01,S2j0518h04,S2j0518h21,S4m1019h06,S4o1023h04,S5aH1,S5p1104h05,S1b0201h03,S1b0201h06,S1c0205h02,S1c0205h05,S2d0415h24,S2e0416h20,S2e0416h23,S2f0420h03,S2h0427h03,S2h0427h23,S2i0429h21,S2j0518h06,S2k0531h05,S4l0918h21,S4m1019h23,S4n1020h24,S4o1023h02,S4o1023h21,S5p1104h01,S1c0205h23,S2e0416h02,S2e0416h04,S2f0420h22,S2h0427h22,S2i0429h24,S2j0518h03,S2j0518h24,S4n1020h01,S5p1104h02,S2d0415h01,S2d0415h02,S2d0415h06,S2d0415h19,S2g0421h19,S2h0427h24,S2i0429h06,S2k0531h01,S2k0531h23,S4l0918h04,S4m1019h03,S4m1019h05,S4m1019h21,S1b0201h05,S1c0205h01,S1c0205h20,S2f0420h05,S2f0420h24,S2g0421h06,S2h0427h19,S2j0518h20,S2k0531h06,S4m1019h04,S4o1023h03,S5p1104h20</v>
+        <v>S1aH8,S1b0201h22,S1c0205h03,S2d0415h23,S2g0421h01,S2g0421h20,S2i0429h01,S2j0518h04,S2j0518h21,S4m1019h06,S4o1023h04,S5aH1,S5p1104h05,S1b0201h04,S2e0416h03,S2e0416h05,S2e0416h06,S2e0416h22,S2f0420h02,S2i0429h05,S2k0531h20,S2k0531h22,S4aH8,S4l0918h03,S4o1023h01,S4o1023h23,S5p1104h06,S5p1104h23,S1b0201h03,S1b0201h06,S1c0205h02,S1c0205h05,S2d0415h24,S2e0416h20,S2e0416h23,S2f0420h03,S2h0427h03,S2h0427h23,S2i0429h21,S2j0518h06,S2k0531h05,S4l0918h21,S4m1019h23,S4n1020h24,S4o1023h02,S4o1023h21,S5p1104h01,S1c0205h23,S2e0416h02,S2e0416h04,S2f0420h22,S2h0427h22,S2i0429h24,S2j0518h03,S2j0518h24,S4n1020h01,S5p1104h02,S2d0415h01,S2d0415h02,S2d0415h06,S2d0415h19,S2g0421h19,S2h0427h24,S2i0429h06,S2k0531h01,S2k0531h23,S4l0918h04,S4m1019h03,S4m1019h05,S4m1019h21,S1c0205h24,S2d0415h04,S2h0427h04,S2k0531h21,S3aH8,S4m1019h01,S5p1104h21,S1b0201h19,S1c0205h06,S2d0415h21,S2g0421h04,S2i0429h04,S4l0918h20,S4m1019h02,S4n1020h21,S4o1023h05,S5p1104h22,S6aH8,S1b0201h05,S1c0205h01,S1c0205h20,S2f0420h05,S2f0420h24,S2g0421h06,S2h0427h19,S2j0518h20,S2k0531h06,S4m1019h04,S4o1023h03,S5p1104h20,S1b0201h01,S2e0416h01,S2f0420h20,S2g0421h21,S4l0918h22,S5p1104h19,S1c0205h04,S1c0205h19,S1c0205h22,S2f0420h04,S2j0518h05,S4l0918h23,S4m1019h19,S4n1020h04,S4n1020h06,S2aH1,S2g0421h02,S2g0421h03,S2h0427h05,S2h0427h06,S2i0429h19,S2k0531h19,S4l0918h01,S4m1019h22,S4n1020h23,S4o1023h20,S4o1023h24,S5aH8,S5p1104h03,S1b0201h20,S1b0201h24,S2d0415h05,S2f0420h01,S2h0427h01,S4aH1,S4l0918h24,S4n1020h02,S4o1023h19,S6aH1,S1b0201h21,S1c0205h21,S2e0416h21,S2e0416h24,S2f0420h06,S2f0420h23,S2h0427h02,S2j0518h02,S2j0518h22,S2k0531h02,S2k0531h03,S3aH1,S4l0918h19,S4o1023h06,S4o1023h22,S1b0201h02,S2d0415h03,S2d0415h20,S2g0421h05,S2g0421h23,S2h0427h20,S2h0427h21,S2i0429h20,S2j0518h01,S2j0518h19,S2j0518h23,S4l0918h06,S4m1019h20,S4n1020h19,S1aH1,S1b0201h23,S2d0415h22,S2f0420h21,S2g0421h24,S2i0429h03,S4n1020h03,S4n1020h20,S2aH8,S2e0416h19,S2f0420h19,S2g0421h22,S2i0429h02,S2i0429h22,S2i0429h23,S2k0531h04,S2k0531h24,S4l0918h02,S4l0918h05,S4m1019h24,S4n1020h05,S4n1020h22,S5p1104h04,S5p1104h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1c0205h13,S2d0415h07,S2f0420h08,S2f0420h11,S2h0427h09,S2h0427h14,S2i0429h13,S3aH7,S4l0918h07,S4l0918h14,S4o1023h18,S1c0205h07,S1c0205h08,S2d0415h14,S2d0415h15,S2i0429h07,S2i0429h09,S2i0429h14,S4n1020h10,S4n1020h13,S4n1020h14,S4n1020h17,S4o1023h08,S4o1023h12,S6aH5,S1b0201h13,S1b0201h15,S2e0416h10,S2e0416h14,S2e0416h17,S2f0420h10,S2i0429h17,S2k0531h14,S4m1019h12,S4n1020h08,S4n1020h11,S1aH3,S2e0416h11,S2e0416h18,S2i0429h11,S2i0429h12,S2i0429h15,S2j0518h16,S2j0518h18,S2k0531h17,S4l0918h10,S4l0918h12,S4l0918h13,S4l0918h17,S4m1019h11,S4n1020h15,S5p1104h15,S2d0415h16,S2e0416h13,S2f0420h12,S2f0420h15,S2g0421h17,S2h0427h08,S2j0518h07,S2k0531h12,S3aH2,S4o1023h14,S5p1104h12,S1c0205h15,S2f0420h07,S2g0421h09,S2h0427h10,S2j0518h10,S2k0531h11,S3aH3,S4n1020h07,S5p1104h14,S1aH5,S1c0205h16,S2aH4,S2aH5,S2d0415h11,S2d0415h17,S2e0416h16,S2g0421h08,S2g0421h13,S2h0427h07,S2h0427h11,S2k0531h10,S4m1019h09,S4m1019h18,S4o1023h17,S5aH2,S5aH5,S5p1104h16,S6aH2,S1c0205h12,S1c0205h14,S2e0416h12,S2g0421h07,S2g0421h18,S2h0427h13,S2h0427h17,S2i0429h10,S2k0531h07,S2k0531h09,S4m1019h07,S4m1019h08,S4m1019h17,S4n1020h09,S4n1020h16,S4o1023h10,S4o1023h13,S6aH7,S1b0201h10,S1b0201h12,S2d0415h08,S2d0415h10,S2d0415h13,S2e0416h09,S2f0420h14,S2i0429h18,S2j0518h14,S4aH2,S4m1019h14,S4o1023h07,S4o1023h16,S1aH4,S1b0201h08,S2aH2,S2f0420h17,S2i0429h16,S4aH6,S4l0918h18,S4n1020h12,S4n1020h18,S4o1023h15,S1aH6,S1b0201h11,S1b0201h14,S1b0201h16,S1b0201h17,S1b0201h18,S2g0421h11,S2g0421h12,S2g0421h14,S2h0427h12,S2h0427h15,S2j0518h13,S2k0531h13,S2k0531h16,S4l0918h09,S4l0918h11,S5p1104h10,S5p1104h18,S1b0201h09,S1c0205h17,S2aH6,S2e0416h15,S2f0420h13,S2g0421h10,S2g0421h15,S2h0427h18,S2j0518h09,S2j0518h12,S2k0531h08,S3aH5,S4m1019h13,S4m1019h15,S4o1023h09,S5aH3,S5p1104h08,S1aH2,S1aH7,S1c0205h10,S2aH3,S2e0416h07,S2f0420h09,S2f0420h18,S2i0429h08,S2j0518h11,S2j0518h15,S2j0518h17,S2k0531h18,S3aH6,S4aH7,S4l0918h08,S4o1023h11,S5aH6,S5aH7,S6aH6,S1b0201h07,S2d0415h12,S2g0421h16,S2j0518h08,S4aH5,S4l0918h16,S5p1104h07,S1c0205h18,S2d0415h18,S2e0416h08,S2f0420h16,S4l0918h15,S5aH4,S5p1104h13,S5p1104h17,S6aH3,S6aH4,S1c0205h09,S1c0205h11,S2aH7,S2d0415h09,S2h0427h16,S2k0531h15,S3aH4,S4aH3,S4aH4,S4m1019h10,S4m1019h16,S5p1104h09,S5p1104h11</v>
+        <v>S1b0201h09,S1c0205h17,S2aH6,S2e0416h15,S2f0420h13,S2g0421h10,S2g0421h15,S2h0427h18,S2j0518h09,S2j0518h12,S2k0531h08,S3aH5,S4m1019h13,S4m1019h15,S4o1023h09,S5aH3,S5p1104h08,S1c0205h07,S1c0205h08,S2d0415h14,S2d0415h15,S2i0429h07,S2i0429h09,S2i0429h14,S4n1020h10,S4n1020h13,S4n1020h14,S4n1020h17,S4o1023h08,S4o1023h12,S6aH5,S1aH2,S1aH7,S1c0205h10,S2aH3,S2e0416h07,S2f0420h09,S2f0420h18,S2i0429h08,S2j0518h11,S2j0518h15,S2j0518h17,S2k0531h18,S3aH6,S4aH7,S4l0918h08,S4o1023h11,S5aH6,S5aH7,S6aH6,S1b0201h07,S2d0415h12,S2g0421h16,S2j0518h08,S4aH5,S4l0918h16,S5p1104h07,S1c0205h18,S2d0415h18,S2e0416h08,S2f0420h16,S4l0918h15,S5aH4,S5p1104h13,S5p1104h17,S6aH3,S6aH4,S2d0415h16,S2e0416h13,S2f0420h12,S2f0420h15,S2g0421h17,S2h0427h08,S2j0518h07,S2k0531h12,S3aH2,S4o1023h14,S5p1104h12,S1aH6,S1b0201h11,S1b0201h14,S1b0201h16,S1b0201h17,S1b0201h18,S2g0421h11,S2g0421h12,S2g0421h14,S2h0427h12,S2h0427h15,S2j0518h13,S2k0531h13,S2k0531h16,S4l0918h09,S4l0918h11,S5p1104h10,S5p1104h18,S1c0205h09,S1c0205h11,S2aH7,S2d0415h09,S2h0427h16,S2k0531h15,S3aH4,S4aH3,S4aH4,S4m1019h10,S4m1019h16,S5p1104h09,S5p1104h11,S1c0205h15,S2f0420h07,S2g0421h09,S2h0427h10,S2j0518h10,S2k0531h11,S3aH3,S4n1020h07,S5p1104h14,S1aH5,S1c0205h16,S2aH4,S2aH5,S2d0415h11,S2d0415h17,S2e0416h16,S2g0421h08,S2g0421h13,S2h0427h07,S2h0427h11,S2k0531h10,S4m1019h09,S4m1019h18,S4o1023h17,S5aH2,S5aH5,S5p1104h16,S6aH2,S1b0201h10,S1b0201h12,S2d0415h08,S2d0415h10,S2d0415h13,S2e0416h09,S2f0420h14,S2i0429h18,S2j0518h14,S4aH2,S4m1019h14,S4o1023h07,S4o1023h16,S1aH4,S1b0201h08,S2aH2,S2f0420h17,S2i0429h16,S4aH6,S4l0918h18,S4n1020h12,S4n1020h18,S4o1023h15,S1c0205h12,S1c0205h14,S2e0416h12,S2g0421h07,S2g0421h18,S2h0427h13,S2h0427h17,S2i0429h10,S2k0531h07,S2k0531h09,S4m1019h07,S4m1019h08,S4m1019h17,S4n1020h09,S4n1020h16,S4o1023h10,S4o1023h13,S6aH7,S1aH3,S2e0416h11,S2e0416h18,S2i0429h11,S2i0429h12,S2i0429h15,S2j0518h16,S2j0518h18,S2k0531h17,S4l0918h10,S4l0918h12,S4l0918h13,S4l0918h17,S4m1019h11,S4n1020h15,S5p1104h15,S1b0201h13,S1b0201h15,S2e0416h10,S2e0416h14,S2e0416h17,S2f0420h10,S2i0429h17,S2k0531h14,S4m1019h12,S4n1020h08,S4n1020h11,S1c0205h13,S2d0415h07,S2f0420h08,S2f0420h11,S2h0427h09,S2h0427h14,S2i0429h13,S3aH7,S4l0918h07,S4l0918h14,S4o1023h18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569A9843-BA95-4971-B261-F6DC4CDEF663}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB56C4E8-6BAA-43E7-91F8-E64CB753D22E}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67051FB-1612-4530-A7BD-492F14389424}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0477E783-0EF9-4658-8496-6C617AEB5D87}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7070,7 +7070,7 @@
         <v>467</v>
       </c>
       <c r="I4">
-        <v>4.2661999999999999E-2</v>
+        <v>1.7703E-2</v>
       </c>
       <c r="J4" t="s">
         <v>468</v>
@@ -7082,7 +7082,7 @@
         <v>82</v>
       </c>
       <c r="N4">
-        <v>0.26179508564829668</v>
+        <v>0.26179508564829657</v>
       </c>
       <c r="O4" t="s">
         <v>889</v>
@@ -7105,7 +7105,7 @@
         <v>470</v>
       </c>
       <c r="I5">
-        <v>5.9449999999999998E-3</v>
+        <v>9.77E-4</v>
       </c>
       <c r="J5" t="s">
         <v>468</v>
@@ -7114,10 +7114,10 @@
         <v>878</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N5">
-        <v>0.19493167383075641</v>
+        <v>0.40660807082825434</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7140,7 +7140,7 @@
         <v>471</v>
       </c>
       <c r="I6">
-        <v>5.986E-3</v>
+        <v>1.284E-3</v>
       </c>
       <c r="J6" t="s">
         <v>468</v>
@@ -7149,10 +7149,10 @@
         <v>878</v>
       </c>
       <c r="M6" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="N6">
-        <v>7.9527811637903401E-2</v>
+        <v>0.17653172515557836</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7175,7 +7175,7 @@
         <v>472</v>
       </c>
       <c r="I7">
-        <v>6.1349999999999998E-3</v>
+        <v>2.307E-3</v>
       </c>
       <c r="J7" t="s">
         <v>468</v>
@@ -7184,10 +7184,10 @@
         <v>878</v>
       </c>
       <c r="M7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N7">
-        <v>8.0605632899210897E-2</v>
+        <v>0.19493167383075638</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7210,7 +7210,7 @@
         <v>473</v>
       </c>
       <c r="I8">
-        <v>3.2736000000000001E-2</v>
+        <v>3.2156999999999998E-2</v>
       </c>
       <c r="J8" t="s">
         <v>468</v>
@@ -7219,10 +7219,10 @@
         <v>878</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="N8">
-        <v>0.40660807082825434</v>
+        <v>7.9527811637903387E-2</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -7245,7 +7245,7 @@
         <v>474</v>
       </c>
       <c r="I9">
-        <v>7.0439999999999999E-3</v>
+        <v>1.1707E-2</v>
       </c>
       <c r="J9" t="s">
         <v>468</v>
@@ -7254,10 +7254,10 @@
         <v>878</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="N9">
-        <v>0.17653172515557838</v>
+        <v>8.0605632899210883E-2</v>
       </c>
       <c r="O9" t="s">
         <v>889</v>
@@ -7280,7 +7280,7 @@
         <v>475</v>
       </c>
       <c r="I10">
-        <v>7.2399999999999999E-3</v>
+        <v>1.4466E-2</v>
       </c>
       <c r="J10" t="s">
         <v>468</v>
@@ -7306,7 +7306,7 @@
         <v>476</v>
       </c>
       <c r="I11">
-        <v>4.6535E-2</v>
+        <v>6.0555999999999999E-2</v>
       </c>
       <c r="J11" t="s">
         <v>468</v>
@@ -7332,7 +7332,7 @@
         <v>477</v>
       </c>
       <c r="I12">
-        <v>2.5799999999999998E-4</v>
+        <v>1.3140000000000001E-3</v>
       </c>
       <c r="J12" t="s">
         <v>468</v>
@@ -7358,7 +7358,7 @@
         <v>478</v>
       </c>
       <c r="I13">
-        <v>1.9100000000000001E-4</v>
+        <v>6.5300000000000004E-4</v>
       </c>
       <c r="J13" t="s">
         <v>468</v>
@@ -7384,7 +7384,7 @@
         <v>479</v>
       </c>
       <c r="I14">
-        <v>1.37E-4</v>
+        <v>2.4699999999999999E-4</v>
       </c>
       <c r="J14" t="s">
         <v>468</v>
@@ -7410,7 +7410,7 @@
         <v>480</v>
       </c>
       <c r="I15">
-        <v>1.26E-4</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="J15" t="s">
         <v>468</v>
@@ -7436,7 +7436,7 @@
         <v>481</v>
       </c>
       <c r="I16">
-        <v>1.16E-4</v>
+        <v>1.3200000000000001E-4</v>
       </c>
       <c r="J16" t="s">
         <v>468</v>
@@ -7462,7 +7462,7 @@
         <v>482</v>
       </c>
       <c r="I17">
-        <v>1.02E-4</v>
+        <v>5.3000000000000001E-5</v>
       </c>
       <c r="J17" t="s">
         <v>468</v>
@@ -7488,7 +7488,7 @@
         <v>483</v>
       </c>
       <c r="I18">
-        <v>1.02E-4</v>
+        <v>1.2E-5</v>
       </c>
       <c r="J18" t="s">
         <v>468</v>
@@ -7514,7 +7514,7 @@
         <v>484</v>
       </c>
       <c r="I19">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>468</v>
@@ -7540,7 +7540,7 @@
         <v>485</v>
       </c>
       <c r="I20">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>468</v>
@@ -7566,7 +7566,7 @@
         <v>486</v>
       </c>
       <c r="I21">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>468</v>
@@ -7592,7 +7592,7 @@
         <v>487</v>
       </c>
       <c r="I22">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>468</v>
@@ -7618,7 +7618,7 @@
         <v>488</v>
       </c>
       <c r="I23">
-        <v>1.02E-4</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="J23" t="s">
         <v>468</v>
@@ -7644,7 +7644,7 @@
         <v>489</v>
       </c>
       <c r="I24">
-        <v>1.16E-4</v>
+        <v>1.3200000000000001E-4</v>
       </c>
       <c r="J24" t="s">
         <v>468</v>
@@ -7670,7 +7670,7 @@
         <v>490</v>
       </c>
       <c r="I25">
-        <v>1.4999999999999999E-4</v>
+        <v>3.2699999999999998E-4</v>
       </c>
       <c r="J25" t="s">
         <v>468</v>
@@ -7696,7 +7696,7 @@
         <v>491</v>
       </c>
       <c r="I26">
-        <v>2.23E-4</v>
+        <v>9.5E-4</v>
       </c>
       <c r="J26" t="s">
         <v>468</v>
@@ -7722,7 +7722,7 @@
         <v>492</v>
       </c>
       <c r="I27">
-        <v>3.1399999999999999E-4</v>
+        <v>1.964E-3</v>
       </c>
       <c r="J27" t="s">
         <v>468</v>
@@ -7748,7 +7748,7 @@
         <v>493</v>
       </c>
       <c r="I28">
-        <v>2.5799999999999998E-4</v>
+        <v>1.3140000000000001E-3</v>
       </c>
       <c r="J28" t="s">
         <v>468</v>
@@ -7774,7 +7774,7 @@
         <v>494</v>
       </c>
       <c r="I29">
-        <v>4.0400000000000001E-4</v>
+        <v>3.1480000000000002E-3</v>
       </c>
       <c r="J29" t="s">
         <v>468</v>
@@ -7800,7 +7800,7 @@
         <v>495</v>
       </c>
       <c r="I30">
-        <v>5.0699999999999996E-4</v>
+        <v>4.62E-3</v>
       </c>
       <c r="J30" t="s">
         <v>468</v>
@@ -7826,7 +7826,7 @@
         <v>496</v>
       </c>
       <c r="I31">
-        <v>4.0400000000000001E-4</v>
+        <v>3.1480000000000002E-3</v>
       </c>
       <c r="J31" t="s">
         <v>468</v>
@@ -7852,7 +7852,7 @@
         <v>497</v>
       </c>
       <c r="I32">
-        <v>2.9300000000000002E-4</v>
+        <v>1.719E-3</v>
       </c>
       <c r="J32" t="s">
         <v>468</v>
@@ -7878,7 +7878,7 @@
         <v>498</v>
       </c>
       <c r="I33">
-        <v>2.7399999999999999E-4</v>
+        <v>1.493E-3</v>
       </c>
       <c r="J33" t="s">
         <v>468</v>
@@ -7904,7 +7904,7 @@
         <v>499</v>
       </c>
       <c r="I34">
-        <v>2.7399999999999999E-4</v>
+        <v>1.493E-3</v>
       </c>
       <c r="J34" t="s">
         <v>468</v>
@@ -7930,7 +7930,7 @@
         <v>500</v>
       </c>
       <c r="I35">
-        <v>2.9300000000000002E-4</v>
+        <v>1.719E-3</v>
       </c>
       <c r="J35" t="s">
         <v>468</v>
@@ -7956,7 +7956,7 @@
         <v>501</v>
       </c>
       <c r="I36">
-        <v>1.02E-4</v>
+        <v>2.8E-5</v>
       </c>
       <c r="J36" t="s">
         <v>468</v>
@@ -7982,7 +7982,7 @@
         <v>502</v>
       </c>
       <c r="I37">
-        <v>1.02E-4</v>
+        <v>2.8E-5</v>
       </c>
       <c r="J37" t="s">
         <v>468</v>
@@ -8008,7 +8008,7 @@
         <v>503</v>
       </c>
       <c r="I38">
-        <v>1.02E-4</v>
+        <v>5.3000000000000001E-5</v>
       </c>
       <c r="J38" t="s">
         <v>468</v>
@@ -8034,7 +8034,7 @@
         <v>504</v>
       </c>
       <c r="I39">
-        <v>1.06E-4</v>
+        <v>8.7000000000000001E-5</v>
       </c>
       <c r="J39" t="s">
         <v>468</v>
@@ -8060,7 +8060,7 @@
         <v>505</v>
       </c>
       <c r="I40">
-        <v>1.37E-4</v>
+        <v>2.4699999999999999E-4</v>
       </c>
       <c r="J40" t="s">
         <v>468</v>
@@ -8086,7 +8086,7 @@
         <v>506</v>
       </c>
       <c r="I41">
-        <v>1.63E-4</v>
+        <v>4.2099999999999999E-4</v>
       </c>
       <c r="J41" t="s">
         <v>468</v>
@@ -8112,7 +8112,7 @@
         <v>507</v>
       </c>
       <c r="I42">
-        <v>2.0699999999999999E-4</v>
+        <v>7.9299999999999998E-4</v>
       </c>
       <c r="J42" t="s">
         <v>468</v>
@@ -8138,7 +8138,7 @@
         <v>508</v>
       </c>
       <c r="I43">
-        <v>2.5799999999999998E-4</v>
+        <v>1.3140000000000001E-3</v>
       </c>
       <c r="J43" t="s">
         <v>468</v>
@@ -8164,7 +8164,7 @@
         <v>509</v>
       </c>
       <c r="I44">
-        <v>4.0400000000000001E-4</v>
+        <v>3.1480000000000002E-3</v>
       </c>
       <c r="J44" t="s">
         <v>468</v>
@@ -8190,7 +8190,7 @@
         <v>510</v>
       </c>
       <c r="I45">
-        <v>6.6399999999999999E-4</v>
+        <v>7.0530000000000002E-3</v>
       </c>
       <c r="J45" t="s">
         <v>468</v>
@@ -8216,7 +8216,7 @@
         <v>511</v>
       </c>
       <c r="I46">
-        <v>7.3499999999999998E-4</v>
+        <v>8.2019999999999992E-3</v>
       </c>
       <c r="J46" t="s">
         <v>468</v>
@@ -8242,7 +8242,7 @@
         <v>512</v>
       </c>
       <c r="I47">
-        <v>6.6399999999999999E-4</v>
+        <v>7.0530000000000002E-3</v>
       </c>
       <c r="J47" t="s">
         <v>468</v>
@@ -8268,7 +8268,7 @@
         <v>513</v>
       </c>
       <c r="I48">
-        <v>9.2800000000000001E-4</v>
+        <v>1.1441E-2</v>
       </c>
       <c r="J48" t="s">
         <v>468</v>
@@ -8294,7 +8294,7 @@
         <v>514</v>
       </c>
       <c r="I49">
-        <v>8.0500000000000005E-4</v>
+        <v>9.3650000000000001E-3</v>
       </c>
       <c r="J49" t="s">
         <v>468</v>
@@ -8320,7 +8320,7 @@
         <v>515</v>
       </c>
       <c r="I50">
-        <v>1.2099999999999999E-3</v>
+        <v>1.6365000000000001E-2</v>
       </c>
       <c r="J50" t="s">
         <v>468</v>
@@ -8346,7 +8346,7 @@
         <v>516</v>
       </c>
       <c r="I51">
-        <v>7.7200000000000001E-4</v>
+        <v>8.8170000000000002E-3</v>
       </c>
       <c r="J51" t="s">
         <v>468</v>
@@ -8372,7 +8372,7 @@
         <v>517</v>
       </c>
       <c r="I52">
-        <v>4.2900000000000002E-4</v>
+        <v>3.4970000000000001E-3</v>
       </c>
       <c r="J52" t="s">
         <v>468</v>
@@ -8398,7 +8398,7 @@
         <v>518</v>
       </c>
       <c r="I53">
-        <v>3.1399999999999999E-4</v>
+        <v>1.964E-3</v>
       </c>
       <c r="J53" t="s">
         <v>468</v>
@@ -8424,7 +8424,7 @@
         <v>519</v>
       </c>
       <c r="I54">
-        <v>1.7699999999999999E-4</v>
+        <v>5.2899999999999996E-4</v>
       </c>
       <c r="J54" t="s">
         <v>468</v>
@@ -8450,7 +8450,7 @@
         <v>520</v>
       </c>
       <c r="I55">
-        <v>1.37E-4</v>
+        <v>2.4699999999999999E-4</v>
       </c>
       <c r="J55" t="s">
         <v>468</v>
@@ -8476,7 +8476,7 @@
         <v>521</v>
       </c>
       <c r="I56">
-        <v>1.16E-4</v>
+        <v>1.3200000000000001E-4</v>
       </c>
       <c r="J56" t="s">
         <v>468</v>
@@ -8502,7 +8502,7 @@
         <v>522</v>
       </c>
       <c r="I57">
-        <v>1.26E-4</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="J57" t="s">
         <v>468</v>
@@ -8528,7 +8528,7 @@
         <v>523</v>
       </c>
       <c r="I58">
-        <v>2.23E-4</v>
+        <v>9.5E-4</v>
       </c>
       <c r="J58" t="s">
         <v>468</v>
@@ -8554,7 +8554,7 @@
         <v>524</v>
       </c>
       <c r="I59">
-        <v>2.5799999999999998E-4</v>
+        <v>1.3140000000000001E-3</v>
       </c>
       <c r="J59" t="s">
         <v>468</v>
@@ -8580,7 +8580,7 @@
         <v>525</v>
       </c>
       <c r="I60">
-        <v>8.3145999999999998E-2</v>
+        <v>1.5373000000000001E-2</v>
       </c>
       <c r="J60" t="s">
         <v>468</v>
@@ -8606,7 +8606,7 @@
         <v>526</v>
       </c>
       <c r="I61">
-        <v>1.1738E-2</v>
+        <v>8.2899999999999988E-4</v>
       </c>
       <c r="J61" t="s">
         <v>468</v>
@@ -8632,7 +8632,7 @@
         <v>527</v>
       </c>
       <c r="I62">
-        <v>1.1710999999999999E-2</v>
+        <v>6.2600000000000004E-4</v>
       </c>
       <c r="J62" t="s">
         <v>468</v>
@@ -8658,7 +8658,7 @@
         <v>528</v>
       </c>
       <c r="I63">
-        <v>1.1932E-2</v>
+        <v>2.4820000000000003E-3</v>
       </c>
       <c r="J63" t="s">
         <v>468</v>
@@ -8684,7 +8684,7 @@
         <v>529</v>
       </c>
       <c r="I64">
-        <v>6.9993E-2</v>
+        <v>0.12110899999999999</v>
       </c>
       <c r="J64" t="s">
         <v>468</v>
@@ -8710,7 +8710,7 @@
         <v>530</v>
       </c>
       <c r="I65">
-        <v>1.6046999999999999E-2</v>
+        <v>4.8902000000000001E-2</v>
       </c>
       <c r="J65" t="s">
         <v>468</v>
@@ -8736,7 +8736,7 @@
         <v>531</v>
       </c>
       <c r="I66">
-        <v>1.5556E-2</v>
+        <v>4.0652000000000001E-2</v>
       </c>
       <c r="J66" t="s">
         <v>468</v>
@@ -8762,7 +8762,7 @@
         <v>532</v>
       </c>
       <c r="I67">
-        <v>8.7919999999999998E-2</v>
+        <v>6.2627000000000002E-2</v>
       </c>
       <c r="J67" t="s">
         <v>468</v>
@@ -8788,7 +8788,7 @@
         <v>533</v>
       </c>
       <c r="I68">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>468</v>
@@ -8814,7 +8814,7 @@
         <v>534</v>
       </c>
       <c r="I69">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>468</v>
@@ -8840,7 +8840,7 @@
         <v>535</v>
       </c>
       <c r="I70">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
         <v>468</v>
@@ -8866,7 +8866,7 @@
         <v>536</v>
       </c>
       <c r="I71">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
         <v>468</v>
@@ -8892,7 +8892,7 @@
         <v>537</v>
       </c>
       <c r="I72">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
         <v>468</v>
@@ -8918,7 +8918,7 @@
         <v>538</v>
       </c>
       <c r="I73">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
         <v>468</v>
@@ -8944,7 +8944,7 @@
         <v>539</v>
       </c>
       <c r="I74">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
         <v>468</v>
@@ -8970,7 +8970,7 @@
         <v>540</v>
       </c>
       <c r="I75">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
         <v>468</v>
@@ -8996,7 +8996,7 @@
         <v>541</v>
       </c>
       <c r="I76">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
         <v>468</v>
@@ -9022,7 +9022,7 @@
         <v>542</v>
       </c>
       <c r="I77">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
         <v>468</v>
@@ -9048,7 +9048,7 @@
         <v>543</v>
       </c>
       <c r="I78">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
         <v>468</v>
@@ -9074,7 +9074,7 @@
         <v>544</v>
       </c>
       <c r="I79">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
         <v>468</v>
@@ -9100,7 +9100,7 @@
         <v>545</v>
       </c>
       <c r="I80">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
         <v>468</v>
@@ -9126,7 +9126,7 @@
         <v>546</v>
       </c>
       <c r="I81">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
         <v>468</v>
@@ -9152,7 +9152,7 @@
         <v>547</v>
       </c>
       <c r="I82">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
         <v>468</v>
@@ -9178,7 +9178,7 @@
         <v>548</v>
       </c>
       <c r="I83">
-        <v>1.02E-4</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="J83" t="s">
         <v>468</v>
@@ -9204,7 +9204,7 @@
         <v>549</v>
       </c>
       <c r="I84">
-        <v>1.02E-4</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="J84" t="s">
         <v>468</v>
@@ -9230,7 +9230,7 @@
         <v>550</v>
       </c>
       <c r="I85">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>468</v>
@@ -9256,7 +9256,7 @@
         <v>551</v>
       </c>
       <c r="I86">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>468</v>
@@ -9282,7 +9282,7 @@
         <v>552</v>
       </c>
       <c r="I87">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>468</v>
@@ -9308,7 +9308,7 @@
         <v>553</v>
       </c>
       <c r="I88">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>468</v>
@@ -9334,7 +9334,7 @@
         <v>554</v>
       </c>
       <c r="I89">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
         <v>468</v>
@@ -9360,7 +9360,7 @@
         <v>555</v>
       </c>
       <c r="I90">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
         <v>468</v>
@@ -9386,7 +9386,7 @@
         <v>556</v>
       </c>
       <c r="I91">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
         <v>468</v>
@@ -9412,7 +9412,7 @@
         <v>557</v>
       </c>
       <c r="I92">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
         <v>468</v>
@@ -9438,7 +9438,7 @@
         <v>558</v>
       </c>
       <c r="I93">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
         <v>468</v>
@@ -9464,7 +9464,7 @@
         <v>559</v>
       </c>
       <c r="I94">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
         <v>468</v>
@@ -9490,7 +9490,7 @@
         <v>560</v>
       </c>
       <c r="I95">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
         <v>468</v>
@@ -9516,7 +9516,7 @@
         <v>561</v>
       </c>
       <c r="I96">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
         <v>468</v>
@@ -9542,7 +9542,7 @@
         <v>562</v>
       </c>
       <c r="I97">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
         <v>468</v>
@@ -9568,7 +9568,7 @@
         <v>563</v>
       </c>
       <c r="I98">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
         <v>468</v>
@@ -9594,7 +9594,7 @@
         <v>564</v>
       </c>
       <c r="I99">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>468</v>
@@ -9620,7 +9620,7 @@
         <v>565</v>
       </c>
       <c r="I100">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>468</v>
@@ -9646,7 +9646,7 @@
         <v>566</v>
       </c>
       <c r="I101">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>468</v>
@@ -9672,7 +9672,7 @@
         <v>567</v>
       </c>
       <c r="I102">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>468</v>
@@ -9698,7 +9698,7 @@
         <v>568</v>
       </c>
       <c r="I103">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>468</v>
@@ -9724,7 +9724,7 @@
         <v>569</v>
       </c>
       <c r="I104">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>468</v>
@@ -9750,7 +9750,7 @@
         <v>570</v>
       </c>
       <c r="I105">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>468</v>
@@ -9776,7 +9776,7 @@
         <v>571</v>
       </c>
       <c r="I106">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>468</v>
@@ -9802,7 +9802,7 @@
         <v>572</v>
       </c>
       <c r="I107">
-        <v>1.02E-4</v>
+        <v>5.3000000000000001E-5</v>
       </c>
       <c r="J107" t="s">
         <v>468</v>
@@ -9828,7 +9828,7 @@
         <v>573</v>
       </c>
       <c r="I108">
-        <v>1.06E-4</v>
+        <v>8.7000000000000001E-5</v>
       </c>
       <c r="J108" t="s">
         <v>468</v>
@@ -9854,7 +9854,7 @@
         <v>574</v>
       </c>
       <c r="I109">
-        <v>1.02E-4</v>
+        <v>5.3000000000000001E-5</v>
       </c>
       <c r="J109" t="s">
         <v>468</v>
@@ -9880,7 +9880,7 @@
         <v>575</v>
       </c>
       <c r="I110">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
         <v>468</v>
@@ -9906,7 +9906,7 @@
         <v>576</v>
       </c>
       <c r="I111">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
         <v>468</v>
@@ -9932,7 +9932,7 @@
         <v>577</v>
       </c>
       <c r="I112">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
         <v>468</v>
@@ -9958,7 +9958,7 @@
         <v>578</v>
       </c>
       <c r="I113">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
         <v>468</v>
@@ -9984,7 +9984,7 @@
         <v>579</v>
       </c>
       <c r="I114">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
         <v>468</v>
@@ -10010,7 +10010,7 @@
         <v>580</v>
       </c>
       <c r="I115">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
         <v>468</v>
@@ -10036,7 +10036,7 @@
         <v>581</v>
       </c>
       <c r="I116">
-        <v>1.02E-4</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="J116" t="s">
         <v>468</v>
@@ -10062,7 +10062,7 @@
         <v>582</v>
       </c>
       <c r="I117">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
         <v>468</v>
@@ -10088,7 +10088,7 @@
         <v>583</v>
       </c>
       <c r="I118">
-        <v>1.26E-4</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="J118" t="s">
         <v>468</v>
@@ -10114,7 +10114,7 @@
         <v>584</v>
       </c>
       <c r="I119">
-        <v>1.16E-4</v>
+        <v>1.3200000000000001E-4</v>
       </c>
       <c r="J119" t="s">
         <v>468</v>
@@ -10140,7 +10140,7 @@
         <v>585</v>
       </c>
       <c r="I120">
-        <v>1.02E-4</v>
+        <v>2.8E-5</v>
       </c>
       <c r="J120" t="s">
         <v>468</v>
@@ -10166,7 +10166,7 @@
         <v>586</v>
       </c>
       <c r="I121">
-        <v>1.16E-4</v>
+        <v>1.3200000000000001E-4</v>
       </c>
       <c r="J121" t="s">
         <v>468</v>
@@ -10192,7 +10192,7 @@
         <v>587</v>
       </c>
       <c r="I122">
-        <v>1.02E-4</v>
+        <v>5.3000000000000001E-5</v>
       </c>
       <c r="J122" t="s">
         <v>468</v>
@@ -10218,7 +10218,7 @@
         <v>588</v>
       </c>
       <c r="I123">
-        <v>1.02E-4</v>
+        <v>1.2E-5</v>
       </c>
       <c r="J123" t="s">
         <v>468</v>
@@ -10244,7 +10244,7 @@
         <v>589</v>
       </c>
       <c r="I124">
-        <v>1.02E-4</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="J124" t="s">
         <v>468</v>
@@ -10270,7 +10270,7 @@
         <v>590</v>
       </c>
       <c r="I125">
-        <v>1.7699999999999999E-4</v>
+        <v>5.2899999999999996E-4</v>
       </c>
       <c r="J125" t="s">
         <v>468</v>
@@ -10296,7 +10296,7 @@
         <v>591</v>
       </c>
       <c r="I126">
-        <v>2.5799999999999998E-4</v>
+        <v>1.3140000000000001E-3</v>
       </c>
       <c r="J126" t="s">
         <v>468</v>
@@ -10322,7 +10322,7 @@
         <v>592</v>
       </c>
       <c r="I127">
-        <v>2.9300000000000002E-4</v>
+        <v>1.719E-3</v>
       </c>
       <c r="J127" t="s">
         <v>468</v>
@@ -10348,7 +10348,7 @@
         <v>593</v>
       </c>
       <c r="I128">
-        <v>3.3500000000000001E-4</v>
+        <v>2.2290000000000001E-3</v>
       </c>
       <c r="J128" t="s">
         <v>468</v>
@@ -10374,7 +10374,7 @@
         <v>594</v>
       </c>
       <c r="I129">
-        <v>4.0400000000000001E-4</v>
+        <v>3.1480000000000002E-3</v>
       </c>
       <c r="J129" t="s">
         <v>468</v>
@@ -10400,7 +10400,7 @@
         <v>595</v>
       </c>
       <c r="I130">
-        <v>3.8000000000000002E-4</v>
+        <v>2.82E-3</v>
       </c>
       <c r="J130" t="s">
         <v>468</v>
@@ -10426,7 +10426,7 @@
         <v>596</v>
       </c>
       <c r="I131">
-        <v>3.57E-4</v>
+        <v>2.5140000000000002E-3</v>
       </c>
       <c r="J131" t="s">
         <v>468</v>
@@ -10452,7 +10452,7 @@
         <v>597</v>
       </c>
       <c r="I132">
-        <v>3.57E-4</v>
+        <v>2.5140000000000002E-3</v>
       </c>
       <c r="J132" t="s">
         <v>468</v>
@@ -10478,7 +10478,7 @@
         <v>598</v>
       </c>
       <c r="I133">
-        <v>2.9300000000000002E-4</v>
+        <v>1.719E-3</v>
       </c>
       <c r="J133" t="s">
         <v>468</v>
@@ -10504,7 +10504,7 @@
         <v>599</v>
       </c>
       <c r="I134">
-        <v>1.7699999999999999E-4</v>
+        <v>5.2899999999999996E-4</v>
       </c>
       <c r="J134" t="s">
         <v>468</v>
@@ -10530,7 +10530,7 @@
         <v>600</v>
       </c>
       <c r="I135">
-        <v>1.06E-4</v>
+        <v>8.7000000000000001E-5</v>
       </c>
       <c r="J135" t="s">
         <v>468</v>
@@ -10556,7 +10556,7 @@
         <v>601</v>
       </c>
       <c r="I136">
-        <v>1.02E-4</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="J136" t="s">
         <v>468</v>
@@ -10582,7 +10582,7 @@
         <v>602</v>
       </c>
       <c r="I137">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
         <v>468</v>
@@ -10608,7 +10608,7 @@
         <v>603</v>
       </c>
       <c r="I138">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
         <v>468</v>
@@ -10634,7 +10634,7 @@
         <v>604</v>
       </c>
       <c r="I139">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
         <v>468</v>
@@ -10660,7 +10660,7 @@
         <v>605</v>
       </c>
       <c r="I140">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
         <v>468</v>
@@ -10686,7 +10686,7 @@
         <v>606</v>
       </c>
       <c r="I141">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
         <v>468</v>
@@ -10712,7 +10712,7 @@
         <v>607</v>
       </c>
       <c r="I142">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
         <v>468</v>
@@ -10738,7 +10738,7 @@
         <v>608</v>
       </c>
       <c r="I143">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
         <v>468</v>
@@ -10764,7 +10764,7 @@
         <v>609</v>
       </c>
       <c r="I144">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
         <v>468</v>
@@ -10790,7 +10790,7 @@
         <v>610</v>
       </c>
       <c r="I145">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
         <v>468</v>
@@ -10816,7 +10816,7 @@
         <v>611</v>
       </c>
       <c r="I146">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>468</v>
@@ -10842,7 +10842,7 @@
         <v>612</v>
       </c>
       <c r="I147">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
         <v>468</v>
@@ -10868,7 +10868,7 @@
         <v>613</v>
       </c>
       <c r="I148">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
         <v>468</v>
@@ -10894,7 +10894,7 @@
         <v>614</v>
       </c>
       <c r="I149">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
         <v>468</v>
@@ -10920,7 +10920,7 @@
         <v>615</v>
       </c>
       <c r="I150">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
         <v>468</v>
@@ -10946,7 +10946,7 @@
         <v>616</v>
       </c>
       <c r="I151">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
         <v>468</v>
@@ -10972,7 +10972,7 @@
         <v>617</v>
       </c>
       <c r="I152">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
         <v>468</v>
@@ -10998,7 +10998,7 @@
         <v>618</v>
       </c>
       <c r="I153">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
         <v>468</v>
@@ -11024,7 +11024,7 @@
         <v>619</v>
       </c>
       <c r="I154">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
         <v>468</v>
@@ -11050,7 +11050,7 @@
         <v>620</v>
       </c>
       <c r="I155">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J155" t="s">
         <v>468</v>
@@ -11076,7 +11076,7 @@
         <v>621</v>
       </c>
       <c r="I156">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
         <v>468</v>
@@ -11102,7 +11102,7 @@
         <v>622</v>
       </c>
       <c r="I157">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
         <v>468</v>
@@ -11128,7 +11128,7 @@
         <v>623</v>
       </c>
       <c r="I158">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>468</v>
@@ -11154,7 +11154,7 @@
         <v>624</v>
       </c>
       <c r="I159">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
         <v>468</v>
@@ -11180,7 +11180,7 @@
         <v>625</v>
       </c>
       <c r="I160">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
         <v>468</v>
@@ -11206,7 +11206,7 @@
         <v>626</v>
       </c>
       <c r="I161">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
         <v>468</v>
@@ -11232,7 +11232,7 @@
         <v>627</v>
       </c>
       <c r="I162">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
         <v>468</v>
@@ -11258,7 +11258,7 @@
         <v>628</v>
       </c>
       <c r="I163">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
         <v>468</v>
@@ -11284,7 +11284,7 @@
         <v>629</v>
       </c>
       <c r="I164">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
         <v>468</v>
@@ -11310,7 +11310,7 @@
         <v>630</v>
       </c>
       <c r="I165">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
         <v>468</v>
@@ -11336,7 +11336,7 @@
         <v>631</v>
       </c>
       <c r="I166">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
         <v>468</v>
@@ -11362,7 +11362,7 @@
         <v>632</v>
       </c>
       <c r="I167">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
         <v>468</v>
@@ -11388,7 +11388,7 @@
         <v>633</v>
       </c>
       <c r="I168">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
         <v>468</v>
@@ -11414,7 +11414,7 @@
         <v>634</v>
       </c>
       <c r="I169">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
         <v>468</v>
@@ -11440,7 +11440,7 @@
         <v>635</v>
       </c>
       <c r="I170">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
         <v>468</v>
@@ -11466,7 +11466,7 @@
         <v>636</v>
       </c>
       <c r="I171">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
         <v>468</v>
@@ -11492,7 +11492,7 @@
         <v>637</v>
       </c>
       <c r="I172">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>468</v>
@@ -11518,7 +11518,7 @@
         <v>638</v>
       </c>
       <c r="I173">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>468</v>
@@ -11544,7 +11544,7 @@
         <v>639</v>
       </c>
       <c r="I174">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
         <v>468</v>
@@ -11570,7 +11570,7 @@
         <v>640</v>
       </c>
       <c r="I175">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>468</v>
@@ -11596,7 +11596,7 @@
         <v>641</v>
       </c>
       <c r="I176">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
         <v>468</v>
@@ -11622,7 +11622,7 @@
         <v>642</v>
       </c>
       <c r="I177">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
         <v>468</v>
@@ -11648,7 +11648,7 @@
         <v>643</v>
       </c>
       <c r="I178">
-        <v>1.02E-4</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="J178" t="s">
         <v>468</v>
@@ -11674,7 +11674,7 @@
         <v>644</v>
       </c>
       <c r="I179">
-        <v>1.02E-4</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="J179" t="s">
         <v>468</v>
@@ -11700,7 +11700,7 @@
         <v>645</v>
       </c>
       <c r="I180">
-        <v>1.02E-4</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="J180" t="s">
         <v>468</v>
@@ -11726,7 +11726,7 @@
         <v>646</v>
       </c>
       <c r="I181">
-        <v>1.02E-4</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="J181" t="s">
         <v>468</v>
@@ -11752,7 +11752,7 @@
         <v>647</v>
       </c>
       <c r="I182">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
         <v>468</v>
@@ -11778,7 +11778,7 @@
         <v>648</v>
       </c>
       <c r="I183">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
         <v>468</v>
@@ -11804,7 +11804,7 @@
         <v>649</v>
       </c>
       <c r="I184">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
         <v>468</v>
@@ -11830,7 +11830,7 @@
         <v>650</v>
       </c>
       <c r="I185">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J185" t="s">
         <v>468</v>
@@ -11856,7 +11856,7 @@
         <v>651</v>
       </c>
       <c r="I186">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
         <v>468</v>
@@ -11882,7 +11882,7 @@
         <v>652</v>
       </c>
       <c r="I187">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
         <v>468</v>
@@ -11908,7 +11908,7 @@
         <v>653</v>
       </c>
       <c r="I188">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
         <v>468</v>
@@ -11934,7 +11934,7 @@
         <v>654</v>
       </c>
       <c r="I189">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
         <v>468</v>
@@ -11960,7 +11960,7 @@
         <v>655</v>
       </c>
       <c r="I190">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
         <v>468</v>
@@ -11986,7 +11986,7 @@
         <v>656</v>
       </c>
       <c r="I191">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
         <v>468</v>
@@ -12012,7 +12012,7 @@
         <v>657</v>
       </c>
       <c r="I192">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J192" t="s">
         <v>468</v>
@@ -12038,7 +12038,7 @@
         <v>658</v>
       </c>
       <c r="I193">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J193" t="s">
         <v>468</v>
@@ -12064,7 +12064,7 @@
         <v>659</v>
       </c>
       <c r="I194">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J194" t="s">
         <v>468</v>
@@ -12090,7 +12090,7 @@
         <v>660</v>
       </c>
       <c r="I195">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
         <v>468</v>
@@ -12116,7 +12116,7 @@
         <v>661</v>
       </c>
       <c r="I196">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
         <v>468</v>
@@ -12142,7 +12142,7 @@
         <v>662</v>
       </c>
       <c r="I197">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J197" t="s">
         <v>468</v>
@@ -12168,7 +12168,7 @@
         <v>663</v>
       </c>
       <c r="I198">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
         <v>468</v>
@@ -12194,7 +12194,7 @@
         <v>664</v>
       </c>
       <c r="I199">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
         <v>468</v>
@@ -12220,7 +12220,7 @@
         <v>665</v>
       </c>
       <c r="I200">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
         <v>468</v>
@@ -12246,7 +12246,7 @@
         <v>666</v>
       </c>
       <c r="I201">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
         <v>468</v>
@@ -12272,7 +12272,7 @@
         <v>667</v>
       </c>
       <c r="I202">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
         <v>468</v>
@@ -12298,7 +12298,7 @@
         <v>668</v>
       </c>
       <c r="I203">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
         <v>468</v>
@@ -12324,7 +12324,7 @@
         <v>669</v>
       </c>
       <c r="I204">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J204" t="s">
         <v>468</v>
@@ -12350,7 +12350,7 @@
         <v>670</v>
       </c>
       <c r="I205">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
         <v>468</v>
@@ -12376,7 +12376,7 @@
         <v>671</v>
       </c>
       <c r="I206">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
         <v>468</v>
@@ -12402,7 +12402,7 @@
         <v>672</v>
       </c>
       <c r="I207">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
         <v>468</v>
@@ -12428,7 +12428,7 @@
         <v>673</v>
       </c>
       <c r="I208">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
         <v>468</v>
@@ -12454,7 +12454,7 @@
         <v>674</v>
       </c>
       <c r="I209">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
         <v>468</v>
@@ -12480,7 +12480,7 @@
         <v>675</v>
       </c>
       <c r="I210">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
         <v>468</v>
@@ -12506,7 +12506,7 @@
         <v>676</v>
       </c>
       <c r="I211">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
         <v>468</v>
@@ -12532,7 +12532,7 @@
         <v>677</v>
       </c>
       <c r="I212">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
         <v>468</v>
@@ -12558,7 +12558,7 @@
         <v>678</v>
       </c>
       <c r="I213">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
         <v>468</v>
@@ -12584,7 +12584,7 @@
         <v>679</v>
       </c>
       <c r="I214">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
         <v>468</v>
@@ -12610,7 +12610,7 @@
         <v>680</v>
       </c>
       <c r="I215">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
         <v>468</v>
@@ -12636,7 +12636,7 @@
         <v>681</v>
       </c>
       <c r="I216">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
         <v>468</v>
@@ -12662,7 +12662,7 @@
         <v>682</v>
       </c>
       <c r="I217">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J217" t="s">
         <v>468</v>
@@ -12688,7 +12688,7 @@
         <v>683</v>
       </c>
       <c r="I218">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J218" t="s">
         <v>468</v>
@@ -12714,7 +12714,7 @@
         <v>684</v>
       </c>
       <c r="I219">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J219" t="s">
         <v>468</v>
@@ -12740,7 +12740,7 @@
         <v>685</v>
       </c>
       <c r="I220">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J220" t="s">
         <v>468</v>
@@ -12766,7 +12766,7 @@
         <v>686</v>
       </c>
       <c r="I221">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
         <v>468</v>
@@ -12792,7 +12792,7 @@
         <v>687</v>
       </c>
       <c r="I222">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J222" t="s">
         <v>468</v>
@@ -12818,7 +12818,7 @@
         <v>688</v>
       </c>
       <c r="I223">
-        <v>1.02E-4</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="J223" t="s">
         <v>468</v>
@@ -12844,7 +12844,7 @@
         <v>689</v>
       </c>
       <c r="I224">
-        <v>1.02E-4</v>
+        <v>5.3000000000000001E-5</v>
       </c>
       <c r="J224" t="s">
         <v>468</v>
@@ -12870,7 +12870,7 @@
         <v>690</v>
       </c>
       <c r="I225">
-        <v>1.02E-4</v>
+        <v>2.8E-5</v>
       </c>
       <c r="J225" t="s">
         <v>468</v>
@@ -12896,7 +12896,7 @@
         <v>691</v>
       </c>
       <c r="I226">
-        <v>1.16E-4</v>
+        <v>1.3200000000000001E-4</v>
       </c>
       <c r="J226" t="s">
         <v>468</v>
@@ -12922,7 +12922,7 @@
         <v>692</v>
       </c>
       <c r="I227">
-        <v>1.16E-4</v>
+        <v>1.3200000000000001E-4</v>
       </c>
       <c r="J227" t="s">
         <v>468</v>
@@ -12948,7 +12948,7 @@
         <v>693</v>
       </c>
       <c r="I228">
-        <v>1.06E-4</v>
+        <v>8.7000000000000001E-5</v>
       </c>
       <c r="J228" t="s">
         <v>468</v>
@@ -12974,7 +12974,7 @@
         <v>694</v>
       </c>
       <c r="I229">
-        <v>1.16E-4</v>
+        <v>1.3200000000000001E-4</v>
       </c>
       <c r="J229" t="s">
         <v>468</v>
@@ -13000,7 +13000,7 @@
         <v>695</v>
       </c>
       <c r="I230">
-        <v>1.02E-4</v>
+        <v>2.8E-5</v>
       </c>
       <c r="J230" t="s">
         <v>468</v>
@@ -13026,7 +13026,7 @@
         <v>696</v>
       </c>
       <c r="I231">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
         <v>468</v>
@@ -13052,7 +13052,7 @@
         <v>697</v>
       </c>
       <c r="I232">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J232" t="s">
         <v>468</v>
@@ -13078,7 +13078,7 @@
         <v>698</v>
       </c>
       <c r="I233">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J233" t="s">
         <v>468</v>
@@ -13104,7 +13104,7 @@
         <v>699</v>
       </c>
       <c r="I234">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J234" t="s">
         <v>468</v>
@@ -13130,7 +13130,7 @@
         <v>700</v>
       </c>
       <c r="I235">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J235" t="s">
         <v>468</v>
@@ -13156,7 +13156,7 @@
         <v>701</v>
       </c>
       <c r="I236">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J236" t="s">
         <v>468</v>
@@ -13182,7 +13182,7 @@
         <v>702</v>
       </c>
       <c r="I237">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
         <v>468</v>
@@ -13208,7 +13208,7 @@
         <v>703</v>
       </c>
       <c r="I238">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
         <v>468</v>
@@ -13234,7 +13234,7 @@
         <v>704</v>
       </c>
       <c r="I239">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J239" t="s">
         <v>468</v>
@@ -13260,7 +13260,7 @@
         <v>705</v>
       </c>
       <c r="I240">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J240" t="s">
         <v>468</v>
@@ -13286,7 +13286,7 @@
         <v>706</v>
       </c>
       <c r="I241">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J241" t="s">
         <v>468</v>
@@ -13312,7 +13312,7 @@
         <v>707</v>
       </c>
       <c r="I242">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J242" t="s">
         <v>468</v>
@@ -13338,7 +13338,7 @@
         <v>708</v>
       </c>
       <c r="I243">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J243" t="s">
         <v>468</v>
@@ -13364,7 +13364,7 @@
         <v>709</v>
       </c>
       <c r="I244">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J244" t="s">
         <v>468</v>
@@ -13390,7 +13390,7 @@
         <v>710</v>
       </c>
       <c r="I245">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J245" t="s">
         <v>468</v>
@@ -13416,7 +13416,7 @@
         <v>711</v>
       </c>
       <c r="I246">
-        <v>1.02E-4</v>
+        <v>2.8E-5</v>
       </c>
       <c r="J246" t="s">
         <v>468</v>
@@ -13442,7 +13442,7 @@
         <v>712</v>
       </c>
       <c r="I247">
-        <v>1.16E-4</v>
+        <v>1.3200000000000001E-4</v>
       </c>
       <c r="J247" t="s">
         <v>468</v>
@@ -13468,7 +13468,7 @@
         <v>713</v>
       </c>
       <c r="I248">
-        <v>1.26E-4</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="J248" t="s">
         <v>468</v>
@@ -13494,7 +13494,7 @@
         <v>714</v>
       </c>
       <c r="I249">
-        <v>1.7699999999999999E-4</v>
+        <v>5.2899999999999996E-4</v>
       </c>
       <c r="J249" t="s">
         <v>468</v>
@@ -13520,7 +13520,7 @@
         <v>715</v>
       </c>
       <c r="I250">
-        <v>2.0699999999999999E-4</v>
+        <v>7.9299999999999998E-4</v>
       </c>
       <c r="J250" t="s">
         <v>468</v>
@@ -13546,7 +13546,7 @@
         <v>716</v>
       </c>
       <c r="I251">
-        <v>2.0699999999999999E-4</v>
+        <v>7.9299999999999998E-4</v>
       </c>
       <c r="J251" t="s">
         <v>468</v>
@@ -13572,7 +13572,7 @@
         <v>717</v>
       </c>
       <c r="I252">
-        <v>1.63E-4</v>
+        <v>4.2099999999999999E-4</v>
       </c>
       <c r="J252" t="s">
         <v>468</v>
@@ -13598,7 +13598,7 @@
         <v>718</v>
       </c>
       <c r="I253">
-        <v>1.06E-4</v>
+        <v>8.7000000000000001E-5</v>
       </c>
       <c r="J253" t="s">
         <v>468</v>
@@ -13624,7 +13624,7 @@
         <v>719</v>
       </c>
       <c r="I254">
-        <v>1.06E-4</v>
+        <v>8.7000000000000001E-5</v>
       </c>
       <c r="J254" t="s">
         <v>468</v>
@@ -13650,7 +13650,7 @@
         <v>720</v>
       </c>
       <c r="I255">
-        <v>1.02E-4</v>
+        <v>2.8E-5</v>
       </c>
       <c r="J255" t="s">
         <v>468</v>
@@ -13676,7 +13676,7 @@
         <v>721</v>
       </c>
       <c r="I256">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J256" t="s">
         <v>468</v>
@@ -13702,7 +13702,7 @@
         <v>722</v>
       </c>
       <c r="I257">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J257" t="s">
         <v>468</v>
@@ -13728,7 +13728,7 @@
         <v>723</v>
       </c>
       <c r="I258">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J258" t="s">
         <v>468</v>
@@ -13754,7 +13754,7 @@
         <v>724</v>
       </c>
       <c r="I259">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J259" t="s">
         <v>468</v>
@@ -13780,7 +13780,7 @@
         <v>725</v>
       </c>
       <c r="I260">
-        <v>4.4268000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="J260" t="s">
         <v>468</v>
@@ -13806,7 +13806,7 @@
         <v>726</v>
       </c>
       <c r="I261">
-        <v>6.3590000000000001E-3</v>
+        <v>2.4699999999999999E-4</v>
       </c>
       <c r="J261" t="s">
         <v>468</v>
@@ -13832,7 +13832,7 @@
         <v>727</v>
       </c>
       <c r="I262">
-        <v>6.3239999999999998E-3</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="J262" t="s">
         <v>468</v>
@@ -13858,7 +13858,7 @@
         <v>728</v>
       </c>
       <c r="I263">
-        <v>6.3239999999999998E-3</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="J263" t="s">
         <v>468</v>
@@ -13884,7 +13884,7 @@
         <v>729</v>
       </c>
       <c r="I264">
-        <v>3.3065999999999998E-2</v>
+        <v>1.1649E-2</v>
       </c>
       <c r="J264" t="s">
         <v>468</v>
@@ -13910,7 +13910,7 @@
         <v>730</v>
       </c>
       <c r="I265">
-        <v>7.2199999999999999E-3</v>
+        <v>8.3150000000000012E-3</v>
       </c>
       <c r="J265" t="s">
         <v>468</v>
@@ -13936,7 +13936,7 @@
         <v>731</v>
       </c>
       <c r="I266">
-        <v>7.0959999999999999E-3</v>
+        <v>6.5980000000000006E-3</v>
       </c>
       <c r="J266" t="s">
         <v>468</v>
@@ -13962,7 +13962,7 @@
         <v>732</v>
       </c>
       <c r="I267">
-        <v>4.4859000000000003E-2</v>
+        <v>4.7299999999999998E-3</v>
       </c>
       <c r="J267" t="s">
         <v>468</v>
@@ -13988,7 +13988,7 @@
         <v>733</v>
       </c>
       <c r="I268">
-        <v>4.1054E-2</v>
+        <v>2.9909999999999997E-3</v>
       </c>
       <c r="J268" t="s">
         <v>468</v>
@@ -14014,7 +14014,7 @@
         <v>734</v>
       </c>
       <c r="I269">
-        <v>5.8139999999999997E-3</v>
+        <v>1.5E-5</v>
       </c>
       <c r="J269" t="s">
         <v>468</v>
@@ -14040,7 +14040,7 @@
         <v>735</v>
       </c>
       <c r="I270">
-        <v>5.8139999999999997E-3</v>
+        <v>6.5000000000000008E-5</v>
       </c>
       <c r="J270" t="s">
         <v>468</v>
@@ -14066,7 +14066,7 @@
         <v>736</v>
       </c>
       <c r="I271">
-        <v>5.8320000000000004E-3</v>
+        <v>2.5900000000000001E-4</v>
       </c>
       <c r="J271" t="s">
         <v>468</v>
@@ -14092,7 +14092,7 @@
         <v>737</v>
       </c>
       <c r="I272">
-        <v>3.1900999999999999E-2</v>
+        <v>2.6237E-2</v>
       </c>
       <c r="J272" t="s">
         <v>468</v>
@@ -14118,7 +14118,7 @@
         <v>738</v>
       </c>
       <c r="I273">
-        <v>6.7720000000000002E-3</v>
+        <v>8.7519999999999994E-3</v>
       </c>
       <c r="J273" t="s">
         <v>468</v>
@@ -14144,7 +14144,7 @@
         <v>739</v>
       </c>
       <c r="I274">
-        <v>7.2849999999999998E-3</v>
+        <v>1.5481E-2</v>
       </c>
       <c r="J274" t="s">
         <v>468</v>
@@ -14170,7 +14170,7 @@
         <v>740</v>
       </c>
       <c r="I275">
-        <v>4.4523E-2</v>
+        <v>3.6199000000000002E-2</v>
       </c>
       <c r="J275" t="s">
         <v>468</v>
@@ -14196,7 +14196,7 @@
         <v>741</v>
       </c>
       <c r="I276">
-        <v>5.6599999999999999E-4</v>
+        <v>5.5189999999999996E-3</v>
       </c>
       <c r="J276" t="s">
         <v>468</v>
@@ -14222,7 +14222,7 @@
         <v>742</v>
       </c>
       <c r="I277">
-        <v>6.9899999999999997E-4</v>
+        <v>7.6140000000000001E-3</v>
       </c>
       <c r="J277" t="s">
         <v>468</v>
@@ -14248,7 +14248,7 @@
         <v>743</v>
       </c>
       <c r="I278">
-        <v>5.9800000000000001E-4</v>
+        <v>6.0049999999999999E-3</v>
       </c>
       <c r="J278" t="s">
         <v>468</v>
@@ -14274,7 +14274,7 @@
         <v>744</v>
       </c>
       <c r="I279">
-        <v>4.5600000000000003E-4</v>
+        <v>3.869E-3</v>
       </c>
       <c r="J279" t="s">
         <v>468</v>
@@ -14300,7 +14300,7 @@
         <v>745</v>
       </c>
       <c r="I280">
-        <v>4.0400000000000001E-4</v>
+        <v>3.1480000000000002E-3</v>
       </c>
       <c r="J280" t="s">
         <v>468</v>
@@ -14326,7 +14326,7 @@
         <v>746</v>
       </c>
       <c r="I281">
-        <v>3.57E-4</v>
+        <v>2.5140000000000002E-3</v>
       </c>
       <c r="J281" t="s">
         <v>468</v>
@@ -14352,7 +14352,7 @@
         <v>747</v>
       </c>
       <c r="I282">
-        <v>4.2900000000000002E-4</v>
+        <v>3.4970000000000001E-3</v>
       </c>
       <c r="J282" t="s">
         <v>468</v>
@@ -14378,7 +14378,7 @@
         <v>748</v>
       </c>
       <c r="I283">
-        <v>4.2900000000000002E-4</v>
+        <v>3.4970000000000001E-3</v>
       </c>
       <c r="J283" t="s">
         <v>468</v>
@@ -14404,7 +14404,7 @@
         <v>749</v>
       </c>
       <c r="I284">
-        <v>4.0400000000000001E-4</v>
+        <v>3.1480000000000002E-3</v>
       </c>
       <c r="J284" t="s">
         <v>468</v>
@@ -14430,7 +14430,7 @@
         <v>750</v>
       </c>
       <c r="I285">
-        <v>4.2900000000000002E-4</v>
+        <v>3.4970000000000001E-3</v>
       </c>
       <c r="J285" t="s">
         <v>468</v>
@@ -14456,7 +14456,7 @@
         <v>751</v>
       </c>
       <c r="I286">
-        <v>3.8000000000000002E-4</v>
+        <v>2.82E-3</v>
       </c>
       <c r="J286" t="s">
         <v>468</v>
@@ -14482,7 +14482,7 @@
         <v>752</v>
       </c>
       <c r="I287">
-        <v>4.5600000000000003E-4</v>
+        <v>3.869E-3</v>
       </c>
       <c r="J287" t="s">
         <v>468</v>
@@ -14508,7 +14508,7 @@
         <v>753</v>
       </c>
       <c r="I288">
-        <v>6.6399999999999999E-4</v>
+        <v>7.0530000000000002E-3</v>
       </c>
       <c r="J288" t="s">
         <v>468</v>
@@ -14534,7 +14534,7 @@
         <v>754</v>
       </c>
       <c r="I289">
-        <v>4.2900000000000002E-4</v>
+        <v>3.4970000000000001E-3</v>
       </c>
       <c r="J289" t="s">
         <v>468</v>
@@ -14560,7 +14560,7 @@
         <v>755</v>
       </c>
       <c r="I290">
-        <v>6.6399999999999999E-4</v>
+        <v>7.0530000000000002E-3</v>
       </c>
       <c r="J290" t="s">
         <v>468</v>
@@ -14586,7 +14586,7 @@
         <v>756</v>
       </c>
       <c r="I291">
-        <v>5.9800000000000001E-4</v>
+        <v>6.0049999999999999E-3</v>
       </c>
       <c r="J291" t="s">
         <v>468</v>
@@ -14612,7 +14612,7 @@
         <v>757</v>
       </c>
       <c r="I292">
-        <v>5.3600000000000002E-4</v>
+        <v>5.0569999999999999E-3</v>
       </c>
       <c r="J292" t="s">
         <v>468</v>
@@ -14638,7 +14638,7 @@
         <v>758</v>
       </c>
       <c r="I293">
-        <v>2.23E-4</v>
+        <v>9.5E-4</v>
       </c>
       <c r="J293" t="s">
         <v>468</v>
@@ -14664,7 +14664,7 @@
         <v>759</v>
       </c>
       <c r="I294">
-        <v>4.0400000000000001E-4</v>
+        <v>3.1480000000000002E-3</v>
       </c>
       <c r="J294" t="s">
         <v>468</v>
@@ -14690,7 +14690,7 @@
         <v>760</v>
       </c>
       <c r="I295">
-        <v>2.23E-4</v>
+        <v>9.5E-4</v>
       </c>
       <c r="J295" t="s">
         <v>468</v>
@@ -14716,7 +14716,7 @@
         <v>761</v>
       </c>
       <c r="I296">
-        <v>2.0699999999999999E-4</v>
+        <v>7.9299999999999998E-4</v>
       </c>
       <c r="J296" t="s">
         <v>468</v>
@@ -14742,7 +14742,7 @@
         <v>762</v>
       </c>
       <c r="I297">
-        <v>1.4999999999999999E-4</v>
+        <v>3.2699999999999998E-4</v>
       </c>
       <c r="J297" t="s">
         <v>468</v>
@@ -14768,7 +14768,7 @@
         <v>763</v>
       </c>
       <c r="I298">
-        <v>1.37E-4</v>
+        <v>2.4699999999999999E-4</v>
       </c>
       <c r="J298" t="s">
         <v>468</v>
@@ -14794,7 +14794,7 @@
         <v>764</v>
       </c>
       <c r="I299">
-        <v>1.06E-4</v>
+        <v>8.7000000000000001E-5</v>
       </c>
       <c r="J299" t="s">
         <v>468</v>
@@ -14820,7 +14820,7 @@
         <v>765</v>
       </c>
       <c r="I300">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J300" t="s">
         <v>468</v>
@@ -14846,7 +14846,7 @@
         <v>766</v>
       </c>
       <c r="I301">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J301" t="s">
         <v>468</v>
@@ -14872,7 +14872,7 @@
         <v>767</v>
       </c>
       <c r="I302">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J302" t="s">
         <v>468</v>
@@ -14898,7 +14898,7 @@
         <v>768</v>
       </c>
       <c r="I303">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J303" t="s">
         <v>468</v>
@@ -14924,7 +14924,7 @@
         <v>769</v>
       </c>
       <c r="I304">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J304" t="s">
         <v>468</v>
@@ -14950,7 +14950,7 @@
         <v>770</v>
       </c>
       <c r="I305">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J305" t="s">
         <v>468</v>
@@ -14976,7 +14976,7 @@
         <v>771</v>
       </c>
       <c r="I306">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J306" t="s">
         <v>468</v>
@@ -15002,7 +15002,7 @@
         <v>772</v>
       </c>
       <c r="I307">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J307" t="s">
         <v>468</v>
@@ -15028,7 +15028,7 @@
         <v>773</v>
       </c>
       <c r="I308">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J308" t="s">
         <v>468</v>
@@ -15054,7 +15054,7 @@
         <v>774</v>
       </c>
       <c r="I309">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J309" t="s">
         <v>468</v>
@@ -15080,7 +15080,7 @@
         <v>775</v>
       </c>
       <c r="I310">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J310" t="s">
         <v>468</v>
@@ -15106,7 +15106,7 @@
         <v>776</v>
       </c>
       <c r="I311">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J311" t="s">
         <v>468</v>
@@ -15132,7 +15132,7 @@
         <v>777</v>
       </c>
       <c r="I312">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J312" t="s">
         <v>468</v>
@@ -15158,7 +15158,7 @@
         <v>778</v>
       </c>
       <c r="I313">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J313" t="s">
         <v>468</v>
@@ -15184,7 +15184,7 @@
         <v>779</v>
       </c>
       <c r="I314">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J314" t="s">
         <v>468</v>
@@ -15210,7 +15210,7 @@
         <v>780</v>
       </c>
       <c r="I315">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J315" t="s">
         <v>468</v>
@@ -15236,7 +15236,7 @@
         <v>781</v>
       </c>
       <c r="I316">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J316" t="s">
         <v>468</v>
@@ -15262,7 +15262,7 @@
         <v>782</v>
       </c>
       <c r="I317">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J317" t="s">
         <v>468</v>
@@ -15288,7 +15288,7 @@
         <v>783</v>
       </c>
       <c r="I318">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J318" t="s">
         <v>468</v>
@@ -15314,7 +15314,7 @@
         <v>784</v>
       </c>
       <c r="I319">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J319" t="s">
         <v>468</v>
@@ -15340,7 +15340,7 @@
         <v>785</v>
       </c>
       <c r="I320">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J320" t="s">
         <v>468</v>
@@ -15366,7 +15366,7 @@
         <v>786</v>
       </c>
       <c r="I321">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J321" t="s">
         <v>468</v>
@@ -15392,7 +15392,7 @@
         <v>787</v>
       </c>
       <c r="I322">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J322" t="s">
         <v>468</v>
@@ -15418,7 +15418,7 @@
         <v>788</v>
       </c>
       <c r="I323">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J323" t="s">
         <v>468</v>
@@ -15444,7 +15444,7 @@
         <v>789</v>
       </c>
       <c r="I324">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J324" t="s">
         <v>468</v>
@@ -15470,7 +15470,7 @@
         <v>790</v>
       </c>
       <c r="I325">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J325" t="s">
         <v>468</v>
@@ -15496,7 +15496,7 @@
         <v>791</v>
       </c>
       <c r="I326">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J326" t="s">
         <v>468</v>
@@ -15522,7 +15522,7 @@
         <v>792</v>
       </c>
       <c r="I327">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J327" t="s">
         <v>468</v>
@@ -15548,7 +15548,7 @@
         <v>793</v>
       </c>
       <c r="I328">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J328" t="s">
         <v>468</v>
@@ -15574,7 +15574,7 @@
         <v>794</v>
       </c>
       <c r="I329">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J329" t="s">
         <v>468</v>
@@ -15600,7 +15600,7 @@
         <v>795</v>
       </c>
       <c r="I330">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J330" t="s">
         <v>468</v>
@@ -15626,7 +15626,7 @@
         <v>796</v>
       </c>
       <c r="I331">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J331" t="s">
         <v>468</v>
@@ -15652,7 +15652,7 @@
         <v>797</v>
       </c>
       <c r="I332">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J332" t="s">
         <v>468</v>
@@ -15678,7 +15678,7 @@
         <v>798</v>
       </c>
       <c r="I333">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J333" t="s">
         <v>468</v>
@@ -15704,7 +15704,7 @@
         <v>799</v>
       </c>
       <c r="I334">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J334" t="s">
         <v>468</v>
@@ -15730,7 +15730,7 @@
         <v>800</v>
       </c>
       <c r="I335">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J335" t="s">
         <v>468</v>
@@ -15756,7 +15756,7 @@
         <v>801</v>
       </c>
       <c r="I336">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J336" t="s">
         <v>468</v>
@@ -15782,7 +15782,7 @@
         <v>802</v>
       </c>
       <c r="I337">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J337" t="s">
         <v>468</v>
@@ -15808,7 +15808,7 @@
         <v>803</v>
       </c>
       <c r="I338">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J338" t="s">
         <v>468</v>
@@ -15834,7 +15834,7 @@
         <v>804</v>
       </c>
       <c r="I339">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J339" t="s">
         <v>468</v>
@@ -15860,7 +15860,7 @@
         <v>805</v>
       </c>
       <c r="I340">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J340" t="s">
         <v>468</v>
@@ -15886,7 +15886,7 @@
         <v>806</v>
       </c>
       <c r="I341">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J341" t="s">
         <v>468</v>
@@ -15912,7 +15912,7 @@
         <v>807</v>
       </c>
       <c r="I342">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J342" t="s">
         <v>468</v>
@@ -15938,7 +15938,7 @@
         <v>808</v>
       </c>
       <c r="I343">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J343" t="s">
         <v>468</v>
@@ -15964,7 +15964,7 @@
         <v>809</v>
       </c>
       <c r="I344">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J344" t="s">
         <v>468</v>
@@ -15990,7 +15990,7 @@
         <v>810</v>
       </c>
       <c r="I345">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J345" t="s">
         <v>468</v>
@@ -16016,7 +16016,7 @@
         <v>811</v>
       </c>
       <c r="I346">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J346" t="s">
         <v>468</v>
@@ -16042,7 +16042,7 @@
         <v>812</v>
       </c>
       <c r="I347">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J347" t="s">
         <v>468</v>
@@ -16068,7 +16068,7 @@
         <v>813</v>
       </c>
       <c r="I348">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J348" t="s">
         <v>468</v>
@@ -16094,7 +16094,7 @@
         <v>814</v>
       </c>
       <c r="I349">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J349" t="s">
         <v>468</v>
@@ -16120,7 +16120,7 @@
         <v>815</v>
       </c>
       <c r="I350">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J350" t="s">
         <v>468</v>
@@ -16146,7 +16146,7 @@
         <v>816</v>
       </c>
       <c r="I351">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J351" t="s">
         <v>468</v>
@@ -16172,7 +16172,7 @@
         <v>817</v>
       </c>
       <c r="I352">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J352" t="s">
         <v>468</v>
@@ -16198,7 +16198,7 @@
         <v>818</v>
       </c>
       <c r="I353">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J353" t="s">
         <v>468</v>
@@ -16224,7 +16224,7 @@
         <v>819</v>
       </c>
       <c r="I354">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J354" t="s">
         <v>468</v>
@@ -16250,7 +16250,7 @@
         <v>820</v>
       </c>
       <c r="I355">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J355" t="s">
         <v>468</v>
@@ -16276,7 +16276,7 @@
         <v>821</v>
       </c>
       <c r="I356">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J356" t="s">
         <v>468</v>
@@ -16302,7 +16302,7 @@
         <v>822</v>
       </c>
       <c r="I357">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J357" t="s">
         <v>468</v>
@@ -16328,7 +16328,7 @@
         <v>823</v>
       </c>
       <c r="I358">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J358" t="s">
         <v>468</v>
@@ -16354,7 +16354,7 @@
         <v>824</v>
       </c>
       <c r="I359">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J359" t="s">
         <v>468</v>
@@ -16380,7 +16380,7 @@
         <v>825</v>
       </c>
       <c r="I360">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J360" t="s">
         <v>468</v>
@@ -16406,7 +16406,7 @@
         <v>826</v>
       </c>
       <c r="I361">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J361" t="s">
         <v>468</v>
@@ -16432,7 +16432,7 @@
         <v>827</v>
       </c>
       <c r="I362">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J362" t="s">
         <v>468</v>
@@ -16458,7 +16458,7 @@
         <v>828</v>
       </c>
       <c r="I363">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J363" t="s">
         <v>468</v>
@@ -16484,7 +16484,7 @@
         <v>829</v>
       </c>
       <c r="I364">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J364" t="s">
         <v>468</v>
@@ -16510,7 +16510,7 @@
         <v>830</v>
       </c>
       <c r="I365">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J365" t="s">
         <v>468</v>
@@ -16536,7 +16536,7 @@
         <v>831</v>
       </c>
       <c r="I366">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J366" t="s">
         <v>468</v>
@@ -16562,7 +16562,7 @@
         <v>832</v>
       </c>
       <c r="I367">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J367" t="s">
         <v>468</v>
@@ -16588,7 +16588,7 @@
         <v>833</v>
       </c>
       <c r="I368">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J368" t="s">
         <v>468</v>
@@ -16614,7 +16614,7 @@
         <v>834</v>
       </c>
       <c r="I369">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J369" t="s">
         <v>468</v>
@@ -16640,7 +16640,7 @@
         <v>835</v>
       </c>
       <c r="I370">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J370" t="s">
         <v>468</v>
@@ -16666,7 +16666,7 @@
         <v>836</v>
       </c>
       <c r="I371">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J371" t="s">
         <v>468</v>
@@ -16692,7 +16692,7 @@
         <v>837</v>
       </c>
       <c r="I372">
-        <v>2.2547000000000001E-2</v>
+        <v>1.6184E-2</v>
       </c>
       <c r="J372" t="s">
         <v>468</v>
@@ -16718,7 +16718,7 @@
         <v>838</v>
       </c>
       <c r="I373">
-        <v>3.2139999999999998E-3</v>
+        <v>2.0209999999999998E-3</v>
       </c>
       <c r="J373" t="s">
         <v>468</v>
@@ -16744,7 +16744,7 @@
         <v>839</v>
       </c>
       <c r="I374">
-        <v>3.1359999999999999E-3</v>
+        <v>1.4419999999999999E-3</v>
       </c>
       <c r="J374" t="s">
         <v>468</v>
@@ -16770,7 +16770,7 @@
         <v>840</v>
       </c>
       <c r="I375">
-        <v>3.3869999999999998E-3</v>
+        <v>3.555E-3</v>
       </c>
       <c r="J375" t="s">
         <v>468</v>
@@ -16796,7 +16796,7 @@
         <v>841</v>
       </c>
       <c r="I376">
-        <v>2.7576E-2</v>
+        <v>0.14343800000000001</v>
       </c>
       <c r="J376" t="s">
         <v>468</v>
@@ -16822,7 +16822,7 @@
         <v>842</v>
       </c>
       <c r="I377">
-        <v>4.8960000000000002E-3</v>
+        <v>1.8242000000000001E-2</v>
       </c>
       <c r="J377" t="s">
         <v>468</v>
@@ -16848,7 +16848,7 @@
         <v>843</v>
       </c>
       <c r="I378">
-        <v>4.5079999999999999E-3</v>
+        <v>1.4555999999999999E-2</v>
       </c>
       <c r="J378" t="s">
         <v>468</v>
@@ -16874,7 +16874,7 @@
         <v>844</v>
       </c>
       <c r="I379">
-        <v>2.3018E-2</v>
+        <v>2.0195000000000001E-2</v>
       </c>
       <c r="J379" t="s">
         <v>468</v>
@@ -16900,7 +16900,7 @@
         <v>845</v>
       </c>
       <c r="I380">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J380" t="s">
         <v>468</v>
@@ -16926,7 +16926,7 @@
         <v>846</v>
       </c>
       <c r="I381">
-        <v>1.02E-4</v>
+        <v>1.2E-5</v>
       </c>
       <c r="J381" t="s">
         <v>468</v>
@@ -16952,7 +16952,7 @@
         <v>847</v>
       </c>
       <c r="I382">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J382" t="s">
         <v>468</v>
@@ -16978,7 +16978,7 @@
         <v>848</v>
       </c>
       <c r="I383">
-        <v>1.02E-4</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="J383" t="s">
         <v>468</v>
@@ -17004,7 +17004,7 @@
         <v>849</v>
       </c>
       <c r="I384">
-        <v>1.02E-4</v>
+        <v>2.8E-5</v>
       </c>
       <c r="J384" t="s">
         <v>468</v>
@@ -17030,7 +17030,7 @@
         <v>850</v>
       </c>
       <c r="I385">
-        <v>1.06E-4</v>
+        <v>8.7000000000000001E-5</v>
       </c>
       <c r="J385" t="s">
         <v>468</v>
@@ -17056,7 +17056,7 @@
         <v>851</v>
       </c>
       <c r="I386">
-        <v>1.26E-4</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="J386" t="s">
         <v>468</v>
@@ -17082,7 +17082,7 @@
         <v>852</v>
       </c>
       <c r="I387">
-        <v>1.16E-4</v>
+        <v>1.3200000000000001E-4</v>
       </c>
       <c r="J387" t="s">
         <v>468</v>
@@ -17108,7 +17108,7 @@
         <v>853</v>
       </c>
       <c r="I388">
-        <v>1.16E-4</v>
+        <v>1.3200000000000001E-4</v>
       </c>
       <c r="J388" t="s">
         <v>468</v>
@@ -17134,7 +17134,7 @@
         <v>854</v>
       </c>
       <c r="I389">
-        <v>1.37E-4</v>
+        <v>2.4699999999999999E-4</v>
       </c>
       <c r="J389" t="s">
         <v>468</v>
@@ -17160,7 +17160,7 @@
         <v>855</v>
       </c>
       <c r="I390">
-        <v>1.63E-4</v>
+        <v>4.2099999999999999E-4</v>
       </c>
       <c r="J390" t="s">
         <v>468</v>
@@ -17186,7 +17186,7 @@
         <v>856</v>
       </c>
       <c r="I391">
-        <v>1.4999999999999999E-4</v>
+        <v>3.2699999999999998E-4</v>
       </c>
       <c r="J391" t="s">
         <v>468</v>
@@ -17212,7 +17212,7 @@
         <v>857</v>
       </c>
       <c r="I392">
-        <v>1.37E-4</v>
+        <v>2.4699999999999999E-4</v>
       </c>
       <c r="J392" t="s">
         <v>468</v>
@@ -17238,7 +17238,7 @@
         <v>858</v>
       </c>
       <c r="I393">
-        <v>1.26E-4</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="J393" t="s">
         <v>468</v>
@@ -17264,7 +17264,7 @@
         <v>859</v>
       </c>
       <c r="I394">
-        <v>1.06E-4</v>
+        <v>8.7000000000000001E-5</v>
       </c>
       <c r="J394" t="s">
         <v>468</v>
@@ -17290,7 +17290,7 @@
         <v>860</v>
       </c>
       <c r="I395">
-        <v>1.06E-4</v>
+        <v>8.7000000000000001E-5</v>
       </c>
       <c r="J395" t="s">
         <v>468</v>
@@ -17316,7 +17316,7 @@
         <v>861</v>
       </c>
       <c r="I396">
-        <v>1.02E-4</v>
+        <v>2.8E-5</v>
       </c>
       <c r="J396" t="s">
         <v>468</v>
@@ -17342,7 +17342,7 @@
         <v>862</v>
       </c>
       <c r="I397">
-        <v>1.06E-4</v>
+        <v>8.7000000000000001E-5</v>
       </c>
       <c r="J397" t="s">
         <v>468</v>
@@ -17368,7 +17368,7 @@
         <v>863</v>
       </c>
       <c r="I398">
-        <v>1.06E-4</v>
+        <v>8.7000000000000001E-5</v>
       </c>
       <c r="J398" t="s">
         <v>468</v>
@@ -17394,7 +17394,7 @@
         <v>864</v>
       </c>
       <c r="I399">
-        <v>1.06E-4</v>
+        <v>8.7000000000000001E-5</v>
       </c>
       <c r="J399" t="s">
         <v>468</v>
@@ -17420,7 +17420,7 @@
         <v>865</v>
       </c>
       <c r="I400">
-        <v>1.16E-4</v>
+        <v>1.3200000000000001E-4</v>
       </c>
       <c r="J400" t="s">
         <v>468</v>
@@ -17446,7 +17446,7 @@
         <v>866</v>
       </c>
       <c r="I401">
-        <v>1.06E-4</v>
+        <v>8.7000000000000001E-5</v>
       </c>
       <c r="J401" t="s">
         <v>468</v>
@@ -17472,7 +17472,7 @@
         <v>867</v>
       </c>
       <c r="I402">
-        <v>1.02E-4</v>
+        <v>1.2E-5</v>
       </c>
       <c r="J402" t="s">
         <v>468</v>
@@ -17498,7 +17498,7 @@
         <v>868</v>
       </c>
       <c r="I403">
-        <v>1.02E-4</v>
+        <v>0</v>
       </c>
       <c r="J403" t="s">
         <v>468</v>
@@ -17524,7 +17524,7 @@
         <v>869</v>
       </c>
       <c r="I404">
-        <v>2.2414E-2</v>
+        <v>2.6099999999999999E-3</v>
       </c>
       <c r="J404" t="s">
         <v>468</v>
@@ -17550,7 +17550,7 @@
         <v>870</v>
       </c>
       <c r="I405">
-        <v>3.176E-3</v>
+        <v>1.85E-4</v>
       </c>
       <c r="J405" t="s">
         <v>468</v>
@@ -17576,7 +17576,7 @@
         <v>871</v>
       </c>
       <c r="I406">
-        <v>3.176E-3</v>
+        <v>1.44E-4</v>
       </c>
       <c r="J406" t="s">
         <v>468</v>
@@ -17602,7 +17602,7 @@
         <v>872</v>
       </c>
       <c r="I407">
-        <v>3.1619999999999999E-3</v>
+        <v>2.8E-5</v>
       </c>
       <c r="J407" t="s">
         <v>468</v>
@@ -17628,7 +17628,7 @@
         <v>873</v>
       </c>
       <c r="I408">
-        <v>1.5896E-2</v>
+        <v>7.2900000000000005E-4</v>
       </c>
       <c r="J408" t="s">
         <v>468</v>
@@ -17654,7 +17654,7 @@
         <v>874</v>
       </c>
       <c r="I409">
-        <v>3.3119999999999998E-3</v>
+        <v>1.0860000000000002E-3</v>
       </c>
       <c r="J409" t="s">
         <v>468</v>
@@ -17680,7 +17680,7 @@
         <v>875</v>
       </c>
       <c r="I410">
-        <v>3.2209999999999999E-3</v>
+        <v>4.2699999999999997E-4</v>
       </c>
       <c r="J410" t="s">
         <v>468</v>
@@ -17706,7 +17706,7 @@
         <v>876</v>
       </c>
       <c r="I411">
-        <v>2.2197999999999999E-2</v>
+        <v>9.6000000000000002E-4</v>
       </c>
       <c r="J411" t="s">
         <v>468</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875ADDB3-6C3E-4A72-AF74-44C51868D4D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D78B4B-D2C9-4FEF-9333-E1D711097456}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
